--- a/Release/Calendar_LambdaModule.xlsx
+++ b/Release/Calendar_LambdaModule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3931c8741440f/Projects/Datachord/Excel-Lambda-Calendar/Dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3931c8741440f/Projects/Datachord/Excel-Lambda-Calendar/release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113384" documentId="8_{EC863CD5-8208-420A-82DC-FA001A6233C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C646520D-1E85-428A-982D-0071F118EFC8}"/>
+  <xr:revisionPtr revIDLastSave="113628" documentId="8_{EC863CD5-8208-420A-82DC-FA001A6233C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85794946-673E-4FFC-9773-F0458ED9F12F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,8 +1335,8 @@
     <numFmt numFmtId="178" formatCode="0.000000000"/>
     <numFmt numFmtId="179" formatCode="[h]:mm:ss.000"/>
     <numFmt numFmtId="180" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="187" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="189" formatCode="h:mm:ss.000"/>
+    <numFmt numFmtId="181" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2083,6 +2083,11 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2098,11 +2103,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -2826,7 +2826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5137,8 +5139,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E58" s="269"/>
-      <c r="F58" s="268"/>
+      <c r="E58" s="264"/>
+      <c r="F58" s="263"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8978,11 +8980,11 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="268" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="263"/>
-      <c r="C16" s="263"/>
+      <c r="B16" s="268"/>
+      <c r="C16" s="268"/>
       <c r="D16" cm="1">
         <f t="array" ref="D16:O16">{90,89,92,91,92,92,92,92,91,92,92,90}</f>
         <v>90</v>
@@ -9022,36 +9024,36 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="264" t="s">
+      <c r="A18" s="269" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="266" t="s">
+      <c r="B18" s="271" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
-      <c r="G18" s="266" t="s">
+      <c r="C18" s="272"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="272"/>
+      <c r="G18" s="271" t="s">
         <v>234</v>
       </c>
-      <c r="H18" s="267"/>
-      <c r="I18" s="267"/>
-      <c r="J18" s="267"/>
-      <c r="L18" s="266" t="s">
+      <c r="H18" s="272"/>
+      <c r="I18" s="272"/>
+      <c r="J18" s="272"/>
+      <c r="L18" s="271" t="s">
         <v>218</v>
       </c>
-      <c r="M18" s="267"/>
-      <c r="N18" s="267"/>
-      <c r="O18" s="267"/>
-      <c r="Q18" s="266" t="s">
+      <c r="M18" s="272"/>
+      <c r="N18" s="272"/>
+      <c r="O18" s="272"/>
+      <c r="Q18" s="271" t="s">
         <v>192</v>
       </c>
-      <c r="R18" s="267"/>
-      <c r="S18" s="267"/>
-      <c r="T18" s="267"/>
+      <c r="R18" s="272"/>
+      <c r="S18" s="272"/>
+      <c r="T18" s="272"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="265"/>
+      <c r="A19" s="270"/>
       <c r="B19" s="77">
         <v>1</v>
       </c>
@@ -11227,7 +11229,7 @@
       <c r="H66" s="116">
         <v>0.54289078991860151</v>
       </c>
-      <c r="J66" s="272"/>
+      <c r="J66" s="267"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="55">
@@ -11251,7 +11253,7 @@
       <c r="H67" s="118">
         <v>0</v>
       </c>
-      <c r="L67" s="270"/>
+      <c r="L67" s="265"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="56">
@@ -11279,7 +11281,7 @@
       <c r="H68" s="119">
         <v>0</v>
       </c>
-      <c r="L68" s="271"/>
+      <c r="L68" s="266"/>
     </row>
     <row r="71" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -20722,7 +20724,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEMAQQBMAEUATgBEAEEAUgAiACwAIgB0AGUAeAB0ACIAOgAiAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABDAEEATABFAE4ARABBAFIAIAB2ADEALgAxACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABNAG8AZAB1AGwAZQAgAGYAbwByACAAdwBvAHIAawBpAG4AZwAgAHcAaQB0AGgAIABkAGEAdABlAHMAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYQBuAGQAIABKAHUAbABpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgBzACAAbwB1AHQAcwBpAGQAZQAgAHQAaABlACAAcgBhAG4AZwBlACAAbwBmACAAdABoAGUAIABFAHgAYwBlAGwAIAAgACAAIAAgACMAXABuACMAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABNAG8AZAB1AGwAZQAgAEQAZQBwAGUAbgBkAGUAbgBjAGkAZQBzADoAIABOAG8AbgBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABMAE8ARwBJAEMAQQBMACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAG4AYwBsAHUAZABlAHMAIABhACAAbABlAGEAcAAgAGQAYQB5ACAAaQBuACAAdABoAGUAIABnAGkAdgBlAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAAZwBpAHYAZQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAHQAaQBtAGUAIABpAHMAIAB2AGEAbABpAGQAIABpAG4AIAB0AGgAZQAgADIANAAgAGgAbwB1AHIAIAB0AGkAbQBlAGsAZQBlAHAAaQBuAGcAIABzAHkAcwB0AGUAbQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAEEATABFAE4ARABBAFIAIABEAEEAVABFAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABZAEUAQQBSAF8AQwBPAE0ATQBPAE4AXwBFAFIAQQAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHkAZQBhAHIAIAB2AGEAbAB1AGUAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIAB0AGgAZQAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBTAF8ASQBOAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAG4AdQBtAGIAZQByACAAbwBmACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAZwBpAHYAZQBuACAAeQBlAGEAcgAgAG8AZgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBTAF8ASQBOAF8ATQBPAE4AVABIACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAG4AdQBtAGIAZQByACAAbwBmACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAZwBpAHYAZQBuACAAbQBvAG4AdABoACAAYQBuAGQAIAB5AGUAYQByACAAbwBmACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACMAXABuACMAIABKAFUATABJAEEATgBfAEQAQQBZAF8ATgBVAE0AQgBFAFIAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACMAXABuACMAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZABhAHQAZQAgAGYAcgBvAG0AIAB0AGgAZQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACMAXABuACMAIABKAEQATgBfAFQATwBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAAbwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgAgAGEAbgBkACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAeQBlAGEAcgAgAGYAcgBvAG0AIAB0AGgAZQAgAGcAaQB2AGUAbgAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABPAFIARABJAE4AQQBMAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABHAFIARQBHAE8AUgBJAEEATgBfAFQATwBfAEoAVQBMAEkAQQBOACAAIAAgACAAVAByAGEAbgBzAGwAYQB0AGUAcwAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAdABvACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABKAFUATABJAEEATgBfAFQATwBfAEcAUgBFAEcATwBSAEkAQQBOACAAIAAgACAAVAByAGEAbgBzAGwAYQB0AGUAcwAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAdABvACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgB1AG0AYgBlAHIAIABvAGYAIABkAGEAeQBzACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAaQBzACAAYQBoAGUAYQBkACAAbwBmACAAdABoAGUAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAbgAgAGkAbgB0AGUAZwBlAHIAIABmAG8AcgAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIALgAgACAAIAAgACAAIAAgACMAXABuACMAIABDAE8ATgBWAEUAUgBUAF8AVwBFAEUASwBEAEEAWQBfAE4AVQBNAEIARQBSACAAUgBlAHQAdQByAG4AcwAgAGEAbgAgAGkAbgB0AGUAZwBlAHIAIABmAG8AcgAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAHIAbwBtACAAdABoAGUAIAB0AHIAYQBkAGkAdABvAG4AYQBsACAAbgB1AG0AYgBlAHIAaQBuAGcAIABzAGMAaABlAG0AZQAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABvACAAdABoAGUAIABJAFMATwAgAGQAZQBmAGkAbgBpAHQAaQBvAG4ALAAgAG8AcgAgAHYAaQBjAGUAIAB2AGUAcgBzAGEALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAEQAQQBZAF8ATwBGAF8ATQBPAE4AVABIACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsALAAgAGEAbgBkACAAYQAgAHIAZQBsAGEAdABpAHYAZQAgAHcAZQBlAGsAIABmAG8AcgAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABoAGUAIABtAG8AbgB0AGgAIABhAG4AZAAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAFMAXwBJAE4AXwBZAEUAQQBSACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBvAHUAbgB0ACAAbwBmACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawBzACAAaQBuACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIAB3AGUAZQBrACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABKAEQATgBfAFQATwBfAFcARQBFAEsAXwBEAEEAVABFACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACwAIABkAGEAeQAgAG8AZgAgAHQAaABlACAAdwBlAGUAawAsACAAYQBuAGQAIAB3AGUAZQBrAHMAIABpAG4AIAB0AGgAZQAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAeQBlAGEAcgAgAGYAbwByACAAdABoAGUAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABpAG4AIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABRAFUAQQBSAFQARQBSAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABEAEEAWQBTAF8ASQBOAF8AUQBVAEEAUgBUAEUAUgAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBvAHUAbgB0ACAAbwBmACAAZABhAHkAcwAgAGkAbgAgAGEAIABxAHUAYQByAHQAZQByACAAbwBmACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABKAEQATgBfAFQATwBfAFEAVQBBAFIAVABFAFIAXwBEAEEAVABFACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAAcQB1AGEAcgB0AGUAcgAsACAAZABhAHkAIABvAGYAIABxAHUAYQByAHQAZQByACAAYQBuAGQAIABkAGEAeQBzACAAaQBuACAAdABoAGUAIABxAHUAYQByAHQAZQByACAAZgBvAHIAIAB0AGgAZQAgAGcAaQB2AGUAbgAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABRAFUAQQBSAFQARQBSAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABxAHUAYQByAHQAZQByACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAVABFACAAQQBOAEQAIABUAEkATQBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABKAEQATgBfAFUAVABDAF8AVABPAF8ASgBEAEEAVABFACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAZwBpAHYAZQBuACAAYQBuACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABpAG4AIABVAFQAQwAuACAAIAAgACAAIAAgACMAXABuACMAIABKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAZwBpAHYAZQBuACAAYQAgAGwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdwBpAHQAaAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAFUAVABDACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABpAG4AIABVAFQAQwAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgAgACAAIAAgACMAXABuACMAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbABvAGMAYQBsACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABvAGYAIABhACAAZwBpAHYAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AIAAgACAAIAAgACMAXABuACMAIABKAFUATABJAEEATgBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAEEATABFAE4ARABBAFIAXwBGAFIATwBNAF8ASgBEAEEAVABFACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAYQBuAGQAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABUAEkATQBFAF8ARABFAEMASQBNAEEATABfAFQATwBfAEgATQBTACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGEAdABpAG8AbgAgAG8AZgAgAGEAIABkAGUAYwBpAG0AYQBsACAAdABpAG0AZQAgAHYAYQBsAHUAZQAuACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABIAE0AUwBfAFQATwBfAFQASQBNAEUAXwBEAEUAQwBJAE0AQQBMACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIABkAGUAYwBpAG0AYQBsACAAdABpAG0AZQAgAGEAcwAgAGEAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkAIABmAHIAbwBtACAAYQAgADIANAAgAGgAbwB1AHIAIAB0AGkAbQBlAGsAZQBlAHAAaQBuAGcAIAB2AGEAbAB1AGUAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwBmACAAdABpAG0AZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuAFwAbgAjACAAQQBEAEQAXwBUAEkATQBFAFMAUABBAE4AIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAgAG8AZgAgAHQAaABlACAAYQBkAGQAaQB0AGkAbwBuACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIABhACAAdABpAG0AZQBzAHAAYQBuACAAYwBvAG0AcABsAGkAYwBhAHQAaQBvAG4ALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUgBFAFMATwBMAFYARQBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGYAcgBvAG0AIABwAHIAbwB2AGkAZABlAGQAIABkAGUAYwBpAG0AYQBsACAAeQBlAGEAcgAsACAAbQBvAG4AdABoAHMALAAgAGQAYQB5AHMAIABhAG4AZAAgAHQAaQBtAGUALgAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAARABFAEwAVABBAF8ASQBOAFQARQBSAFYAQQBMACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAdQBuAGkAdABzAC4AIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ASABPAFUAUgBTACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABoAG8AdQByAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ATQBJAE4AVQBUAEUAUwAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABtAGkAbgB1AHQAZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AUwBFAEMATwBOAEQAUwAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABzAGUAYwBvAG4AZABzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ASABPAFUAUgBfAE0ASQBOAF8AUwBFAEMAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABoAG8AdQByAHMALAAgAG0AaQBuAHUAdABlAHMAIABhAG4AZAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAZQBjAG8AbgBkAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ARABBAFkAUwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABkAGEAeQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AVwBFAEUASwBTACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB3AGUAZQBrAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ATQBPAE4AVABIAFMAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABtAG8AbgB0AGgAcwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBTACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABxAHUAYQByAHQAZQByAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AWQBFAEEAUgBTACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB5AGUAYQByAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AVwBFAEUASwBfAEQAQQBZAFMAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB3AGUAZQBrAHMAIABhAG4AZAAgAGQAYQB5AHMALgAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB5AGUAYQByAHMALAAgAHcAZQBlAGsAcwAgAGEAbgBkACAAZABhAHkAcwAuACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ATQBPAE4AVABIAF8ARABBAFkAUwAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABtAG8AbgB0AGgAcwAgAGEAbgBkACAAZABhAHkAcwAuACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABxAHUAYQByAHQAZQByAHMAIABhAG4AZAAgAGQAYQB5AHMALgAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAUwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBEAEEAWQBTACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIABkAGEAeQBzACAAcwBwAGEAbgBuAGUAZAAgAGIAeQAgAHQAdwBvACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBXAEUARQBLAFMAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIAB3AGUAZQBrAHMAIABzAHAAYQBuAG4AZQBkACAAYgB5ACAAdAB3AG8AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBNAE8ATgBUAEgAUwAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIABtAG8AbgB0AGgAcwAgAHMAcABhAG4AbgBlAGQAIABiAHkAIAB0AHcAbwAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBRAFUAQQBSAFQARQBSAFMAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIABxAHUAYQByAHQAZQByAHMAIABzAHAAYQBuAG4AZQBkACAAYgB5ACAAdAB3AG8AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBZAEUAQQBSAFMAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIAB5AGUAYQByAHMAIABzAHAAYQBuAG4AZQBkACAAYgB5ACAAdAB3AG8AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBJAE4ARwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFAAYQByAHMAZQBzACAAYQBuACAASQBTAE8AIABmAG8AcgBtAGEAdAB0AGUAZAAgAGQAYQB0AGUAIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAsACAAZABhAHkALAAgAHQAaQBtAGUAIABvAGYAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8AVwBFAEUASwBEAEEAWQAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHQAZQB4AHQAIAB3AGUAZQBrAGQAYQB5ACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AYQBtAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAbQBvAG4AdABoACAAbwBmACAAeQBlAGEAcgAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAbQBvAG4AdABoACAAbgBhAG0AZQAuACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8AWQBFAEEAUgAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAeQBlAGEAcgAgAHIAZQBsAGEAdABpAHYAZQAgAHQAbwAgAHQAaABlACAAYwBvAG0AbQBvAG4AIABlAHIAYQAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAaQB0AGUAcgBhAHIAeQAgAHkAZQBhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8ARABBAFQARQAgACAAIAAgAFAAYQByAHMAZQBzACAAYQAgAGwAaQB0AGUAcgBhAHIAeQAgAGQAYQB0AGUAIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAsACAAZABhAHkAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAYQB5AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8AVQBTAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAIAAgAFAAYQByAHMAZQBzACAAYQAgAFUAUwAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACwAIABkAGEAeQAgAGEAbgBkACAAdABpAG0AZQAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AZgAgAGQAYQB5AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ATQBJAEwAXwBEAFQARwAgACAAIAAgACAAIAAgACAAIAAgAFAAYQByAHMAZQBzACAAYQAgAGQAYQB0AGUALQB0AGkAbQBlACAAZwByAG8AdQBwACAAaQBuACAAdABoAGUAIABmAG8AcgBtAGEAdAAgAHUAcwBlAGQAIABiAHkAIABVAFMAIABNAGkAbABpAHQAYQByAHkAIABtAGUAcwBzAGEAZwBlACAAdAByAGEAZgBmAGkAYwAsACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACwAIABkAGEAeQAsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAVABFAFgAVAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAAVwBFAEUASwBEAEEAWQBfAE4AQQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABuAGEAbQBlACAAbwBmACAAYQBuACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGEAcwAgAHQAZQB4AHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAATQBPAE4AVABIAF8ATgBBAE0ARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABuAGEAbQBlACAAbwBmACAAbQBvAG4AdABoAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBJAFMATwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAeQBlAGEAcgAgAGYAbwByAG0AYQB0AHQAZQBkACAAaQBuACAAbABpAHQAZQByAGEAcgB5ACAAcwB0AHkAbABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBEAEEAVABFACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGYAbwByAG0AYQB0AHQAZQBkACAAaQBuACAAbABpAHQAZQByAGEAcgB5ACAAcwB0AHkAbABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBVAFMAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGYAbwByAG0AYQB0AHQAZQBkACAAaQBuACAAdABoAGUAIABVAFMAIABzAHQAeQBsAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBNAEkATABfAEQAVABHACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAtAHQAaQBtAGUAIABnAHIAbwB1AHAAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGkAbgAgAFUAUwAgAE0AaQBsAGkAdABhAHIAeQAgAG0AZQBzAHMAYQBnAGUAIAB0AHIAYQBmAGYAaQBjACAAcwB0AHkAbABlAC4AIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAQwBvAG4AdgBlAHIAcwBpAG8AbgBzACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAASQBTAE8ARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAgAGYAbwByACAAYQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAE8ARABBAFQARQBfAFQATwBfAEoARABBAFQARQAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAgAGYAbwByACAAYQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAE8ARABBAFQARQBfAFQATwBfAEUARABBAFQARQAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAYQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASgBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABJAFMATwAgAGYAbwByAG0AYQB0ACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABhACAAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBJAFMATwBEAEEAVABFACAAIAAgAFIAZQB0AHUAcgBuAHMAIABJAFMATwAgAGYAbwByAG0AYQB0ACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AdQBtAGIAZQByACAAYQBuAGQAIABsAG8AYwBhAGwAIAB0AGkAbQBlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABJAFMATwAgAGYAbwByAG0AYQB0ACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuACAAIAAgACAAIAAjAFwAbgAjACAARQBEAEEAVABFAF8AVABPAF8ASgBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBFAEQAQQBUAEUAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAGwAbwBjAGEAbAAgAHQAaQBtAGUALgAgACAAIAAjAFwAbgAjACAASgBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAVQBTAEQAQQBUAEUAXwBUAE8AXwBFAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABVAFMAIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBEAEEAVABFAF8AVABPAF8AVQBTAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAVQBTACAAZgBvAHIAbQBhAHQAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAZgBvAHIAIAB0AGgAZQAgAHAAcgBvAHYAaQBkAGUAZAAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAKgAvAFwAbgBcAG4AXABuAFwAbgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAATABPAEcASQBDAEEATAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAKgAvAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAG4AYwBsAHUAZABlAHMAIABhACAAbABlAGEAcAAgAGQAYQB5ACAAaQBuACAAdABoAGUAIABnAGkAdgBlAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABuAHUAbABsACAAaQBmACAAZQBtAHAAdAB5AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADQAMAAwACkAIAA9ACAAMAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADEAMAAwACkAIAA9ACAAMAAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAE0ATwBEACgAXwB5AGUAYQByAEMARQAsACAANAApACAAPQAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADQAKQAgAD0AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAXABuAFwAbgBUAGUAcwB0AHMAIABpAGYAIABhACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABnAGkAdgBlAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoACAAbwBmACAAeQBlAGEAcgBcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAxAC4ALgAzADIAKQAgAHwAIABEAGEAeQAgAG8AZgAgAG0AbwBuAHQAaABcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALAAgAC8ALwAgAGMAYQBuAG4AbwB0ACAAbwBtAG0AaQB0ACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACAAbwByACAAZABhAHkAXABuACAAIAAgACAAIAAgACAAIABJAEYAKAAoAE0ATwBEACgAWQBlAGEAcgBDAEUALAAgADEAKQAgAD4AIAAwACkAIAArACAAKABNAE8ARAAoAE0AbwBuAHQAaAAsACAAMQApACAAPgAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALAAgAC8ALwAgAHkAZQBhAHIAIABhAG4AZAAgAG0AbwBuAHQAaAAgAGMAYQBuAG4AbwB0ACAAYgBlACAAZgByAGEAYwB0AGkAbwBuAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAE4AVAAoAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGQAYQB5ACAAPAAgADEALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzAEkAbgBNAG8AbgB0AGgALAAgAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAKABNAG8AbgB0AGgALAAgAFkAZQBhAHIAQwBFACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMARQBSAFIATwBSACgAXwBkAGEAeQBzAEkAbgBNAG8AbgB0AGgAKQAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAgADwAPQAgAF8AZABhAHkAcwBJAG4ATQBvAG4AdABoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB0AGkAbQBlACAAaQBzACAAdgBhAGwAaQBkACAAaQBuACAAdABoAGUAIAAyADQAIABoAG8AdQByACAAdABpAG0AZQBrAGUAZQBwAGkAbgBnACAAcwB5AHMAdABlAG0ALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBIAG8AdQByACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAyADQAKQAgAHwAIABGAHIAYQBjAHQAaQBvAG4AYQBsACAAYQBsAGwAbwB3AGUAZAAgAGkAZgAgAG0AaQBuAHUAdABlACAAYQBuAGQAIABzAGUAYwBvAG4AZAAgAGUAbQBwAHQAeQAuAFwAbgBNAGkAbgB1AHQAZQAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgA2ADAAKQAgAHwAIABGAHIAYQBjAHQAaQBvAG4AYQBsACAAYQBsAGwAbwB3AGUAZAAgAGkAZgAgAHMAZQBjAG8AbgBkACAAZQBtAHAAdAB5AC4AXABuAFMAZQBjAG8AbgBkACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADYAMAApACAAfAAgAEYAcgBhAGMAdABpAG8AbgBhAGwAIABhAGwAbABvAHcAZQBkAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIABJAFMATgBVAE0AQgBFAFIAKABIAG8AdQByACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABNAE8ARAAoAEgAbwB1AHIALAAgADEAKQAgAD4AIAAwACkAIAArACAAKABNAE8ARAAoAE0AaQBuAHUAdABlACwAIAAxACkAIAA+ACAAMAApACwAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEgAbwB1AHIAIAA8ACAAMAApACAAKwAgACgASABvAHUAcgAgAD4AIAAyADMAKQAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABNAGkAbgB1AHQAZQAgADwAIAAwACkAIAArACAAKABNAGkAbgB1AHQAZQAgAD4AIAA1ADkAKQAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABTAGUAYwBvAG4AZAAgADwAIAAwACkAIAArACAAKABTAGUAYwBvAG4AZAAgAD4APQAgADYAMAApACwAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABUAFIAVQBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAFMATgBVAE0AQgBFAFIAKABIAG8AdQByACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQAgACoAIAAoAFMAZQBjAG8AbgBkACAAPQAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgASABvAHUAcgAsACAAMQApACAAPgAgADAALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgASABvAHUAcgAgADwAIAAwACkAIAArACAAKABIAG8AdQByACAAPgAgADIAMwApACwAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE0AaQBuAHUAdABlACAAPAAgADAAKQAgACsAIAAoAE0AaQBuAHUAdABlACAAPgA9ACAANgAwACkALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAFQAUgBVAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQAgACoAIAAoAE0AaQBuAHUAdABlACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAFMAZQBjAG8AbgBkACAAPQAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgASABvAHUAcgAgAD4APQAgADAAKQAgACoAIAAoAEgAbwB1AHIAIAA8ACAAMgA0ACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACgASABvAHUAcgAgAD0AIABcACIAXAAiACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABNAGkAbgB1AHQAZQAsACAAMQApACAAPgAgADAALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATQBpAG4AdQB0AGUAIAA8ACAAMAApACAAKwAgACgATQBpAG4AdQB0AGUAIAA+ACAANQA5ACkALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAUwBlAGMAbwBuAGQAIAA8ACAAMAApACAAKwAgACgAUwBlAGMAbwBuAGQAIAA+AD0AIAA2ADAAKQAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAVABSAFUARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAKABIAG8AdQByACAAPQAgAFwAIgBcACIAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACAAKgAgACgAUwBlAGMAbwBuAGQAIAA9ACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABNAGkAbgB1AHQAZQAgAD4APQAgADAAKQAgACoAIAAoAE0AaQBuAHUAdABlACAAPAAgADYAMAApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAoAEgAbwB1AHIAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATQBpAG4AdQB0AGUAIAA9ACAAXAAiAFwAIgApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAFMAZQBjAG8AbgBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAFMAZQBjAG8AbgBkACAAPgA9ACAAMAApACAAKgAgACgAUwBlAGMAbwBuAGQAIAA8ACAANgAwACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQBcAG4AIAAgACAAIAApAFwAbgApADsAIAAgACAAIAAgACAAIAAgAFwAbgBcAG4AXABuAFwAbgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAAQwBBAEwARQBOAEQAQQBSACAARABBAFQARQBTACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAKgAvAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkARQBBAFIAXwBDAE8ATQBNAE8ATgBfAEUAUgBBAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHkAZQBhAHIAIAB2AGEAbAB1AGUAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIAB0AGgAZQAgAEMAbwBtAG0AbwBuACAARQByAGEALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxACAAQwBFACAAPQAgADEALAAgADEAIABCAEMARQAgAD0AIAAwACwAIAAyACAAQgBDAEUAIAA9ACAALQAxAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuAF0AIAB8ACAAUABvAHMAaQB0AGkAdgBlACAAbgBvAG4ALQB6AGUAcgBvACAAaQBuAHQAZQBnAGUAcgAuAFwAbgBCAEMARQAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgAHwAIABCAGUAZgBvAHIAZQAgAEMAbwBtAG0AbwBuACAARQByAGEALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AWQBFAEEAUgBfAEMATwBNAE0ATwBOAF8ARQBSAEEAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByACwAIABCAEMARQAsAFwAbgAgACAAIAAgAEkARgAoAFkAZQBhAHIAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAEkATgBUACgAWQBlAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwB5AGUAYQByACAAPAAgADEALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4AKABCAEMARQApACwAIAAxACAALQAgAF8AeQBlAGEAcgAsACAAXwB5AGUAYQByACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAFMAXwBJAE4AXwBZAEUAQQBSAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAG4AdQBtAGIAZQByACAAbwBmACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAZwBpAHYAZQBuACAAeQBlAGEAcgAgAG8AZgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMwA2ADUALAAzADYANgBdAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEEAWQBTAF8ASQBOAF8AWQBFAEEAUgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA2ADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYANQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAbgB1AG0AYgBlAHIAIABvAGYAIABkAGEAeQBzACAAaQBuACAAdABoAGUAIABnAGkAdgBlAG4AIABtAG8AbgB0AGgAIABhAG4AZAAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADMAMQBdAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBbAFkAZQBhAHIAQwBFAF0AIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAIAA9ACAATABBAE0AQgBEAEEAKABNAG8AbgB0AGgALAAgAFsAWQBlAGEAcgBDAEUAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAE0AbwBuAHQAaAA9AFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBOAFQAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAgADwAIAAxACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAgAD4AIAAxADIALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABGAGUAYgByAHUAYQByAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAYQBwAEQAYQB5ACwAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA4ACAAKwAgAF8AbABlAGEAcABEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAEoAYQBuACwAIABNAGEAcgAsACAAQQBwAHIALAAgAE0AYQB5ACwAIABKAHUAbgAsACAASgB1AGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAgADwAPQAgADcALAAgADMAMAAgACsAIABNAE8ARAAoAF8AbQBvAG4AdABoACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAQQB1AGcALAAgAFMAZQBwACwAIABPAGMAdAAsACAATgBvAHYALAAgAEQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAMwAxACAALQAgAE0ATwBEACgAXwBtAG8AbgB0AGgALAAgADIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAG8AZgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4ATgBvAHQAZQAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBzACAAYQBuACAAaQBuAHQAZQBnAGUAcgAgAHQAeQBwAGUAIABhAG4AZAAgAGkAcwAgAGEAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG4AdQBtAGIAZQByACAAcgBlAGYAZQByAGUAbgBjAGUAZAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgB5ACAAMQAsAFwAbgA0ADcAMQAzACAAQgBDACAAaQBuACAAdABoAGUAIABwAHIAbwBsAGUAcAB0AGkAYwAgAEoAdQBsAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIABJAHQAIABkAG8AZQBzACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAYQBuAHkAIAB2AGEAbAB1AGUAIABmAG8AcgAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4ATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADEALgAuADMAMgApACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AbwBuAHQAaAAgAD0AIABcACIAXAAiACkAIAAqACAAKABEAGEAeQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAEkATgBUACgARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZwByAGUAZwBvAHIAaQBhAG4ALAAgAE4AKABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBZAEUAQQBSADQAOAAwADEAQgBDAEUALAAgAC0ANAA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ARwA0ADgAMAAxAEIAQwBFAF8ASgBEACwAIAAtADMAMgAwADQANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ASgA0ADgAMAAxAEIAQwBFAF8ASgBEACwAIAAtADMAMgAwADgAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ARABhAHkAcwBJAG4ANQBNAG8AbgB0AGgAcwBGAHIAbwBtAE0AYQByAGMAaAAsACAAMQA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEALAAgAEkATgBUACgAKAAxADQAIAAtACAATQBvAG4AdABoACkAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkALAAgACgAWQBlAGEAcgBDAEUAIAAtACAAXwBZAEUAQQBSADQAOAAwADEAQgBDAEUAIAAtACAAXwBhACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0ALAAgACgATQBvAG4AdABoACAAKwAgADEAMgAgACoAIABfAGEAIAAtACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4ACwAIAAzADYANQAgACoAIABfAHkAIAArACAASQBOAFQAKABfAHkAIAAvACAANAApACAAKwAgAEkATgBUACgAKABfAEQAYQB5AHMASQBuADUATQBvAG4AdABoAHMARgByAG8AbQBNAGEAcgBjAGgAIAAqACAAXwBtACAAKwAgADIAKQAgAC8AIAA1ACkAIAArACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBnAHIAZQBnAG8AcgBpAGEAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4ACAAKwAgAF8ARwA0ADgAMAAxAEIAQwBFAF8ASgBEACAALQAgAEkATgBUACgAXwB5ACAALwAgADEAMAAwACkAIAArACAASQBOAFQAKABfAHkAIAAvACAANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4ACAAKwAgAF8ASgA0ADgAMAAxAEIAQwBFAF8ASgBEAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABkAGEAdABlACAAZgByAG8AbQAgAHQAaABlACAAZwBpAHYAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAB8ACAARABhAHkAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAZgBvAHIAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgASgBEAE4ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKABKAEQATgAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQATgApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgAsACAASQBOAFQAKABKAEQATgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBnAHIAZQBnAG8AcgBpAGEAbgAsACAATgAoAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFkARQBBAFIANAA4ADAAMQBCAEMARQAsACAALQA0ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBEAGEAeQBzAEkAbgA0AFkAZQBhAHIALAAgADEANAA2ADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEQAYQB5AHMASQBuAFkAZQBhAHIALAAgADMANgA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBNAG8AbgB0AGgAQwBvAHIAcgBlAGMAdABpAG8AbgBEAGEAeQBzACwAIAAzADAAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ARABhAHkAcwBJAG4ANABNAG8AbgB0AGgAcwAsACAAMQAyADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEQAYQB5AHMASQBuADUATQBvAG4AdABoAHMARgByAG8AbQBNAGEAcgBjAGgALAAgADEANQAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBnAHIAZQBnAG8AcgBpAGEAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBHADQAOAAwADEAQgBDAEUAXwBKAEQAMAAsACAALQAzADIAMAA0ADUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBHAHIAZQBnAEQAYQB5AHMASQBuADQAMAAwAFkAZQBhAHIALAAgADEANAA2ADAAOQA3ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ARwByAGUAZwBEAGEAeQBzAEkAbgAxADAAMABZAGUAYQByACwAIAAzADYANQAyADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzADAALAAgAF8AagBkAG4AIAAtACAAXwBHADQAOAAwADEAQgBDAEUAXwBKAEQAMAAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAZABDAGUAbgB0ACwAIABJAE4AVAAoAF8AZABhAHkAcwAwACAALwAgAF8ARwByAGUAZwBEAGEAeQBzAEkAbgA0ADAAMABZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzADEALAAgAF8AZABhAHkAcwAwACAALQAgAF8AcQB1AGEAZABDAGUAbgB0ACAAKgAgAF8ARwByAGUAZwBEAGEAeQBzAEkAbgA0ADAAMABZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAG0AQwBlAG4AdAAsACAASQBOAFQAKAAoAEkATgBUACgAXwBkAGEAeQBzADEAIAAvACAAXwBHAHIAZQBnAEQAYQB5AHMASQBuADEAMAAwAFkAZQBhAHIAKQAgACsAIAAxACkAIAAqACAAMAAuADcANQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAyACwAIABfAGQAYQB5AHMAMQAgAC0AIABfAHIAZQBtAEMAZQBuAHQAIAAqACAAXwBHAHIAZQBnAEQAYQB5AHMASQBuADEAMAAwAFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBxAHUAYQBkAFkAcgAsACAASQBOAFQAKABfAGQAYQB5AHMAMgAgAC8AIABfAEQAYQB5AHMASQBuADQAWQBlAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAzACwAIABfAGQAYQB5AHMAMgAgAC0AIABfAHEAdQBhAGQAWQByACAAKgAgAF8ARABhAHkAcwBJAG4ANABZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAG0AWQByACwAIABJAE4AVAAoACgASQBOAFQAKABfAGQAYQB5AHMAMwAgAC8AIABfAEQAYQB5AHMASQBuAFkAZQBhAHIAKQAgACsAIAAxACkAIAAqACAAMAAuADcANQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwA0ACwAIABfAGQAYQB5AHMAMwAgAC0AIABfAHIAZQBtAFkAcgAgACoAIABfAEQAYQB5AHMASQBuAFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5ACwAIABfAHEAdQBhAGQAQwBlAG4AdAAgACoAIAA0ADAAMAAgACsAIABfAHIAZQBtAEMAZQBuAHQAIAAqACAAMQAwADAAIAArACAAXwBxAHUAYQBkAFkAcgAgACoAIAA0ACAAKwAgAF8AcgBlAG0AWQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQAsACAASQBOAFQAKAAoAF8AZABhAHkAcwA0ACAAKgAgADUAIAArACAAXwBNAG8AbgB0AGgAQwBvAHIAcgBlAGMAdABpAG8AbgBEAGEAeQBzACkAIAAvACAAXwBEAGEAeQBzAEkAbgA1AE0AbwBuAHQAaABzAEYAcgBvAG0ATQBhAHIAYwBoACkAIAAtACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABfAGQAYQB5AHMANAAgAC0AIABJAE4AVAAoACgAXwBtACAAKwAgADQAKQAgACoAIABfAEQAYQB5AHMASQBuADUATQBvAG4AdABoAHMARgByAG8AbQBNAGEAcgBjAGgAIAAvACAANQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEQAYQB5AHMASQBuADQATQBvAG4AdABoAHMAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAF8AWQBFAEEAUgA0ADgAMAAxAEIAQwBFACAAKwAgAF8AeQAgACsAIABJAE4AVAAoACgAXwBtACAAKwAgADIAKQAgAC8AIAAxADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAATQBPAEQAKABfAG0AIAArACAAMgAsACAAMQAyACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AeQBlAGEAcgAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ASgA0ADgAMAAxAEIAQwBFAF8ASgBEADAALAAgAC0AMwAyADAAOAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAwACwAIABfAGoAZABuACAALQAgAF8ASgA0ADgAMAAxAEIAQwBFAF8ASgBEADAAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAGQAWQByACwAIABJAE4AVAAoAF8AZABhAHkAcwAwACAALwAgAF8ARABhAHkAcwBJAG4ANABZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzADEALAAgAF8AZABhAHkAcwAwACAALQAgAF8AcQB1AGEAZABZAHIAIAAqACAAXwBEAGEAeQBzAEkAbgA0AFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAGUAbQBZAHIALAAgAEkATgBUACgAKABJAE4AVAAoAF8AZABhAHkAcwAxACAALwAgAF8ARABhAHkAcwBJAG4AWQBlAGEAcgApACAAKwAgADEAKQAgACoAIAAwAC4ANwA1ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzADIALAAgAF8AZABhAHkAcwAxACAALQAgAF8AcgBlAG0AWQByACAAKgAgAF8ARABhAHkAcwBJAG4AWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkALAAgAF8AcQB1AGEAZABZAHIAIAAqACAANAAgACsAIABfAHIAZQBtAFkAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0ALAAgAEkATgBUACgAKABfAGQAYQB5AHMAMgAgACoAIAA1ACAAKwAgAF8ATQBvAG4AdABoAEMAbwByAHIAZQBjAHQAaQBvAG4ARABhAHkAcwApACAALwAgAF8ARABhAHkAcwBJAG4ANQBNAG8AbgB0AGgAcwBGAHIAbwBtAE0AYQByAGMAaAApACAALQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAAXwBkAGEAeQBzADIAIAAtACAASQBOAFQAKAAoAF8AbQAgACsAIAA0ACkAIAAqACAAXwBEAGEAeQBzAEkAbgA1AE0AbwBuAHQAaABzAEYAcgBvAG0ATQBhAHIAYwBoACAALwAgADUAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBEAGEAeQBzAEkAbgA0AE0AbwBuAHQAaABzACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABfAFkARQBBAFIANAA4ADAAMQBCAEMARQAgACsAIABfAHkAIAArACAASQBOAFQAKAAoAF8AbQAgACsAIAAyACkAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0ATwBEACgAXwBtACAAKwAgADIALAAgADEAMgApACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAHkAZQBhAHIALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgBfAFQATwBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAAbwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgAgAGEAbgBkACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAeQBlAGEAcgAgAGYAcgBvAG0AIAB0AGgAZQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAXABuAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADMANgA2AF0AIAAgAHwAIABPAHIAZABpAG4AYQBsACAAZABhAHkAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAzADYANQAsADMANgA2AF0AIAB8ACAARABhAHkAcwAgAGkAbgAgAHkAZQBhAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAZgBvAHIAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBEAE4AXwBUAE8AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEoARABOACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgASgBEAE4AIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAE4AKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ALAAgAEkATgBUACgASgBEAE4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQAsACAASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACgAXwBqAGQAbgAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4ARABFAFgAKABfAGQAYQB0AGUALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4AWQBlAGEAcgBTAHQAYQByAHQALAAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAF8AeQBlAGEAcgBDAEUALAAgADEALAAgADEALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACwAIABfAGoAZABuACAALQAgAF8AagBkAG4AWQBlAGEAcgBTAHQAYQByAHQAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBJAG4AWQBlAGEAcgAsACAARABBAFkAUwBfAEkATgBfAFkARQBBAFIAKABfAHkAZQBhAHIAQwBFACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwARABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBJAG4AWQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBPAFIARABJAE4AQQBMAF8ARABBAFQARQBfAFQATwBfAEoARABOAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4ATwByAGQAaQBuAGEAbABEAGEAeQAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAxAC4ALgAzADYANgApACAAfAAgAEQAYQB5ACAAbwBmACAAeQBlAGEAcgAsACAAYwBhAHIAcgBpAGUAcwAgAGkAZgAgAHIAYQBuAGcAZQAgAGUAeABjAGUAZQBkAGUAZABcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAF8AVABPAF8ASgBEAE4AIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbABEAGEAeQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATwByAGQAaQBuAGEAbABEAGEAeQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwByAGQAaQBuAGEAbABEAGEAeQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACwAIABJAE4AVAAoAE8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4AWQBlAGEAcgBTAHQAYQByAHQALAAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIAAxACwAIAAxACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4AWQBlAGEAcgBTAHQAYQByAHQAIAArACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACAALQAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBHAFIARQBHAE8AUgBJAEEATgBfAFQATwBfAEoAVQBMAEkAQQBOAFwAbgBcAG4AVAByAGEAbgBzAGwAYQB0AGUAcwAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAdABvACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAxAC4ALgAzADIAKQAgAHwAIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARwBSAEUARwBPAFIASQBBAE4AXwBUAE8AXwBKAFUATABJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8ASgBEAE4ALAAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgBTACgASQBTAEUAUgBSAE8AUgAoAF8ASgBEAE4AKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBKAEQATgAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABfAEoARABOACwAIAAxACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAFUATABJAEEATgBfAFQATwBfAEcAUgBFAEcATwBSAEkAQQBOAFwAbgBcAG4AVAByAGEAbgBzAGwAYQB0AGUAcwAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAdABvACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAxAC4ALgAzADIAKQAgAHwAIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBVAEwASQBBAE4AXwBUAE8AXwBHAFIARQBHAE8AUgBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8ASgBEAE4ALAAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgBTACgASQBTAEUAUgBSAE8AUgAoAF8ASgBEAE4AKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBKAEQATgAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABfAEoARABOACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAZABhAHkAcwAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAgAGkAcwAgAGEAaABlAGEAZAAgAG8AZgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAgAGYAbwByAFwAbgBhACAAZwBpAHYAZQBuACAAZABhAHQAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5AHMAIABkAGkAZgBmAGUAcgBlAG4AYwBlAC4AIABOAGUAZwBhAHQAaQB2AGUAIAB2AGEAbAB1AGUAcwAgAGEAcgBlACAAdwBoAGUAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGUAcgAgAGkAcwAgAGEAaABlAGEAZAAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADEALgAuADMAMgApACAAfAAgAFwAbgBbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAUAByAG8AdgBpAGQAZQBkACAAZABhAHQAZQAgAGkAcwAgAGkAbgAgAEoAdQBsAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABEAGUAZgBhAHUAbAB0ACAAaQBzACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBOAFQAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOACgARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAEYAcgBvAG0AIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEoARABOAF8ARwAsACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAEUAUgBSAE8AUgAoAF8ASgBEAE4AXwBHACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAEoARABOAF8ARwAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBKAEQATgBfAEoALAAgAEkARgAoACgATQBvAG4AdABoACAAPQAgADIAKQAgACoAIAAoAF8AZABhAHkAIAA9ACAAMgA5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABKAFUATABJAEEATgBfAEQAQQBZAF8ATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQAsACAAMgAsACAAMgA5ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgADIALAAgADIAOAAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEoARABOAF8ASgAgAC0AIABfAEoARABOAF8ARwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARgByAG8AbQAgAEoAdQBsAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAEcALAAgAEoAVQBMAEkAQQBOAF8AVABPAF8ARwBSAEUARwBPAFIASQBBAE4AKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABfAGQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMARQBSAFIATwBSACgASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARwAsACAAMQAsACAAMQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBHACwAIAAxACwAIAAxACkAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEcALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEcALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEcALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABXAEUARQBLAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAbgAgAGkAbgB0AGUAZwBlAHIAIABmAG8AcgAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4ANwBdACAAfAAgAEkAUwBPACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAATQBvAG4AZABhAHkALgAuAFMAdQBuAGQAYQB5AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAE4AIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABmAG8AcgAgAHQAaABlACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABOACwAXABuACAAIAAgACAASQBGACgASgBEAE4AIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQATgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgAsACAASQBOAFQAKABKAEQATgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABfAGoAZABuACwAIAA3ACkAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEMATwBOAFYARQBSAFQAXwBXAEUARQBLAEQAQQBZAF8ATgBVAE0AQgBFAFIAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQBuACAAaQBuAHQAZQBnAGUAcgAgAGYAbwByACAAdABoAGUAIABkAGEAeQAgAG8AZgAgAHQAaABlACAAdwBlAGUAawAgAGYAcgBvAG0AIAB0AGgAZQAgAHQAcgBhAGQAaQB0AG8AbgBhAGwAIABuAHUAbQBiAGUAcgBpAG4AZwAgAHMAYwBoAGUAbQBlACAAdABvACAAdABoAGUAIABJAFMATwAgAGQAZQBmAGkAbgBpAHQAaQBvAG4ALAAgAG8AcgBcAG4AdgBpAGMAZQAgAHYAZQByAHMAYQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFcAZQBlAGsAZABhAHkAIABuAHUAbQBiAGUAcgBcAG4AIAAgACAAfAAgAFsAMQAuAC4ANwBdACAAIAB8ACAAIAAgACAAfAAgAEkAUwBPACAAIAAgACAAIAAgACAAfAAgAFQAcgBhAGQAaQB0AGkAbwBhAGwAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgADEAIAB8ACAATQBvAG4AZABhAHkAIAAgACAAIAB8ACAAUwB1AG4AZABhAHkAIABcAG4AIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAyACAAfAAgAFQAdQBlAHMAZABhAHkAIAAgACAAfAAgAE0AbwBuAGQAYQB5ACAAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAMwAgAHwAIABXAGUAZABuAGUAcwBkAGEAeQAgAHwAIABUAHUAZQBzAGQAYQB5AFwAbgAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgADQAIAB8ACAAVABoAHUAcgBzAGQAYQB5ACAAIAB8ACAAVwBlAGQAbgBlAHMAZABhAHkAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAANQAgAHwAIABGAHIAaQBkAGEAeQAgACAAIAAgAHwAIABUAGgAdQByAHMAZABhAHkAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAANgAgAHwAIABTAGEAdAB1AHIAZABhAHkAIAAgAHwAIABGAHIAaQBkAGEAeQBcAG4AIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAA3ACAAfAAgAFMAdQBuAGQAYQB5ACAAIAAgACAAfAAgAFMAYQB0AHUAcgBkAGEAeQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADcAXQAgAHwAIABEAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgBcAG4AWwBJAFMATwB0AG8AVAByAGEAZABpAHQAaQBvAG4AYQBsAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAfAAgAFIAZQB0AHUAcgBuACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAdQBzAGkAbgBnACAAdAByAGEAZABpAHQAaQBvAG4AYQBsACAAbgB1AG0AYgBlAHIAaQBuAGcAIABzAGMAaABlAG0AZQAsACAAYQBzAHMAdQBtAGkAbgBnACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABEAGEAeQBPAGYAVwBlAGUAawAgAHcAYQBzACAAcAByAG8AdgBpAGQAZQBkACAAYQBjAGMAbwByAGQAaQBuAGcAIAB0AG8AIABJAFMATwAgAGQAZQBmAGkAbgBpAHQAaQBvAG4ALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIAB0AG8AIAByAGUAdAB1AHIAbgAgAGkAbgAgAEkAUwBPACAAZABlAGYAaQBuAGkAdABpAG8AbgAsACAAYQBzAHMAdQBtAGkAbgBnACAARABhAHkATwBmAFcAZQBlAGsAIAB3AGEAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAHYAaQBkAGUAZAAgAGEAYwBjAG8AcgBkAGkAbgBnACAAdABvACAAdABoAGUAIAB0AHIAYQBkAGkAdABpAG8AbgBhAGwAIABuAHUAbQBiAGUAcgBpAG4AZwAgAHMAYwBoAGUAbQBlAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEMATwBOAFYARQBSAFQAXwBXAEUARQBLAEQAQQBZAF8ATgBVAE0AQgBFAFIAIAA9ACAATABBAE0AQgBEAEEAKABEAGEAeQBPAGYAVwBlAGUAawAsACAAWwBJAFMATwB0AG8AVAByAGEAZABpAHQAaQBvAG4AYQBsAF0ALABcAG4AIAAgACAAIABJAEYAKABEAGEAeQBPAGYAVwBlAGUAawAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AE8AZgBXAGUAZQBrACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGcAaQB2AGUAbgBEAG8AVwAsACAASQBOAFQAKABOACgARABhAHkATwBmAFcAZQBlAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAHIAbwBtAEkAUwBPACwAIABOACgASQBTAE8AdABvAFQAcgBhAGQAaQB0AGkAbwBuAGEAbAApACAAPAA+ACAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAaQBmAHQARABvAFcALAAgAF8AZwBpAHYAZQBuAEQAbwB3ACAAKwAgAEkARgAoAF8AZgByAG8AbQBJAFMATwAsACAAMAAsACAALQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AcwBoAGkAZgB0AEQAbwB3ACwAIAA3ACkAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsARABBAFkAXwBPAEYAXwBNAE8ATgBUAEgAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAsACAAYQBuAGQAIABhACAAcgBlAGwAYQB0AGkAdgBlACAAdwBlAGUAawAgAGYAbwByACAAdABoAGUAIABtAG8AbgB0AGgAIABhAG4AZAAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQBcAG4AcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoACAAbwBmACAAdABoAGUAIAB5AGUAYQByAFwAbgBXAGUAZQBrAE8AZgBNAG8AbgB0AGgAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFcAZQBlAGsAIABpAG4AIAB0AGgAZQAgAG0AbwBuAHQAaAAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAE4AbwB0AGUAIABpAGYAIAB0AGgAZQAgAHIAZQBmAGUAcgBlAG4AYwBlACAAZQB4AGMAZQBlAGQAcwAgAHQAaABlACAAYgBvAHUAbgBkAHMAIABvAGYAIAB0AGgAZQAgAG0AbwBuAHQAaAAsACAAYQBuAG8AdABoAGUAcgAgAG0AbwBuAHQAaABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAB3AGkAbABsACAAYgBlACAAcgBlAHQAdQByAG4AZQBkAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAxACAALQAgAGYAaQByAHMAdAAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAyACAALQAgAHMAZQBjAG8AbgBkACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgADMAIAAtACAAdABoAGkAcgBkACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgADQAIAAtACAAZgBvAHUAcgB0AGgAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAANQAgAC0AIABmAGkAZgB0AGgAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAMAAgAC0AIABsAGEAcwB0ACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAtADEAIAAtACAAcwBlAGMAbwBuAGQAIAB0AG8AIABsAGEAcwB0ACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAtADIAIAAtACAAdABoAGkAcgBkACAAdABvACAAbABhAHMAdAAgAHcAZQBlAGsAXABuAEkAUwBPAFcAZQBlAGsARABhAHkAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMQAuAC4ANwBdACAAIAB8ACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAE0AbwBuAGQAYQB5AC4ALgBTAHUAbgBkAGEAeQBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4AIAAgACAAIABcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBXAEUARQBLAEQAQQBZAF8ATwBGAF8ATQBPAE4AVABIACgAMgAwADIAMwAsACAANgAsACAAMAAsACAANwApAFwAbgBSAGUAdAB1AHIAbgBzADoAIABKAEQATgAgADIANAA2ADAAMQAyADEAIAAoADIANQAvADAANgAvADIAMAAyADMAKQAgAGkAZQAuACAAdABoAGUAIABsAGEAcwB0ACAAUwB1AG4AZABhAHkAIABvAGYAIABKAHUAbgBlACAAMgAwADIAMwBcAG4AXABuAFcARQBFAEsARABBAFkAXwBPAEYAXwBNAE8ATgBUAEgAKAAyADAAMgAzACwAIAAxACwAIAAyACwAIAAyACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgAEoARABOACAAMgA0ADUAOQA5ADUANQAgACgAMQAwAC8AMAAxAC8AMgAwADIAMwApACAAaQBlAC4AIAB0AGgAZQAgAHMAZQBjAG8AbgBkACAAVAB1AGUAcwBkAGEAeQAgAG8AZgAgAEoAYQBuAHUAYQByAHkAIAAyADAAMgAzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAEQAQQBZAF8ATwBGAF8ATQBPAE4AVABIACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAAVwBlAGUAawBPAGYATQBvAG4AdABoACwAIABJAFMATwBXAGUAZQBrAEQAYQB5ACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABZAGUAYQByAEMARQAgAD0AIABcACIAXAAiACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAXAAiAFwAIgApACAAKgAgACgAVwBlAGUAawBPAGYATQBvAG4AdABoACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEkAUwBPAFcAZQBlAGsARABhAHkAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABXAGUAZQBrAE8AZgBNAG8AbgB0AGgAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASQBTAE8AVwBlAGUAawBEAGEAeQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgATQBPAEQAKABZAGUAYQByAEMARQAsACAAMQApACAAPgAgADAAKQAgACsAIAAoAE0ATwBEACgATQBvAG4AdABoACwAIAAxACkAIAA+ACAAMAApACAAKwAgACgATQBPAEQAKABXAGUAZQBrAE8AZgBNAG8AbgB0AGgALAAgADEAKQAgAD4AIAAwACkALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0AbwBuAHQAaAAgACsAIABOACgAVwBlAGUAawBPAGYATQBvAG4AdABoACAAPAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBEAG8AVwAsACAATQBPAEQAKABJAE4AVAAoAEkAUwBPAFcAZQBlAGsARABhAHkAKQAgAC0AIAAxACwAIAA3ACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQATwBmAE0AbwBuAHQAaAAsACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgAF8AbQBvAG4AdABoACwAIAAxACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQARABvAFcALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAF8AZgBpAHIAcwB0AE8AZgBNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQATwBmAE0AbwBuAHQAaAAgACsAIAAoACgAVwBlAGUAawBPAGYATQBvAG4AdABoACAALQAgADEAKQAgACoAIAA3ACkAIAArACAATQBPAEQAKABfAGkAcwBvAEQAbwB3ACAALQAgAF8AZgBpAHIAcwB0AEQAbwBXACwAIAA3ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABjAG8AdQBuAHQAIABvAGYAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrAHMAIABpAG4AIABhACAAZwBpAHYAZQBuACAAeQBlAGEAcgAgAG8AZgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsANQAyACwANQAzAF0AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZwByAGUAZwBvAHIAaQBhAG4ALAAgAE4AKABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEwAYQBzAHQAVwBlAGUAawBEAGEAeQBPAGYAWQBlAGEAcgAsACAATABBAE0AQgBEAEEAKABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AFAAcgBlAGMAZQBzAHMAaQBvAG4ALAAgAEkARgAoAF8AZwByAGUAZwBvAHIAaQBhAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACAAKwAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAA0ACkAIAAtACAASQBOAFQAKABfAHkAZQBhAHIAQwBFACAALwAgADEAMAAwACkAIAArACAASQBOAFQAKABfAHkAZQBhAHIAQwBFACAALwAgADQAMAAwACkAIAArACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUAIAArACAASQBOAFQAKABfAHkAZQBhAHIAQwBFACAALwAgADQAKQAgACsAIAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwBkAGEAeQBQAHIAZQBjAGUAcwBzAGkAbwBuACwAIAA3ACkAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkALAAgAGYAbgBMAGEAcwB0AFcAZQBlAGsARABhAHkATwBmAFkAZQBhAHIAKABfAHkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcATABhAHMAdABEAGEAeQAgAD0AIAA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIABsAGEAcwB0ACAAZABhAHkAIABvAGYAIAB5AGUAYQByACAAaQBzACAAYQAgAFQAaAB1AHIAcwBkAGEAeQAsACAAdABoAGUAbgAgAGgAYQBzACAAYQBuACAAZQB4AHQAcgBhACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdwBMAGEAcwB0AEQAYQB5AFAAcgBlAHYALAAgAGYAbgBMAGEAcwB0AFcAZQBlAGsARABhAHkATwBmAFkAZQBhAHIAKABfAHkAZQBhAHIAQwBFACAALQAgADEAKQAgACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcATABhAHMAdABEAGEAeQBQAHIAZQB2ACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIABsAGEAcwB0ACAAZABhAHkAIABvAGYAIABwAHIAZQB2AGkAbwB1AHMAIAB5AGUAYQByACAAaQBzACAAYQAgAFcAZQBkAG4AZQBzAGQAYQB5ACwAIAB0AGgAZQBuACAAaABhAHMAIABhAG4AIABlAHgAdAByAGEAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG8AdABoAGUAcgB3AGkAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAXwBEAEEAVABFAF8AVABPAF8ASgBEAE4AXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHAAcgBvAHYAaQBkAGUAZAAgAHcAZQBlAGsAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4ASQBTAE8AVwBlAGUAawAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgA1ADMAXQAgAHwAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIAXABuAEkAUwBPAFcAZQBlAGsARABhAHkAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMQAuAC4ANwBdACAAIAB8ACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAATQBvAG4AZABhAHkALgAuAFMAdQBuAGQAYQB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAEkAUwBPAFcAZQBlAGsALAAgAEkAUwBPAFcAZQBlAGsARABhAHkALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEkAUwBPAFcAZQBlAGsAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASQBTAE8AVwBlAGUAawBEAGEAeQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASQBTAE8AVwBlAGUAawApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABJAFMATwBXAGUAZQBrAEQAYQB5ACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB2AGEAbABpAGQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAFkAZQBhAHIAQwBFACwAIAAxACkAIAA+ACAAMAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABJAFMATwBXAGUAZQBrACwAIAAxACkAIAA+ACAAMAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE8AVwBlAGUAawAgADwAIAAxACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMATwBXAGUAZQBrACAAPgAgADUAMwAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE8AVwBlAGUAawAgAD0AIAA1ADMALAAgACgAVwBFAEUASwBTAF8ASQBOAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgADwAIAA1ADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAARgBBAEwAUwBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGkAbgB2AGEAbABpAGQALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAGkAZgB0AEIAeQBXAGUAZQBrAHMALAAgACgASQBTAE8AVwBlAGUAawAgAC0AIAAxACkAIAAqACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABpAGYAdABEAGEAeQBPAGYAVwBlAGUAawAsACAATQBPAEQAKABJAE4AVAAoAEkAUwBPAFcAZQBlAGsARABhAHkAKQAgAC0AIAAxACwAIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBGAGkAcgBzAHQARABhAHkAWQBlAGEAcgAsACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgADEALAAgADEALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AFcAZQBlAGsARABhAHkALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAF8AagBkAG4ARgBpAHIAcwB0AEQAYQB5AFkAZQBhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBvAHIAcgBlAGMAdABpAG8AbgAsACAATQBPAEQAKAA0ACAALQAgAF8AZgBpAHIAcwB0AFcAZQBlAGsARABhAHkALAAgADcAKQAgAC0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ARgBpAHIAcwB0AEQAYQB5AFkAZQBhAHIAIAArACAAXwB5AGUAYQByAEMAbwByAHIAZQBjAHQAaQBvAG4AIAArACAAXwBzAGgAaQBmAHQAQgB5AFcAZQBlAGsAcwAgACsAIABfAHMAaABpAGYAdABEAGEAeQBPAGYAVwBlAGUAawAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAE4AXwBUAE8AXwBXAEUARQBLAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHkAZQBhAHIALAAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAsACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsALAAgAGEAbgBkACAAdwBlAGUAawBzACAAaQBuACAAdABoAGUAIAB5AGUAYQByACAAZgBvAHIAIAB0AGgAZQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHkAXABuAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByAEMARQBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADUAMwBdACAAfAAgAEkAUwBPACAAdwBlAGUAawAgAG4AdQBtAGIAZQByAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4ANwBdACAAIAB8ACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABNAG8AbgBkAGEAeQAuAC4AUwB1AG4AZABhAHkAXABuACAANAAgAHwAIABpAG4AdABlAGcAZQByACAAWwA1ADIALAA1ADMAXQAgAHwAIABJAFMATwAgAHcAZQBlAGsAcwAgAGkAbgAgAHkAZQBhAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAZgBvAHIAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBEAE4AXwBUAE8AXwBXAEUARQBLAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEoARABOACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgASgBEAE4AIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAE4AKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ALAAgAEkATgBUACgASgBEAE4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBhAGwARABhAHQAZQAsACAASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACgAXwBqAGQAbgAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4ARABFAFgAKABfAGMAYQBsAEQAYQB0AGUALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFcAZQBlAGsALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAF8AagBkAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFkAZQBhAHIALAAgAF8AagBkAG4AIAAtACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAXwB5AGUAYQByAEMARQAsACAAMQAsACAAMQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrACwAIABJAE4AVAAoACgAXwBkAGEAeQBPAGYAWQBlAGEAcgAgAC0AIABfAGQAYQB5AE8AZgBXAGUAZQBrACAAKwAgADEAMAApACAALwAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABsAGEAcwB0ACAAdwBlAGUAawAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAHMASQBuAFkAZQBhAHIALAAgAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAKABfAHkAZQBhAHIAQwBFACAALQAgADEALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHcAZQBlAGsAcwBJAG4AWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAHMASQBuAFkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIAB0AGgAaQBzACAAeQBlAGEAcgAgAGQAbwBlAHMAIABuAG8AdAAgAGgAYQB2AGUAIAA1ADMAIAB3AGUAZQBrAHMALAAgAHQAaABlAG4AIABpAHMAIAB0AGgAZQAgAGYAaQByAHMAdAAgAHcAZQBlAGsAIABvAGYAIABmAG8AbABsAG8AdwBpAG4AZwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAVwBFAEUASwBTAF8ASQBOAF8AWQBFAEEAUgAoAF8AeQBlAGEAcgBDAEUALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACAAPQAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFcAZQBlAGsALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawBzAEkAbgBZAGUAYQByACwAIABXAEUARQBLAFMAXwBJAE4AXwBZAEUAQQBSACgAXwB5AGUAYQByAEMARQAgACsAIAAxACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgACsAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHcAZQBlAGsAcwBJAG4AWQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAHMASQBuAFkAZQBhAHIALAAgAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAKABfAHkAZQBhAHIAQwBFACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAHMASQBuAFkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAXwBOAFUATQBCAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4ANQAzAF0AIAB8ACAASQBTAE8AIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAA9ACAATABBAE0AQgBEAEEAKABKAEQATgAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEoARABOACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAE4AKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawBEAGEAdABlACwAIABKAEQATgBfAFQATwBfAFcARQBFAEsAXwBEAEEAVABFACgASgBEAE4ALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAF8AdwBlAGUAawBEAGEAdABlACwAIAAyACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAFEAVQBBAFIAVABFAFIAUwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAEEAWQBTAF8ASQBOAF8AUQBVAEEAUgBUAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAGQAYQB5AHMAIABpAG4AIABhACAAcQB1AGEAcgB0AGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByACAAbwBmACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwA4ADkALgAuADkAMgBdAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUQB1AGEAcgB0AGUAcgAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgA0AF0AIAAgAHwAIABRAHUAYQByAHQAZQByACAAbwBmACAAdABoAGUAIAB5AGUAYQByACAAMQAuAC4ANAAsACAAdAByAGEAbgBzAGkAdABpAHYAZQAsACAAZQB4AGMAZQBlAGQAaQBuAGcAIAByAGEAbgBnAGUAIAB3AGkAbABsACAAYwBhAHIAcgB5ACAAdABvACAAeQBlAGEAcgAuAFwAbgBbAEYAaQBzAGMAYQBsAFkAZQBhAHIAQwBFAF0AIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAVwBoAGUAbgAgAG0AbwBuAHQAaAAgAG8AZgBmAHMAZQB0ACAAaQBzACAAbgBvAG4ALQB6AGUAcgBvACAAdABoAGUAIABmAGkAcwBjAGEAbAAgAHkAZQBhAHIAIABzAHAAYQBuAHMAIABjAGEAbABlAG4AZABhAHIAIAB5AGUAYQByAHMAIABhAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAHMAIABkAGUAZgBpAG4AZQBkACAAYQBzACAAdABoAGUAIAB5AGUAYQByACAAdwBoAGUAcgBlACAASgB1AG4AZQAgAGYAYQBsAGwAcwAuAFwAbgBbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0ANgAuAC4AMwBdACAAfAAgAFEAdQBhAHIAdABlAHIAIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgBhAHkAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBFAHgAYQBtAHAAbABlAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAFMAXwBJAE4AXwBRAFUAQQBSAFQARQBSACgAMwAsACAAMgAwADIAMAAsACAALQA2ACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADkAMQBcAG4AaQAuAGUALgAgADMAcgBkACAAcQB1AGEAcgB0AGUAcgAgAHMAdABhAHIAdABpAG4AZwAgAGYAcgBvAG0AIABKAHUAbAB5ACAAMgAwADEAOQAsACAAbgBhAG0AZQBsAHkAIABKAGEAbgAsACAARgBlAGIALAAgAE0AYQByACAAMgAwADIAMAAgAHcAaQB0AGgAIAAzADEALAAgADIAOQAsACAAMwAxACAAZABhAHkAcwAgAHIAZQBzAHAAZQBjAHQAaQB2AGUAbAB5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEEAWQBTAF8ASQBOAF8AUQBVAEEAUgBUAEUAUgAgAD0AIABMAEEATQBCAEQAQQAoAFEAdQBhAHIAdABlAHIALAAgAFsARgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUAXQAsACAAWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAFEAdQBhAHIAdABlAHIAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABRAHUAYQByAHQAZQByACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABRAHUAYQByAHQAZQByACwAIAAxACkAIAA+ACAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQAIAA8ACAALQA2ACkAIAArACAAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAgAD4AIAAzACkALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIALAAgAE0ATwBEACgASQBOAFQAKABRAHUAYQByAHQAZQByACkAIAAtACAAMQAsACAANAApACwAIAAvAC8AIAAwAC4ALgAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBJAG4AUQB1AGEAcgB0AGUAcgBDAHkAYwBsAGkAYwBhAGwALAAgAHsAOQAwACwAOAA5ACwAOQAyACwAOQAxACwAOQAyACwAOQAyACwAOQAyACwAOQAyACwAOQAxACwAOQAyACwAOQAyACwAOQAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIAVwBpAHQAaABGAGUAYgAsACAASQBOAFQAKABNAE8ARAAoADEAIAAtACAAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQALAAgADEAMgApACAALwAgADMAKQAsACAAIAAvAC8AIAAwAC4ALgAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgBQAHIAZQBjAGUAcwBzAGkAbwBuACwAIABNAE8ARAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAKwAgACgAXwBxAHUAYQByAHQAZQByACAAKgAgADMAKQAsACAAMQAyACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABEAGEAeQBzAEkAbgBRAHUAYQByAHQAZQByACwAIABJAE4ARABFAFgAKABfAGQAYQB5AHMASQBuAFEAdQBhAHIAdABlAHIAQwB5AGMAbABpAGMAYQBsACwAIAAxACwAIABfAHEAdQBhAHIAdABlAHIAUAByAGUAYwBlAHMAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAYQBwAEQAYQB5ACwAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABGAGkAcwBjAGEAbABZAGUAYQByAEMARQApACAAKgAgACgAXwBxAHUAYQByAHQAZQByAFcAaQB0AGgARgBlAGIAIAA9ACAAXwBxAHUAYQByAHQAZQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBPAGYARgBlAGIALAAgAEkATgBUACgARgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUAKQAgACsAIABOACgAXwBxAHUAYQByAHQAZQByACAAPQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABfAHkAZQBhAHIATwBmAEYAZQBiACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAEQAYQB5AHMASQBuAFEAdQBhAHIAdABlAHIAIAArACAAXwBsAGUAYQBwAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAG8AZgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAcQB1AGEAcgB0AGUAcgAgAGQAYQB0AGUAIABpAG4AIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFcAaABlAG4AIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGkAcwAgAG4AbwBuAC0AegBlAHIAbwAgAHQAaABlACAAZgBpAHMAYwBhAGwAIAB5AGUAYQByACAAcwBwAGEAbgBzACAAYwBhAGwAZQBuAGQAYQByACAAeQBlAGEAcgBzACAAYQBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBzACAAZABlAGYAaQBuAGUAZAAgAGEAcwAgAHQAaABlACAAeQBlAGEAcgAgAHcAaABlAHIAZQAgAEoAdQBuAGUAIABmAGEAbABsAHMALgBcAG4AUQB1AGEAcgB0AGUAcgAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgA0AF0AIAAgAHwAIABRAHUAYQByAHQAZQByACAAbwBmACAAdABoAGUAIAB5AGUAYQByACAAMQAuAC4ANAAsACAAdAByAGEAbgBzAGkAdABpAHYAZQAsACAAZQB4AGMAZQBlAGQAaQBuAGcAIAByAGEAbgBnAGUAIAB3AGkAbABsACAAYwBhAHIAcgB5ACAAdABvACAAeQBlAGEAcgAuAFwAbgBEAGEAeQBPAGYAUQB1AGEAcgB0AGUAcgAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADEALgAuADkAMgBdACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHQAaABlACAAcQB1AGEAcgB0AGUAcgAsACAAZQB4AGMAZQBlAGQAaQBuAGcAIAByAGEAbgBnAGUAIAB3AGkAbABsACAAYwBhAHIAcgB5AFwAbgBbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0ANgAuAC4AMwBdACAAfAAgAFEAdQBhAHIAdABlAHIAIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBRAFUAQQBSAFQARQBSAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAPQAgAEwAQQBNAEIARABBACgARgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUALAAgAFEAdQBhAHIAdABlAHIALAAgAEQAYQB5AE8AZgBRAHUAYQByAHQAZQByACwAIABbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABGAGkAcwBjAGEAbABZAGUAYQByAEMARQAgAD0AIABcACIAXAAiACkAIAAqACAAKABRAHUAYQByAHQAZQByACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEQAYQB5AE8AZgBRAHUAYQByAHQAZQByACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABGAGkAcwBjAGEAbABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABRAHUAYQByAHQAZQByACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AE8AZgBRAHUAYQByAHQAZQByACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABRAHUAYQByAHQAZQByACwAIAAxACkAIAA+ACAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQAIAA8ACAALQA2ACkAIAArACAAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAgAD4AIAAzACkALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBzAGMAYQBsAFkAZQBhAHIAQwBFACwAIABJAE4AVAAoAEYAaQBzAGMAYQBsAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIALAAgAEkATgBUACgAUQB1AGEAcgB0AGUAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAaQBmAHQATQBvAG4AdABoACwAIAAoAF8AcQB1AGEAcgB0AGUAcgAgAC0AIAAxACkAIAAqACAAMwAgACsAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAF8AZgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUAIAArACAASQBOAFQAKABfAHMAaABpAGYAdABNAG8AbgB0AGgAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAATQBPAEQAKABfAHMAaABpAGYAdABNAG8AbgB0AGgALAAgADEAMgApACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABEAGEAeQBPAGYAUQB1AGEAcgB0AGUAcgAsACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAXwB5AGUAYQByAEMARQAsACAAXwBtAG8AbgB0AGgALAAgADEALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQARABhAHkATwBmAFEAdQBhAHIAdABlAHIAIAAtACAAMQAgACsAIABJAE4AVAAoAEQAYQB5AE8AZgBRAHUAYQByAHQAZQByACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAIAAgACAAIABcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABOAF8AVABPAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABmAGkAcwBjAGEAbAAgAHkAZQBhAHIALAAgAHEAdQBhAHIAdABlAHIALAAgAGQAYQB5ACAAbwBmACAAcQB1AGEAcgB0AGUAcgAgAGEAbgBkACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAcQB1AGEAcgB0AGUAcgAgAGYAbwByACAAdABoAGUAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAXABuAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAAgAHwAIABGAGkAcwBjAGEAbABZAGUAYQByAEMARQBcAG4AIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAVwBoAGUAbgAgAG0AbwBuAHQAaAAgAG8AZgBmAHMAZQB0ACAAaQBzACAAbgBvAG4ALQB6AGUAcgBvACAAdABoAGUAIABmAGkAcwBjAGEAbAAgAHkAZQBhAHIAIABzAHAAYQBuAHMAIABjAGEAbABlAG4AZABhAHIAIAB5AGUAYQByAHMAIABhAG4AZABcAG4AIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBzACAAZABlAGYAaQBuAGUAZAAgAGEAcwAgAHQAaABlACAAeQBlAGEAcgAgAHcAaABlAHIAZQAgAEoAdQBuAGUAIABmAGEAbABsAHMALgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADQAXQAgACAAIAB8ACAAUQB1AGEAcgB0AGUAcgBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADkAMgBdACAAIAB8ACAARABhAHkAIABvAGYAIABxAHUAYQByAHQAZQByAFwAbgAgADQAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAOAA5AC4ALgA5ADIAXQAgAHwAIABEAGEAeQBzACAAaQBuACAAcQB1AGEAcgB0AGUAcgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABOACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAZgBvAHIAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB5AFwAbgBbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0ANgAuAC4AMwBdACAAfAAgAFEAdQBhAHIAdABlAHIAIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgB5AC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABOAF8AVABPAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABKAEQATgAsACAAWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEoARABOACAAPQAgAFwAIgBcACIALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABOACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAPAAgAC0ANgApACAAKwAgACgAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQAIAA+ACAAMwApACwAIAB7ACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEALAAgACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuACwAIABJAE4AVAAoAEoARABOACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGEAbABEAGEAdABlACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABfAGoAZABuACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABpAGYAdABNAG8AbgB0AGgALAAgAEkATgBEAEUAWAAoAF8AYwBhAGwARABhAHQAZQAsACAAMQAsACAAMgApACAALQAgADEAIAAtACAAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcwBjAGEAbABZAGUAYQByACwAIABJAE4ARABFAFgAKABfAGMAYQBsAEQAYQB0AGUALAAgADEALAAgADEAKQAgACsAIABJAE4AVAAoAF8AcwBoAGkAZgB0AE0AbwBuAHQAaAAgAC8AIAAxADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHoAZQByAG8AQgBhAHMAZQBkAEYAaQBzAGMAYQBsAE0AbwBuAHQAaAAsACAATQBPAEQAKABfAHMAaABpAGYAdABNAG8AbgB0AGgALAAgADEAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgAsACAASQBOAFQAKABfAHoAZQByAG8AQgBhAHMAZQBkAEYAaQBzAGMAYQBsAE0AbwBuAHQAaAAgAC8AIAAzACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEYAaQByAHMAdABEAGEAeQBRAHUAYQByAHQAZQByACwAIABRAFUAQQBSAFQARQBSAF8ARABBAFQARQBfAFQATwBfAEoARABOACgAXwBmAGkAcwBjAGEAbABZAGUAYQByACwAIABfAHEAdQBhAHIAdABlAHIALAAgADEALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AE8AZgBRAHUAYQByAHQAZQByACwAIABfAGoAZABuACAALQAgAF8AagBkAG4ARgBpAHIAcwB0AEQAYQB5AFEAdQBhAHIAdABlAHIAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AHMASQBuAFEAdQBhAHIAdABlAHIALAAgAEQAQQBZAFMAXwBJAE4AXwBRAFUAQQBSAFQARQBSACgAXwBxAHUAYQByAHQAZQByACwAIABfAGYAaQBzAGMAYQBsAFkAZQBhAHIALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHMAYwBhAGwAWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFEAdQBhAHIAdABlAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AHMASQBuAFEAdQBhAHIAdABlAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAEQAQQBUAEUAIABBAE4ARAAgAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgBfAFUAVABDAF8AVABPAF8ASgBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAZwBpAHYAZQBuACAAYQBuACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABpAG4AIABVAFQAQwAuAFwAbgBOAG8AdABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABhAHIAZQAgAGEAbAB3AGEAeQBzACAAaQBuACAAVQBUAEMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByAC4AXABuAFsAVABpAG0AZQBVAFQAQwBdACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgAHwAIABUAGkAbQBlACAAbwBmACAAZABhAHkAIABpAG4AIABVAFQAQwAgAGEAcwAgAGQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4AIABvAHIAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQByAHIAaQBlAHMAIABpAGYAIAByAGEAbgBnAGUAIABpAHMAIABlAHgAYwBlAGUAZABlAGQALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBEAE4AXwBVAFQAQwBfAFQATwBfAEoARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEoARABOACwAIABbAFQAaQBtAGUAVQBUAEMAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAE4AIAA9ACAAXAAiAFwAIgApACAAKgAgACgAVABpAG0AZQBVAFQAQwAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAE4AKQApACAAKwAgACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABUAGkAbQBlAFUAVABDACkAKQAgACoAIAAoAFQAaQBtAGUAVQBUAEMAIAA8AD4AIABcACIAXAAiACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABKAEQATgAsACAAMQApACAAPgAgADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABKAEQATgAgAC0AIAAwAC4ANQAgACsAIABOACgAVABpAG0AZQBVAFQAQwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAgAGcAaQB2AGUAbgAgAGEAIABsAG8AYwBhAGwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAGwAbwBjAGEAbAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAgAHcAaQB0AGgAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuAFwAbgBtAGkAbgB1AHQAZQBzAC4AIABOAG8AdABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABhAHIAZQAgAGEAbAB3AGEAeQBzACAAaQBuACAAVQBUAEMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBMAG8AYwBhAGwASgBEAE4AIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgAHwAIABMAG8AYwBhAGwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIALgBcAG4ATABvAGMAYQBsAFQAaQBtAGUAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAB8ACAATABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AcgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAcgByAGkAZQBzACAAaQBzACAAcgBhAG4AZwBlACAAaQBzACAAZQB4AGMAZQBlAGQAZQBkAC4AXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEwAbwBjAGEAbABKAEQATgAsACAATABvAGMAYQBsAFQAaQBtAGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEwAbwBjAGEAbABKAEQATgAgAD0AIABcACIAXAAiACkAIAAqACAAKABMAG8AYwBhAGwAVABpAG0AZQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATABvAGMAYQBsAEoARABOACkAKQAgACsAIAAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATABvAGMAYQBsAFQAaQBtAGUAKQApACAAKgAgACgATABvAGMAYQBsAFQAaQBtAGUAIAA8AD4AIABcACIAXAAiACkAKQAgACsAIAAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkAKQAgACoAIAAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAgADwAPgAgAFwAIgBcACIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABNAE8ARAAoAEwAbwBjAGEAbABKAEQATgAsACAAMQApACAAPgAgADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACAALwAgADEANAA0ADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADAALgA2ADIANQAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAG8AYwBhAGwASgBEAE4AIAAtACAAMAAuADUAIAArACAATgAoAEwAbwBjAGEAbABUAGkAbQBlACkAIAAtACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABBAFQARQBfAFQATwBfAEoARABOAF8AVQBUAEMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAgAGkAbgAgAFUAVABDACAAbwBmACAAYQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByAFwAbgAgADIAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4AMQApACAAfAAgAFQAaQBtAGUAIABvAGYAIABkAGEAeQAgAGkAbgAgAFUAVABDAC4AIABEAGUAYwBpAG0AYQBsACAAZgByAGEAYwB0AGkAbwBuACwAIABpAG0AcABsAGkAYwBpAHQAbAB5ACAAYwBvAG4AdgBlAHIAdABzACAAdABvACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUAIAB0AHkAcABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABBAFQARQBfAFQATwBfAEoARABOAF8AVQBUAEMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUALABcAG4AIAAgACAAIABJAEYAKABKAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABpAGYAdABVAFQAQwAsACAASgBEAGEAdABlACAAKwAgADAALgA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBKAEQATgAsACAASQBOAFQAKABfAHMAaABpAGYAdABVAFQAQwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBVAFQAQwAsACAAXwBzAGgAaQBmAHQAVQBUAEMAIAAtACAAXwBKAEQATgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBKAEQATgAsACAAXwBVAFQAQwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAG8AYwBhAGwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAfAAgAEwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AIAAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgAEQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4ALAAgAGkAbQBwAGwAaQBjAGkAdABsAHkAIABjAG8AbgB2AGUAcgB0AHMAIAB0AG8AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAXABuACAAIAAgACAASQBGACgASgBEAGEAdABlACAAPQAgAFwAIgBcACIALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQApACkAIAArACAAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACkAIAAqACAAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAIAA8AD4AIABcACIAXAAiACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkAIAAvACAAMQA0ADQAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADAALgA2ADIANQAsACAAewAjAE4AVQBNACEALAAgACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAaQBmAHQATABvAGMAYQBsACwAIABKAEQAYQB0AGUAIAArACAAMAAuADUAIAArACAAXwB0AHoAbwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAbwBjAGEAbABKAEQATgAsACAASQBOAFQAKABfAHMAaABpAGYAdABMAG8AYwBhAGwAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAbwBjAGEAbABUAGkAbQBlACwAIABfAHMAaABpAGYAdABMAG8AYwBhAGwAIAAtACAAXwBsAG8AYwBhAGwASgBEAE4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGwAbwBjAGEAbABKAEQATgAsACAAXwBsAG8AYwBhAGwAVABpAG0AZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBVAEwASQBBAE4AXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgBcAG4ATgBvAHQAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAYQByAGUAIABhAGwAdwBhAHkAcwAgAGkAbgAgAFUAVABDAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAE0AbwBuAHQAaABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AVABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgAHwAIABUAGkAbQBlACAAbwBmACAAZABhAHkAIABhAHMAIABkAGUAYwBpAG0AYQBsACAAZgByAGEAYwB0AGkAbwBuACAAbwByACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUAIAB0AHkAcABlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAHIAcgBpAGUAcwAgAGkAZgAgAHIAYQBuAGcAZQAgAGkAcwAgAGUAeABjAGUAZQBkAGUAZAAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBKAFUATABJAEEATgBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAVABpAG0AZQAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABEAGEAeQAsACAAMQApACAAPgAgADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAUABhAHIAdAAsACAASQBOAFQAKABOACgAVABpAG0AZQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AG8AZAAsACAATgAoAFQAaQBtAGUAKQAgAC0AIABfAGQAYQB5AFAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgAsACAAXwBkAGEAeQBQAGEAcgB0ACAAKwAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQAoAF8AagBkAG4ALAAgAF8AdABvAGQALAAgAF8AdAB6AG8AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEMAQQBMAEUATgBEAEEAUgBfAEYAUgBPAE0AXwBKAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIABsAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgBDAEUAXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AIAA0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgACAAfAAgAEwAbwBjAGEAbAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAuACAARABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAsACAAaQBtAHAAbABpAGMAaQB0AGwAeQAgAGMAbwBuAHYAZQByAHQAcwAgAHQAbwAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AIABOAG8AdABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABhAHIAZQAgAGEAbAB3AGEAeQBzACAAaQBuACAAVQBUAEMALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEYAbABvAGEAdABpAG4AZwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAARABhAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANAAgAC0AIABTAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBDAEEATABFAE4ARABBAFIAXwBGAFIATwBNAF8ASgBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKABKAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABKAEQAYQB0AGUALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsACwAIAAxACwAIAAxACkAKQAsACAAewAjAE4AVQBNACEALAAgACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAATgAoAFAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAG8AYwBhAGwAVABpAG0AZQAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPAA9ACAAMAAsACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADIAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACAAMQAsACAAMgApACAAKgAgADIANAAsACAAMAApACAALwAgADIANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwAsACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADIAKQAgACoAIAAxADQANAAwACwAIAAwACkAIAAvACAAMQA0ADQAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAANAAsACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADIAKQAgACoAIAA4ADYANAAwADAALAAgADAAKQAgAC8AIAA4ADYANAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACAAMQAsACAAMgApACAAKgAgADgANgA0ADAAMAAsACAAMwApACAALwAgADgANgA0ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIATABvAGMAYQBsAFQAaQBtAGUALAAgAE0ATwBEACgAXwBsAG8AYwBhAGwAVABpAG0AZQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBKAEQATgAsACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADEAKQAgACsAIABJAE4AVAAoAF8AbABvAGMAYQBsAFQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAbwBjAGEAbABEAGEAdABlACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABfAHIASgBEAE4ALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBsAG8AYwBhAGwARABhAHQAZQAsACAAXwByAEwAbwBjAGEAbABUAGkAbQBlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAEkATQBFAF8ARABFAEMASQBNAEEATABfAFQATwBfAEgATQBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGEAdABpAG8AbgAgAG8AZgAgAGEAIABkAGUAYwBpAG0AYQBsACAAdABpAG0AZQAgAHYAYQBsAHUAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADEALAAwACwAMQBdACAAfAAgAFMAaQBnAG4AXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAfAAgAEgAbwB1AHIAcwBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADUAOQBdACAAIAB8ACAATQBpAG4AdQB0AGUAcwBcAG4AIAA0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADYAMAApACAAIAB8ACAAUwBlAGMAbwBuAGQAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAaQBtAGUAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABUAGkAbQBlACAAYQBzACAAZgByAGEAYwB0AGkAbwBuACAAbwBmACAAYQAgAGQAYQB5ACAAKAAyADQAIABoAG8AdQByAHMAKQAuACAASQBtAHAAbABpAGMAaQB0AGwAeQAgAGMAbwBuAHYAZQByAHQAcwAgAGYAcgBvAG0AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUAIABmAG8AcgBcAG4AIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAG4AbwBuAC0AbgBlAGcAYQB0AGkAdgBlACAAdgBhAGwAdQBlAHMALgAgAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBUAEkATQBFAF8ARABFAEMASQBNAEEATABfAFQATwBfAEgATQBTACAAPQAgAEwAQQBNAEIARABBACgAVABpAG0AZQAsAFwAbgAgACAAIAAgAEkARgAoAFQAaQBtAGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAVABpAG0AZQApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAcgBvAHUAbgBkACAAdABvACAAbQBpAGwAbABpAHMAZQBjAG8AbgBkAHMALAAgAHMAYwBhAGwAZQAgAHQAbwAgAHMAZQBjAG8AbgBkAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGUAYwBvAG4AZABzACwAIABSAE8AVQBOAEQAKABUAGkAbQBlACAAKgAgADgANgA0ADAAMAAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGUAYwBvAG4AZABzACAAPQAgADAALAAgAHsAMAAsACAAMAAsACAAMAAsACAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAFMASQBHAE4AKABfAHMAZQBjAG8AbgBkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAYgBzAFMAZQBjAG8AbgBkAHMALAAgAEEAQgBTACgAXwBzAGUAYwBvAG4AZABzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGUAYwBvAG4AZABQAGEAcgB0ACwAIABNAE8ARAAoAF8AYQBiAHMAUwBlAGMAbwBuAGQAcwAsACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQBzACwAIABJAE4AVAAoACgAXwBhAGIAcwBTAGUAYwBvAG4AZABzACAALQAgAF8AcwBlAGMAbwBuAGQAUABhAHIAdAApACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAUABhAHIAdAAsACAATQBPAEQAKABfAG0AaQBuAHUAdABlAHMALAAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgBQAGEAcgB0ACwAIABJAE4AVAAoACgAXwBtAGkAbgB1AHQAZQBzACAALQAgAF8AbQBpAG4AdQB0AGUAUABhAHIAdAApACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByAFAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AaQBuAHUAdABlAFAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAFAAYQByAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBIAE0AUwBfAFQATwBfAFQASQBNAEUAXwBEAEUAQwBJAE0AQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABkAGUAYwBpAG0AYQBsACAAdABpAG0AZQAgAGEAcwAgAGEAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkAIABmAHIAbwBtACAAYQAgADIANAAgAGgAbwB1AHIAIAB0AGkAbQBlAGsAZQBlAHAAaQBuAGcAIAB2AGEAbAB1AGUAIABvAGYAIAB0AGkAbQBlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAASQBtAHAAbABpAGMAaQB0AGwAeQAgAGMAbwBuAHYAZQByAHQAcwAgAHQAbwAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAgAGYAbwByACAAbgBvAG4ALQBuAGUAZwBhAHQAaQB2AGUAIAB2AGEAbAB1AGUAcwAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUwBpAGcAbgAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADEALAAwACwAMQBdACAAfABcAG4ASABvAHUAcgBzACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAfABcAG4ATQBpAG4AdQB0AGUAcwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgA1ADkAXQAgACAAfABcAG4AUwBlAGMAbwBuAGQAcwAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgA2ADAAKQAgACAAfABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASABNAFMAXwBUAE8AXwBUAEkATQBFAF8ARABFAEMASQBNAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAFMAaQBnAG4ALAAgAEgAbwB1AHIAcwAsACAATQBpAG4AdQB0AGUAcwAsACAAUwBlAGMAbwBuAGQAcwAsAFwAbgAgACAAIAAgAEkARgAoACgASABvAHUAcgBzACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AaQBuAHUAdABlAHMAIAA9ACAAXAAiAFwAIgApACAAKgAgACgAUwBlAGMAbwBuAGQAcwAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABTAGkAZwBuACkAKQAgACoAIAAoAFMAaQBnAG4AIAA8AD4AIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAgACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABIAG8AdQByAHMAKQApACAAKgAgACgASABvAHUAcgBzACAAPAA+ACAAXAAiAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsAIAAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAcwApACkAIAAqACAAKABNAGkAbgB1AHQAZQBzACAAPAA+ACAAXAAiAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsAIAAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAcwApACkAIAAqACAAKABTAGUAYwBvAG4AZABzACAAPAA+ACAAXAAiAFwAIgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByAHMALAAgAE4AKABIAG8AdQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAcwAsACAATgAoAE0AaQBuAHUAdABlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAcwAsACAATgAoAFMAZQBjAG8AbgBkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgAXwBoAG8AdQByAHMAIAA9ACAAMAApACAAKgAgACgAXwBtAGkAbgB1AHQAZQBzACAAPQAgADAAKQAgACoAIAAoAF8AcwBlAGMAbwBuAGQAcwAgAD0AIAAwACkALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGACgATgAoAFMAaQBnAG4AKQAgADwAIAAwACwAIAAtADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKAAoAF8AaABvAHUAcgBzACAALwAgADIANAApACAAKwAgACgAXwBtAGkAbgB1AHQAZQBzACAALwAgADEANAA0ADAAKQAgACsAIAAoAF8AcwBlAGMAbwBuAGQAcwAgAC8AIAA4ADYANAAwADAAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AQQBEAEQAXwBUAEkATQBFAFMAUABBAE4AXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAIABvAGYAIAB0AGgAZQAgAGEAZABkAGkAdABpAG8AbgAgAG8AZgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIABhACAAdABpAG0AZQBzAHAAYQBuACAAYwBvAG0AcABsAGkAYwBhAHQAaQBvAG4ALgBcAG4ATgBvAHQAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAYQByAGUAIABhAGwAdwBhAHkAcwAgAGkAbgAgAFUAVABDAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAE0AbwBuAHQAaABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AVABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABhAHMAIABkAGUAYwBpAG0AYQBsACAAZgByAGEAYwB0AGkAbwBuACAAbwByACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUAIAB0AHkAcABlAC4AXABuAEEAZABkAFkAZQBhAHIAcwAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAQQBkAGQAIAB5AGUAYQByAHMAIAB0AGkAbQBlAHMAcABhAG4ALgAgAEYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAYwBhAHIAcgBpAGUAcwAgAHQAbwAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkALgBcAG4AQQBkAGQATQBvAG4AdABoAHMAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAAgACAAIAAgAHwAIABBAGQAZAAgAG0AbwBuAHQAaABzACAAdABpAG0AZQBzAHAAYQBuAC4AIABGAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGMAYQByAHIAaQBlAHMAIAB0AG8AIABkAGEAeQAuAFwAbgBBAGQAZABEAGEAeQBzACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAEEAZABkACAAZABhAHkAcwAgAHQAaQBtAGUAcwBwAGEAbgAuACAARgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIABjAGEAcgByAGkAZQBzACAAdABvACAAdABpAG0AZQAuAFwAbgBBAGQAZABUAGkAbQBlACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAEEAZABkACAAdABpAG0AZQBzAHAAYQBuAC4AXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAAgACAAIAAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEEARABEAF8AVABJAE0ARQBTAFAAQQBOACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFQAaQBtAGUALAAgAEEAZABkAFkAZQBhAHIAcwAsACAAQQBkAGQATQBvAG4AdABoAHMALAAgAEEAZABkAEQAYQB5AHMALAAgAEEAZABkAFQAaQBtAGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AbwBuAHQAaAAgAD0AIABcACIAXAAiACkAIAAqACAAKABEAGEAeQAgAD0AIABcACIAXAAiACkAIAAqACAAKABUAGkAbQBlACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABNAE8ARAAoAEQAYQB5ACwAIAAxACkAIAA+ACAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGQAWQBlAGEAcgBzACwAIABJAE4AVAAoAE4AKABBAGQAZABZAGUAYQByAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAQQBkAGQAWQBlAGEAcgBzACwAIABOACgAQQBkAGQAWQBlAGEAcgBzACkAIAAtACAAXwBhAGQAZABZAGUAYQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBNAG8AbgB0AGgAcwAsACAATgAoAEEAZABkAE0AbwBuAHQAaABzACkAIAArACAAKABfAGYAQQBkAGQAWQBlAGEAcgBzACAAKgAgADEAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAZABkAE0AbwBuAHQAaABzACwAIABJAE4AVAAoAF8AcwBNAG8AbgB0AGgAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAQQBkAGQATQBvAG4AdABoAHMALAAgAF8AcwBNAG8AbgB0AGgAcwAgAC0AIABfAGEAZABkAE0AbwBuAHQAaABzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHoATQBvAG4AdABoAHMALAAgAE0AbwBuAHQAaAAgACsAIABfAGEAZABkAE0AbwBuAHQAaABzACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBNAG8AbgB0AGgALAAgAE0ATwBEACgAXwB6AE0AbwBuAHQAaABzACwAIAAxADIAKQAgACsAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAWQBlAGEAcgAsACAAWQBlAGEAcgBDAEUAIAArACAAXwBhAGQAZABZAGUAYQByAHMAIAArACAASQBOAFQAKABfAHoATQBvAG4AdABoAHMAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQB2AGcARABhAHkAcwBNAG8AbgB0AGgALAAgAEkARgAoAE4AKABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsACAAMwAwAC4ANAAzADcANQAsACAAMwAwAC4ANAAzADYAOAA3ADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAEQAYQB5AHMALAAgAFIATwBVAE4ARAAoAF8AZgBBAGQAZABNAG8AbgB0AGgAcwAgACoAIABfAGEAdgBnAEQAYQB5AHMATQBvAG4AdABoACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAZQBKAEQAYQB0AGUALAAgAEoAVQBMAEkAQQBOAF8ARABBAFQARQAoAF8AcgBZAGUAYQByACwAIABfAHIATQBvAG4AdABoACwAIAAxACwAIAAwACwAIABfAHQAegBvACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHkAcwAsACAARABhAHkAIAArACAAXwBtAEQAYQB5AHMAIAArACAATgAoAEEAZABkAEQAYQB5AHMAKQAgACsAIABOACgAVABpAG0AZQApACAAKwAgAE4AKABBAGQAZABUAGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAZQBKAEQAYQB0AGUAIAArACAAXwBzAEQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFIARQBTAE8ATABWAEUAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAZgByAG8AbQAgAHAAcgBvAHYAaQBkAGUAZAAgAGQAZQBjAGkAbQBhAGwAIAB5AGUAYQByACwAIABtAG8AbgB0AGgAcwAsACAAZABhAHkAcwAgAGEAbgBkACAAdABpAG0AZQAuAFwAbgBOAG8AdABlACAAbQBvAG4AdABoAHMAIABhAG4AZAAgAGQAYQB5AHMAIABhAHIAZQAgAG4AbwB0ACAAYgBvAHUAbgBkAGUAZAAgAGIAeQAgAHQAaABlACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAQwBFAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAB8ACAARABhAHkAXABuACAANAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAXQAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgAEQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4ALAAgAGkAbQBwAGwAaQBjAGkAdABsAHkAIABjAG8AbgB2AGUAcgB0AHMAIAB0AG8AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgBNAG8AbgB0AGgAcwAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATQBvAG4AdABoAHMAXABuAEQAYQB5AHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQBzAFwAbgBUAGkAbQBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AcgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAuAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEYAbABvAGEAdABpAG4AZwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANQAgAC0AIABNAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAEUAeABhAG0AcABsAGUAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUgBFAFMATwBMAFYARQBfAEQAQQBUAEUAKAAyADAAMgAzACwAIAAyADUALAAgADMAMwAuADUALAAgAC0AMQAuADUAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMgA1ACwAIAAyACwAIAAxACwAIAAwAH0AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFIARQBTAE8ATABWAEUAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaABzACwAIABEAGEAeQBzACwAIABUAGkAbQBlACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AbwBuAHQAaABzACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEQAYQB5AHMAIAA9ACAAXAAiAFwAIgApACAAKgAgACgAVABpAG0AZQAgAD0AIABcACIAXAAiACkALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaABzACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AHMAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGQAWQBlAGEAcgBzACwAIABZAGUAYQByAEMARQAgAC0AIABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGQAZABNAG8AbgB0AGgAcwAsACAATQBvAG4AdABoAHMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGQARABhAHkAcwAsACAARABhAHkAcwAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAEQAYQB0AGUALAAgAEEARABEAF8AVABJAE0ARQBTAFAAQQBOACgAXwB5AGUAYQByAEMARQAsACAAMQAsACAAMQAsACAAMAAsACAAXwBhAGQAZABZAGUAYQByAHMALAAgAF8AYQBkAGQATQBvAG4AdABoAHMALAAgAF8AYQBkAGQARABhAHkAcwAsACAAVABpAG0AZQAsACAAMAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAEEATABFAE4ARABBAFIAXwBGAFIATwBNAF8ASgBEAEEAVABFACgAXwBqAEQAYQB0AGUALAAgADAALAAgAFAAcgBlAGMAaQBzAGkAbwBuACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAARABFAEwAVABBAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAKgAvAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAEgATwBVAFIAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABoAG8AdQByAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuACAAaABvAHUAcgBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABcAG4ASgBEAGEAdABlADIAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8ASABPAFUAUgBTACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEoARABhAHQAZQAyACAALQAgAEoARABhAHQAZQAxACkAIAAqACAAMgA0AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8ATQBJAE4AVQBUAEUAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABtAGkAbgB1AHQAZQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABpAGYAZgBlAHIAZQBuAGMAZQAgAGkAbgAgAG0AaQBuAHUAdABlAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFwAbgBKAEQAYQB0AGUAMgAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEUATABUAEEAXwBNAEkATgBVAFQARQBTACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEoARABhAHQAZQAyACAALQAgAEoARABhAHQAZQAxACkAIAAqACAAMQA0ADQAMABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFMARQBDAE8ATgBEAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB0AGkAbQBlAHMAcABhAG4AIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAYgBlAHQAdwBlAGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAaQBuACAAcwBlAGMAbwBuAGQAcwAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAaQBmAGYAZQByAGUAbgBjAGUAIABpAG4AIABzAGUAYwBvAG4AZABzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABcAG4ASgBEAGEAdABlADIAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8AUwBFAEMATwBOAEQAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABKAEQAYQB0AGUAMgAgAC0AIABKAEQAYQB0AGUAMQApACAAKgAgADgANgA0ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAEgATwBVAFIAXwBNAEkATgBfAFMARQBDAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAGgAbwB1AHIAcwAsACAAbQBpAG4AdQB0AGUAcwAgAGEAbgBkACAAcwBlAGMAbwBuAGQAcwAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADEALAAwACwAMQBdACAAfAAgAFMAaQBnAG4AXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAfAAgAEQAZQBsAHQAYQAgAGgAbwB1AHIAcwBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADUAOQBdACAAIAB8ACAARABlAGwAdABhACAAbQBpAG4AdQB0AGUAcwBcAG4AIAA0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADYAMAApACAAIAB8ACAARABlAGwAdABhACAAcwBlAGMAbwBuAGQAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAXABuAEoARABhAHQAZQAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAEgATwBVAFIAXwBNAEkATgBfAFMARQBDACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAHsAXAAiAFwAIgAsAFwAIgBcACIALABcACIAXAAiACwAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABJAE0ARQBfAEQARQBDAEkATQBBAEwAXwBUAE8AXwBIAE0AUwAoAEoARABhAHQAZQAyACAALQAgAEoARABhAHQAZQAxACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAEUATABUAEEAXwBEAEEAWQBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAGQAYQB5AHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuACAAZABhAHkAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAXABuAEoARABhAHQAZQAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAEQAQQBZAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgASgBEAGEAdABlADIAIAAtACAASgBEAGEAdABlADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFcARQBFAEsAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB3AGUAZQBrAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuACAAdwBlAGUAawBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAXABuAEoARABhAHQAZQAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEUATABUAEEAXwBXAEUARQBLAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgASgBEAGEAdABlADIAIAAtACAASgBEAGEAdABlADEAKQAgAC8AIAA3AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8ATQBPAE4AVABIAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB0AGkAbQBlAHMAcABhAG4AIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAYgBlAHQAdwBlAGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAaQBuACAAbQBvAG4AdABoAHMALgBcAG4AVwBoAGUAcgBlACAAdABoAGUAIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuAGMAbAB1AGQAZQBzACAAcABhAHIAdABpAGEAbAAgAG0AbwBuAHQAaABzACwAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgAgAGkAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABvAG4AIAB0AGgAZQAgAGIAYQBzAGkAcwAgAG8AZgAgAGQAYQB5AHMAIABpAG4AIAB0AGgAZQAgAG0AbwBuAHQAaABcAG4AbwBmACAAdABoAGUAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuACAAbQBvAG4AdABoAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfABcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAE0ATwBOAFQASABTACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAE4AKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAEoARABhAHQAZQAyACAAPgA9ACAASgBEAGEAdABlADEALAAgADEALAAgAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBpAGcAbgAgAD0AIAAxACwAIABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADIALAAgAEoARABhAHQAZQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAF8ARQBuAGQALAAgAEoARABOAF8AVABPAF8AQwBBAEwARQBOAEQAQQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADEAKQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADEAKQAgAC0AIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBNAG8AbgB0AGgALAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAyACkAIAAtACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAE0AbwBuAHQAaABzACwAIAAoAF8AZABlAGwAdABhAFkAZQBhAHIAIAAqACAAMQAyACkAIAArACAAXwBkAGUAbAB0AGEATQBvAG4AdABoACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBNAG8AbgB0AGgAXwBTAHQAYQByAHQALAAgAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAKABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBNAG8AbgB0AGgAXwBFAG4AZAAsACAARABBAFkAUwBfAEkATgBfAE0ATwBOAFQASAAoAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAyACkALAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABpAGEAbABNAG8AbgB0AGgAXwBTAHQAYQByAHQALAAgACgASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAzACkAIAAtACAAMQAgACsAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACkAIAAvACAAXwBkAGEAeQBzAE0AbwBuAHQAaABfAFMAdABhAHIAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAaQBhAGwATQBvAG4AdABoAF8ARQBuAGQALAAgACgASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADMAKQAgAC0AIAAxACAAKwAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADIAKQApACAALwAgAF8AZABhAHkAcwBNAG8AbgB0AGgAXwBFAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABfAGQAaQBmAGYATQBvAG4AdABoAHMAIAAtACAAXwBwAGEAcgB0AGkAYQBsAE0AbwBuAHQAaABfAFMAdABhAHIAdAAgACsAIABfAHAAYQByAHQAaQBhAGwATQBvAG4AdABoAF8ARQBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFEAVQBBAFIAVABFAFIAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABxAHUAYQByAHQAZQByAHMALgBcAG4AVwBoAGUAcgBlACAAdABoAGUAIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuAGMAbAB1AGQAZQBzACAAcABhAHIAdABpAGEAbAAgAHEAdQBhAHIAdABlAHIAcwAsACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AIABpAHMAIABjAGEAbABjAHUAbABhAHQAZQBkACAAbwBuACAAdABoAGUAIABiAGEAcwBpAHMAIABvAGYAIABkAGEAeQBzACAAaQBuACAAdABoAGUAXABuAHEAdQBhAHIAdABlAHIAIABvAGYAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAaQBmAGYAZQByAGUAbgBjAGUAIABpAG4AIABxAHUAYQByAHQAZQByAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFwAbgBKAEQAYQB0AGUAMgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsATQBvAG4AdABoAE8AZgBmAHMAZQB0AF0AIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsALQA2AC4ALgAzAF0AIAB8ACAAUQB1AGEAcgB0AGUAcgAgAG0AbwBuAHQAaAAgAG8AZgBmAHMAZQB0ACAAZgByAG8AbQAgAEoAYQBuAHUAYQByAHkALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAFEAVQBBAFIAVABFAFIAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKAAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACkAIAArACAAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAgADwAIAAtADYAKQAgACsAIAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAPgAgADMAKQAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBRAFUAQQBSAFQARQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAFEAVQBBAFIAVABFAFIAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACwAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMQApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAUQB1AGEAcgB0AGUAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAFEAdQBhAHIAdABlAHIAcwAsACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKgAgADQAKQAgACsAIABfAGQAZQBsAHQAYQBRAHUAYQByAHQAZQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABpAGEAbABRAHUAYQByAHQAZQByAF8AUwB0AGEAcgB0ACwAIAAoAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAzACkAIAAtACAAMQAgACsAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACkAIAAvACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAaQBhAGwAUQB1AGEAcgB0AGUAcgBfAEUAbgBkACwAIAAoAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8ARQBuAGQALAAgADEALAAgADMAKQAgAC0AIAAxACAAKwAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADIAKQApACAALwAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8ARQBuAGQALAAgADEALAAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABfAGQAaQBmAGYAUQB1AGEAcgB0AGUAcgBzACAALQAgAF8AcABhAHIAdABpAGEAbABRAHUAYQByAHQAZQByAF8AUwB0AGEAcgB0ACAAKwAgAF8AcABhAHIAdABpAGEAbABRAHUAYQByAHQAZQByAF8ARQBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFkARQBBAFIAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB5AGUAYQByAHMALgBcAG4AVwBoAGUAcgBlACAAdABoAGUAIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuAGMAbAB1AGQAZQBzACAAcABhAHIAdABpAGEAbAAgAHkAZQBhAHIAcwAsACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AIABpAHMAIABjAGEAbABjAHUAbABhAHQAZQBkACAAbwBuACAAdABoAGUAIABiAGEAcwBpAHMAIABvAGYAIABkAGEAeQBzACAAaQBuACAAdABoAGUAXABuAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAaQBmAGYAZQByAGUAbgBjAGUAIABpAG4AIAB5AGUAYQByAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABcAG4ASgBEAGEAdABlADIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEUATABUAEEAXwBZAEUAQQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAQQBCAFMAKABfAHQAegBvACkAIAA+ACAAOQAwADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGACgASgBEAGEAdABlADIAIAA+AD0AIABKAEQAYQB0AGUAMQAsACAAMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBpAGcAbgAgAD0AIAAxACwAIABKAEQAYQB0AGUAMgAsACAASgBEAGEAdABlADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgAEoARABOAF8AVABPAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBZAGUAYQByACwAIABJAE4ARABFAFgAKABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAxACkAIAAtACAASQBOAEQARQBYACgAXwBvAHIAZABpAG4AYQBsAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAaQBhAGwAWQBlAGEAcgBfAFMAdABhAHIAdAAsACAAKABJAE4ARABFAFgAKABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACAALQAgADEAIAArACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQApACAALwAgAEkATgBEAEUAWAAoAF8AbwByAGQAaQBuAGEAbABEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAGEAcgB0AGkAYQBsAFkAZQBhAHIAXwBFAG4AZAAsACAAKABJAE4ARABFAFgAKABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAyACkAIAAtACAAMQAgACsAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAyACkAKQAgAC8AIABJAE4ARABFAFgAKABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAKgAgACgAXwBkAGUAbAB0AGEAWQBlAGEAcgAgAC0AIABfAHAAYQByAHQAaQBhAGwAWQBlAGEAcgBfAFMAdABhAHIAdAAgACsAIABfAHAAYQByAHQAaQBhAGwAWQBlAGEAcgBfAEUAbgBkACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8AVwBFAEUASwBfAEQAQQBZAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB0AGkAbQBlAHMAcABhAG4AIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAYgBlAHQAdwBlAGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAaQBuACAAdwBlAGUAawBzACAAYQBuAGQAIABkAGEAeQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAB8ACAAUwBpAGcAbgBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuAF0AIAAgACAAIAB8ACAARABlAGwAdABhACAAdwBlAGUAawBzACAAXABuACAANAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgA3ACkAIAAgACAAfAAgAEQAZQBsAHQAYQAgAGQAYQB5AHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFwAbgBKAEQAYQB0AGUAMgAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEUATABUAEEAXwBXAEUARQBLAF8ARABBAFkAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAEQAYQB5AHMALAAgACgASgBEAGEAdABlADIAIAAtACAASgBEAGEAdABlADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZABpAGYAZgBEAGEAeQBzACAAPQAgADAALAAgAHsAMAAsACAAMAAsACAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAF8AZABpAGYAZgBEAGEAeQBzACAAPgA9ACAAMAAsACAAMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGIAcwBEAGkAZgBmAEQAYQB5AHMALAAgAF8AcwBpAGcAbgAgACoAIABfAGQAaQBmAGYARABhAHkAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBXAGUAZQBrACwAIABJAE4AVAAoAF8AYQBiAHMARABpAGYAZgBEAGEAeQBzACAALwAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQAsACAATQBPAEQAKABfAGEAYgBzAEQAaQBmAGYARABhAHkAcwAsACAANwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAHkAZQBhAHIAcwAsACAAdwBlAGUAawBzACwAIABhAG4AZAAgAGQAYQB5AHMALgBcAG4ATgBvAHQAZQAgAHQAaABlACAAbgB1AG0AYgBlAHIAIABvAGYAIAB3AGUAZQBrAHMAIABwAGUAcgAgAHkAZQBhAHIAIABhAG4AIAB2AGEAcgB5ACAAYgBlAHQAdwBlAGUAbgAgADUAMgAgAGEAbgBkACAANQAzAC4AIABJAGYAIABhAG4AIABhAGIAcwBvAGwAdQB0AGUAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHcAZQBlAGsAcwAgAGkAcwAgAGIAZQBpAG4AZwAgAHMAbwB1AGcAaAB0AFwAbgB0AGgAZQBuACAAdQBzAGUAIABlAGkAdABoAGUAcgAgAEQARQBMAFQAQQBfAFcARQBFAEsAXwBEAEEAWQBTACAAbwByACAARABFAEwAVABBAF8AVwBFAEUASwBTACAAZgB1AG4AYwB0AGkAbwBuAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsALQAxACwAMAAsADEAXQAgAHwAIABTAGkAZwBuAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4AXQAgACAAIAAgAHwAIABEAGUAbAB0AGEAIAB5AGUAYQByAHMAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgA1ADIAXQAgACAAfAAgAEQAZQBsAHQAYQAgAHcAZQBlAGsAcwAgAFwAbgAgADQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANwApACAAIAAgAHwAIABEAGUAbAB0AGEAIABkAGEAeQBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAAsACAAewAjAE4AVQBNACEALAAgACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASgBEAGEAdABlADIAIAA9ACAASgBEAGEAdABlADEALAAgAHsAMAAsACAAMAAsACAAMAAsACAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgAEoARABOAF8AVABPAF8AVwBFAEUASwBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawBEAGEAdABlAF8ARQBuAGQALAAgAEoARABOAF8AVABPAF8AVwBFAEUASwBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwB3AGUAZQBrAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMQApACAALQAgAEkATgBEAEUAWAAoAF8AdwBlAGUAawBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBXAGUAZQBrACwAIABJAE4ARABFAFgAKABfAHcAZQBlAGsARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAyACkAIAAtACAASQBOAEQARQBYACgAXwB3AGUAZQBrAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAEQAYQB5ACwAIABJAE4ARABFAFgAKABfAHcAZQBlAGsARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAzACkAIAAtACAASQBOAEQARQBYACgAXwB3AGUAZQBrAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAyACkAIAAtACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQAyACwAIABNAE8ARAAoAF8AZABlAGwAdABhAEQAYQB5ACwAIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBXAGUAZQBrADIALAAgAF8AZABlAGwAdABhAFcAZQBlAGsAIAArACAASQBOAFQAKABfAGQAZQBsAHQAYQBEAGEAeQAgAC8AIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGQAZQBsAHQAYQBXAGUAZQBrADIAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBXAGUAZQBrADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEARABhAHkAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBZAGUAYQByACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAVwBlAGUAawAyACAAKwAgAEkATgBEAEUAWAAoAF8AdwBlAGUAawBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEARABhAHkAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB0AGkAbQBlAHMAcABhAG4AIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAYgBlAHQAdwBlAGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAaQBuACAAbQBvAG4AdABoAHMAIABhAG4AZAAgAGQAYQB5AHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsALQAxACwAMAAsADEAXQAgAHwAIABTAGkAZwBuAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4AXQAgACAAIAAgAHwAIABEAGUAbAB0AGEAIABtAG8AbgB0AGgAcwBcAG4AIAAzACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADMAMQApACAAIAB8ACAARABlAGwAdABhACAAZABhAHkAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFwAbgBKAEQAYQB0AGUAMgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAE4AKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACwAIAB7ACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASgBEAGEAdABlADIAIAA9ACAASgBEAGEAdABlADEALAAgAHsAMAAsACAAMAAsACAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADEAKQAgAC0AIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAE0AbwBuAHQAaAAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADIAKQAgAC0AIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABpAGYAZgBNAG8AbgB0AGgAcwAsACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKgAgADEAMgApACAAKwAgAF8AZABlAGwAdABhAE0AbwBuAHQAaAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAEQAYQB5ACwAIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMwApACAALQAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAFMAdABhAHIAdAAsACAAMQAsACAAMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADIAKQAgAC0AIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZABlAGwAdABhAEQAYQB5ACAAPAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBNAG8AbgB0AGgAXwBTAHQAYQByAHQALAAgAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAKABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAE0AbwBuAHQAaABzACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AHMATQBvAG4AdABoAF8AUwB0AGEAcgB0ACAAKwAgAF8AZABlAGwAdABhAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABpAGYAZgBNAG8AbgB0AGgAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFEAVQBBAFIAVABFAFIAXwBEAEEAWQBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAHEAdQBhAHIAdABlAHIAcwAgAGEAbgBkACAAZABhAHkAcwAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADEALAAwACwAMQBdACAAfAAgAFMAaQBnAG4AXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAfAAgAEQAZQBsAHQAYQAgAHEAdQBhAHIAdABlAHIAcwBcAG4AIAAzACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADkAMgApACAAIAB8ACAARABlAGwAdABhACAAZABhAHkAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAAgACAAIAAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADYALgAuADMAXQAgAHwAIABRAHUAYQByAHQAZQByACAAbQBvAG4AdABoACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAASgBhAG4AdQBhAHIAeQAuAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsATQBvAG4AdABoAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAE4AKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABSAE8AVQBOAEQAKABOACgATQBvAG4AdABoAE8AZgBmAHMAZQB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgAQQBCAFMAKABfAHQAegBvACkAIAA+ACAAOQAwADAAKQAgACsAIAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAPAAgAC0ANgApACAAKwAgACgAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQAIAA+ACAAMwApACwAIAB7ACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASgBEAGEAdABlADIAIAA9ACAASgBEAGEAdABlADEALAAgAHsAIAAwACwAIAAwACAALAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAEoARABhAHQAZQAxACAAPgAgAEoARABhAHQAZQAyACwAIAAtADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBRAFUAQQBSAFQARQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8ARQBuAGQALAAgAEoARABOAF8AVABPAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAFkAZQBhAHIALAAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8ARQBuAGQALAAgADEALAAgADEAKQAgAC0AIABJAE4ARABFAFgAKABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAUQB1AGEAcgB0AGUAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAaQBmAGYAUQB1AGEAcgB0AGUAcgBzACwAIAAoAF8AZABlAGwAdABhAFkAZQBhAHIAIAAqACAANAApACAAKwAgAF8AZABlAGwAdABhAFEAdQBhAHIAdABlAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMwApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAArACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBkAGUAbAB0AGEARABhAHkAIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzAFEAdQBhAHIAdABlAHIAXwBTAHQAYQByAHQALAAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAaQBmAGYAUQB1AGEAcgB0AGUAcgBzACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AHMAUQB1AGEAcgB0AGUAcgBfAFMAdABhAHIAdAAgACsAIABfAGQAZQBsAHQAYQBEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAaQBmAGYAUQB1AGEAcgB0AGUAcgBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8ASQBOAFQARQBSAFYAQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIAB1AG4AaQB0AHMALgBcAG4AXABuAE8AdQB0AHAAdQB0ACAAdwBoAGUAcgBlACAAVQBuAGkAdABzACAAPQAgAEgALAAgAE4ALAAgAFMALAAgAEQALAAgAFcALAAgAE0ALAAgAFEALAAgAFkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAZQBsAHQAYQAgAHUAbgBpAHQAcwAgAGQAZQBjAGkAbQBhAGwAXABuAFwAbgBPAHUAdABwAHUAdAAgAHcAaABlAHIAZQAgAFUAbgBpAHQAcwAgAD0AIABIAE0AUwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAB8ACAAUwBpAGcAbgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuAF0AIAAgACAAIAB8ACAARABlAGwAdABhACAAaABvAHUAcgBzAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4ANQA5AF0AIAAgAHwAIABEAGUAbAB0AGEAIABtAGkAbgB1AHQAZQBzAFwAbgAgADQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANgAwACkAIAAgAHwAIABEAGUAbAB0AGEAIABzAGUAYwBvAG4AZABzAFwAbgBcAG4ATwB1AHQAcAB1AHQAIAB3AGgAZQByAGUAIABVAG4AaQB0AHMAIAA9ACAARABIAE0AUwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAB8ACAAUwBpAGcAbgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuAF0AIAAgACAAIAB8ACAARABlAGwAdABhACAAZABhAHkAcwBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADIAMwBdACAAIAB8ACAARABlAGwAdABhACAAaABvAHUAcgBzAFwAbgAgADQAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4ANQA5AF0AIAAgAHwAIABEAGUAbAB0AGEAIABtAGkAbgB1AHQAZQBzAFwAbgAgADUAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANgAwACkAIAAgAHwAIABEAGUAbAB0AGEAIABzAGUAYwBvAG4AZABzAFwAbgBcAG4ATwB1AHQAcAB1AHQAIAB3AGgAZQByAGUAIABVAG4AaQB0AHMAIAA9ACAAVwBEACwAIABNAEQALAAgAFEARABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAAgACAAIAAgAHwAIABTAGkAZwBuAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4AXQAgACAAIAAgACAAIAAgACAAfAAgAEQAZQBsAHQAYQAgAHcAZQBlAGsAcwAvAG0AbwBuAHQAaABzAC8AcQB1AGEAcgB0AGUAcgBzAFwAbgAgADMAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANwAvADMAMQAvADkAMgApACAAfAAgAEQAZQBsAHQAYQAgAGQAYQB5AHMAXABuAFwAbgBPAHUAdABwAHUAdAAgAHcAaABlAHIAZQAgAFUAbgBpAHQAcwAgAD0AIABZAFcARAAsACAAWQBNAEQALAAgAFkAUQBEAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsALQAxACwAMAAsADEAXQAgACAAIAAgACAAfAAgAFMAaQBnAG4AXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAIAAgACAAIAB8ACAARABlAGwAdABhACAAeQBlAGEAcgBzAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4ANQAyAC8AMQAyAC8ANABdACAAfAAgAEQAZQBsAHQAYQAgAHcAZQBlAGsAcwAvAG0AbwBuAHQAaABzAC8AcQB1AGEAcgB0AGUAcgBzAFwAbgAgADQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANwAvADMAMQAvADkAMgApACAAfAAgAEQAZQBsAHQAYQAgAGQAYQB5AHMAXABuAFwAbgBPAHUAdABwAHUAdAAgAHcAaABlAHIAZQAgAFUAbgBpAHQAcwAgAD0AIABZAE0ARABIAE0AUwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAB8ACAAUwBpAGcAbgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuAF0AIAAgACAAIAB8ACAARABlAGwAdABhACAAeQBlAGEAcgBzAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4AMQAyAF0AIAAgAHwAIABEAGUAbAB0AGEAIABtAG8AbgB0AGgAcwBcAG4AIAA0ACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADMAMABdACAAIAB8ACAARABlAGwAdABhACAAZABhAHkAcwBcAG4AIAA1ACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADIAMwBdACAAIAB8ACAARABlAGwAdABhACAAaABvAHUAcgBzAFwAbgAgADYAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4ANQA5AF0AIAAgAHwAIABEAGUAbAB0AGEAIABtAGkAbgB1AHQAZQBzAFwAbgAgADcAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANgAwACkAIAAgAHwAIABEAGUAbAB0AGEAIABzAGUAYwBvAG4AZABzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVQBuAGkAdABzACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAB0AGUAeAB0ACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAASAAgAC0AIABoAG8AdQByAHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABOACAALQAgAG0AaQBuAHUAdABlAHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABTACAALQAgAHMAZQBjAG8AbgBkAHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABEACAALQAgAGQAYQB5AHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABXACAALQAgAHcAZQBlAGsAcwAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgAE0AIAAtACAAbQBvAG4AdABoAHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABRACAALQAgAHEAdQBhAHIAdABlAHIAcwAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgAFkAIAAtACAAeQBlAGEAcgBzACAAZABlAGMAaQBtAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIABIAE0AUwAgAC0AIABoAG8AdQByAHMALAAgAG0AaQBuAHUAdABlAHMALAAgAHMAZQBjAG8AbgBkAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgAEQASABNAFMAIAAtACAAZABhAHkAcwAsACAAaABvAHUAcgBzACwAIABtAGkAbgB1AHQAZQBzACwAIABzAGUAYwBvAG4AZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAVwBEACAALQAgAHcAZQBlAGsAcwAgAGEAbgBkACAAZABhAHkAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgAE0ARAAgAC0AIABtAG8AbgB0AGgAcwAgAGEAbgBkACAAZABhAHkAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgAFEARAAgAC0AIABxAHUAYQByAHQAZQByAHMAIABhAG4AZAAgAGQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAWQBXAEQAIAAtACAAeQBlAGEAcgBzACwAIAB3AGUAZQBrAHMALAAgAGQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAWQBNAEQAIAAtACAAeQBlAGEAcgBzACwAIABtAG8AbgB0AGgAcwAsACAAZABhAHkAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIABZAFEARAAgAC0AIAB5AGUAYQByAHMALAAgAHEAdQBhAHIAdABlAHIAcwAsACAAZABhAHkAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABZAE0ARABIAE0AUwAgAC0AIAB5AGUAYQByAHMALAAgAG0AbwBuAHQAaABzACwAIABkAGEAeQBzACwAIABoAG8AdQByAHMALAAgAG0AaQBuAHUAdABlAHMALAAgAHMAZQBjAG8AbgBkAHMAXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAAgACAAIAAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADYALgAuADMAXQAgAHwAIABRAHUAYQByAHQAZQByACAAbQBvAG4AdABoACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAASgBhAG4AdQBhAHIAeQAuAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8ASQBOAFQARQBSAFYAQQBMACAAPQAgAEwAQQBNAEIARABBACgAVQBuAGkAdABzACwAIABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsATQBvAG4AdABoAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBcACIALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAEgAXAAiACwAIABEAEUATABUAEEAXwBIAE8AVQBSAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBOAFwAIgAsACAARABFAEwAVABBAF8ATQBJAE4AVQBUAEUAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAFMAXAAiACwAIABEAEUATABUAEEAXwBTAEUAQwBPAE4ARABTACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIASABNAFMAXAAiACwAIABEAEUATABUAEEAXwBIAE8AVQBSAF8ATQBJAE4AXwBTAEUAQwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAEQAXAAiACwAIABEAEUATABUAEEAXwBEAEEAWQBTACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAVwBcACIALAAgAEQARQBMAFQAQQBfAFcARQBFAEsAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAE0AXAAiACwAIABEAEUATABUAEEAXwBNAE8ATgBUAEgAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBRAFwAIgAsACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBTACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAIABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAE0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAWQBcACIALAAgAEQARQBMAFQAQQBfAFkARQBBAFIAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBXAEQAXAAiACwAIABEAEUATABUAEEAXwBXAEUARQBLAF8ARABBAFkAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAFkAVwBEAFwAIgAsACAARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAIABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAE0ARABcACIALAAgAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAUQBEAFwAIgAsACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAATQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBEAEgATQBTAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbQBzACwAIABEAEUATABUAEEAXwBIAE8AVQBSAF8ATQBJAE4AXwBTAEUAQwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzACwAIABJAE4AVAAoAEkATgBEAEUAWAAoAF8AaABtAHMALAAgADEALAAgADIAKQAgAC8AIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgBzACwAIABJAE4ARABFAFgAKABfAGgAbQBzACwAIAAxACwAIAAyACkAIAAtACAAXwBkAGEAeQBzACAAKgAgADIANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGgAbQBzACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AaABtAHMALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBoAG0AcwAsACAAMQAsACAANAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAWQBNAEQAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAcwAsACAASQBOAFQAKABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAyACkAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABzACwAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAyACkAIAAtACAAXwB5AGUAYQByAHMAIAAqACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAFkAUQBEAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHkAcwAsACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAcwAsACAASQBOAFQAKABJAE4ARABFAFgAKABfAHEAdQBhAHIAdABlAHIARABhAHkAcwAsACAAMQAsACAAMgApACAALwAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgBzACwAIABJAE4ARABFAFgAKABfAHEAdQBhAHIAdABlAHIARABhAHkAcwAsACAAMQAsACAAMgApACAALQAgAF8AeQBlAGEAcgBzACAAKgAgADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB5AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHEAdQBhAHIAdABlAHIARABhAHkAcwAsACAAMQAsACAAMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAWQBNAEQASABNAFMAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAcwAsACAASQBOAFQAKABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAyACkAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABzACwAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAyACkAIAAtACAAXwB5AGUAYQByAHMAIAAqACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzACwAIABJAE4AVAAoAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgADEALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAzACkAIAAtACAAXwBkAGEAeQBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG0AcwAsACAAVABJAE0ARQBfAEQARQBDAEkATQBBAEwAXwBUAE8AXwBIAE0AUwAoAF8AdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARABSAE8AUAAoAF8AaABtAHMALAAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAHsAIwBWAEEATABVAEUAIQB9AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAEUAWABUAEUATgBUAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAFgAVABFAE4AVABfAE8ARgBfAEQAQQBZAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AYwBsAHUAcwBpAHYAZQAgAGUAeAB0AGUAbgB0ACAAbwBmACAAZABhAHkAcwAgAHMAcABhAG4AbgBlAGQAIABiAHkAIAB0AHcAbwAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARQB4AHQAZQBuAHQAIABvAGYAIABkAGEAeQBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AXABuAEUAeABhAG0AcABsAGUAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBYAFQARQBOAFQAXwBEAEEAWQBTACgASgBVAEwASQBBAE4AXwBEAEEAVABFACgAMgAwADIAMwAsADEALAAxACwAVABJAE0ARQAoADIAMwAsADUAOQAsADUANQApACkALAAgAEoAVQBMAEkAQQBOAF8ARABBAFQARQAoADIAMAAyADMALAAxACwAMgAsAFQASQBNAEUAKAAwACwAMAAsADUAKQApACkAXABuAD0AIAAyACAAIABpAC4AZQAuACAAMgAgAGQAYQB5AHMAIABiAGUAYwBhAHUAcwBlACAAdABoAGUAIAAxADAAIABzAGUAYwBvAG4AZAAgAHQAaQBtAGUAcwBwAGEAbgAgAGMAcgBvAHMAcwBlAHMAIAB0AGgAZQAgAGQAYQB5ACAAYgBvAHUAbgBkAGEAcgB5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAFgAVABFAE4AVABfAE8ARgBfAEQAQQBZAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAQQBCAFMAKABfAHQAegBvACkAIAA+ACAAOQAwADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGACgASgBEAGEAdABlADIAIAA+AD0AIABKAEQAYQB0AGUAMQAsACAAMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwAMQAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABKAEQAYQB0AGUAMQAsACAAXwB0AHoAbwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsADIALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgASgBEAGEAdABlADIALAAgAF8AdAB6AG8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQAsACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAMgAsACAAMQAsACAAMQApACAALQAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsADEALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABBAEIAUwAoAF8AZABlAGwAdABhAEQAYQB5ACkAIAArACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEUAWABUAEUATgBUAF8ATwBGAF8AVwBFAEUASwBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBuAGMAbAB1AHMAaQB2AGUAIABlAHgAdABlAG4AdAAgAG8AZgAgAHcAZQBlAGsAcwAgAHMAcABhAG4AbgBlAGQAIABiAHkAIAB0AHcAbwAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARQB4AHQAZQBuAHQAIABvAGYAIAB3AGUAZQBrAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABcAG4ASgBEAGEAdABlADIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAFgAVABFAE4AVABfAEQAQQBZAFMAKABKAFUATABJAEEATgBfAEQAQQBUAEUAKAAyADAAMgAzACwANgAsADQALABUAEkATQBFACgAMgAzACwANQA5ACwANQA1ACkAKQAsACAASgBVAEwASQBBAE4AXwBEAEEAVABFACgAMgAwADIAMwAsADYALAA1ACwAVABJAE0ARQAoADAALAAwACwANQApACkAKQBcAG4APQAgADIAIAAgAGkALgBlAC4AIAAyACAAdwBlAGUAawBzACAAYgBlAGMAYQB1AHMAZQAgAHQAaABlACAAMQAwACAAcwBlAGMAbwBuAGQAIAB0AGkAbQBlAHMAcABhAG4AIABjAHIAbwBzAHMAZQBzACAAdABoAGUAIAB3AGUAZQBrACAAYgBvAHUAbgBkAGEAcgB5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAFgAVABFAE4AVABfAE8ARgBfAFcARQBFAEsAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAE0AbwBuAGQAYQB5AF8AUwB0AGEAcgB0ACwAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACAAKwAgADEAIAAtACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATQBvAG4AZABhAHkAXwBFAG4AZAAsACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACAAKwAgADEAIAAtACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAKgAgAEkATgBUACgAKABfAGoAZABuAE0AbwBuAGQAYQB5AF8ARQBuAGQAIAAtACAAXwBqAGQAbgBNAG8AbgBkAGEAeQBfAFMAdABhAHIAdAApACAALwAgADcAIAArACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBNAE8ATgBUAEgAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIABtAG8AbgB0AGgAcwAgAHMAcABhAG4AbgBlAGQAIABiAHkAIAB0AHcAbwAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARQB4AHQAZQBuAHQAIABvAGYAIABtAG8AbgB0AGgAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfABcAG4ASgBEAGEAdABlADIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8AFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBNAE8ATgBUAEgAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgAEoARABOAF8AVABPAF8AQwBBAEwARQBOAEQAQQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAFkAZQBhAHIALAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAxACkAIAAtACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEATQBvAG4AdABoACwAIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABpAGYAZgBNAG8AbgB0AGgAcwAsACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKgAgADEAMgApACAAKwAgAF8AZABlAGwAdABhAE0AbwBuAHQAaAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABfAGQAaQBmAGYATQBvAG4AdABoAHMAIAArACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBRAFUAQQBSAFQARQBSAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AYwBsAHUAcwBpAHYAZQAgAGUAeAB0AGUAbgB0ACAAbwBmACAAcQB1AGEAcgB0AGUAcgBzACAAcwBwAGEAbgBuAGUAZAAgAGIAeQAgAHQAdwBvACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABFAHgAdABlAG4AdAAgAG8AZgAgAHEAdQBhAHIAdABlAHIAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8AFwAbgBKAEQAYQB0AGUAMgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfABcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgACAAIAAgACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0ANgAuAC4AMwBdACAAfAAgAFEAdQBhAHIAdABlAHIAIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgB5AC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAFgAVABFAE4AVABfAE8ARgBfAFEAVQBBAFIAVABFAFIAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKAAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACkAIAArACAAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAgADwAIAAtADYAKQAgACsAIAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAPgAgADMAKQAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBRAFUAQQBSAFQARQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAFEAVQBBAFIAVABFAFIAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACwAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMQApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAUQB1AGEAcgB0AGUAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAFEAdQBhAHIAdABlAHIAcwAsACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKgAgADQAKQAgACsAIABfAGQAZQBsAHQAYQBRAHUAYQByAHQAZQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAgACoAIAAoAF8AZABpAGYAZgBRAHUAYQByAHQAZQByAHMAIAArACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBZAEUAQQBSAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AYwBsAHUAcwBpAHYAZQAgAGUAeAB0AGUAbgB0ACAAbwBmACAAeQBlAGEAcgBzACAAcwBwAGEAbgBuAGUAZAAgAGIAeQAgAHQAdwBvACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABFAHgAdABlAG4AdAAgAG8AZgAgAHEAdQBhAHIAdABlAHIAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8AFwAbgBKAEQAYQB0AGUAMgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfABcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgACAAIAAgACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBZAEUAQQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAApACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAEoARABhAHQAZQAyACAAPgA9ACAASgBEAGEAdABlADEALAAgADEALAAgAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBpAGcAbgAgAD0AIAAxACwAIABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADIALAAgAEoARABhAHQAZQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAF8ARQBuAGQALAAgAEoARABOAF8AVABPAF8AQwBBAEwARQBOAEQAQQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADEAKQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADEAKQAgAC0AIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKwAgADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABQAEEAUgBTAEkATgBHACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFAFwAbgBcAG4AUABhAHIAcwBlAHMAIABhAG4AIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACwAIABkAGEAeQAsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0AFwAbgBpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAIAAgACAAIAB8ACAATQBvAG4AdABoAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAAgACAAIAAgAHwAIABEAGEAeQBcAG4AIAA0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgACAAIAAgACAAIAB8ACAAVABpAG0AZQBcAG4AIAA1ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBEAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHQAZQB4AHQAIAAgACAAfAAgAEQAYQB0AGUAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0ACAAaQBlAC4AIAB5AHkAeQB5AC0ATQBNAC0AZABkAFQAaABoADoAbQBtADoAcwBzACsAaABoADoAbQBtAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAEUAeABhAG0AcABsAGUAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACgAXAAiADIAMAAyADMALQAwADUALQAyADMAXAAiACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgAHsAMgAwADIAMwAsACAANQAsACAAMgAzACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuAFwAbgBQAEEAUgBTAEUAXwBJAFMATwBfAEQAQQBUAEUAKABcACIAMgAwADIAMwAtADAANQAtADIAMwBUADAANgA6ADAAMABcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMgAzACwAIAA1ACwAIAAyADMALAAgADAALgAyADUALAAgAFwAIgBcACIAfQBcAG4AXABuAFAAQQBSAFMARQBfAEkAUwBPAF8ARABBAFQARQAoAFwAIgAyADAAMgAzAC0AMAA1AC0AMgAzAFQAMAA2ADoAMAAwACsAMAA5ADoAMwAwAFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAB7ADIAMAAyADMALAAgADUALAAgADIAMwAsACAAMAAuADIANQAsACAANQA3ADAAfQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgASQBTAE8ARABhAHQAZQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEkAUwBPAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAQQByAHIAYQB5ACwAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAG0AbwB2AGUAZAAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsACAAXAAiAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAsACAATABBAE0AQgBEAEEAKABDAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAE4ALAAgAFsAUwB0AGEAcgB0AFAAbwBzAF0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOACgAUwB0AGEAcgB0AFAAbwBzACkAIAA+ACAATABFAE4AKABUAGUAeAB0ACkALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgByAG8AbQBQAG8AcwAsACAASQBGACgATgAoAFMAdABhAHIAdABQAG8AcwApACAAPAA9ACAAMAAsACAAMAAsACAATgAoAFMAdABhAHIAdABQAG8AcwApACAALQAgADEAKQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABlAHgAdAAsACAASQBGACgAXwBmAHIAbwBtAFAAbwBzACAAPQAgADAALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAEkARwBIAFQAKABUAGUAeAB0ACwAIABMAEUATgAoAFQAZQB4AHQAKQAgAC0AIABfAGYAcgBvAG0AUABvAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAQwBvAHUAbgB0ACwAIABMAEUATgAoAEMAaABhAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgAsACAASQBOAFQAKABOACgATgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAKABfAGMAaABhAHIAQwBvAHUAbgB0ACAAPQAgADAAKQAgACsAIAAoAF8AbgAgAD0AIAAwACkALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAHMALAAgAE0ASQBEACgAQwBoAGEAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAGMAaABhAHIAQwBvAHUAbgB0ACkALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAsACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMAKABfAGMAaABhAHIAcwAsACAAXwB0AGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZgBpAG4AZABDAG8AdQBuAHQAIAA8ACAAQQBCAFMAKABfAG4AKQAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoACwAIABJAEYAKABfAG4AIAA+ACAAMAAsACAAXwBuACwAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAKwAgAF8AbgAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoAFAAbwBzACwAIABSAEUARABVAEMARQAoADAALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBhAGMAYwAgADwAIAAwACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAASQBGAEUAUgBSAE8AUgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXwBjAGgAYQByAHMALAAgAF8AdABlAHgAdAAsACAAXwBhAGMAYwAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBlAHgAdABQAG8AcwAsACAATQBJAE4AKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACAAPgAgADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AbgBlAHgAdABQAG8AcwAgAD0AIAAwACwAIAAtADEALAAgAF8AbgBlAHgAdABQAG8AcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAG4AdABoAFAAbwBzACAAPgAgADAALAAgAF8AbgB0AGgAUABvAHMAIAArACAAXwBmAHIAbwBtAFAAbwBzACAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEkAbgB2AGEAbABpAGQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAF8AdABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAUwBlAHQALAAgAFwAIgArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFcAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AdABlAHgAdAAsACAAXAAiACYAXAAiACwAIABcACIAJgBhAG0AcAA7AFwAIgApACwAIABcACIAPABcACIALAAgAFwAIgAmAGwAdAA7AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4AHAAYQB0AGgALAAgAFwAIgAvAC8AcwBbAHQAcgBhAG4AcwBsAGEAdABlACgALgAsACcAXAAiACAAJgAgAF8AYwBoAGEAcgBTAGUAdAAgACYAIABcACIAJwAsACcAJwApAD0AJwAnAF0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFAAYQByAHMAZQBEAGEAdABlACwAIABMAEEATQBCAEQAQQAoAF8AZABhAHQAZQBQAGEAcgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AEMAaABhAHIALAAgAEwARQBGAFQAKABfAGQAYQB0AGUAUABhAHIAdAAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBTAGkAZwBuAGUAZAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABcACIAKwBcACIALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABcACIALQBcACIALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGACgAXwBpAHMAUwBpAGcAbgBlAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABDAGgAYQByACAAPQAgAFwAIgAtAFwAIgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AG4AUwBpAGcAbgBlAGQALAAgAEkARgAoAF8AaQBzAFMAaQBnAG4AZQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIASQBHAEgAVAAoAF8AZABhAHQAZQBQAGEAcgB0ACwAIABMAEUATgAoAF8AZABhAHQAZQBQAGEAcgB0ACkAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAGEAcgB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAG8AcwAxACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgAtAFwAIgAsACAAXwB1AG4AUwBpAGcAbgBlAGQAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHAAbwBzADEAIAA8ACAANQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAbwBzADIALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAC0AXAAiACwAIABfAHUAbgBTAGkAZwBuAGUAZAAsACAAXwBwAG8AcwAxACAAKwAgADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBwAG8AcwAyACAALQAgAF8AcABvAHMAMQAgADwAPgAgADMALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAF8AcwBpAGcAbgAgACoAIABJAE4AVAAoAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAHUAbgBTAGkAZwBuAGUAZAAsACAAXwBwAG8AcwAxACAALQAgADEAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAEkATgBUACgAVgBBAEwAVQBFACgATQBJAEQAKABfAHUAbgBTAGkAZwBuAGUAZAAsACAAXwBwAG8AcwAxACAAKwAgADEALAAgAF8AcABvAHMAMgAtACAAXwBwAG8AcwAxACAALQAgADEAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBOAFQAKABWAEEATABVAEUAKABSAEkARwBIAFQAKABfAHUAbgBTAGkAZwBuAGUAZAAsACAATABFAE4AKABfAHUAbgBTAGkAZwBuAGUAZAApACAALQAgAF8AcABvAHMAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAXwB5AGUAYQByACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AeQBlAGEAcgAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVABpAG0AZQBEAGUAYwBpAG0AYQBsACwAIABMAEEATQBCAEQAQQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBJAG4AVgBhAGwAaQBkACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIAIAA8ACAAMAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIAIAA+ACAAMgA0ACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBoAG8AdQByACAAPQAgADIANAApACAAKgAgACgAKABfAG0AaQBuAHUAdABlACAAPgAgADAAKQAgACsAIAAoAF8AcwBlAGMAbwBuAGQAIAA+ACAAMAApACkALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAgADwAIAAwACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAIAA+AD0AIAA2ADAALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGUAYwBvAG4AZAAgADwAIAAwACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAIAA+AD0AIAA2ADAALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAARgBBAEwAUwBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AaQBzAEkAbgB2AGEAbABpAGQALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBoAG8AdQByACAALwAgADIANAApACAAKwAgACgAXwBtAGkAbgB1AHQAZQAvACAAMQA0ADQAMAApACAAKwAgACgAXwBzAGUAYwBvAG4AZAAgAC8AIAA4ADYANAAwADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFAAYQByAHMAZQBUAGkAbQBlACwAIABMAEEATQBCAEQAQQAoAF8AdABpAG0AZQBQAGEAcgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4ALAAgAEwARQBOACgAXwB0AGkAbQBlAFAAYQByAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBUAGkAbQBlAEQAZQBjAGkAbQBhAGwAKABWAEEATABVAEUAKABfAHQAaQBtAGUAUABhAHIAdAApACwAIAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAgAD0AIAA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADMALAAgADEAKQAgADwAPgAgAFwAIgA6AFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVABpAG0AZQBEAGUAYwBpAG0AYQBsACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABMAEUARgBUACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABSAEkARwBIAFQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACAAPQAgADgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBJAEQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAAMwAsACAAMQApACAAPAA+ACAAXAAiADoAXAAiACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADYALAAgADEAKQAgADwAPgAgAFwAIgA6AFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBUAGkAbQBlAEQAZQBjAGkAbQBhAGwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8AdABpAG0AZQBQAGEAcgB0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABNAEkARAAoAF8AdABpAG0AZQBQAGEAcgB0ACwAIAA0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABSAEkARwBIAFQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAAMgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGwAZQBuACAAPgA9ACAAMQAwACkAIAAqACAAKABfAGwAZQBuACAAPAA9ACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBJAEQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAAMwAsACAAMQApACAAPAA+ACAAXAAiADoAXAAiACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADYALAAgADEAKQAgADwAPgAgAFwAIgA6AFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADkALAAgADEAKQAgADwAPgAgAFwAIgAuAFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AFMAZQBjACwAIABJAE4AVAAoAFYAQQBMAFUARQAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADcALAAgADIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjAFAAbABhAGMAZQBzACwAIABfAGwAZQBuACAALQAgADkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMAUwBlAGMALAAgAEkATgBUACgAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwB0AGkAbQBlAFAAYQByAHQALAAgAF8AZABlAGMAUABsAGEAYwBlAHMAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjAFMAZQBjACwAIABfAGkAbgB0AFMAZQBjACAAKwAgACgAXwBmAHIAYQBjAFMAZQBjACAALwAgACgAMQAwACAAXgAgAF8AZABlAGMAUABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFQAaQBtAGUARABlAGMAaQBtAGEAbAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8AdABpAG0AZQBQAGEAcgB0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATQBJAEQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAANAAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAUwBlAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAB7ACMAVgBBAEwAVQBFACEAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVABaAG0AaQBuAHUAdABlAHMALAAgAEwAQQBNAEIARABBACgAXwBzAGkAZwBuACwAIABfAGgAbwB1AHIALAAgAF8AbQBpAG4AdQB0AGUALAAgAF8AcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGIAcwBNAGkAbgBzACwAIAAoAF8AaABvAHUAcgAgACoAIAA2ADAAKQAgACsAIABfAG0AaQBuAHUAdABlACAAKwAgACgAXwBzAGUAYwBvAG4AZAAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBhAGIAcwBNAGkAbgBzACAAPgAgADkAMAAwACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAXwBhAGIAcwBNAGkAbgBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAFQAWgAsACAATABBAE0AQgBEAEEAKABfAFQAWgBwAGEAcgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAVQBQAFAARQBSACgAXwBUAFoAcABhAHIAdAApACAAPQAgAFwAIgBaAFwAIgAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAsACAATABFAEYAVAAoAF8AVABaAHAAYQByAHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABcACIALQBcACIALAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AEMAaABhAHIAIAA9ACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAF8AVABaAHAAYQByAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4AIAA9ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBUAFoAbQBpAG4AdQB0AGUAcwAoAF8AcwBpAGcAbgAsACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwBUAFoAcABhAHIAdAAsACAAMgApACkALAAgADAALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4AIAA9ACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwBUAFoAcABhAHIAdAAsACAANAAsACAAMQApACAAPAA+ACAAXAAiADoAXAAiACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFQAWgBtAGkAbgB1AHQAZQBzACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABNAEkARAAoAF8AVABaAHAAYQByAHQALAAgADIALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AVABaAHAAYQByAHQALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACAAPQAgADkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABNAEkARAAoAF8AVABaAHAAYQByAHQALAAgADQALAAgADEAKQAgADwAPgAgAFwAIgA6AFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwBUAFoAcABhAHIAdAAsACAANwAsACAAMQApACAAPAA+ACAAXAAiADoAXAAiACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVABaAG0AaQBuAHUAdABlAHMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABNAEkARAAoAF8AVABaAHAAYQByAHQALAAgADIALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATQBJAEQAKABfAFQAWgBwAGEAcgB0ACwAIAA1ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AVABaAHAAYQByAHQALAAgADIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAewAjAFYAQQBMAFUARQAhAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGYAbgBJAG4AdgBhAGwAaQBkAEMAaABhAHIAcwAoAEkAUwBPAEQAYQB0AGUAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAHAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgBUAFwAIgAsACAASQBTAE8ARABhAHQAZQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AVABwAG8AcwAgAD0AIAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAEQAYQB0AGUAKABJAFMATwBEAGEAdABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQAsACAAZgBuAFAAYQByAHMAZQBEAGEAdABlACgATABFAEYAVAAoAEkAUwBPAEQAYQB0AGUALAAgAF8AVABwAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AVABaAHAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiAFoAKwAtAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIABJAFMATwBEAGEAdABlACwAIAAtADEALAAgAF8AVABwAG8AcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBUAFoAcABvAHMAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFAAYQByAHMAZQBEAGEAdABlACgATABFAEYAVAAoAEkAUwBPAEQAYQB0AGUALAAgAF8AVABwAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAFQAaQBtAGUAKABSAEkARwBIAFQAKABJAFMATwBEAGEAdABlACwAIABMAEUATgAoAEkAUwBPAEQAYQB0AGUAKQAgAC0AIABfAFQAcABvAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAEQAYQB0AGUAKABMAEUARgBUACgASQBTAE8ARABhAHQAZQAsACAAXwBUAHAAbwBzACAALQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBQAGEAcgBzAGUAVABpAG0AZQAoAE0ASQBEACgASQBTAE8ARABhAHQAZQAsACAAXwBUAHAAbwBzACAAKwAgADEALAAgAF8AVABaAFAAbwBzACAALQAgAF8AVABwAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAFQAWgAoAFIASQBHAEgAVAAoAEkAUwBPAEQAYQB0AGUALAAgAEwARQBOACgASQBTAE8ARABhAHQAZQApACAALQAgAF8AVABaAHAAbwBzACAAKwAgADEAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8AVwBFAEUASwBEAEEAWQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHQAZQB4AHQAIAB3AGUAZQBrAGQAYQB5ACAAbgBhAG0AZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5ACAAbwBmACAAdwBlAGUAawBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAIAAgACAAIAAgACAAfAAgAHQAZQB4AHQAIAAgACAAIAB8ACAARABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgBhAG0AZQBcAG4AWwBOAHUAbQBiAGUAcgBTAGMAaABlAG0AZQBdACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABSAGUAdAB1AHIAbgAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAHUAcwBpAG4AZwAgAG4AdQBtAGIAZQByAGkAbgBnACAAcwBjAGgAZQBtAGUAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIAAxAC4ALgA3ACAAUwB1AG4AZABhAHkALgAuAFMAYQB0AHUAcgBkAGEAeQAgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgADEALgAuADcAIABNAG8AbgBkAGEAeQAuAC4AUwB1AG4AZABhAHkAIAAgACAAKABJAFMATwAgADgANgAwADEAIABkAGUAZgBpAG4AaQB0AGkAbwBuACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAAMAAuAC4ANgAgAE0AbwBuAGQAYQB5AC4ALgBTAHUAbgBkAGEAeQBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBXAEUARQBLAEQAQQBZACgAXAAiAFMAYQB0AHUAcgBkAGEAeQBcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAANwBcAG4AXABuAFAAQQBSAFMARQBfAFcARQBFAEsARABBAFkAKABcACIATQBvAG4AXAAiACwAIAAzACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADAAXABuAFwAbgBQAEEAUgBTAEUAXwBXAEUARQBLAEQAQQBZACgAXAAiAFQAaAB1AHIAcwBcACIALAAgADEAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAIwBWAEEATABVAEUAIQBcAG4AXABuAFAAQQBSAFMARQBfAFcARQBFAEsARABBAFkAKABcACIAVgBlAG4AXAAiACwAIAAyACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADUAIAAoAGkAZgAgAGwAbwBjAGEAbAAgAGwAYQBuAGcAdQBhAGcAZQAgAGkAcwAgAHMAZQB0ACAAdABvACAASQB0AGEAbABpAGEAbgApAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBXAEUARQBLAEQAQQBZACAAPQAgAEwAQQBNAEIARABBACgARABhAHkATwBmAFcAZQBlAGsALAAgAFsATgB1AG0AYgBlAHIAUwBjAGgAZQBtAGUAXQAsAFwAbgAgACAAIAAgAEkARgAoAEQAYQB5AE8AZgBXAGUAZQBrACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBNAGEAdABjAGgASQBuAHQARQBuAGcALAAgAEwAQQBNAEIARABBACgARABvAFcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdwAsACAASQBGACgATABFAE4AKABEAGEAeQBPAGYAVwBlAGUAawApACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwB1AG4AXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBvAG4AXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVAB1AGUAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVwBlAGQAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVABoAHUAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARgByAGkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBhAHQAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwB1AG4AZABhAHkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBvAG4AZABhAHkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVAB1AGUAcwBkAGEAeQBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBXAGUAZABuAGUAcwBkAGEAeQBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAdQByAHMAZABhAHkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARgByAGkAZABhAHkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBhAHQAdQByAGQAYQB5AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAE4AQQAoAF8AZABvAHcALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBNAGEAdABjAGgATABvAGMAYQBsAEwAYQBuAGcALAAgAEwAQQBNAEIARABBACgARABvAFcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzACwAIABTAEUAUQBVAEUATgBDAEUAKAA3ACwAIAAxACwAIAAzADYANQAyADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdwAsACAASQBGACgATABFAE4AKABEAGEAeQBPAGYAVwBlAGUAawApACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABEAGEAeQBPAGYAVwBlAGUAawAsACAAVABFAFgAVAAoAF8AZABhAHkAcwAsACAAXAAiAGQAZABkAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABEAGEAeQBPAGYAVwBlAGUAawAsACAAVABFAFgAVAAoAF8AZABhAHkAcwAsACAAXAAiAGQAZABkAGQAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBOAEEAKABfAGQAbwB3ACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAcgBhAGQARABvAFcALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAsACAAZgBuAE0AYQB0AGMAaABJAG4AdABFAG4AZwAoAEQAYQB5AE8AZgBXAGUAZQBrACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGkAZAB4ACAAPgAgADAALAAgAF8AaQBkAHgALAAgAGYAbgBNAGEAdABjAGgATABvAGMAYQBsAEwAYQBuAGcAKABEAGEAeQBPAGYAVwBlAGUAawApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGMAaABlAG0AZQAsACAASQBOAFQAKABOACgATgB1AG0AYgBlAHIAUwBjAGgAZQBtAGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHIAYQBkAEQAbwBXACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAYwBoAGUAbQBlACAAPAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHIAYQBkAEQAbwBXACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGMAaABlAG0AZQAgAD4APQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwB0AHIAYQBkAEQAbwBXACAALQAgADIALAAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwB0AHIAYQBkAEQAbwBXACAALQAgADIALAAgADcAKQAgACsAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBNAE8ATgBUAEgAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIAB0AGgAZQAgAG0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHQAZQB4AHQAIABtAG8AbgB0AGgAIABuAGEAbQBlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAE0AbwBuAHQAaABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAE0AbwBuAHQAaABOAGEAbQBlACAAfAAgAHQAZQB4AHQAIAB8ACAATQBvAG4AdABoACAAbgBhAG0AZQBcAG4AXABuAEUAeABhAG0AcABsAGUAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ATQBPAE4AVABIACgAXAAiAEYAZQBiAFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAAyAFwAbgBcAG4AUABBAFIAUwBFAF8ATQBPAE4AVABIACgAXAAiAEoAYQBuAHUAYQByAHkAXAAiACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADEAXABuAFwAbgBQAEEAUgBTAEUAXwBNAE8ATgBUAEgAKABcACIASgBcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAIwBWAEEATABVAEUAIQBcAG4AXABuAFAAQQBSAFMARQBfAE0ATwBOAFQASAAoAFwAIgBNAGEAcgB6AG8AXAAiACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADMAIAAoAGkAZgAgAGwAbwBjAGEAbAAgAGwAYQBuAGcAdQBhAGcAZQAgAGkAcwAgAHMAZQB0ACAAdABvACAASQB0AGEAbABpAGEAbgApAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBNAE8ATgBUAEgAIAA9ACAATABBAE0AQgBEAEEAKABNAG8AbgB0AGgATgBhAG0AZQAsAFwAbgAgACAAIAAgAEkARgAoAE0AbwBuAHQAaABOAGEAbQBlACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAByAHkATQBvAG4AdABoACwAIABNAG8AbgB0AGgATgBhAG0AZQAgACYAIABcACIAIAAyADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ATgBUAEgAKABEAEEAVABFAFYAQQBMAFUARQAoAF8AdAByAHkATQBvAG4AdABoACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8AWQBFAEEAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAeQBlAGEAcgAgAHIAZQBsAGEAdABpAHYAZQAgAHQAbwAgAHQAaABlACAAYwBvAG0AbQBvAG4AIABlAHIAYQAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAbABpAHQAZQByAGEAcgB5ACAAeQBlAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAQwBFAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBMAGkAdABlAHIAYQByAHkAWQBlAGEAcgAgAHwAIAB0AGUAeAB0ACAAfAAgAEwAaQB0AGUAcgBhAHIAeQAgAHkAZQBhAHIAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAFkARQBBAFIAIAA9ACAATABBAE0AQgBEAEEAKABMAGkAdABlAHIAYQByAHkAWQBlAGEAcgAsAFwAbgAgACAAIAAgAEkARgAoAEwAaQB0AGUAcgBhAHIAeQBZAGUAYQByACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBZAGUAYQByAFYAYQBsAHUAZQAsACAATABBAE0AQgBEAEEAKABfAHQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByADEALAAgAEwARQBGAFQAKABfAHQAZQB4AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAMQAgAD0AIABcACIAKwBcACIALAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByADEAIAA9ACAAXAAiAC0AXAAiACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEkAQwBPAEQARQAoAF8AYwBoAGEAcgAxACkAIAA9ACAAOAA3ADIAMgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAFYAQQBMAFUARQAoAF8AdABlAHgAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAKgAgAEkATgBUACgAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwB0AGUAeAB0ACwAIABMAEUATgAoAF8AdABlAHgAdAApACAALQAxACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAaQB0AFkAZQBhAHIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABTAFUAQgBTAFQASQBUAFUAVABFACgATABpAHQAZQByAGEAcgB5AFkAZQBhAHIALAAgAFwAIgAsAFwAIgAsACAAXAAiAFwAIgApACwAIABcACIAIABcACIALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIASQBHAEgAVAAoAF8AbABpAHQAWQBlAGEAcgAsACAAMwApACAAPQAgAFwAIgBCAEMARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAIABMAEUARgBUACgAXwBsAGkAdABZAGUAYQByACwAIABMAEUATgAoAF8AbABpAHQAWQBlAGEAcgApACAALQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACAALQAgAGYAbgBZAGUAYQByAFYAYQBsAHUAZQAoAF8AcwBZAGUAYQByACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBJAEcASABUACgAXwBsAGkAdABZAGUAYQByACwAIAAyACkAIAA9ACAAXAAiAEMARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAIABMAEUARgBUACgAXwBsAGkAdABZAGUAYQByACwAIABMAEUATgAoAF8AbABpAHQAWQBlAGEAcgApACAALQAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AWQBlAGEAcgBWAGEAbAB1AGUAKABfAHMAWQBlAGEAcgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAGYAbgBZAGUAYQByAFYAYQBsAHUAZQAoAF8AbABpAHQAWQBlAGEAcgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYARQBSAFIATwBSACgAXwB5AGUAYQByAEMARQAsACAAewAjAFYAQQBMAFUARQAhAH0AKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8ARABBAFQARQBcAG4AXABuAFAAYQByAHMAZQBzACAAYQAgAGwAaQB0AGUAcgBhAHIAeQAgAGQAYQB0AGUAIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAsACAAZABhAHkAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAB8ACAARABhAHkAXABuACAANAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgAHwAIABUAGkAbQBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATABpAHQAZQByAGEAcgB5AEQAYQB0AGUAIAB8ACAAdABlAHgAdAAgAHwAIABMAGkAdABlAHIAYQByAHkAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBMAEkAVABFAFIAQQBSAFkAXwBEAEEAVABFACgAXAAiAEYAZQBiACAAMgA1ACwAIAAyADAAMQA0ACwAIAA2ADoAMAAwAFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAB7ADIAMAAxADQALAAgADIALAAgADIANQAsACAAMAAuADIANQB9AFwAbgBcAG4AUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8ARABBAFQARQAoAFwAIgBEAGUAYwAgADMAMQAsACAAMgAwADIAMwAsACAAMgA0ADoAMAAwAFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAB7ADIAMAAyADMALAAgADEAMgAsACAAMwAxACwAIAAxAH0AXABuAFwAbgBQAEEAUgBTAEUAXwBMAEkAVABFAFIAQQBSAFkAXwBEAEEAVABFACgAXAAiAEYAZQBiACAAMgA1AFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAB7AFwAIgBcACIAIAAsACAAMgAsACAAMgA1ACwAIABcACIAXAAiAH0AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABMAGkAdABlAHIAYQByAHkARABhAHQAZQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAEQAYQB0AGUALAAgAEwAQQBNAEIARABBACgAXwBsAGkAdABEAGEAdABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AbABpAHQARABhAHQAZQAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAcwAsACAAVABSAEkATQAoAFQARQBYAFQAUwBQAEwASQBUACgAXwBsAGkAdABEAGEAdABlACwAIABcACIALABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAHMALAAgAEMATwBMAFUATQBOAFMAKABfAHAAYQByAHQAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAF8AYwBvAGwAcwAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAGEAcgB0ADEALAAgAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAcABhAGMAZQBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAIABcACIALAAgAF8AcABhAHIAdAAxACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBwAGEAYwBlAFAAbwBzACAAPQAgADAALAAgAHsAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACgATABFAEYAVAAoAF8AcABhAHIAdAAxACwAIABfAHMAcABhAGMAZQBQAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBtAGEAaQBuACwAIABNAEkARAAoAF8AcABhAHIAdAAxACwAIABfAHMAcABhAGMAZQBQAG8AcwAgACsAIAAxACwAIABMAEUATgAoAF8AcABhAHIAdAAxACkAIAAtACAAXwBzAHAAYQBjAGUAUABvAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBuAG8AdABlAGQAWQBlAGEAcgAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAQwBcACIALAAgAF8AcgBlAG0AYQBpAG4AKQAsACAAMAApACAAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB2AGEAbAAsACAASQBGACgAXwBkAGUAbgBvAHQAZQBkAFkAZQBhAHIALAAgAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAFkARQBBAFIAKABfAHIAZQBtAGEAaQBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAFYAQQBMAFUARQAoAF8AcgBlAG0AYQBpAG4AKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBGAFMAKABfAGQAZQBuAG8AdABlAGQAWQBlAGEAcgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdgBhAGwAIAA8AD0AIAAwACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdgBhAGwAIAA8AD0AIAAzADEALAAgAF8AdgBhAGwALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAsACAASQBGAFMAKABfAGQAZQBuAG8AdABlAGQAWQBlAGEAcgAsACAAXwB2AGEAbAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdgBhAGwAIAA8AD0AIAAzADEALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABfAHYAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAXAAiAFwAIgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGwAcwAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwADEALAAgAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAcABhAGMAZQBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAIABcACIALAAgAF8AcAAxACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBwAGEAYwBlAFAAbwBzACAAPQAgADAALAAgAHsAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACgATABFAEYAVAAoAF8AcAAxACwAIABfAHMAcABhAGMAZQBQAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAE4AVAAoAFYAQQBMAFUARQAoAE0ASQBEACgAXwBwADEALAAgAF8AcwBwAGEAYwBlAFAAbwBzACAAKwAgADEALAAgAEwARQBOACgAXwBwADEAKQAgAC0AIABfAHMAcABhAGMAZQBQAG8AcwApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAMgAsACAASQBOAEQARQBYACgAXwBwAGEAcgB0AHMALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAcgB5AFQAaQBtAGUALAAgAEQAQQBUAEUAVgBBAEwAVQBFACgAXwBwADIAKQAgACsAIABUAEkATQBFAFYAQQBMAFUARQAoAF8AcAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABJAEYARQBSAFIATwBSACgAXwB0AHIAeQBUAGkAbQBlACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABJAEYAKABJAFMARQBSAFIATwBSACgAXwB0AHIAeQBUAGkAbQBlACkALAAgAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAFkARQBBAFIAKABfAHAAMgApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAHkAZQBhAHIALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABfAHQAaQBtAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAHMAIAA9ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAsACAAUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8AWQBFAEEAUgAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAGEAcgB0ACwAIABJAE4ARABFAFgAKABfAHAAYQByAHQAcwAsACAAMQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAEEAVABFAFYAQQBMAFUARQAoAF8AdABpAG0AZQBQAGEAcgB0ACkAIAArACAAVABJAE0ARQBWAEEATABVAEUAKABfAHQAaQBtAGUAUABhAHIAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAMQAsACAASQBOAEQARQBYACgAXwBwAGEAcgB0AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBwAGEAYwBlAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgAgAFwAIgAsACAAXwBwADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAHAAYQBjAGUAUABvAHMAIAA9ACAAMAAsACAAewAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABQAEEAUgBTAEUAXwBNAE8ATgBUAEgAKABMAEUARgBUACgAXwBwADEALAAgAF8AcwBwAGEAYwBlAFAAbwBzACAALQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAEkATgBUACgAVgBBAEwAVQBFACgATQBJAEQAKABfAHAAMQAsACAAXwBzAHAAYQBjAGUAUABvAHMAIAArACAAMQAsACAATABFAE4AKABfAHAAMQApACAALQAgAF8AcwBwAGEAYwBlAFAAbwBzACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAXwB0AGkAbQBlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAewAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABfAHIAZQBzAHUAbAB0ACwAIABSAEUARABVAEMARQAoAFwAIgBcACIALAAgAEwAaQB0AGUAcgBhAHIAeQBEAGEAdABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByAGUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABzACwAIABmAG4AUABhAHIAcwBlAEQAYQB0AGUAKABfAGMAdQByAHIAZQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABfAGEAYwBjACwAIABfAHAAYQByAHQAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABEAFIATwBQACgAXwByAGUAcwB1AGwAdAAsACAAMQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFAAQQBSAFMARQBfAFUAUwBfAEQAQQBUAEUAXABuAFwAbgBQAGEAcgBzAGUAcwAgAGEAIABVAFMAIABmAG8AcgBtAGEAdABlAGQAIABkAGEAdABlACAAaQBuAHQAbwAgAHIAZQBzAHAAZQBjAHQAaQB2AGUAIABwAGEAcgB0AHMAIABvAGYAIAB5AGUAYQByACwAIABtAG8AbgB0AGgALAAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAE0AbwBuAHQAaABcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADMAMQBdACAAfAAgAEQAYQB5AFwAbgAgADQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4AMQApACAAIAB8ACAAVABpAG0AZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFUAUwBEAGEAdABlACAAfAAgAHQAZQB4AHQAIAB8ACAARABhAHQAZQAgAGkAbgAgAFUAUwAgAGYAbwByAG0AYQB0ACAAaQBlAC4AIABNAE0ALwBkAGQALwB5AHkAeQB5ACAAaABoADoAbQBtADoAcwBzAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBVAFMAXwBEAEEAVABFACgAXAAiADEALwAyADUALwAyADAAMQA0ACAANgA6ADAAMABcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMQA0ACwAIAAxACwAIAAyADUALAAgADAALgAyADUAfQBcAG4AXABuAFAAQQBSAFMARQBfAFUAUwBfAEQAQQBUAEUAKABcACIAMQAyAC8AMwAxAC8AMgAwADIAMwAgADIANAA6ADAAMABcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMgAzACwAIAAxADIALAAgADMAMQAsACAAMQB9AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBVAFMAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAVQBTAEQAYQB0AGUALABcAG4AIAAgACAAIABJAEYAKABVAFMARABhAHQAZQAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEkAbgB2AGEAbABpAGQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAF8AdABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAUwBlAHQALAAgAFwAIgAgACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEEATQBQAFQAYQBtAHAAXwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AdABlAHgAdAAsACAAXAAiACYAXAAiACwAIABcACIAJgBhAG0AcAA7AFwAIgApACwAIABcACIAPABcACIALAAgAFwAIgAmAGwAdAA7AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4AHAAYQB0AGgALAAgAFwAIgAvAC8AcwBbAHQAcgBhAG4AcwBsAGEAdABlACgALgAsACcAXAAiACAAJgAgAF8AYwBoAGEAcgBTAGUAdAAgACYAIABcACIAJwAsACcAJwApAD0AJwAnAF0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBBAHIAcgBhAHkALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAGUAbQBvAHYAZQBkACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAGgAYQByAEEAcgByAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUATgAoAFQAZQB4AHQAKQAgAC0AIABMAEUATgAoAF8AcgBlAG0AbwB2AGUAZAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAcwAsACAAVABlAHgAdAAsACAATgAsACAAWwBTAHQAYQByAHQAUABvAHMAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4AKABTAHQAYQByAHQAUABvAHMAKQAgAD4AIABMAEUATgAoAFQAZQB4AHQAKQAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAHIAbwBtAFAAbwBzACwAIABJAEYAKABOACgAUwB0AGEAcgB0AFAAbwBzACkAIAA8AD0AIAAwACwAIAAwACwAIABOACgAUwB0AGEAcgB0AFAAbwBzACkAIAAtACAAMQApACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGUAeAB0ACwAIABJAEYAKABfAGYAcgBvAG0AUABvAHMAIAA9ACAAMAAsACAAVABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIASQBHAEgAVAAoAFQAZQB4AHQALAAgAEwARQBOACgAVABlAHgAdAApACAALQAgAF8AZgByAG8AbQBQAG8AcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQALAAgAEwARQBOACgAQwBoAGEAcgBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuACwAIABJAE4AVAAoAE4AKABOACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKAAoAF8AYwBoAGEAcgBDAG8AdQBuAHQAIAA9ACAAMAApACAAKwAgACgAXwBuACAAPQAgADAAKQAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACwAIABmAG4AQwBvAHUAbgB0AEMAaABhAHIAcwAoAF8AYwBoAGEAcgBzACwAIABfAHQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBmAGkAbgBkAEMAbwB1AG4AdAAgADwAIABBAEIAUwAoAF8AbgApACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbgB0AGgAIABjAGEAbgAgAGMAbwB1AG4AdAAgAGYAcgBvAG0AIABlAG4AZAAgAGIAYQBjAGsAdwBhAHIAZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgALAAgAEkARgAoAF8AbgAgAD4AIAAwACwAIABfAG4ALAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAArACAAXwBuACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgAUABvAHMALAAgAFIARQBEAFUAQwBFACgAMAAsACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAXwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGEAYwBjACAAPAAgADAALAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBOAEQAKABfAGMAaABhAHIAcwAsACAAXwB0AGUAeAB0ACwAIABfAGEAYwBjACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzACwAIABNAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATABUAEUAUgAoAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMALAAgAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMAIAA+ACAAMAAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBuAGUAeAB0AFAAbwBzACAAPQAgADAALAAgAC0AMQAsACAAXwBuAGUAeAB0AFAAbwBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AbgB0AGgAUABvAHMAIAA+ACAAMAAsACAAXwBuAHQAaABQAG8AcwAgACsAIABfAGYAcgBvAG0AUABvAHMAIAAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AWQBlAGEAcgBWAGEAbAB1AGUALAAgAEwAQQBNAEIARABBACgAXwB0AGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgAxACwAIABMAEUARgBUACgAXwB0AGUAeAB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByADEAIAA9ACAAXAAiACsAXAAiACwAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgAxACAAPQAgAFwAIgAtAFwAIgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFUATgBJAEMATwBEAEUAKABfAGMAaABhAHIAMQApACAAPQAgADgANwAyADIALAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABWAEEATABVAEUAKABfAHQAZQB4AHQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAgACoAIABJAE4AVAAoAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AdABlAHgAdAAsACAATABFAE4AKABfAHQAZQB4AHQAKQAgAC0AMQApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAZgBuAEkAbgB2AGEAbABpAGQAQwBoAGEAcgBzACgAVQBTAEQAYQB0AGUAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAG8AcwAxACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiACwALgAvAC0AXwBcACIALAAgAFUAUwBEAGEAdABlACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABvAHMAMgAsACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAoAFwAIgAsAC4ALwAtAF8AXAAiACwAIABVAFMARABhAHQAZQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAbwBzADMALAAgAEkARgAoAF8AcABvAHMAMgAgAD0AIAAwACwAIAAwACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiACwALgAvAC0AXwBUACAAXAAiACwAIABVAFMARABhAHQAZQAsACAAMQAsACAAXwBwAG8AcwAyACAAKwAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAbwBzADQALAAgAEkARgAoAF8AcABvAHMAMwAgAD0AIAAwACwAIAAwACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiADAAMQAyADMANAA1ADYANwA4ADkAXAAiACwAIABVAFMARABhAHQAZQAsACAAMQAsACAATQBBAFgAKABfAHAAbwBzADIALAAgAF8AcABvAHMAMwApACAAKwAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBGACgAXwBwAG8AcwAxACAAPQAgADAALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABWAEEATABVAEUAKABMAEUARgBUACgAVQBTAEQAYQB0AGUALAAgAF8AcABvAHMAMQAgAC0AIAAxACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBGACgAXwBwAG8AcwAyACAAPQAgADAALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABWAEEATABVAEUAKABNAEkARAAoAFUAUwBEAGEAdABlACwAIABfAHAAbwBzADEAIAArACAAMQAsACAAXwBwAG8AcwAyACAALQAgAF8AcABvAHMAMQAgAC0AIAAxACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABmAG4AWQBlAGEAcgBWAGEAbAB1AGUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBwAG8AcwAzACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAEkARwBIAFQAKABVAFMARABhAHQAZQAsACAATABFAE4AKABVAFMARABhAHQAZQApACAALQAgAF8AcABvAHMAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBJAEQAKABVAFMARABhAHQAZQAsACAAXwBwAG8AcwAyACAAKwAgADEALAAgAF8AcABvAHMAMwAgAC0AIABfAHAAbwBzADIAIAAtACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABJAEYAKABfAHAAbwBzADQAIAA9ACAAMAAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAGEAcgB0ACwAIABSAEkARwBIAFQAKABVAFMARABhAHQAZQAsACAATABFAE4AKABVAFMARABhAHQAZQApACAALQAgAF8AcABvAHMANAAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAEEAVABFAFYAQQBMAFUARQAoAF8AdABpAG0AZQBQAGEAcgB0ACkAIAArACAAVABJAE0ARQBWAEEATABVAEUAKABfAHQAaQBtAGUAUABhAHIAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAHkAZQBhAHIALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABfAHQAaQBtAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHAFwAbgBcAG4AUABhAHIAcwBlAHMAIABhACAAZABhAHQAZQAtAHQAaQBtAGUAIABnAHIAbwB1AHAAIABpAG4AIAB0AGgAZQAgAGYAbwByAG0AYQB0ACAAdQBzAGUAZAAgAGIAeQAgAFUAUwAgAE0AaQBsAGkAdABhAHIAeQAgAG0AZQBzAHMAYQBnAGUAIAB0AHIAYQBmAGYAaQBjACwAIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAHkAZQBhAHIALABcAG4AbQBvAG4AdABoACwAIABkAGEAeQAsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxADkANQAxAC4ALgAyADAANQAwAF0AIAB8ACAAWQBlAGEAcgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAIAAgACAAIAAgAHwAIABNAG8AbgB0AGgAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgACAAIAAgACAAIAB8ACAARABhAHkAXABuACAANAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQBcAG4AIAA1ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAbQBpAG4AdQB0AGUAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAVABHACAAfAAgAHQAZQB4AHQAIAB8ACAARABhAHQAZQAtAHQAaQBtAGUAIABnAHIAbwB1AHAAIABpAG4AIABVAFMAIABNAGkAbABpAHQAYQByAHkAIABmAG8AcgBtAGEAdAAgAGkAZQAuACAAZABkAEgASABtAG0AcwBzAFoAbQBtAG0AWQBZAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHACgAXAAiADEAMgAgADEANQAgADMAMAAgADQANQAgAEIAIABNAEEAWQAgADIAMwBcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMgAzACwAIAA1ACwAIAAxADIALAAgADAALgA3ADcAMQAxADgAMAA1ADUALAAgADEAMgAwAH0AXABuAFwAbgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHACgAXAAiADAANQAwADYANAA1ADEANQBLAEoAVQBOADAAMABcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMAAwACwAIAA2ACwAIAA1ACwAIAAwAC4AMgA4ADEANAAyADMANgAxADEALAAgADYAMAAwAH0AXABuAFwAbgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHACgAXAAiADEANQAwADYAMAAwAFoAXAAiACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAMQA1ACwAIAAwAC4AMgA1ACwAIAAwAH0AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAE0ASQBMAF8ARABUAEcAIAA9ACAATABBAE0AQgBEAEEAKABEAFQARwAsAFwAbgAgACAAIAAgAEkARgAoAEQAVABHACAAPQAgAFwAIgBcACIALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ASQBuAHYAYQBsAGkAZABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAXwB0AGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBTAGUAdAAsACAAXAAiADAAMQAyADMANAA1ADYANwA4ADkAQQBCAEMARABFAEYARwBIAEkASgBLAEwATQBOAE8AUABRAFIAUwBUAFUAVgBXAFgAWQBaAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AdABlAHgAdAAsACAAXAAiACYAXAAiACwAIABcACIAJgBhAG0AcAA7AFwAIgApACwAIABcACIAPABcACIALAAgAFwAIgAmAGwAdAA7AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4AHAAYQB0AGgALAAgAFwAIgAvAC8AcwBbAHQAcgBhAG4AcwBsAGEAdABlACgALgAsACcAXAAiACAAJgAgAF8AYwBoAGEAcgBTAGUAdAAgACYAIABcACIAJwAsACcAJwApAD0AJwAnAF0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFkAZQBhAHIALAAgAEwAQQBNAEIARABBACgAXwBzAFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AHkALAAgAFYAQQBMAFUARQAoAF8AcwBZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AeQB5ACAAPAAgADUAMQAsACAAMgAwADAAMAAgACsAIABfAHkAeQAsACAAMQA5ADAAMAAgACsAIABfAHkAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBUAGkAbQBlACwAIABMAEEATQBCAEQAQQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE4AKABfAGgAbwB1AHIAKQAgAC8AIAAyADQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsAIAAoAE4AKABfAG0AaQBuAHUAdABlACkAIAAvACAAMQA0ADQAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAgACgATgAoAF8AcwBlAGMAbwBuAGQAKQAgAC8AIAA4ADYANAAwADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAFQAWgAsACAATABBAE0AQgBEAEEAKABfAHQAegBDAGgAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGQAZQAsACAAQwBPAEQARQAoAF8AdAB6AEMAaABhAHIAKQAgAC0AIAA2ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGQAZQAgAD0AIAAyADYALAAgADAALAAgAC8ALwAgAFoAIAA9ACAAVQBUAEMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGQAZQAgAD0AIAAxADAALAAgAFwAIgBcACIALAAgAC8ALwAgAEoAIAA9ACAATABvAGMAYQBsACAAVABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AZABlACAAPAA9ACAAMAAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AZABlACAAPAA9ACAAOQAsACAAXwBjAG8AZABlACAAKgAgADYAMAAsACAALwAvACAAQQBCAEMARABFAEYARwBIAEkAIAAtAD4AIAArADEALgAuACsAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AZABlACAAPAA9ACAAMQAzACwAIAAoAF8AYwBvAGQAZQAgAC0AIAAxACkAIAAqACAANgAwACwAIAAgAC8ALwAgAEsATABNACAALQA+ACAAKwAxADAALgAuACsAMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBkAGUAIAA8AD0AIAAyADUALAAgACgAMQAzACAALQAgAF8AYwBvAGQAZQApACAAKgAgADYAMAAsACAALwAvACAATgBPAFAAUQBSAFMAVABVAFYAVwBYAFkAIAAtAD4AIAAtADEALgAuAC0AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAB7ACMAVgBBAEwAVQBFACEAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFAAYQByAHMAZQBGAHUAbABsACwAIABMAEEATQBCAEQAQQAoAF8ARABUAEcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8ARABUAEcALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACgATQBJAEQAKABfAEQAVABHACwAIAAxADAALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAGYAbgBZAGUAYQByACgAUgBJAEcASABUACgAXwBEAFQARwAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAF8AeQBlAGEAcgAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkALAAgADAAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgAsACAAVgBBAEwAVQBFACgATQBJAEQAKABfAEQAVABHACwAIAAzACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUALAAgAFYAQQBMAFUARQAoAE0ASQBEACgAXwBEAFQARwAsACAANQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkACwAIABWAEEATABVAEUAKABNAEkARAAoAF8ARABUAEcALAAgADcALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABmAG4AVABpAG0AZQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoALAAgAGYAbgBQAGEAcgBzAGUAVABaACgATQBJAEQAKABfAEQAVABHACwAIAA5ACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBQAGEAcgBzAGUAUwBoAG8AcgB0ACwAIABMAEEATQBCAEQAQQAoAF8ARABUAEcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8ARABUAEcALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACgATQBJAEQAKABfAEQAVABHACwAIAA4ACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABmAG4AWQBlAGEAcgAoAFIASQBHAEgAVAAoAF8ARABUAEcALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABfAHkAZQBhAHIALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIAAwACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIALAAgAFYAQQBMAFUARQAoAE0ASQBEACgAXwBEAFQARwAsACAAMwAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AaQBuAHUAdABlACwAIABWAEEATABVAEUAKABNAEkARAAoAF8ARABUAEcALAAgADUALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoALAAgAGYAbgBQAGEAcgBzAGUAVABaACgATQBJAEQAKABfAEQAVABHACwAIAA3ACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXAAiAFwAIgApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEkATQBFACgAXwBoAG8AdQByACwAIABfAG0AaQBuAHUAdABlACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBQAGEAcgBzAGUAUABsAGEAbgAsACAATABBAE0AQgBEAEEAKABfAEQAVABHACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAEQAVABHACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByACwAIABWAEEATABVAEUAKABNAEkARAAoAF8ARABUAEcALAAgADMALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AaQBuAHUAdABlACwAIABWAEEATABVAEUAKABNAEkARAAoAF8ARABUAEcALAAgADUALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegAsACAAZgBuAFAAYQByAHMAZQBUAFoAKABNAEkARAAoAF8ARABUAEcALAAgADcALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAKABfAGgAbwB1AHIALAAgAF8AbQBpAG4AdQB0AGUALAAgAFwAIgBcACIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQASQBNAEUAKABfAGgAbwB1AHIALAAgAF8AbQBpAG4AdQB0AGUALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEQAVABHACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgARABUAEcALAAgAFwAIgAgAFwAIgAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGYAbgBJAG4AdgBhAGwAaQBkAEMAaABhAHIAcwAoAF8ARABUAEcAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAsACAATABFAE4AKABfAEQAVABHACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQALAAgAEkARgBTACgAXwBsAGUAbgAgAD0AIAAxADQALAAgADEALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACAAPQAgADEAMgAsACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACAAPQAgADcALAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZgBtAHQAIAA9ACAAMAAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAbQB0ACAAPQAgADEALAAgAGYAbgBQAGEAcgBzAGUARgB1AGwAbAAoAF8ARABUAEcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQAIAA9ACAAMgAsACAAZgBuAFAAYQByAHMAZQBTAGgAbwByAHQAKABfAEQAVABHACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAbQB0ACAAPQAgADMALAAgAGYAbgBQAGEAcgBzAGUAUABsAGEAbgAoAF8ARABUAEcAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAFQARQBYAFQAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBXAEUARQBLAEQAQQBZAF8ATgBBAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABuAGEAbQBlACAAbwBmACAAYQBuACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGEAcwAgAHQAZQB4AHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABXAGUAZQBrAGQAYQB5AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAE8AVwBlAGUAawBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgA3AF0AIAB8ACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgBcAG4AWwBTAGgAbwByAHQAXQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAB8ACAAUgBlAHQAdQByAG4AIABzAGgAbwByAHQAIABmAG8AcgBtAGEAdAAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AWwBJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAB8ACAASQBuAHQAZQByAG4AYQB0AGkAbwBuAGEAbAAgAEUAbgBnAGwAaQBzAGgAIABpAG4AcwB0AGUAYQBkACAAbwBmACAAbABvAGMAYQBsACAAbABhAG4AZwB1AGEAZwBlACAAcwBlAHQAIABpAG4AIABFAHgAYwBlAGwAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFcARQBFAEsARABBAFkAXwBOAEEATQBFACAAPQAgAEwAQQBNAEIARABBACgASQBTAE8AVwBlAGUAawBEAGEAeQAsACAAWwBTAGgAbwByAHQAXQAsACAAWwBJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAXQAsAFwAbgAgACAAIAAgAEkARgAoAEkAUwBPAFcAZQBlAGsARABhAHkAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABJAFMATwBXAGUAZQBrAEQAYQB5ACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFMAaABvAHIAdAAsACAATgAoAFMAaABvAHIAdAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUATABvAGMAYQBsAEwAYQBuAGcALAAgAE4AKABJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBEAG8AVwAsACAATQBPAEQAKABJAE4AVAAoAEkAUwBPAFcAZQBlAGsARABhAHkAKQAgAC0AIAAxACwAIAA3ACkAIAArACAAMQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwB1AHMAZQBMAG8AYwBhAGwATABhAG4AZwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5ADIAawByAGUAZgBEAGEAeQAsACAAMwA2ADUAMgA3ACAAKwAgAF8AaQBzAG8ARABvAFcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAG0AdAAsACAASQBGACgAXwB1AHMAZQBTAGgAbwByAHQALAAgAFwAIgBkAGQAZABcACIALAAgAFwAIgBkAGQAZABkAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKABfAHkAMgBrAHIAZQBmAEQAYQB5ACwAIABfAGYAbQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBTAGgAbwByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAKABfAGkAcwBvAEQAbwBXACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AbwBuAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAHUAZQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVwBlAGQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAaAB1AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBGAHIAaQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBhAHQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFMAdQBuAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAF8AaQBzAG8ARABvAFcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBvAG4AZABhAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAdQBlAHMAZABhAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFcAZQBkAG4AZQBzAGQAYQB5AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAdQByAHMAZABhAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEYAcgBpAGQAYQB5AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAGEAdAB1AHIAZABhAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFMAdQBuAGQAYQB5AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAE0ATwBOAFQASABfAE4AQQBNAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAG0AbwBuAHQAaAAgAGEAcwAgAHQAZQB4AHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABNAG8AbgB0AGgAIABuAGEAbQBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAXABuAFsAUwBoAG8AcgB0AF0AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAUgBlAHQAdQByAG4AIABzAGgAbwByAHQAIABmAG8AcgBtAGEAdAAgAEoAYQBuAC4ALgBEAGUAYwBcAG4AWwBJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsACAARQBuAGcAbABpAHMAaAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABsAG8AYwBhAGwAIABsAGEAbgBnAHUAYQBnAGUAIABzAGUAdAAgAGkAbgAgAEUAeABjAGUAbABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ATQBPAE4AVABIAF8ATgBBAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAE0AbwBuAHQAaAAsACAAWwBTAGgAbwByAHQAXQAsACAAWwBJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAXQAsAFwAbgAgACAAIAAgAEkARgAoAE0AbwBuAHQAaAAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFMAaABvAHIAdAAsACAATgAoAFMAaABvAHIAdAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUATABvAGMAYQBsAEwAYQBuAGcALAAgAE4AKABJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAEkATgBUACgATQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHUAcwBlAEwAbwBjAGEAbABMAGEAbgBnACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AE8AZgBNAG8AbgB0AGgALAAgAEQAQQBUAEUAKAAyADAAMAAwACwAIABfAG0AbwBuAHQAaAAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQALAAgAEkARgAoAF8AdQBzAGUAUwBoAG8AcgB0ACwAIABcACIATQBNAE0AXAAiACwAIABcACIATQBNAE0ATQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAXwBkAGEAeQBPAGYATQBvAG4AdABoACwAIABfAGYAbQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBTAGgAbwByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAewBcACIASgBhAG4AXAAiADsAIABcACIARgBlAGIAXAAiADsAIABcACIATQBhAHIAXAAiADsAIABcACIAQQBwAHIAXAAiADsAIABcACIATQBhAHkAXAAiADsAIABcACIASgB1AG4AXAAiADsAIABcACIASgB1AGwAXAAiADsAIABcACIAQQB1AGcAXAAiADsAIABcACIAUwBlAHAAXAAiADsAIABcACIATwBjAHQAXAAiADsAIABcACIATgBvAHYAXAAiADsAIABcACIARABlAGMAXAAiAH0ALAAgAF8AbQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBKAGEAbgB1AGEAcgB5AFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEYAZQBiAHIAdQBhAHIAeQBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAGEAcgBjAGgAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQQBwAHIAaQBsAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AYQB5AFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEoAdQBuAGUAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASgB1AGwAeQBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBBAHUAZwB1AHMAdABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAGUAcAB0AGUAbQBiAGUAcgBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBPAGMAdABvAGIAZQByAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE4AbwB2AGUAbQBiAGUAcgBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBEAGUAYwBlAG0AYgBlAHIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8ASQBTAE8AXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABkAGEAdABlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAXABuAFsAVABpAG0AZQBdACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4AMQApACAAIAB8ACAAVABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AZgAgAGEAIABkAGEAeQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbAAsACAAZABlAGYAYQB1AGwAdAAgAGkAcwAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAARgBsAG8AYQB0AHMAIABmAHIAbwBtACAAbQBpAG4AdQB0AGUAIAB0AG8AIABtAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAARABhAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANAAgAC0AIABTAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANQAgAC0AIABNAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuAFsATgBvAFoAdQBsAHUAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBJAFMATwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAWwBUAGkAbQBlAF0ALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AWgB1AGwAdQBdACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABZAGUAYQByAEMARQAgAD0AIABcACIAXAAiACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAXAAiAFwAIgApACAAKgAgACgARABhAHkAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBvAHIAbQBhAHQAWQBlAGEAcgAsACAATABBAE0AQgBEAEEAKABfAHkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIARgBtAHQALAAgAEkARgAoACgAXwB5AGUAYQByACAAPgA9ACAAMQAwADAAMAApACAAKgAgACgAXwB5AGUAYQByACAAPAA9ACAAOQA5ADkAOQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAMAAwADAAMAA7AFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACAAJgAgAFwAIgAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsAMAAwADAAMAA7AFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACAAJgAgAFwAIgAwADAAMAAwADsAKwAwADAAMAAwAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAF8AeQBlAGEAcgAsACAAXwB5AGUAYQByAEYAbQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEYAbwByAG0AYQB0AFQAaQBtAGUALAAgAEwAQQBNAEIARABBACgAXwB0AGkAbQBlACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABvAHcAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHIAbwB1AG4AZAAgAHQAbwAgAG0AaQBsAGwAaQBzAGUAbwBuAGQAcwAsACAAcwBjAGEAbABlACAAdABvACAAcwBlAGMAbwBuAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAHMALAAgAFIATwBVAE4ARAAoAF8AdABpAG0AZQAgACoAIAA4ADYANAAwADAALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAHMAIAA9ACAAMAAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABfAHMAZQBjAG8AbgBkAHMALAAgADEAKQAgAD4AIAAwACwAIAA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AcwBlAGMAbwBuAGQAcwAgAC8AIAA2ADAALAAgADEAKQAgAD4AIAAwACwAIAA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaABvAHcAUAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABvAHcAUAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsACAAXAAiAEgASABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzACwAIABcACIASABIADoAbQBtAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAbwB3AFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADQALAAgAFwAIgBIAEgAOgBtAG0AOgBzAHMAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIASABIADoAbQBtADoAcwBzAC4AMAAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVABcACIAIAAmACAAVABFAFgAVAAoAF8AdABpAG0AZQAsACAAXwBmAG0AdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBGAG8AcgBtAGEAdABUAFoALAAgAEwAQQBNAEIARABBACgAXwB0AHoAbwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAF8AdAB6AG8AKQApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAKABfAHQAegBvACAAPQAgADAAKQAgACoAIAAoAE4AKABOAG8AWgB1AGwAdQApACAAPQAgADAAKQAsACAAXAAiAFoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBGAG0AdAAsACAASQBGACgATQBPAEQAKABfAHQAegBvACwAIAAxACkAIAA9ACAAMAAsACAAXAAiAEgASAA6AG0AbQBcACIALAAgAFwAIgBIAEgAOgBtAG0AOgBzAHMAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABfAHQAegBvACAAPgA9ACAAMAAsACAAXAAiACsAXAAiACwAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAJgAgAFQARQBYAFQAKABBAEIAUwAoAF8AdAB6AG8AKQAgAC8AIAAxADQANAAwACwAIABfAHQAegBGAG0AdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVABpAG0AZQAsACAAKAAoAE0ATwBEACgARABhAHkALAAgADEAKQAgAD4AIAAwACkAIAArACAASQBTAE4AVQBNAEIARQBSACgAVABpAG0AZQApACkAIAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBQAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABfAGgAYQBzAFQAaQBtAGUAKQAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFAAcgBlAGMAaQBzAGkAbwBuACkAKQAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABJAE4AVAAoAFAAcgBlAGMAaQBzAGkAbwBuACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAEQAYQB0AGUALAAgAFIARQBTAE8ATABWAEUAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFQAaQBtAGUALAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAZgBuAEYAbwByAG0AYQB0AFkAZQBhAHIAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBNAG8AbgB0AGgALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMgApACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMwApACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAAZgBuAEYAbwByAG0AYQB0AFQAaQBtAGUAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAANAApACwAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAFoALAAgAGYAbgBGAG8AcgBtAGEAdABUAFoAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBPAE4AQwBBAFQAKABfAHMAWQBlAGEAcgAsACAAXAAiAC0AXAAiACwAIABfAHMATQBvAG4AdABoACwAIABcACIALQBcACIALAAgAF8AcwBEAGEAeQAsACAAXwBzAFQAaQBtAGUALAAgAF8AcwBUAFoAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIAB5AGUAYQByACAAZgBvAHIAbQBhAHQAdABlAGQAIABpAG4AIABsAGkAdABlAHIAYQByAHkAIABzAHQAeQBsAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABMAGkAdABlAHIAYQByAHkAIAB5AGUAYQByAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFsAQQBsAHcAYQB5AHMAUwBoAG8AdwBFAHIAYQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAQQBsAHcAYQB5AHMAIABhAHAAcABsAHkAIABCAEMARQAvAEMARQAgAHMAdQBmAGYAaQB4AC4AIABJAGYAIABuAG8AdAAgAHUAcwBlAGQALAAgAG8AbgBsAHkAIAB5AGUAYQByAHMAIABsAGUAcwBzACAAdABoAGEAbgAgADEAMAAwADAAIABzAGgAbwB3ACAAYQBuACAAZQByAGEALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFsAQQBsAHcAYQB5AHMAUwBoAG8AdwBFAHIAYQBdACwAXABuACAAIAAgACAASQBGACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAEMARQAsACAAXwB5AGUAYQByAEMARQAgAD4APQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABJAEYAKABfAGkAcwBDAEUALAAgAF8AeQBlAGEAcgBDAEUALAAgADEAIAAtACAAXwB5AGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwB1AGYAZgBpAHgALAAgAEkARgBTACgATgBPAFQAKABfAGkAcwBDAEUAKQAsACAAXAAiACAAQgBDAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgADwAIAAxADAAMAAwACwAIABcACIAIABDAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEEAbAB3AGEAeQBzAFMAaABvAHcARQByAGEAKQAgADwAPgAgADAALAAgAFwAIgAgAEMARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAgACYAIABfAHMAdQBmAGYAaQB4AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAE8AUgBNAEEAVABfAEwASQBUAEUAUgBBAFIAWQBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGQAYQB0AGUAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGkAbgAgAGwAaQB0AGUAcgBhAHIAeQAgAHMAdAB5AGwAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIAB0AGUAeAB0ACAAfAAgAEwAaQB0AGUAcgBhAHIAeQAgAGQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4ATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAXABuAEQAYQB5ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAB8AFwAbgBbAFQAaQBtAGUAXQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgACAAfAAgAFQAaQBtAGUAIABvAGYAIABkAGEAeQAgAGEAcwAgAGQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkALgBcAG4AWwBTAGgAbwByAHQAXQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABSAGUAdAB1AHIAbgAgAHMAaABvAHIAdAAgAGYAbwByAG0AYQB0ACAASgBhAG4ALgAuAEQAZQBjAFwAbgBbAEkAbgB0AGUAcgBuAGEAdABpAG8AbgBhAGwARQBuAGcAbABpAHMAaABdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFUAcwBlACAAdABoAGUAIABJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsACAARQBuAGcAbABpAHMAaAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABsAG8AYwBhAGwAIABsAGEAbgBnAHUAYQBnAGUAIABzAGUAdAAgAGkAbgAgAEUAeABjAGUAbABcAG4AWwBBAGwAdwBhAHkAcwBTAGgAbwB3AEUAcgBhAF0AIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABBAGwAdwBhAHkAcwAgAGEAcABwAGwAeQAgAEIAQwBFAC8AQwBFACAAcwB1AGYAZgBpAHgALgAgAEkAZgAgAG4AbwB0ACAAdQBzAGUAZAAsACAAbwBuAGwAeQAgAHkAZQBhAHIAcwAgAGwAZQBzAHMAIAB0AGgAYQBuACAAMQAwADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAGgAbwB3ACAAYQBuACAAZQByAGEALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFsAVABpAG0AZQBdACwAIABbAFMAaABvAHIAdABdACwAIABbAEkAbgB0AGUAcgBuAGEAdABpAG8AbgBhAGwARQBuAGcAbABpAHMAaABdACwAIABbAEEAbAB3AGEAeQBzAFMAaABvAHcARQByAGEAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATQBvAG4AdABoACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEQAYQB5ACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKwAgACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkAKQAsACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAEkARgAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIALAAgADIAMAAwADAALAAgAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAEYAKABEAGEAeQAgAD0AIABcACIAXAAiACwAIAAxACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApACwAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIARABhAHQAZQAsACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABUAGkAbQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAEUAUwBPAEwAVgBFAF8ARABBAFQARQAoAF8AeQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAVABpAG0AZQAsACAAMwAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAE0AbwBuAHQAaAAsACAATQBPAE4AVABIAF8ATgBBAE0ARQAoAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAAxACwAIAAyACkALAAgAFMAaABvAHIAdAAsACAASQBuAHQAZQByAG4AYQB0AGkAbwBuAGEAbABFAG4AZwBsAGkAcwBoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB5ACwAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACwAIABcACIAIABcACIAIAAmACAASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADEALAAgADMAKQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACwAIABcACIALAAgAFwAIgAgACYAIABGAE8AUgBNAEEAVABfAEwASQBUAEUAUgBBAFIAWQBfAFkARQBBAFIAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACwAIABBAGwAdwBhAHkAcwBTAGgAbwB3AEUAcgBhACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAASQBGACgASQBTAE4AVQBNAEIARQBSACgAVABpAG0AZQApACwAIABcACIALAAgAFwAIgAgACYAIABUAEUAWABUACgASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADEALAAgADQAKQAsACAAXAAiAGgAOgBtAG0AIABBAE0ALwBQAE0AXAAiACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAE8ATgBDAEEAVAAoAF8AcwBNAG8AbgB0AGgALAAgAF8AcwBEAGEAeQAsACAAXwBzAFkAZQBhAHIALAAgAF8AcwBUAGkAbQBlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVQBTAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGYAbwByAG0AYQB0AHQAZQBkACAAaQBuACAAdABoAGUAIABVAFMAIABzAHQAeQBsAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABVAFMAIABzAHQAeQBsAGUAIABkAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8AFwAbgBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADMAMQBdACAAfABcAG4AWwBUAGkAbQBlAF0AIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgAHwAIABUAGkAbQBlACAAbwBmACAAZABhAHkAIABhAHMAIABkAGUAYwBpAG0AYQBsACAAZgByAGEAYwB0AGkAbwBuACAAbwBmACAAYQAgAGQAYQB5AC4AXABuAFsAUwBlAHAAYQByAGEAdABvAHIAXQAgACAAIAAgACAAIAB8ACAAYwBoAGEAcgAgACAAIAAgAFsALAAuAC8ALQBfAF0AIAB8ACAAQwBoAGEAcgBhAGMAdABlAHIAIABzAGUAcABhAHIAYQB0AG8AcgAgAGYAbwByACAAZABhAHQAZQAgAGUAbABlAG0AZQBuAHQAcwAuAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwALAAgAGQAZQBmAGEAdQBsAHQAIABpAHMAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEYAbABvAGEAdABzACAAZgByAG8AbQAgAG0AaQBuAHUAdABlACAAdABvACAAbQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAATQBpAG4AdQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8AVQBTAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABbAFQAaQBtAGUAXQAsACAAWwBTAGUAcABhAHIAYQB0AG8AcgBdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AbwBuAHQAaAAgAD0AIABcACIAXAAiACkAIAAqACAAKABEAGEAeQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAKQAsACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBvAHIAbQBhAHQAVABpAG0AZQAsACAATABBAE0AQgBEAEEAKABfAHQAaQBtAGUALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4AIAAxACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAcgBvAHUAbgBkACAAdABvACAAbQBpAGwAbABpAHMAZQBvAG4AZABzACwAIABzAGMAYQBsAGUAIAB0AG8AIABzAGUAYwBvAG4AZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAcwAsACAAUgBPAFUATgBEACgAXwB0AGkAbQBlACAAKgAgADgANgA0ADAAMAAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAcwAgAD0AIAAwACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AcwBlAGMAbwBuAGQAcwAsACAAMQApACAAPgAgADAALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwBzAGUAYwBvAG4AZABzACAALwAgADYAMAAsACAAMQApACAAPgAgADAALAAgADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAIABcACIAaAAgAEEATQAvAFAATQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzACwAIABcACIAaAA6AG0AbQAgAEEATQAvAFAATQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAA0ACwAIABcACIAaAA6AG0AbQA6AHMAcwAgAEEATQAvAFAATQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAFwAIgBoADoAbQBtADoAcwBzAC4AMAAwADAAIABBAE0ALwBQAE0AXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAIABcACIAIAAmACAAVABFAFgAVAAoAF8AdABpAG0AZQAsACAAXwBmAG0AdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAHAAYQByAGEAdABvAHIALAAgAEkARgAoAFMAZQBwAGEAcgBhAHQAbwByACAAPQAgAFwAIgBcACIALAAgAFwAIgAvAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgAxACwAIABMAEUARgBUACgAUwBlAHAAYQByAGEAdABvAHIALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXwBjAGgAYQByADEALAAgAFwAIgAsAC4ALwAtAF8AXAAiACkALAAgADAAKQAgAD4AIAAwACwAIABfAGMAaABhAHIAMQAsACAAXAAiAC8AXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFQAaQBtAGUALAAgACgAKABNAE8ARAAoAEQAYQB5ACwAIAAxACkAIAA+ACAAMAApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAFQAaQBtAGUAKQApACAAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgAXwBoAGEAcwBUAGkAbQBlACkALAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABQAHIAZQBjAGkAcwBpAG8AbgApACkALAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAASQBOAFQAKABQAHIAZQBjAGkAcwBpAG8AbgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAEQAYQB0AGUALAAgAFIARQBTAE8ATABWAEUAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFQAaQBtAGUALAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAVABFAFgAVAAoAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAAxACwAIAAxACkALAAgAFwAIgAwADAAMAAwADsAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkAIAAmACAAXAAiADAAMAAwADAAOwAwADAAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMATQBvAG4AdABoACwAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMwApACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAAZgBuAEYAbwByAG0AYQB0AFQAaQBtAGUAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAANAApACwAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMATwBOAEMAQQBUACgAXwBzAE0AbwBuAHQAaAAsACAAXwBzAGUAcABhAHIAYQB0AG8AcgAsACAAXwBzAEQAYQB5ACwAIABfAHMAZQBwAGEAcgBhAHQAbwByACwAIABfAHMAWQBlAGEAcgAsACAAXwBzAFQAaQBtAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBNAEkATABfAEQAVABHAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABkAGEAdABlACAAZgBvAHIAbQBhAHQAdABlAGQAIABpAG4AIABVAFMAIABNAGkAbABpAHQAYQByAHkAIABtAGUAcwBzAGEAZwBlACAAdAByAGEAZgBmAGkAYwAgAHMAdAB5AGwAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIAB0AGUAeAB0ACAAfAAgAEQAVABHACAAZgBvAHIAbQBhAHQAdABlAGQAIABkAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAxADkANQAxAC4ALgAyADAANQAwAF0AIAAgACAAIAB8AFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAXABuAFQAaQBtAGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4AMQApACAAIAB8ACAAVABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AZgAgAGEAIABkAGEAeQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHcAaQBsAGwAIABiAGUAIABjAG8AbgB2AGUAcgB0AGUAZAAgAGkAZgAgAHQAaABlACAAbwBmAGYAcwBlAHQAIABkAG8AZQBzACAAbgBvAHQAIABhAGwAaQBnAG4AIAB3AGkAdABoACAAbQBpAGwAaQB0AGEAcgB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHQAaQBtAGUAIAB6AG8AbgBlAHMALgBcAG4AWwBTAGgAbwByAHQAXQAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABTAGgAbwByAHQAIAB0AGkAbQBlACAAZgBvAHIAbQB0ADoAIABoAGgAbQBtACwAIABvAHQAaABlAHIAdwBpAHMAZQA6ACAAaABoAG0AbQBzAHMAXABuAFwAbgBFAHgAYQBtAHAAbABlAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8ATQBJAEwAXwBEAFQARwAoADIAMAAyADMALAAgADIALAAgADEAMgAsACAAMAAuADcANQAsACAANgAwADAALAAgADEAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAMQAyADEAOAAwADAASwBGAEUAQgAyADMAXABuAFwAbgBGAE8AUgBNAEEAVABfAE0ASQBMAF8ARABUAEcAKAAgACwAIAAsACAAMQAyACwAIAAwAC4AMgA1ACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADEAMgAwADYAMAAwAEoAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8ATQBJAEwAXwBEAFQARwAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFQAaQBtAGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAUwBoAG8AcgB0AF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATQBvAG4AdABoACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEQAYQB5ACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAFQAaQBtAGUAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAbwBjAGEAbAAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBJAG4AdgBhAGwAaQBkAFAAYQByAGEAbQBzACwAIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBCAFMAKABfAHQAegBvACkAIAA+ACAAOQAwADAALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgApACwAIAAoACgAWQBlAGEAcgAgADwAIAAxADkANQAxACkAIAArACAAKABZAGUAYQByACAAPgAgADIAMAA1ADAAKQApACwAIABGAEEATABTAEUAKQAsACAAVABSAFUARQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKAAoAFkAZQBhAHIAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATQBvAG4AdABoACAAPQAgAFwAIgBcACIAKQApACAAKwAgAE4AKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAMAApACkAKQAgAD0AIAAwACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBtAHQAVABpAG0AZQAsACAATABBAE0AQgBEAEEAKABfAHQAaQBtAGUALAAgAF8AcwBoAG8AcgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUARgBtAHQALAAgAEkARgAoAF8AcwBoAG8AcgB0ACwAIABcACIASABIAG0AbQBcACIALAAgAFwAIgBIAEgAbQBtAHMAcwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAXwB0AGkAbQBlACwAIABfAHQAaQBtAGUARgBtAHQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUgBlAHMAbwBsAHYAZQBNAGkAbABpAHQAYQByAHkAVABaACwAIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAG8AYwBhAGwALAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAFQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBKAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACAAPgAgADcAMgAwACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAGkAZgB0AFQAWgBPACwAIABfAHQAegBvACAALQAgADcAMgAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABOACgAVABpAG0AZQApACAALQAgACgAXwBzAGgAaQBmAHQAVABaAE8AIAAvACAAMQA0ADQAMAApACwAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8AIAA8ACAALQA3ADIAMAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABpAGYAdABUAFoATwAsACAAXwB0AHoAbwAgACsAIAA3ADIAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATgAoAFQAaQBtAGUAKQAgAC0AIAAoAF8AcwBoAGkAZgB0AFQAWgBPACAALwAgADEANAA0ADAAKQAsACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAGwAaQB0AGEAcgB5AFQAWgBPACwAIABTAEkARwBOACgAXwB0AHoAbwApACAAKgAgAE0AUgBPAFUATgBEACgAQQBCAFMAKABfAHQAegBvACkALAAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAaQBmAHQAVABaAE8ALAAgAF8AdAB6AG8AIAAtACAAXwBtAGkAbABpAHQAYQByAHkAVABaAE8ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALAAgAE4AKABUAGkAbQBlACkAIAAtACAAKABfAHMAaABpAGYAdABUAFoATwAgAC8AIAAxADQANAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACwAIABJAE4AVAAoAF8AbQBpAGwAaQB0AGEAcgB5AFQAWgBPACAALwAgADYAMAApACAAKwAgADEAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAGwAaQB0AGEAcgB5AFQAWgAsACAAQwBIAE8ATwBTAEUAKABfAGkAZAB4ACwAIABcACIAWQBcACIALAAgAFwAIgBYAFwAIgAsACAAXAAiAFcAXAAiACwAIABcACIAVgBcACIALAAgAFwAIgBVAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAUwBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAFEAXAAiACwAIABcACIAUABcACIALAAgAFwAIgBPAFwAIgAsACAAXAAiAE4AXAAiACwAIABcACIAWgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQwBcACIALAAgAFwAIgBEAFwAIgAsACAAXAAiAEUAXAAiACwAIABcACIARgBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAEgAXAAiACwAIABcACIASQBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIATQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAGwAaQB0AGEAcgB5AFQAWgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGYAbgBJAG4AdgBhAGwAaQBkAFAAYQByAGEAbQBzACgAKQAsACAAewBcACIAIwBOAFUATQAhACEAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAGwAaQB0AGEAcgB5AFQAaQBtAGUALAAgAGYAbgBSAGUAcwBvAGwAdgBlAE0AaQBsAGkAdABhAHIAeQBUAFoAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBEAGEAdABlACwAIABJAEYAKABZAGUAYQByACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAEUAUwBPAEwAVgBFAF8ARABBAFQARQAoADIAMAAwADAALAAgADMALAAgAEQAYQB5ACwAIABJAE4ARABFAFgAKABfAG0AaQBsAGkAdABhAHIAeQBUAGkAbQBlACwAIAAxACwAIAAxACkALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIARQBTAE8ATABWAEUAXwBEAEEAVABFACgAWQBlAGEAcgAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAASQBOAEQARQBYACgAXwBtAGkAbABpAHQAYQByAHkAVABpAG0AZQAsACAAMQAsACAAMQApACwAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB5ACwAIABUAEUAWABUACgASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADMAKQAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABZAGUAYQByACAAPQAgAFwAIgBcACIALAAgAEMATwBOAEMAQQBUACgAXwBzAEQAYQB5ACwAIABmAG4ARgBtAHQAVABpAG0AZQAoAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAA0ACkALAAgADEAKQAsACAASQBOAEQARQBYACgAXwBtAGkAbABpAHQAYQByAHkAVABpAG0AZQAsACAAMQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFQAaQBtAGUALAAgAGYAbgBGAG0AdABUAGkAbQBlACgASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADQAKQAsACAATgAoAFMAaABvAHIAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBNAG8AbgB0AGgALAAgAFUAUABQAEUAUgAoAE0ATwBOAFQASABfAE4AQQBNAEUAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMgApACwAIAAxACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAWQAsACAAUgBJAEcASABUACgAVABFAFgAVAAoAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAAxACkALAAgAFwAIgAwADAAXAAiACkALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBPAE4AQwBBAFQAKABfAHMARABhAHkALAAgAF8AcwBUAGkAbQBlACwAIABJAE4ARABFAFgAKABfAG0AaQBsAGkAdABhAHIAeQBUAGkAbQBlACwAIAAxACwAIAAyACkALAAgAF8AcwBNAG8AbgB0AGgALAAgAF8AcwBZAFkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAEMATwBOAFYARQBSAFMASQBPAE4AUwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAE8ARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIABsAG8AYwBhAGwAIAB0AGkAbQBlACAAZgBvAHIAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAHAAcgBvAHYAaQBkAGUAZAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAfAAgAEwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AIAAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgAEQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkALAAgAGkAbQBwAGwAaQBjAGkAdABsAHkAIABjAG8AbgB2AGUAcgB0AHMAIAB0AG8AIABFAHgAYwBlAGwAIAB0AGkAbQBlACAAZABhAHQAYQAgAHQAeQBwAGUALgBcAG4AIAAzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwBcAG4AIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgACAAIAAgAHwAIABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBPAEQAYQB0AGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAB0AGUAeAB0ACAAIAAgAHwAIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAuAFwAbgBbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAHIAbwBtACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBPAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAEkAUwBPAEQAYQB0AGUALAAgAFsARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEkAUwBPAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8ARABhAHQAZQAsACAAUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACgASQBTAE8ARABhAHQAZQAsACAARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuACwAIABJAEYAKABJAFMARQBSAFIATwBSACgASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAxACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABKAFUATABJAEEATgBfAEQAQQBZAF8ATgBVAE0AQgBFAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGkAcwBvAEQAYQB0AGUALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABJAEYAKABJAE4ARABFAFgAKABfAGkAcwBvAEQAYQB0AGUALAAgADEALAAgADQAKQAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAEUAUgBSAE8AUgAoAE0ATwBEACgASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAA0ACkALAAgADEAKQAsACAAewAjAFYAQQBMAFUARQAhAH0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAYQByAHIAeQBEAGEAeQAsACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABJAE4ARABFAFgAKABfAGkAcwBvAEQAYQB0AGUALAAgADEALAAgADQAKQApACkALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAANAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAEoARABOACwAIABJAEYARQBSAFIATwBSACgAXwBKAEQATgAgACsAIABfAGMAYQByAHIAeQBEAGEAeQAsACAAewAjAFYAQQBMAFUARQAhAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegAsACAASQBGAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAANQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwByAEoARABOACwAIABfAHQAaQBtAGUALAAgAF8AdAB6ACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBEAEEAVABFAF8AVABPAF8ASgBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAZgBvAHIAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAHAAcgBvAHYAaQBkAGUAZAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgBcAG4ATgBvAHQAZQAgAGEAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAIABpAHMAIABhAGwAdwBhAHkAcwAgAGkAbgAgAFUAVABDAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAE8ARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHQAZQB4AHQAIAAgACAAfAAgAEkAUwBPACAAZgBvAHIAbQBhAHQAdABlAGQAIABkAGEAdABlACwAIAB0AGkAbQBlACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0AC4AIABJAGYAIAB0AGkAbQBlACAAaQBzACAAbwBtAG0AaQB0AHQAZQBkACwAIABhAHMAcwB1AG0AZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAdABvACAAYgBlACAAYQB0ACAAMAAwADoAMAAwAC4AIABJAGYAIAB0AGkAbQBlACAAegBvAG4AZQAgAGkAcwAgAG8AbQBtAGkAdAB0AGUAZAAsACAAYQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDAC4AXABuAFsARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAcgBvAG0AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAYwBhAGwAZQBuAGQAYQByAC4AIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAE8ARABBAFQARQBfAFQATwBfAEoARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEkAUwBPAEQAYQB0AGUALAAgAFsARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEkAUwBPAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwALAAgAEkAUwBPAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAEkAUwBPAEQAYQB0AGUALAAgAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBKAEQAQQBUAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAsACAAMwApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAbgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAZgBvAHIAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAHAAcgBvAHYAaQBkAGUAZAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgBcAG4ATgBvAHQAZQAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdQBzAGUAcwAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAB8ACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AIAAgACAAfAAgAFsAMQAuAC4AMgA5ADUAOAA0ADYANgApACAAfAAgADEAOQAwADAALQAwADEALQAwADEALgAuADkAOQA5ADkALQAxADIALQAzADEAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBEAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAdABlAHgAdAAgACAAIAB8ACAASQBTAE8AIABmAG8AcgBtAGEAdAB0AGUAZAAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQALgAgAEkAZgAgAHQAaQBtAGUAIABpAHMAIABvAG0AbQBpAHQAdABlAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAGEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABhAHQAIAAwADAAOgAwADAALgBcAG4AWwBJAG4AYwBsAHUAZABlAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAHMAdwBpAHQAYwBoACAAfAAgAFIAZQB0AHUAcgBuACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAHAAYQByAHMAZQBkACAAZgByAG8AbQAgAHQAaABlACAASQBTAE8ARABhAHQAZQAuAFwAbgBbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAHIAbwBtACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMATwBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgASQBTAE8ARABhAHQAZQAsACAAWwBJAG4AYwBsAHUAZABlAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKABJAFMATwBEAGEAdABlACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAHQAdQByAG4AVABaAE8ALAAgAE4AKABJAG4AYwBsAHUAZABlAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgAsACAATgAoAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8ARABhAHQAZQAsACAAUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACgASQBTAE8ARABhAHQAZQAsACAAXwBqAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMARQBSAFIATwBSACgASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAxACkAKQAsACAASQBGACgAXwByAGUAdAB1AHIAbgBUAFoATwAsACAASABTAFQAQQBDAEsAKAB7ACMAVgBBAEwAVQBFACEAfQAsACAAVABBAEsARQAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAALQAxACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGcARABhAHQAZQAsACAASQBGACgAXwBqAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBVAEwASQBBAE4AXwBUAE8AXwBHAFIARQBHAE8AUgBJAEEATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGkAcwBvAEQAYQB0AGUALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEEASwBFACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUARABhAHQAZQAsACAARABBAFQARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGcARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AZwBEAGEAdABlACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBnAEQAYQB0AGUALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBEAGEAdABlAFQAaQBtAGUALAAgAF8AZQBEAGEAdABlACAAKwAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHIAZQB0AHUAcgBuAFQAWgBPACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAEQAYQB0AGUAVABpAG0AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAANQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAEQAYQB0AGUAVABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABBAFQARQBfAFQATwBfAEkAUwBPAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAASQBTAE8AIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAAYQAgACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAHQAZQB4AHQAIAB8ACAASQBTAE8AIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AIABOAG8AdABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABhAHIAZQAgAGEAbAB3AGEAeQBzACAAaQBuACAAVQBUAEMALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwALAAgAGQAZQBmAGEAdQBsAHQAIABpAHMAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAARgBsAG8AYQB0AHMAIABmAHIAbwBtACAAbQBpAG4AdQB0AGUAIAB0AG8AIABtAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAFMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgBbAE4AbwBaAHUAbAB1AF0AIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFsAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABBAFQARQBfAFQATwBfAEkAUwBPAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AWgB1AGwAdQBdACwAIABbAFQAbwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABfAHIARABhAHQAZQAsACAAQwBBAEwARQBOAEQAQQBSAF8ARgBSAE8ATQBfAEoARABBAFQARQAoAEoARABhAHQAZQAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAEkAUwBPAF8ARABBAFQARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABQAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAG8AWgB1AGwAdQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAG8ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBJAFMATwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAEkAUwBPACAAZgBvAHIAbQBhAHQAIABkAGEAdABlACwAIAB0AGkAbQBlACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAZgBvAHIAIAB0AGgAZQAgAHAAcgBvAHYAaQBkAGUAZAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIAB0AGUAeAB0ACAAfAAgAEkAUwBPACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATABvAGMAYQBsAEoARABOACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAfAAgAEwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAuAFwAbgBMAG8AYwBhAGwAVABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAATABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AZgAgAGEAIABkAGEAeQAgAG8AcgAgAEUAeABjAGUAbAAgAFQAaQBtAGUAIABkAGEAdABhACAAdAB5AHAAZQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbAAsACAAZABlAGYAYQB1AGwAdAAgAGkAcwAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABGAGwAbwBhAHQAcwAgAGYAcgBvAG0AIABtAGkAbgB1AHQAZQAgAHQAbwAgAG0AaQBsAGwAaQBzAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANQAgAC0AIABNAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuAFsATgBvAFoAdQBsAHUAXQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABVAHMAZQAgACsAMAAwADoAMAAwACAAaQBuAHMAdABlAGEAZAAgAG8AZgAgAFoAIABmAG8AcgAgAFUAVABDACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4AWwBUAG8ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABOAF8ATABPAEMAQQBMAF8AVABPAF8ASQBTAE8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEwAbwBjAGEAbABKAEQATgAsACAATABvAGMAYQBsAFQAaQBtAGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AWgB1AGwAdQBdACwAIABbAFQAbwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABfAGoAZABhAHQAZQAsACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBKAEQAQQBUAEUAKABMAG8AYwBhAGwASgBEAE4ALAAgAEwAbwBjAGEAbABUAGkAbQBlACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASgBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAoAF8AagBkAGEAdABlACwAIABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAFAAcgBlAGMAaQBzAGkAbwBuACwAIABOAG8AWgB1AGwAdQAsACAAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBJAFMATwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAEkAUwBPACAAZgBvAHIAbQBhAHQAIABkAGEAdABlACwAIAB0AGkAbQBlACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAZgByAG8AbQAgAGEAbgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAHQAZQB4AHQAIAB8ACAASQBTAE8AIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAEQAYQB0AGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwALAAgAGQAZQBmAGEAdQBsAHQAIABpAHMAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAARgBsAG8AYQB0AHMAIABmAHIAbwBtACAAbQBpAG4AdQB0AGUAIAB0AG8AIABtAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAFMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgBbAE4AbwBaAHUAbAB1AF0AIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFsAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBJAFMATwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgARQBEAGEAdABlACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsATgBvAFoAdQBsAHUAXQAsACAAWwBUAG8ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKABFAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEUARABhAHQAZQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAAWQBFAEEAUgAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0ATwBOAFQASAAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAARABBAFkAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBEAGEAdABlACwAIABJAEYAKABOACgAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByAEMARQAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARwBSAEUARwBPAFIASQBBAE4AXwBUAE8AXwBKAFUATABJAEEATgAoAF8AeQBlAGEAcgBDAEUALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATQBPAEQAKABFAEQAYQB0AGUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ASQBTAE8AXwBEAEEAVABFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUAByAGUAYwBpAHMAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AbwBaAHUAbAB1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAG8ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBKAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAIABmAG8AcgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEUARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBKAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABFAEQAYQB0AGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKABFAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEUARABhAHQAZQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAAWQBFAEEAUgAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0ATwBOAFQASAAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAARABBAFkAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATQBPAEQAKABFAEQAYQB0AGUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEoAVQBMAEkAQQBOAF8ARABBAFQARQAoAF8AeQBlAGEAcgBDAEUALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABfAHQAaQBtAGUALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAGwAbwBjAGEAbAAgAHQAaQBtAGUAIABmAG8AcgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAfAAgAEwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AIAAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgAEQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkALAAgAGkAbQBwAGwAaQBjAGkAdABsAHkAIABjAG8AbgB2AGUAcgB0AHMAIAB0AG8AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEUARABhAHQAZQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEUARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACAAPQAgAEwAQQBNAEIARABBACgARQBEAGEAdABlACwAXABuACAAIAAgACAASQBGACgARQBEAGEAdABlACAAPQAgAFwAIgBcACIALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAIABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARQBEAGEAdABlACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAFkARQBBAFIAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABNAE8ATgBUAEgAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAEQAQQBZACgARQBEAGEAdABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALAAgAE0ATwBEACgARQBEAGEAdABlACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuACwAIABKAFUATABJAEEATgBfAEQAQQBZAF8ATgBVAE0AQgBFAFIAKABfAHkAZQBhAHIAQwBFACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGoAZABuACwAIABfAHQAaQBtAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABOAF8ATABPAEMAQQBMAF8AVABPAF8ARQBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAbgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAZgBvAHIAIAB0AGgAZQAgAHAAcgBvAHYAaQBkAGUAZAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBMAG8AYwBhAGwASgBEAE4AIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABMAG8AYwBhAGwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIALgBcAG4ATABvAGMAYQBsAFQAaQBtAGUAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AZgAgAGEAIABkAGEAeQAgAG8AcgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEUARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEwAbwBjAGEAbABKAEQATgAsACAATABvAGMAYQBsAFQAaQBtAGUALABcAG4AIAAgACAAIABJAEYAKAAoAEwAbwBjAGEAbABKAEQATgAgAD0AIABcACIAXAAiACkAIAAqACAAKABMAG8AYwBhAGwAVABpAG0AZQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATABvAGMAYQBsAEoARABOACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEwAbwBjAGEAbABUAGkAbQBlACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABMAG8AYwBhAGwASgBEAE4ALAAgADEAKQAgAD4AIAAwACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBEAGEAdABlACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABMAG8AYwBhAGwASgBEAE4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAEQAYQB0AGUALAAgAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACwAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMgApACwAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBEAGEAdABlACAAKwAgAEwAbwBjAGEAbABUAGkAbQBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAQQBUAEUAXwBUAE8AXwBFAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQBuACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUAIABmAG8AcgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAFwAbgBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABBAFQARQBfAFQATwBfAEUARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAXABuACAAIAAgACAASQBGACgASgBEAGEAdABlACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABKAEQAYQB0AGUALAAgAE4AKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBFAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACAAMQAsACAAMQApACwAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACAAMQAsACAAMgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBVAFMARABBAFQARQBfAFQATwBfAEUARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABVAFMAIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVQBTAEQAYQB0AGUAIAB8ACAAdABlAHgAdAAgAHwAIABEAGEAdABlACAAaQBuACAAVQBTACAAZgBvAHIAbQBhAHQAIABpAGUALgAgAE0ATQAvAGQAZAAvAHkAeQB5AHkAIABoAGgAOgBtAG0AOgBzAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFUAUwBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAVQBTAEQAYQB0AGUALABcAG4AIAAgACAAIABJAEYAKABVAFMARABhAHQAZQAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFUAUwBEAGEAdABlACwAIABQAEEAUgBTAEUAXwBVAFMAXwBEAEEAVABFACgAVQBTAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALAAgAEkATgBEAEUAWAAoAF8AVQBTAEQAYQB0AGUALAAgADEALAAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAEkATgBEAEUAWAAoAF8AVQBTAEQAYQB0AGUALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUARABhAHQAZQAsACAASQBGACgAXwB5AGUAYQByACAAPQAgAFwAIgBcACIALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAEEAVABFACgAXwB5AGUAYQByACwAIABJAE4ARABFAFgAKABfAFUAUwBEAGEAdABlACwAIAAxACwAIAAyACkALAAgAEkATgBEAEUAWAAoAF8AVQBTAEQAYQB0AGUALAAgADEALAAgADMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBEAGEAdABlACAAKwAgAF8AdABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEUARABBAFQARQBfAFQATwBfAFUAUwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABVAFMAIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABmAG8AcgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABVAFMAIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAEQAYQB0AGUAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAB8ACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AWwBTAGUAcABhAHIAYQB0AG8AcgBdACAAfAAgAGMAaABhAHIAIABbACwALgAvAC0AXwBdACAAfAAgAEMAaABhAHIAYQBjAHQAZQByACAAcwBlAHAAYQByAGEAdABvAHIAIABmAG8AcgAgAGQAYQB0AGUAIABlAGwAZQBtAGUAbgB0AHMALgBcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwALAAgAGQAZQBmAGEAdQBsAHQAIABpAHMAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAARgBsAG8AYQB0AHMAIABmAHIAbwBtACAAbQBpAG4AdQB0AGUAIAB0AG8AIABtAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAFMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBVAFMARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEUARABhAHQAZQAsACAAWwBTAGUAcABhAHIAYQB0AG8AcgBdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABJAEYAKABFAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEUARABhAHQAZQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAAWQBFAEEAUgAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0ATwBOAFQASAAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAARABBAFkAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATQBPAEQAKABFAEQAYQB0AGUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVQBTAF8ARABBAFQARQAoAF8AeQBlAGEAcgBDAEUALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABfAHQAaQBtAGUALAAgAFMAZQBwAGEAcgBhAHQAbwByACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABFAE4ARAAgAEMAQQBMAEUATgBEAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEMAQQBMAEUATgBEAEEAUgAuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBZAEUAQQBSAF8AQwBPAE0ATQBPAE4AXwBFAFIAQQAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEEAWQBTAF8ASQBOAF8AWQBFAEEAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEEAWQBTAF8ASQBOAF8ATQBPAE4AVABIACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAE4AXwBUAE8AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBPAFIARABJAE4AQQBMAF8ARABBAFQARQBfAFQATwBfAEoARABOACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEcAUgBFAEcATwBSAEkAQQBOAF8AVABPAF8ASgBVAEwASQBBAE4AIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBVAEwASQBBAE4AXwBUAE8AXwBHAFIARQBHAE8AUgBJAEEATgAiACwAIgBDAEEATABFAE4ARABBAFIALgBTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEEAWQBfAE8ARgBfAFcARQBFAEsAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4AQwBPAE4AVgBFAFIAVABfAFcARQBFAEsARABBAFkAXwBOAFUATQBCAEUAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBXAEUARQBLAEQAQQBZAF8ATwBGAF8ATQBPAE4AVABIACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4AVwBFAEUASwBfAEQAQQBUAEUAXwBUAE8AXwBKAEQATgAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQATgBfAFQATwBfAFcARQBFAEsAXwBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFcARQBFAEsAXwBOAFUATQBCAEUAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEEAWQBTAF8ASQBOAF8AUQBVAEEAUgBUAEUAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBRAFUAQQBSAFQARQBSAF8ARABBAFQARQBfAFQATwBfAEoARABOACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEoARABOAF8AVABPAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAE4AXwBVAFQAQwBfAFQATwBfAEoARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAFUAVABDACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEoAVQBMAEkAQQBOAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBDAEEATABFAE4ARABBAFIAXwBGAFIATwBNAF8ASgBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFQASQBNAEUAXwBEAEUAQwBJAE0AQQBMAF8AVABPAF8ASABNAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASABNAFMAXwBUAE8AXwBUAEkATQBFAF8ARABFAEMASQBNAEEATAAiACwAIgBDAEEATABFAE4ARABBAFIALgBBAEQARABfAFQASQBNAEUAUwBQAEEATgAiACwAIgBDAEEATABFAE4ARABBAFIALgBSAEUAUwBPAEwAVgBFAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEUATABUAEEAXwBIAE8AVQBSAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8ATQBJAE4AVQBUAEUAUwAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEUATABUAEEAXwBTAEUAQwBPAE4ARABTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAEgATwBVAFIAXwBNAEkATgBfAFMARQBDACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAEQAQQBZAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8AVwBFAEUASwBTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAE0ATwBOAFQASABTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAFEAVQBBAFIAVABFAFIAUwAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEUATABUAEEAXwBZAEUAQQBSAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8AVwBFAEUASwBfAEQAQQBZAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8ASQBOAFQARQBSAFYAQQBMACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEUAWABUAEUATgBUAF8ATwBGAF8ARABBAFkAUwAiACwAIgBDAEEATABFAE4ARABBAFIALgBFAFgAVABFAE4AVABfAE8ARgBfAFcARQBFAEsAUwAiACwAIgBDAEEATABFAE4ARABBAFIALgBFAFgAVABFAE4AVABfAE8ARgBfAE0ATwBOAFQASABTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEUAWABUAEUATgBUAF8ATwBGAF8AUQBVAEEAUgBUAEUAUgBTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEUAWABUAEUATgBUAF8ATwBGAF8AWQBFAEEAUgBTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFAAQQBSAFMARQBfAEkAUwBPAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBQAEEAUgBTAEUAXwBXAEUARQBLAEQAQQBZACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFAAQQBSAFMARQBfAE0ATwBOAFQASAAiACwAIgBDAEEATABFAE4ARABBAFIALgBQAEEAUgBTAEUAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4AUABBAFIAUwBFAF8AVQBTAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFcARQBFAEsARABBAFkAXwBOAEEATQBFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAE0ATwBOAFQASABfAE4AQQBNAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARgBPAFIATQBBAFQAXwBJAFMATwBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEYATwBSAE0AQQBUAF8ATABJAFQARQBSAEEAUgBZAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBGAE8AUgBNAEEAVABfAFUAUwBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARgBPAFIATQBBAFQAXwBNAEkATABfAEQAVABHACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEkAUwBPAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAiACwAIgBDAEEATABFAE4ARABBAFIALgBJAFMATwBEAEEAVABFAF8AVABPAF8ASgBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEkAUwBPAEQAQQBUAEUAXwBUAE8AXwBFAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEkAUwBPAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARQBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBFAEQAQQBUAEUAXwBUAE8AXwBKAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARQBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBFAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFUAUwBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEUARABBAFQARQBfAFQATwBfAFUAUwBEAEEAVABFACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIARABNAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEMAQQBMAEUATgBEAEEAUgAiACwAIgB0AGUAeAB0ACIAOgAiAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABDAEEATABFAE4ARABBAFIAIAB2ADEALgAxACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABNAG8AZAB1AGwAZQAgAGYAbwByACAAdwBvAHIAawBpAG4AZwAgAHcAaQB0AGgAIABkAGEAdABlAHMAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYQBuAGQAIABKAHUAbABpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgBzACAAbwB1AHQAcwBpAGQAZQAgAHQAaABlACAAcgBhAG4AZwBlACAAbwBmACAAdABoAGUAIABFAHgAYwBlAGwAIAAgACAAIAAgACMAXABuACMAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABNAG8AZAB1AGwAZQAgAEQAZQBwAGUAbgBkAGUAbgBjAGkAZQBzADoAIABOAG8AbgBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABMAE8ARwBJAEMAQQBMACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAG4AYwBsAHUAZABlAHMAIABhACAAbABlAGEAcAAgAGQAYQB5ACAAaQBuACAAdABoAGUAIABnAGkAdgBlAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAAZwBpAHYAZQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAHQAaQBtAGUAIABpAHMAIAB2AGEAbABpAGQAIABpAG4AIAB0AGgAZQAgADIANAAgAGgAbwB1AHIAIAB0AGkAbQBlAGsAZQBlAHAAaQBuAGcAIABzAHkAcwB0AGUAbQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAEEATABFAE4ARABBAFIAIABEAEEAVABFAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABZAEUAQQBSAF8AQwBPAE0ATQBPAE4AXwBFAFIAQQAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHkAZQBhAHIAIAB2AGEAbAB1AGUAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIAB0AGgAZQAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBTAF8ASQBOAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAG4AdQBtAGIAZQByACAAbwBmACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAZwBpAHYAZQBuACAAeQBlAGEAcgAgAG8AZgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBTAF8ASQBOAF8ATQBPAE4AVABIACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAG4AdQBtAGIAZQByACAAbwBmACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAZwBpAHYAZQBuACAAbQBvAG4AdABoACAAYQBuAGQAIAB5AGUAYQByACAAbwBmACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACMAXABuACMAIABKAFUATABJAEEATgBfAEQAQQBZAF8ATgBVAE0AQgBFAFIAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACMAXABuACMAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZABhAHQAZQAgAGYAcgBvAG0AIAB0AGgAZQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACMAXABuACMAIABKAEQATgBfAFQATwBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAAbwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgAgAGEAbgBkACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAeQBlAGEAcgAgAGYAcgBvAG0AIAB0AGgAZQAgAGcAaQB2AGUAbgAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABPAFIARABJAE4AQQBMAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABHAFIARQBHAE8AUgBJAEEATgBfAFQATwBfAEoAVQBMAEkAQQBOACAAIAAgACAAVAByAGEAbgBzAGwAYQB0AGUAcwAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAdABvACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABKAFUATABJAEEATgBfAFQATwBfAEcAUgBFAEcATwBSAEkAQQBOACAAIAAgACAAVAByAGEAbgBzAGwAYQB0AGUAcwAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAdABvACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgB1AG0AYgBlAHIAIABvAGYAIABkAGEAeQBzACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAaQBzACAAYQBoAGUAYQBkACAAbwBmACAAdABoAGUAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAbgAgAGkAbgB0AGUAZwBlAHIAIABmAG8AcgAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIALgAgACAAIAAgACAAIAAgACMAXABuACMAIABDAE8ATgBWAEUAUgBUAF8AVwBFAEUASwBEAEEAWQBfAE4AVQBNAEIARQBSACAAUgBlAHQAdQByAG4AcwAgAGEAbgAgAGkAbgB0AGUAZwBlAHIAIABmAG8AcgAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAHIAbwBtACAAdABoAGUAIAB0AHIAYQBkAGkAdABvAG4AYQBsACAAbgB1AG0AYgBlAHIAaQBuAGcAIABzAGMAaABlAG0AZQAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABvACAAdABoAGUAIABJAFMATwAgAGQAZQBmAGkAbgBpAHQAaQBvAG4ALAAgAG8AcgAgAHYAaQBjAGUAIAB2AGUAcgBzAGEALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAEQAQQBZAF8ATwBGAF8ATQBPAE4AVABIACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsALAAgAGEAbgBkACAAYQAgAHIAZQBsAGEAdABpAHYAZQAgAHcAZQBlAGsAIABmAG8AcgAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABoAGUAIABtAG8AbgB0AGgAIABhAG4AZAAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAFMAXwBJAE4AXwBZAEUAQQBSACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBvAHUAbgB0ACAAbwBmACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawBzACAAaQBuACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIAB3AGUAZQBrACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABKAEQATgBfAFQATwBfAFcARQBFAEsAXwBEAEEAVABFACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACwAIABkAGEAeQAgAG8AZgAgAHQAaABlACAAdwBlAGUAawAsACAAYQBuAGQAIAB3AGUAZQBrAHMAIABpAG4AIAB0AGgAZQAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAeQBlAGEAcgAgAGYAbwByACAAdABoAGUAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABpAG4AIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABRAFUAQQBSAFQARQBSAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABEAEEAWQBTAF8ASQBOAF8AUQBVAEEAUgBUAEUAUgAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBvAHUAbgB0ACAAbwBmACAAZABhAHkAcwAgAGkAbgAgAGEAIABxAHUAYQByAHQAZQByACAAbwBmACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABKAEQATgBfAFQATwBfAFEAVQBBAFIAVABFAFIAXwBEAEEAVABFACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAAcQB1AGEAcgB0AGUAcgAsACAAZABhAHkAIABvAGYAIABxAHUAYQByAHQAZQByACAAYQBuAGQAIABkAGEAeQBzACAAaQBuACAAdABoAGUAIABxAHUAYQByAHQAZQByACAAZgBvAHIAIAB0AGgAZQAgAGcAaQB2AGUAbgAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABRAFUAQQBSAFQARQBSAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABxAHUAYQByAHQAZQByACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAVABFACAAQQBOAEQAIABUAEkATQBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABKAEQATgBfAFUAVABDAF8AVABPAF8ASgBEAEEAVABFACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAZwBpAHYAZQBuACAAYQBuACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABpAG4AIABVAFQAQwAuACAAIAAgACAAIAAgACMAXABuACMAIABKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAZwBpAHYAZQBuACAAYQAgAGwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdwBpAHQAaAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAFUAVABDACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABpAG4AIABVAFQAQwAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgAgACAAIAAgACMAXABuACMAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbABvAGMAYQBsACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABvAGYAIABhACAAZwBpAHYAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AIAAgACAAIAAgACMAXABuACMAIABKAFUATABJAEEATgBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAEEATABFAE4ARABBAFIAXwBGAFIATwBNAF8ASgBEAEEAVABFACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAYQBuAGQAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABUAEkATQBFAF8ARABFAEMASQBNAEEATABfAFQATwBfAEgATQBTACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGEAdABpAG8AbgAgAG8AZgAgAGEAIABkAGUAYwBpAG0AYQBsACAAdABpAG0AZQAgAHYAYQBsAHUAZQAuACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABIAE0AUwBfAFQATwBfAFQASQBNAEUAXwBEAEUAQwBJAE0AQQBMACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIABkAGUAYwBpAG0AYQBsACAAdABpAG0AZQAgAGEAcwAgAGEAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkAIABmAHIAbwBtACAAYQAgADIANAAgAGgAbwB1AHIAIAB0AGkAbQBlAGsAZQBlAHAAaQBuAGcAIAB2AGEAbAB1AGUAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwBmACAAdABpAG0AZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuAFwAbgAjACAAQQBEAEQAXwBUAEkATQBFAFMAUABBAE4AIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAgAG8AZgAgAHQAaABlACAAYQBkAGQAaQB0AGkAbwBuACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIABhACAAdABpAG0AZQBzAHAAYQBuACAAYwBvAG0AcABsAGkAYwBhAHQAaQBvAG4ALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUgBFAFMATwBMAFYARQBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGYAcgBvAG0AIABwAHIAbwB2AGkAZABlAGQAIABkAGUAYwBpAG0AYQBsACAAeQBlAGEAcgAsACAAbQBvAG4AdABoAHMALAAgAGQAYQB5AHMAIABhAG4AZAAgAHQAaQBtAGUALgAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAARABFAEwAVABBAF8ASQBOAFQARQBSAFYAQQBMACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAdQBuAGkAdABzAC4AIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ASABPAFUAUgBTACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABoAG8AdQByAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ATQBJAE4AVQBUAEUAUwAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABtAGkAbgB1AHQAZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AUwBFAEMATwBOAEQAUwAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABzAGUAYwBvAG4AZABzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ASABPAFUAUgBfAE0ASQBOAF8AUwBFAEMAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABoAG8AdQByAHMALAAgAG0AaQBuAHUAdABlAHMAIABhAG4AZAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAZQBjAG8AbgBkAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ARABBAFkAUwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABkAGEAeQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AVwBFAEUASwBTACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB3AGUAZQBrAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ATQBPAE4AVABIAFMAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABtAG8AbgB0AGgAcwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBTACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABxAHUAYQByAHQAZQByAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AWQBFAEEAUgBTACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB5AGUAYQByAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AVwBFAEUASwBfAEQAQQBZAFMAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB3AGUAZQBrAHMAIABhAG4AZAAgAGQAYQB5AHMALgAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB5AGUAYQByAHMALAAgAHcAZQBlAGsAcwAgAGEAbgBkACAAZABhAHkAcwAuACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8ATQBPAE4AVABIAF8ARABBAFkAUwAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABtAG8AbgB0AGgAcwAgAGEAbgBkACAAZABhAHkAcwAuACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABxAHUAYQByAHQAZQByAHMAIABhAG4AZAAgAGQAYQB5AHMALgAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBEAEEAWQBTACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIABkAGEAeQBzACAAcwBwAGEAbgBuAGUAZAAgAGIAeQAgAHQAdwBvACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBXAEUARQBLAFMAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIAB3AGUAZQBrAHMAIABzAHAAYQBuAG4AZQBkACAAYgB5ACAAdAB3AG8AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBNAE8ATgBUAEgAUwAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIABtAG8AbgB0AGgAcwAgAHMAcABhAG4AbgBlAGQAIABiAHkAIAB0AHcAbwAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBRAFUAQQBSAFQARQBSAFMAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIABxAHUAYQByAHQAZQByAHMAIABzAHAAYQBuAG4AZQBkACAAYgB5ACAAdAB3AG8AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBYAFQARQBOAFQAXwBPAEYAXwBZAEUAQQBSAFMAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIAB5AGUAYQByAHMAIABzAHAAYQBuAG4AZQBkACAAYgB5ACAAdAB3AG8AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBJAE4ARwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFAAYQByAHMAZQBzACAAYQBuACAASQBTAE8AIABmAG8AcgBtAGEAdAB0AGUAZAAgAGQAYQB0AGUAIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAsACAAZABhAHkALAAgAHQAaQBtAGUAIABvAGYAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8AVwBFAEUASwBEAEEAWQAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHQAZQB4AHQAIAB3AGUAZQBrAGQAYQB5ACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AYQBtAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAbQBvAG4AdABoACAAbwBmACAAeQBlAGEAcgAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAbQBvAG4AdABoACAAbgBhAG0AZQAuACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8AWQBFAEEAUgAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAeQBlAGEAcgAgAHIAZQBsAGEAdABpAHYAZQAgAHQAbwAgAHQAaABlACAAYwBvAG0AbQBvAG4AIABlAHIAYQAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAaQB0AGUAcgBhAHIAeQAgAHkAZQBhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8ARABBAFQARQAgACAAIAAgAFAAYQByAHMAZQBzACAAYQAgAGwAaQB0AGUAcgBhAHIAeQAgAGQAYQB0AGUAIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAsACAAZABhAHkAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAYQB5AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8AVQBTAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAIAAgAFAAYQByAHMAZQBzACAAYQAgAFUAUwAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACwAIABkAGEAeQAgAGEAbgBkACAAdABpAG0AZQAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AZgAgAGQAYQB5AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAUABBAFIAUwBFAF8ATQBJAEwAXwBEAFQARwAgACAAIAAgACAAIAAgACAAIAAgAFAAYQByAHMAZQBzACAAYQAgAGQAYQB0AGUALQB0AGkAbQBlACAAZwByAG8AdQBwACAAaQBuACAAdABoAGUAIABmAG8AcgBtAGEAdAAgAHUAcwBlAGQAIABiAHkAIABVAFMAIABNAGkAbABpAHQAYQByAHkAIABtAGUAcwBzAGEAZwBlACAAdAByAGEAZgBmAGkAYwAsACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACwAIABkAGEAeQAsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAVABFAFgAVAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAAVwBFAEUASwBEAEEAWQBfAE4AQQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABuAGEAbQBlACAAbwBmACAAYQBuACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGEAcwAgAHQAZQB4AHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAATQBPAE4AVABIAF8ATgBBAE0ARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABuAGEAbQBlACAAbwBmACAAbQBvAG4AdABoAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBJAFMATwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAeQBlAGEAcgAgAGYAbwByAG0AYQB0AHQAZQBkACAAaQBuACAAbABpAHQAZQByAGEAcgB5ACAAcwB0AHkAbABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBEAEEAVABFACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGYAbwByAG0AYQB0AHQAZQBkACAAaQBuACAAbABpAHQAZQByAGEAcgB5ACAAcwB0AHkAbABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBVAFMAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGYAbwByAG0AYQB0AHQAZQBkACAAaQBuACAAdABoAGUAIABVAFMAIABzAHQAeQBsAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARgBPAFIATQBBAFQAXwBNAEkATABfAEQAVABHACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAtAHQAaQBtAGUAIABnAHIAbwB1AHAAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGkAbgAgAFUAUwAgAE0AaQBsAGkAdABhAHIAeQAgAG0AZQBzAHMAYQBnAGUAIAB0AHIAYQBmAGYAaQBjACAAcwB0AHkAbABlAC4AIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAQwBPAE4AVgBFAFIAUwBJAE8ATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAASQBTAE8ARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAgAGYAbwByACAAYQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAE8ARABBAFQARQBfAFQATwBfAEoARABBAFQARQAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAgAGYAbwByACAAYQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAE8ARABBAFQARQBfAFQATwBfAEUARABBAFQARQAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAYQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASgBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABJAFMATwAgAGYAbwByAG0AYQB0ACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABhACAAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBJAFMATwBEAEEAVABFACAAIAAgAFIAZQB0AHUAcgBuAHMAIABJAFMATwAgAGYAbwByAG0AYQB0ACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AdQBtAGIAZQByACAAYQBuAGQAIABsAG8AYwBhAGwAIAB0AGkAbQBlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABJAFMATwAgAGYAbwByAG0AYQB0ACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuACAAIAAgACAAIAAjAFwAbgAjACAARQBEAEEAVABFAF8AVABPAF8ASgBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBFAEQAQQBUAEUAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAGwAbwBjAGEAbAAgAHQAaQBtAGUALgAgACAAIAAjAFwAbgAjACAASgBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAVQBTAEQAQQBUAEUAXwBUAE8AXwBFAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABVAFMAIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARQBEAEEAVABFAF8AVABPAF8AVQBTAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAVQBTACAAZgBvAHIAbQBhAHQAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAZgBvAHIAIAB0AGgAZQAgAHAAcgBvAHYAaQBkAGUAZAAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAKgAvAFwAbgBcAG4AXABuAFwAbgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAATABPAEcASQBDAEEATAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAKgAvAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAG4AYwBsAHUAZABlAHMAIABhACAAbABlAGEAcAAgAGQAYQB5ACAAaQBuACAAdABoAGUAIABnAGkAdgBlAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABuAHUAbABsACAAaQBmACAAZQBtAHAAdAB5AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADQAMAAwACkAIAA9ACAAMAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADEAMAAwACkAIAA9ACAAMAAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAE0ATwBEACgAXwB5AGUAYQByAEMARQAsACAANAApACAAPQAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADQAKQAgAD0AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAXABuAFwAbgBUAGUAcwB0AHMAIABpAGYAIABhACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABnAGkAdgBlAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoACAAbwBmACAAeQBlAGEAcgBcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAxAC4ALgAzADIAKQAgAHwAIABEAGEAeQAgAG8AZgAgAG0AbwBuAHQAaABcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALAAgAC8ALwAgAGMAYQBuAG4AbwB0ACAAbwBtAG0AaQB0ACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACAAbwByACAAZABhAHkAXABuACAAIAAgACAAIAAgACAAIABJAEYAKAAoAE0ATwBEACgAWQBlAGEAcgBDAEUALAAgADEAKQAgAD4AIAAwACkAIAArACAAKABNAE8ARAAoAE0AbwBuAHQAaAAsACAAMQApACAAPgAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALAAgAC8ALwAgAHkAZQBhAHIAIABhAG4AZAAgAG0AbwBuAHQAaAAgAGMAYQBuAG4AbwB0ACAAYgBlACAAZgByAGEAYwB0AGkAbwBuAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAE4AVAAoAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGQAYQB5ACAAPAAgADEALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzAEkAbgBNAG8AbgB0AGgALAAgAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAKABNAG8AbgB0AGgALAAgAFkAZQBhAHIAQwBFACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMARQBSAFIATwBSACgAXwBkAGEAeQBzAEkAbgBNAG8AbgB0AGgAKQAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAgADwAPQAgAF8AZABhAHkAcwBJAG4ATQBvAG4AdABoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB0AGkAbQBlACAAaQBzACAAdgBhAGwAaQBkACAAaQBuACAAdABoAGUAIAAyADQAIABoAG8AdQByACAAdABpAG0AZQBrAGUAZQBwAGkAbgBnACAAcwB5AHMAdABlAG0ALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBIAG8AdQByACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAyADQAKQAgAHwAIABGAHIAYQBjAHQAaQBvAG4AYQBsACAAYQBsAGwAbwB3AGUAZAAgAGkAZgAgAG0AaQBuAHUAdABlACAAYQBuAGQAIABzAGUAYwBvAG4AZAAgAGUAbQBwAHQAeQAuAFwAbgBNAGkAbgB1AHQAZQAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgA2ADAAKQAgAHwAIABGAHIAYQBjAHQAaQBvAG4AYQBsACAAYQBsAGwAbwB3AGUAZAAgAGkAZgAgAHMAZQBjAG8AbgBkACAAZQBtAHAAdAB5AC4AXABuAFMAZQBjAG8AbgBkACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADYAMAApACAAfAAgAEYAcgBhAGMAdABpAG8AbgBhAGwAIABhAGwAbABvAHcAZQBkAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIABJAFMATgBVAE0AQgBFAFIAKABIAG8AdQByACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABNAE8ARAAoAEgAbwB1AHIALAAgADEAKQAgAD4AIAAwACkAIAArACAAKABNAE8ARAAoAE0AaQBuAHUAdABlACwAIAAxACkAIAA+ACAAMAApACwAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEgAbwB1AHIAIAA8ACAAMAApACAAKwAgACgASABvAHUAcgAgAD4AIAAyADMAKQAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABNAGkAbgB1AHQAZQAgADwAIAAwACkAIAArACAAKABNAGkAbgB1AHQAZQAgAD4AIAA1ADkAKQAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABTAGUAYwBvAG4AZAAgADwAIAAwACkAIAArACAAKABTAGUAYwBvAG4AZAAgAD4APQAgADYAMAApACwAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABUAFIAVQBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAFMATgBVAE0AQgBFAFIAKABIAG8AdQByACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQAgACoAIAAoAFMAZQBjAG8AbgBkACAAPQAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgASABvAHUAcgAsACAAMQApACAAPgAgADAALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgASABvAHUAcgAgADwAIAAwACkAIAArACAAKABIAG8AdQByACAAPgAgADIAMwApACwAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE0AaQBuAHUAdABlACAAPAAgADAAKQAgACsAIAAoAE0AaQBuAHUAdABlACAAPgA9ACAANgAwACkALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAFQAUgBVAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQAgACoAIAAoAE0AaQBuAHUAdABlACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAFMAZQBjAG8AbgBkACAAPQAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgASABvAHUAcgAgAD4APQAgADAAKQAgACoAIAAoAEgAbwB1AHIAIAA8ACAAMgA0ACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACgASABvAHUAcgAgAD0AIABcACIAXAAiACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABNAGkAbgB1AHQAZQAsACAAMQApACAAPgAgADAALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATQBpAG4AdQB0AGUAIAA8ACAAMAApACAAKwAgACgATQBpAG4AdQB0AGUAIAA+ACAANQA5ACkALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAUwBlAGMAbwBuAGQAIAA8ACAAMAApACAAKwAgACgAUwBlAGMAbwBuAGQAIAA+AD0AIAA2ADAAKQAsACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAVABSAFUARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAKABIAG8AdQByACAAPQAgAFwAIgBcACIAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACAAKgAgACgAUwBlAGMAbwBuAGQAIAA9ACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABNAGkAbgB1AHQAZQAgAD4APQAgADAAKQAgACoAIAAoAE0AaQBuAHUAdABlACAAPAAgADYAMAApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAoAEgAbwB1AHIAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATQBpAG4AdQB0AGUAIAA9ACAAXAAiAFwAIgApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAFMAZQBjAG8AbgBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAFMAZQBjAG8AbgBkACAAPgA9ACAAMAApACAAKgAgACgAUwBlAGMAbwBuAGQAIAA8ACAANgAwACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQBcAG4AIAAgACAAIAApAFwAbgApADsAIAAgACAAIAAgACAAIAAgAFwAbgBcAG4AXABuAFwAbgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAAQwBBAEwARQBOAEQAQQBSACAARABBAFQARQBTACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAKgAvAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkARQBBAFIAXwBDAE8ATQBNAE8ATgBfAEUAUgBBAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHkAZQBhAHIAIAB2AGEAbAB1AGUAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIAB0AGgAZQAgAEMAbwBtAG0AbwBuACAARQByAGEALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxACAAQwBFACAAPQAgADEALAAgADEAIABCAEMARQAgAD0AIAAwACwAIAAyACAAQgBDAEUAIAA9ACAALQAxAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuAF0AIAB8ACAAUABvAHMAaQB0AGkAdgBlACAAbgBvAG4ALQB6AGUAcgBvACAAaQBuAHQAZQBnAGUAcgAuAFwAbgBCAEMARQAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgAHwAIABCAGUAZgBvAHIAZQAgAEMAbwBtAG0AbwBuACAARQByAGEALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AWQBFAEEAUgBfAEMATwBNAE0ATwBOAF8ARQBSAEEAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByACwAIABCAEMARQAsAFwAbgAgACAAIAAgAEkARgAoAFkAZQBhAHIAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAEkATgBUACgAWQBlAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwB5AGUAYQByACAAPAAgADEALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4AKABCAEMARQApACwAIAAxACAALQAgAF8AeQBlAGEAcgAsACAAXwB5AGUAYQByACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAFMAXwBJAE4AXwBZAEUAQQBSAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAG4AdQBtAGIAZQByACAAbwBmACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAZwBpAHYAZQBuACAAeQBlAGEAcgAgAG8AZgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMwA2ADUALAAzADYANgBdAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEEAWQBTAF8ASQBOAF8AWQBFAEEAUgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA2ADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYANQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAbgB1AG0AYgBlAHIAIABvAGYAIABkAGEAeQBzACAAaQBuACAAdABoAGUAIABnAGkAdgBlAG4AIABtAG8AbgB0AGgAIABhAG4AZAAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADMAMQBdAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBbAFkAZQBhAHIAQwBFAF0AIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAIAA9ACAATABBAE0AQgBEAEEAKABNAG8AbgB0AGgALAAgAFsAWQBlAGEAcgBDAEUAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAE0AbwBuAHQAaAA9AFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBOAFQAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAgADwAIAAxACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAgAD4AIAAxADIALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABGAGUAYgByAHUAYQByAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAYQBwAEQAYQB5ACwAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA4ACAAKwAgAF8AbABlAGEAcABEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAEoAYQBuACwAIABNAGEAcgAsACAAQQBwAHIALAAgAE0AYQB5ACwAIABKAHUAbgAsACAASgB1AGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAgADwAPQAgADcALAAgADMAMAAgACsAIABNAE8ARAAoAF8AbQBvAG4AdABoACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAQQB1AGcALAAgAFMAZQBwACwAIABPAGMAdAAsACAATgBvAHYALAAgAEQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAMwAxACAALQAgAE0ATwBEACgAXwBtAG8AbgB0AGgALAAgADIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAG8AZgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4ATgBvAHQAZQAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBzACAAYQBuACAAaQBuAHQAZQBnAGUAcgAgAHQAeQBwAGUAIABhAG4AZAAgAGkAcwAgAGEAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG4AdQBtAGIAZQByACAAcgBlAGYAZQByAGUAbgBjAGUAZAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgB5ACAAMQAsAFwAbgA0ADcAMQAzACAAQgBDACAAaQBuACAAdABoAGUAIABwAHIAbwBsAGUAcAB0AGkAYwAgAEoAdQBsAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIABJAHQAIABkAG8AZQBzACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAYQBuAHkAIAB2AGEAbAB1AGUAIABmAG8AcgAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4ATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADEALgAuADMAMgApACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AbwBuAHQAaAAgAD0AIABcACIAXAAiACkAIAAqACAAKABEAGEAeQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAEkATgBUACgARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZwByAGUAZwBvAHIAaQBhAG4ALAAgAE4AKABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBZAEUAQQBSADQAOAAwADEAQgBDAEUALAAgAC0ANAA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ARwA0ADgAMAAxAEIAQwBFAF8ASgBEACwAIAAtADMAMgAwADQANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ASgA0ADgAMAAxAEIAQwBFAF8ASgBEACwAIAAtADMAMgAwADgAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ARABhAHkAcwBJAG4ANQBNAG8AbgB0AGgAcwBGAHIAbwBtAE0AYQByAGMAaAAsACAAMQA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEALAAgAEkATgBUACgAKAAxADQAIAAtACAATQBvAG4AdABoACkAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkALAAgACgAWQBlAGEAcgBDAEUAIAAtACAAXwBZAEUAQQBSADQAOAAwADEAQgBDAEUAIAAtACAAXwBhACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0ALAAgACgATQBvAG4AdABoACAAKwAgADEAMgAgACoAIABfAGEAIAAtACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4ACwAIAAzADYANQAgACoAIABfAHkAIAArACAASQBOAFQAKABfAHkAIAAvACAANAApACAAKwAgAEkATgBUACgAKABfAEQAYQB5AHMASQBuADUATQBvAG4AdABoAHMARgByAG8AbQBNAGEAcgBjAGgAIAAqACAAXwBtACAAKwAgADIAKQAgAC8AIAA1ACkAIAArACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBnAHIAZQBnAG8AcgBpAGEAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4ACAAKwAgAF8ARwA0ADgAMAAxAEIAQwBFAF8ASgBEACAALQAgAEkATgBUACgAXwB5ACAALwAgADEAMAAwACkAIAArACAASQBOAFQAKABfAHkAIAAvACAANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4ACAAKwAgAF8ASgA0ADgAMAAxAEIAQwBFAF8ASgBEAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABkAGEAdABlACAAZgByAG8AbQAgAHQAaABlACAAZwBpAHYAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAB8ACAARABhAHkAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAZgBvAHIAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgASgBEAE4ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKABKAEQATgAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQATgApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgAsACAASQBOAFQAKABKAEQATgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBnAHIAZQBnAG8AcgBpAGEAbgAsACAATgAoAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFkARQBBAFIANAA4ADAAMQBCAEMARQAsACAALQA0ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBEAGEAeQBzAEkAbgA0AFkAZQBhAHIALAAgADEANAA2ADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEQAYQB5AHMASQBuAFkAZQBhAHIALAAgADMANgA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBNAG8AbgB0AGgAQwBvAHIAcgBlAGMAdABpAG8AbgBEAGEAeQBzACwAIAAzADAAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ARABhAHkAcwBJAG4ANABNAG8AbgB0AGgAcwAsACAAMQAyADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEQAYQB5AHMASQBuADUATQBvAG4AdABoAHMARgByAG8AbQBNAGEAcgBjAGgALAAgADEANQAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBnAHIAZQBnAG8AcgBpAGEAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBHADQAOAAwADEAQgBDAEUAXwBKAEQAMAAsACAALQAzADIAMAA0ADUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBHAHIAZQBnAEQAYQB5AHMASQBuADQAMAAwAFkAZQBhAHIALAAgADEANAA2ADAAOQA3ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ARwByAGUAZwBEAGEAeQBzAEkAbgAxADAAMABZAGUAYQByACwAIAAzADYANQAyADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzADAALAAgAF8AagBkAG4AIAAtACAAXwBHADQAOAAwADEAQgBDAEUAXwBKAEQAMAAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAZABDAGUAbgB0ACwAIABJAE4AVAAoAF8AZABhAHkAcwAwACAALwAgAF8ARwByAGUAZwBEAGEAeQBzAEkAbgA0ADAAMABZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzADEALAAgAF8AZABhAHkAcwAwACAALQAgAF8AcQB1AGEAZABDAGUAbgB0ACAAKgAgAF8ARwByAGUAZwBEAGEAeQBzAEkAbgA0ADAAMABZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAG0AQwBlAG4AdAAsACAASQBOAFQAKAAoAEkATgBUACgAXwBkAGEAeQBzADEAIAAvACAAXwBHAHIAZQBnAEQAYQB5AHMASQBuADEAMAAwAFkAZQBhAHIAKQAgACsAIAAxACkAIAAqACAAMAAuADcANQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAyACwAIABfAGQAYQB5AHMAMQAgAC0AIABfAHIAZQBtAEMAZQBuAHQAIAAqACAAXwBHAHIAZQBnAEQAYQB5AHMASQBuADEAMAAwAFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBxAHUAYQBkAFkAcgAsACAASQBOAFQAKABfAGQAYQB5AHMAMgAgAC8AIABfAEQAYQB5AHMASQBuADQAWQBlAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAzACwAIABfAGQAYQB5AHMAMgAgAC0AIABfAHEAdQBhAGQAWQByACAAKgAgAF8ARABhAHkAcwBJAG4ANABZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAG0AWQByACwAIABJAE4AVAAoACgASQBOAFQAKABfAGQAYQB5AHMAMwAgAC8AIABfAEQAYQB5AHMASQBuAFkAZQBhAHIAKQAgACsAIAAxACkAIAAqACAAMAAuADcANQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwA0ACwAIABfAGQAYQB5AHMAMwAgAC0AIABfAHIAZQBtAFkAcgAgACoAIABfAEQAYQB5AHMASQBuAFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5ACwAIABfAHEAdQBhAGQAQwBlAG4AdAAgACoAIAA0ADAAMAAgACsAIABfAHIAZQBtAEMAZQBuAHQAIAAqACAAMQAwADAAIAArACAAXwBxAHUAYQBkAFkAcgAgACoAIAA0ACAAKwAgAF8AcgBlAG0AWQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQAsACAASQBOAFQAKAAoAF8AZABhAHkAcwA0ACAAKgAgADUAIAArACAAXwBNAG8AbgB0AGgAQwBvAHIAcgBlAGMAdABpAG8AbgBEAGEAeQBzACkAIAAvACAAXwBEAGEAeQBzAEkAbgA1AE0AbwBuAHQAaABzAEYAcgBvAG0ATQBhAHIAYwBoACkAIAAtACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABfAGQAYQB5AHMANAAgAC0AIABJAE4AVAAoACgAXwBtACAAKwAgADQAKQAgACoAIABfAEQAYQB5AHMASQBuADUATQBvAG4AdABoAHMARgByAG8AbQBNAGEAcgBjAGgAIAAvACAANQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEQAYQB5AHMASQBuADQATQBvAG4AdABoAHMAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAF8AWQBFAEEAUgA0ADgAMAAxAEIAQwBFACAAKwAgAF8AeQAgACsAIABJAE4AVAAoACgAXwBtACAAKwAgADIAKQAgAC8AIAAxADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAATQBPAEQAKABfAG0AIAArACAAMgAsACAAMQAyACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AeQBlAGEAcgAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ASgA0ADgAMAAxAEIAQwBFAF8ASgBEADAALAAgAC0AMwAyADAAOAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAwACwAIABfAGoAZABuACAALQAgAF8ASgA0ADgAMAAxAEIAQwBFAF8ASgBEADAAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAGQAWQByACwAIABJAE4AVAAoAF8AZABhAHkAcwAwACAALwAgAF8ARABhAHkAcwBJAG4ANABZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzADEALAAgAF8AZABhAHkAcwAwACAALQAgAF8AcQB1AGEAZABZAHIAIAAqACAAXwBEAGEAeQBzAEkAbgA0AFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAGUAbQBZAHIALAAgAEkATgBUACgAKABJAE4AVAAoAF8AZABhAHkAcwAxACAALwAgAF8ARABhAHkAcwBJAG4AWQBlAGEAcgApACAAKwAgADEAKQAgACoAIAAwAC4ANwA1ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzADIALAAgAF8AZABhAHkAcwAxACAALQAgAF8AcgBlAG0AWQByACAAKgAgAF8ARABhAHkAcwBJAG4AWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkALAAgAF8AcQB1AGEAZABZAHIAIAAqACAANAAgACsAIABfAHIAZQBtAFkAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0ALAAgAEkATgBUACgAKABfAGQAYQB5AHMAMgAgACoAIAA1ACAAKwAgAF8ATQBvAG4AdABoAEMAbwByAHIAZQBjAHQAaQBvAG4ARABhAHkAcwApACAALwAgAF8ARABhAHkAcwBJAG4ANQBNAG8AbgB0AGgAcwBGAHIAbwBtAE0AYQByAGMAaAApACAALQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAAXwBkAGEAeQBzADIAIAAtACAASQBOAFQAKAAoAF8AbQAgACsAIAA0ACkAIAAqACAAXwBEAGEAeQBzAEkAbgA1AE0AbwBuAHQAaABzAEYAcgBvAG0ATQBhAHIAYwBoACAALwAgADUAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBEAGEAeQBzAEkAbgA0AE0AbwBuAHQAaABzACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABfAFkARQBBAFIANAA4ADAAMQBCAEMARQAgACsAIABfAHkAIAArACAASQBOAFQAKAAoAF8AbQAgACsAIAAyACkAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0ATwBEACgAXwBtACAAKwAgADIALAAgADEAMgApACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAHkAZQBhAHIALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgBfAFQATwBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAAbwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgAgAGEAbgBkACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAeQBlAGEAcgAgAGYAcgBvAG0AIAB0AGgAZQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAXABuAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADMANgA2AF0AIAAgAHwAIABPAHIAZABpAG4AYQBsACAAZABhAHkAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAzADYANQAsADMANgA2AF0AIAB8ACAARABhAHkAcwAgAGkAbgAgAHkAZQBhAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAZgBvAHIAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBEAE4AXwBUAE8AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEoARABOACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgASgBEAE4AIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAE4AKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ALAAgAEkATgBUACgASgBEAE4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQAsACAASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACgAXwBqAGQAbgAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4ARABFAFgAKABfAGQAYQB0AGUALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4AWQBlAGEAcgBTAHQAYQByAHQALAAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAF8AeQBlAGEAcgBDAEUALAAgADEALAAgADEALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACwAIABfAGoAZABuACAALQAgAF8AagBkAG4AWQBlAGEAcgBTAHQAYQByAHQAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBJAG4AWQBlAGEAcgAsACAARABBAFkAUwBfAEkATgBfAFkARQBBAFIAKABfAHkAZQBhAHIAQwBFACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwARABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBJAG4AWQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBPAFIARABJAE4AQQBMAF8ARABBAFQARQBfAFQATwBfAEoARABOAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4ATwByAGQAaQBuAGEAbABEAGEAeQAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAxAC4ALgAzADYANgApACAAfAAgAEQAYQB5ACAAbwBmACAAeQBlAGEAcgAsACAAYwBhAHIAcgBpAGUAcwAgAGkAZgAgAHIAYQBuAGcAZQAgAGUAeABjAGUAZQBkAGUAZABcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAF8AVABPAF8ASgBEAE4AIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbABEAGEAeQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATwByAGQAaQBuAGEAbABEAGEAeQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwByAGQAaQBuAGEAbABEAGEAeQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACwAIABJAE4AVAAoAE8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4AWQBlAGEAcgBTAHQAYQByAHQALAAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIAAxACwAIAAxACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4AWQBlAGEAcgBTAHQAYQByAHQAIAArACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACAALQAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBHAFIARQBHAE8AUgBJAEEATgBfAFQATwBfAEoAVQBMAEkAQQBOAFwAbgBcAG4AVAByAGEAbgBzAGwAYQB0AGUAcwAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAdABvACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAxAC4ALgAzADIAKQAgAHwAIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARwBSAEUARwBPAFIASQBBAE4AXwBUAE8AXwBKAFUATABJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8ASgBEAE4ALAAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgBTACgASQBTAEUAUgBSAE8AUgAoAF8ASgBEAE4AKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBKAEQATgAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABfAEoARABOACwAIAAxACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAFUATABJAEEATgBfAFQATwBfAEcAUgBFAEcATwBSAEkAQQBOAFwAbgBcAG4AVAByAGEAbgBzAGwAYQB0AGUAcwAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByACAAdABvACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAxAC4ALgAzADIAKQAgAHwAIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBVAEwASQBBAE4AXwBUAE8AXwBHAFIARQBHAE8AUgBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8ASgBEAE4ALAAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgBTACgASQBTAEUAUgBSAE8AUgAoAF8ASgBEAE4AKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBKAEQATgAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABfAEoARABOACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAZABhAHkAcwAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAgAGkAcwAgAGEAaABlAGEAZAAgAG8AZgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAgAGYAbwByAFwAbgBhACAAZwBpAHYAZQBuACAAZABhAHQAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5AHMAIABkAGkAZgBmAGUAcgBlAG4AYwBlAC4AIABOAGUAZwBhAHQAaQB2AGUAIAB2AGEAbAB1AGUAcwAgAGEAcgBlACAAdwBoAGUAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGUAcgAgAGkAcwAgAGEAaABlAGEAZAAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADEALgAuADMAMgApACAAfAAgAFwAbgBbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAUAByAG8AdgBpAGQAZQBkACAAZABhAHQAZQAgAGkAcwAgAGkAbgAgAEoAdQBsAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABEAGUAZgBhAHUAbAB0ACAAaQBzACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBOAFQAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOACgARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAEYAcgBvAG0AIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEoARABOAF8ARwAsACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAEUAUgBSAE8AUgAoAF8ASgBEAE4AXwBHACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAEoARABOAF8ARwAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBKAEQATgBfAEoALAAgAEkARgAoACgATQBvAG4AdABoACAAPQAgADIAKQAgACoAIAAoAF8AZABhAHkAIAA9ACAAMgA5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABKAFUATABJAEEATgBfAEQAQQBZAF8ATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQAsACAAMgAsACAAMgA5ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgADIALAAgADIAOAAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEoARABOAF8ASgAgAC0AIABfAEoARABOAF8ARwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARgByAG8AbQAgAEoAdQBsAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAEcALAAgAEoAVQBMAEkAQQBOAF8AVABPAF8ARwBSAEUARwBPAFIASQBBAE4AKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABfAGQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMARQBSAFIATwBSACgASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARwAsACAAMQAsACAAMQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBHACwAIAAxACwAIAAxACkAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEcALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEcALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEcALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABXAEUARQBLAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAbgAgAGkAbgB0AGUAZwBlAHIAIABmAG8AcgAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4ANwBdACAAfAAgAEkAUwBPACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAATQBvAG4AZABhAHkALgAuAFMAdQBuAGQAYQB5AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAE4AIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABmAG8AcgAgAHQAaABlACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABOACwAXABuACAAIAAgACAASQBGACgASgBEAE4AIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQATgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgAsACAASQBOAFQAKABKAEQATgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABfAGoAZABuACwAIAA3ACkAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEMATwBOAFYARQBSAFQAXwBXAEUARQBLAEQAQQBZAF8ATgBVAE0AQgBFAFIAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQBuACAAaQBuAHQAZQBnAGUAcgAgAGYAbwByACAAdABoAGUAIABkAGEAeQAgAG8AZgAgAHQAaABlACAAdwBlAGUAawAgAGYAcgBvAG0AIAB0AGgAZQAgAHQAcgBhAGQAaQB0AG8AbgBhAGwAIABuAHUAbQBiAGUAcgBpAG4AZwAgAHMAYwBoAGUAbQBlACAAdABvACAAdABoAGUAIABJAFMATwAgAGQAZQBmAGkAbgBpAHQAaQBvAG4ALAAgAG8AcgBcAG4AdgBpAGMAZQAgAHYAZQByAHMAYQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFcAZQBlAGsAZABhAHkAIABuAHUAbQBiAGUAcgBcAG4AIAAgACAAfAAgAFsAMQAuAC4ANwBdACAAIAB8ACAAIAAgACAAfAAgAEkAUwBPACAAIAAgACAAIAAgACAAfAAgAFQAcgBhAGQAaQB0AGkAbwBhAGwAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgADEAIAB8ACAATQBvAG4AZABhAHkAIAAgACAAIAB8ACAAUwB1AG4AZABhAHkAIABcAG4AIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAyACAAfAAgAFQAdQBlAHMAZABhAHkAIAAgACAAfAAgAE0AbwBuAGQAYQB5ACAAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAMwAgAHwAIABXAGUAZABuAGUAcwBkAGEAeQAgAHwAIABUAHUAZQBzAGQAYQB5AFwAbgAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgADQAIAB8ACAAVABoAHUAcgBzAGQAYQB5ACAAIAB8ACAAVwBlAGQAbgBlAHMAZABhAHkAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAANQAgAHwAIABGAHIAaQBkAGEAeQAgACAAIAAgAHwAIABUAGgAdQByAHMAZABhAHkAXABuACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAANgAgAHwAIABTAGEAdAB1AHIAZABhAHkAIAAgAHwAIABGAHIAaQBkAGEAeQBcAG4AIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAA3ACAAfAAgAFMAdQBuAGQAYQB5ACAAIAAgACAAfAAgAFMAYQB0AHUAcgBkAGEAeQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADcAXQAgAHwAIABEAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgBcAG4AWwBJAFMATwB0AG8AVAByAGEAZABpAHQAaQBvAG4AYQBsAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAfAAgAFIAZQB0AHUAcgBuACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAdQBzAGkAbgBnACAAdAByAGEAZABpAHQAaQBvAG4AYQBsACAAbgB1AG0AYgBlAHIAaQBuAGcAIABzAGMAaABlAG0AZQAsACAAYQBzAHMAdQBtAGkAbgBnACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABEAGEAeQBPAGYAVwBlAGUAawAgAHcAYQBzACAAcAByAG8AdgBpAGQAZQBkACAAYQBjAGMAbwByAGQAaQBuAGcAIAB0AG8AIABJAFMATwAgAGQAZQBmAGkAbgBpAHQAaQBvAG4ALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIAB0AG8AIAByAGUAdAB1AHIAbgAgAGkAbgAgAEkAUwBPACAAZABlAGYAaQBuAGkAdABpAG8AbgAsACAAYQBzAHMAdQBtAGkAbgBnACAARABhAHkATwBmAFcAZQBlAGsAIAB3AGEAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAHYAaQBkAGUAZAAgAGEAYwBjAG8AcgBkAGkAbgBnACAAdABvACAAdABoAGUAIAB0AHIAYQBkAGkAdABpAG8AbgBhAGwAIABuAHUAbQBiAGUAcgBpAG4AZwAgAHMAYwBoAGUAbQBlAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEMATwBOAFYARQBSAFQAXwBXAEUARQBLAEQAQQBZAF8ATgBVAE0AQgBFAFIAIAA9ACAATABBAE0AQgBEAEEAKABEAGEAeQBPAGYAVwBlAGUAawAsACAAWwBJAFMATwB0AG8AVAByAGEAZABpAHQAaQBvAG4AYQBsAF0ALABcAG4AIAAgACAAIABJAEYAKABEAGEAeQBPAGYAVwBlAGUAawAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AE8AZgBXAGUAZQBrACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGcAaQB2AGUAbgBEAG8AVwAsACAASQBOAFQAKABOACgARABhAHkATwBmAFcAZQBlAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAHIAbwBtAEkAUwBPACwAIABOACgASQBTAE8AdABvAFQAcgBhAGQAaQB0AGkAbwBuAGEAbAApACAAPAA+ACAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAaQBmAHQARABvAFcALAAgAF8AZwBpAHYAZQBuAEQAbwB3ACAAKwAgAEkARgAoAF8AZgByAG8AbQBJAFMATwAsACAAMAAsACAALQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AcwBoAGkAZgB0AEQAbwB3ACwAIAA3ACkAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsARABBAFkAXwBPAEYAXwBNAE8ATgBUAEgAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAsACAAYQBuAGQAIABhACAAcgBlAGwAYQB0AGkAdgBlACAAdwBlAGUAawAgAGYAbwByACAAdABoAGUAIABtAG8AbgB0AGgAIABhAG4AZAAgAHkAZQBhAHIAIABvAGYAIAB0AGgAZQBcAG4AcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoACAAbwBmACAAdABoAGUAIAB5AGUAYQByAFwAbgBXAGUAZQBrAE8AZgBNAG8AbgB0AGgAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFcAZQBlAGsAIABpAG4AIAB0AGgAZQAgAG0AbwBuAHQAaAAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAE4AbwB0AGUAIABpAGYAIAB0AGgAZQAgAHIAZQBmAGUAcgBlAG4AYwBlACAAZQB4AGMAZQBlAGQAcwAgAHQAaABlACAAYgBvAHUAbgBkAHMAIABvAGYAIAB0AGgAZQAgAG0AbwBuAHQAaAAsACAAYQBuAG8AdABoAGUAcgAgAG0AbwBuAHQAaABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAB3AGkAbABsACAAYgBlACAAcgBlAHQAdQByAG4AZQBkAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAxACAALQAgAGYAaQByAHMAdAAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAyACAALQAgAHMAZQBjAG8AbgBkACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgADMAIAAtACAAdABoAGkAcgBkACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgADQAIAAtACAAZgBvAHUAcgB0AGgAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAANQAgAC0AIABmAGkAZgB0AGgAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAMAAgAC0AIABsAGEAcwB0ACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAtADEAIAAtACAAcwBlAGMAbwBuAGQAIAB0AG8AIABsAGEAcwB0ACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAtADIAIAAtACAAdABoAGkAcgBkACAAdABvACAAbABhAHMAdAAgAHcAZQBlAGsAXABuAEkAUwBPAFcAZQBlAGsARABhAHkAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMQAuAC4ANwBdACAAIAB8ACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAE0AbwBuAGQAYQB5AC4ALgBTAHUAbgBkAGEAeQBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4AIAAgACAAIABcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBXAEUARQBLAEQAQQBZAF8ATwBGAF8ATQBPAE4AVABIACgAMgAwADIAMwAsACAANgAsACAAMAAsACAANwApAFwAbgBSAGUAdAB1AHIAbgBzADoAIABKAEQATgAgADIANAA2ADAAMQAyADEAIAAoADIANQAvADAANgAvADIAMAAyADMAKQAgAGkAZQAuACAAdABoAGUAIABsAGEAcwB0ACAAUwB1AG4AZABhAHkAIABvAGYAIABKAHUAbgBlACAAMgAwADIAMwBcAG4AXABuAFcARQBFAEsARABBAFkAXwBPAEYAXwBNAE8ATgBUAEgAKAAyADAAMgAzACwAIAAxACwAIAAyACwAIAAyACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgAEoARABOACAAMgA0ADUAOQA5ADUANQAgACgAMQAwAC8AMAAxAC8AMgAwADIAMwApACAAaQBlAC4AIAB0AGgAZQAgAHMAZQBjAG8AbgBkACAAVAB1AGUAcwBkAGEAeQAgAG8AZgAgAEoAYQBuAHUAYQByAHkAIAAyADAAMgAzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAEQAQQBZAF8ATwBGAF8ATQBPAE4AVABIACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAAVwBlAGUAawBPAGYATQBvAG4AdABoACwAIABJAFMATwBXAGUAZQBrAEQAYQB5ACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABZAGUAYQByAEMARQAgAD0AIABcACIAXAAiACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAXAAiAFwAIgApACAAKgAgACgAVwBlAGUAawBPAGYATQBvAG4AdABoACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEkAUwBPAFcAZQBlAGsARABhAHkAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABXAGUAZQBrAE8AZgBNAG8AbgB0AGgAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASQBTAE8AVwBlAGUAawBEAGEAeQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgATQBPAEQAKABZAGUAYQByAEMARQAsACAAMQApACAAPgAgADAAKQAgACsAIAAoAE0ATwBEACgATQBvAG4AdABoACwAIAAxACkAIAA+ACAAMAApACAAKwAgACgATQBPAEQAKABXAGUAZQBrAE8AZgBNAG8AbgB0AGgALAAgADEAKQAgAD4AIAAwACkALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0AbwBuAHQAaAAgACsAIABOACgAVwBlAGUAawBPAGYATQBvAG4AdABoACAAPAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBEAG8AVwAsACAATQBPAEQAKABJAE4AVAAoAEkAUwBPAFcAZQBlAGsARABhAHkAKQAgAC0AIAAxACwAIAA3ACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQATwBmAE0AbwBuAHQAaAAsACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgAF8AbQBvAG4AdABoACwAIAAxACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQARABvAFcALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAF8AZgBpAHIAcwB0AE8AZgBNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQATwBmAE0AbwBuAHQAaAAgACsAIAAoACgAVwBlAGUAawBPAGYATQBvAG4AdABoACAALQAgADEAKQAgACoAIAA3ACkAIAArACAATQBPAEQAKABfAGkAcwBvAEQAbwB3ACAALQAgAF8AZgBpAHIAcwB0AEQAbwBXACwAIAA3ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABjAG8AdQBuAHQAIABvAGYAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrAHMAIABpAG4AIABhACAAZwBpAHYAZQBuACAAeQBlAGEAcgAgAG8AZgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsANQAyACwANQAzAF0AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZwByAGUAZwBvAHIAaQBhAG4ALAAgAE4AKABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEwAYQBzAHQAVwBlAGUAawBEAGEAeQBPAGYAWQBlAGEAcgAsACAATABBAE0AQgBEAEEAKABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AFAAcgBlAGMAZQBzAHMAaQBvAG4ALAAgAEkARgAoAF8AZwByAGUAZwBvAHIAaQBhAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACAAKwAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAA0ACkAIAAtACAASQBOAFQAKABfAHkAZQBhAHIAQwBFACAALwAgADEAMAAwACkAIAArACAASQBOAFQAKABfAHkAZQBhAHIAQwBFACAALwAgADQAMAAwACkAIAArACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUAIAArACAASQBOAFQAKABfAHkAZQBhAHIAQwBFACAALwAgADQAKQAgACsAIAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwBkAGEAeQBQAHIAZQBjAGUAcwBzAGkAbwBuACwAIAA3ACkAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkALAAgAGYAbgBMAGEAcwB0AFcAZQBlAGsARABhAHkATwBmAFkAZQBhAHIAKABfAHkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcATABhAHMAdABEAGEAeQAgAD0AIAA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIABsAGEAcwB0ACAAZABhAHkAIABvAGYAIAB5AGUAYQByACAAaQBzACAAYQAgAFQAaAB1AHIAcwBkAGEAeQAsACAAdABoAGUAbgAgAGgAYQBzACAAYQBuACAAZQB4AHQAcgBhACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdwBMAGEAcwB0AEQAYQB5AFAAcgBlAHYALAAgAGYAbgBMAGEAcwB0AFcAZQBlAGsARABhAHkATwBmAFkAZQBhAHIAKABfAHkAZQBhAHIAQwBFACAALQAgADEAKQAgACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcATABhAHMAdABEAGEAeQBQAHIAZQB2ACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIABsAGEAcwB0ACAAZABhAHkAIABvAGYAIABwAHIAZQB2AGkAbwB1AHMAIAB5AGUAYQByACAAaQBzACAAYQAgAFcAZQBkAG4AZQBzAGQAYQB5ACwAIAB0AGgAZQBuACAAaABhAHMAIABhAG4AIABlAHgAdAByAGEAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG8AdABoAGUAcgB3AGkAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAXwBEAEEAVABFAF8AVABPAF8ASgBEAE4AXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHAAcgBvAHYAaQBkAGUAZAAgAHcAZQBlAGsAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEALgAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4ASQBTAE8AVwBlAGUAawAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgA1ADMAXQAgAHwAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIAXABuAEkAUwBPAFcAZQBlAGsARABhAHkAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMQAuAC4ANwBdACAAIAB8ACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAATQBvAG4AZABhAHkALgAuAFMAdQBuAGQAYQB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAEkAUwBPAFcAZQBlAGsALAAgAEkAUwBPAFcAZQBlAGsARABhAHkALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEkAUwBPAFcAZQBlAGsAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASQBTAE8AVwBlAGUAawBEAGEAeQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASQBTAE8AVwBlAGUAawApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABJAFMATwBXAGUAZQBrAEQAYQB5ACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB2AGEAbABpAGQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAFkAZQBhAHIAQwBFACwAIAAxACkAIAA+ACAAMAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABJAFMATwBXAGUAZQBrACwAIAAxACkAIAA+ACAAMAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE8AVwBlAGUAawAgADwAIAAxACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMATwBXAGUAZQBrACAAPgAgADUAMwAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE8AVwBlAGUAawAgAD0AIAA1ADMALAAgACgAVwBFAEUASwBTAF8ASQBOAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgADwAIAA1ADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAARgBBAEwAUwBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGkAbgB2AGEAbABpAGQALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAGkAZgB0AEIAeQBXAGUAZQBrAHMALAAgACgASQBTAE8AVwBlAGUAawAgAC0AIAAxACkAIAAqACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABpAGYAdABEAGEAeQBPAGYAVwBlAGUAawAsACAATQBPAEQAKABJAE4AVAAoAEkAUwBPAFcAZQBlAGsARABhAHkAKQAgAC0AIAAxACwAIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBGAGkAcgBzAHQARABhAHkAWQBlAGEAcgAsACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgADEALAAgADEALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AFcAZQBlAGsARABhAHkALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAF8AagBkAG4ARgBpAHIAcwB0AEQAYQB5AFkAZQBhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBvAHIAcgBlAGMAdABpAG8AbgAsACAATQBPAEQAKAA0ACAALQAgAF8AZgBpAHIAcwB0AFcAZQBlAGsARABhAHkALAAgADcAKQAgAC0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ARgBpAHIAcwB0AEQAYQB5AFkAZQBhAHIAIAArACAAXwB5AGUAYQByAEMAbwByAHIAZQBjAHQAaQBvAG4AIAArACAAXwBzAGgAaQBmAHQAQgB5AFcAZQBlAGsAcwAgACsAIABfAHMAaABpAGYAdABEAGEAeQBPAGYAVwBlAGUAawAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAE4AXwBUAE8AXwBXAEUARQBLAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHkAZQBhAHIALAAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAsACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsALAAgAGEAbgBkACAAdwBlAGUAawBzACAAaQBuACAAdABoAGUAIAB5AGUAYQByACAAZgBvAHIAIAB0AGgAZQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHkAXABuAE4AdQBtAGIAZQByACAAaQBuACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByAEMARQBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADUAMwBdACAAfAAgAEkAUwBPACAAdwBlAGUAawAgAG4AdQBtAGIAZQByAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4ANwBdACAAIAB8ACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABNAG8AbgBkAGEAeQAuAC4AUwB1AG4AZABhAHkAXABuACAANAAgAHwAIABpAG4AdABlAGcAZQByACAAWwA1ADIALAA1ADMAXQAgAHwAIABJAFMATwAgAHcAZQBlAGsAcwAgAGkAbgAgAHkAZQBhAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAZgBvAHIAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBEAE4AXwBUAE8AXwBXAEUARQBLAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEoARABOACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgASgBEAE4AIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAE4AKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ALAAgAEkATgBUACgASgBEAE4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBhAGwARABhAHQAZQAsACAASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACgAXwBqAGQAbgAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4ARABFAFgAKABfAGMAYQBsAEQAYQB0AGUALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFcAZQBlAGsALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAF8AagBkAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFkAZQBhAHIALAAgAF8AagBkAG4AIAAtACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAXwB5AGUAYQByAEMARQAsACAAMQAsACAAMQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrACwAIABJAE4AVAAoACgAXwBkAGEAeQBPAGYAWQBlAGEAcgAgAC0AIABfAGQAYQB5AE8AZgBXAGUAZQBrACAAKwAgADEAMAApACAALwAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABsAGEAcwB0ACAAdwBlAGUAawAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAHMASQBuAFkAZQBhAHIALAAgAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAKABfAHkAZQBhAHIAQwBFACAALQAgADEALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHcAZQBlAGsAcwBJAG4AWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAHMASQBuAFkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIAB0AGgAaQBzACAAeQBlAGEAcgAgAGQAbwBlAHMAIABuAG8AdAAgAGgAYQB2AGUAIAA1ADMAIAB3AGUAZQBrAHMALAAgAHQAaABlAG4AIABpAHMAIAB0AGgAZQAgAGYAaQByAHMAdAAgAHcAZQBlAGsAIABvAGYAIABmAG8AbABsAG8AdwBpAG4AZwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAVwBFAEUASwBTAF8ASQBOAF8AWQBFAEEAUgAoAF8AeQBlAGEAcgBDAEUALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACAAPQAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFcAZQBlAGsALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawBzAEkAbgBZAGUAYQByACwAIABXAEUARQBLAFMAXwBJAE4AXwBZAEUAQQBSACgAXwB5AGUAYQByAEMARQAgACsAIAAxACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgACsAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHcAZQBlAGsAcwBJAG4AWQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAHMASQBuAFkAZQBhAHIALAAgAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAKABfAHkAZQBhAHIAQwBFACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAHMASQBuAFkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAXwBOAFUATQBCAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4ANQAzAF0AIAB8ACAASQBTAE8AIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAA9ACAATABBAE0AQgBEAEEAKABKAEQATgAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEoARABOACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAE4AKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawBEAGEAdABlACwAIABKAEQATgBfAFQATwBfAFcARQBFAEsAXwBEAEEAVABFACgASgBEAE4ALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAF8AdwBlAGUAawBEAGEAdABlACwAIAAyACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAFEAVQBBAFIAVABFAFIAUwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAEEAWQBTAF8ASQBOAF8AUQBVAEEAUgBUAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAGQAYQB5AHMAIABpAG4AIABhACAAcQB1AGEAcgB0AGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByACAAbwBmACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwA4ADkALgAuADkAMgBdAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUQB1AGEAcgB0AGUAcgAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgA0AF0AIAAgAHwAIABRAHUAYQByAHQAZQByACAAbwBmACAAdABoAGUAIAB5AGUAYQByACAAMQAuAC4ANAAsACAAdAByAGEAbgBzAGkAdABpAHYAZQAsACAAZQB4AGMAZQBlAGQAaQBuAGcAIAByAGEAbgBnAGUAIAB3AGkAbABsACAAYwBhAHIAcgB5ACAAdABvACAAeQBlAGEAcgAuAFwAbgBbAEYAaQBzAGMAYQBsAFkAZQBhAHIAQwBFAF0AIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAVwBoAGUAbgAgAG0AbwBuAHQAaAAgAG8AZgBmAHMAZQB0ACAAaQBzACAAbgBvAG4ALQB6AGUAcgBvACAAdABoAGUAIABmAGkAcwBjAGEAbAAgAHkAZQBhAHIAIABzAHAAYQBuAHMAIABjAGEAbABlAG4AZABhAHIAIAB5AGUAYQByAHMAIABhAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAHMAIABkAGUAZgBpAG4AZQBkACAAYQBzACAAdABoAGUAIAB5AGUAYQByACAAdwBoAGUAcgBlACAASgB1AG4AZQAgAGYAYQBsAGwAcwAuAFwAbgBbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0ANgAuAC4AMwBdACAAfAAgAFEAdQBhAHIAdABlAHIAIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgBhAHkAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBFAHgAYQBtAHAAbABlAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAFMAXwBJAE4AXwBRAFUAQQBSAFQARQBSACgAMwAsACAAMgAwADIAMAAsACAALQA2ACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADkAMQBcAG4AaQAuAGUALgAgADMAcgBkACAAcQB1AGEAcgB0AGUAcgAgAHMAdABhAHIAdABpAG4AZwAgAGYAcgBvAG0AIABKAHUAbAB5ACAAMgAwADEAOQAsACAAbgBhAG0AZQBsAHkAIABKAGEAbgAsACAARgBlAGIALAAgAE0AYQByACAAMgAwADIAMAAgAHcAaQB0AGgAIAAzADEALAAgADIAOQAsACAAMwAxACAAZABhAHkAcwAgAHIAZQBzAHAAZQBjAHQAaQB2AGUAbAB5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEEAWQBTAF8ASQBOAF8AUQBVAEEAUgBUAEUAUgAgAD0AIABMAEEATQBCAEQAQQAoAFEAdQBhAHIAdABlAHIALAAgAFsARgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUAXQAsACAAWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAFEAdQBhAHIAdABlAHIAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABRAHUAYQByAHQAZQByACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABRAHUAYQByAHQAZQByACwAIAAxACkAIAA+ACAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQAIAA8ACAALQA2ACkAIAArACAAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAgAD4AIAAzACkALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIALAAgAE0ATwBEACgASQBOAFQAKABRAHUAYQByAHQAZQByACkAIAAtACAAMQAsACAANAApACwAIAAvAC8AIAAwAC4ALgAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBJAG4AUQB1AGEAcgB0AGUAcgBDAHkAYwBsAGkAYwBhAGwALAAgAHsAOQAwACwAOAA5ACwAOQAyACwAOQAxACwAOQAyACwAOQAyACwAOQAyACwAOQAyACwAOQAxACwAOQAyACwAOQAyACwAOQAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIAVwBpAHQAaABGAGUAYgAsACAASQBOAFQAKABNAE8ARAAoADEAIAAtACAAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQALAAgADEAMgApACAALwAgADMAKQAsACAAIAAvAC8AIAAwAC4ALgAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgBQAHIAZQBjAGUAcwBzAGkAbwBuACwAIABNAE8ARAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAKwAgACgAXwBxAHUAYQByAHQAZQByACAAKgAgADMAKQAsACAAMQAyACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABEAGEAeQBzAEkAbgBRAHUAYQByAHQAZQByACwAIABJAE4ARABFAFgAKABfAGQAYQB5AHMASQBuAFEAdQBhAHIAdABlAHIAQwB5AGMAbABpAGMAYQBsACwAIAAxACwAIABfAHEAdQBhAHIAdABlAHIAUAByAGUAYwBlAHMAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAYQBwAEQAYQB5ACwAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABGAGkAcwBjAGEAbABZAGUAYQByAEMARQApACAAKgAgACgAXwBxAHUAYQByAHQAZQByAFcAaQB0AGgARgBlAGIAIAA9ACAAXwBxAHUAYQByAHQAZQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBPAGYARgBlAGIALAAgAEkATgBUACgARgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUAKQAgACsAIABOACgAXwBxAHUAYQByAHQAZQByACAAPQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABfAHkAZQBhAHIATwBmAEYAZQBiACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAEQAYQB5AHMASQBuAFEAdQBhAHIAdABlAHIAIAArACAAXwBsAGUAYQBwAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAG8AZgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAcQB1AGEAcgB0AGUAcgAgAGQAYQB0AGUAIABpAG4AIAB0AGgAZQAgAHMAcABlAGMAaQBmAGkAZQBkACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFcAaABlAG4AIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGkAcwAgAG4AbwBuAC0AegBlAHIAbwAgAHQAaABlACAAZgBpAHMAYwBhAGwAIAB5AGUAYQByACAAcwBwAGEAbgBzACAAYwBhAGwAZQBuAGQAYQByACAAeQBlAGEAcgBzACAAYQBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBzACAAZABlAGYAaQBuAGUAZAAgAGEAcwAgAHQAaABlACAAeQBlAGEAcgAgAHcAaABlAHIAZQAgAEoAdQBuAGUAIABmAGEAbABsAHMALgBcAG4AUQB1AGEAcgB0AGUAcgAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgA0AF0AIAAgAHwAIABRAHUAYQByAHQAZQByACAAbwBmACAAdABoAGUAIAB5AGUAYQByACAAMQAuAC4ANAAsACAAdAByAGEAbgBzAGkAdABpAHYAZQAsACAAZQB4AGMAZQBlAGQAaQBuAGcAIAByAGEAbgBnAGUAIAB3AGkAbABsACAAYwBhAHIAcgB5ACAAdABvACAAeQBlAGEAcgAuAFwAbgBEAGEAeQBPAGYAUQB1AGEAcgB0AGUAcgAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADEALgAuADkAMgBdACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHQAaABlACAAcQB1AGEAcgB0AGUAcgAsACAAZQB4AGMAZQBlAGQAaQBuAGcAIAByAGEAbgBnAGUAIAB3AGkAbABsACAAYwBhAHIAcgB5AFwAbgBbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0ANgAuAC4AMwBdACAAfAAgAFEAdQBhAHIAdABlAHIAIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgB5AFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBRAFUAQQBSAFQARQBSAF8ARABBAFQARQBfAFQATwBfAEoARABOACAAPQAgAEwAQQBNAEIARABBACgARgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUALAAgAFEAdQBhAHIAdABlAHIALAAgAEQAYQB5AE8AZgBRAHUAYQByAHQAZQByACwAIABbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABGAGkAcwBjAGEAbABZAGUAYQByAEMARQAgAD0AIABcACIAXAAiACkAIAAqACAAKABRAHUAYQByAHQAZQByACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEQAYQB5AE8AZgBRAHUAYQByAHQAZQByACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABGAGkAcwBjAGEAbABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABRAHUAYQByAHQAZQByACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AE8AZgBRAHUAYQByAHQAZQByACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABRAHUAYQByAHQAZQByACwAIAAxACkAIAA+ACAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQAIAA8ACAALQA2ACkAIAArACAAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAgAD4AIAAzACkALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBzAGMAYQBsAFkAZQBhAHIAQwBFACwAIABJAE4AVAAoAEYAaQBzAGMAYQBsAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIALAAgAEkATgBUACgAUQB1AGEAcgB0AGUAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAaQBmAHQATQBvAG4AdABoACwAIAAoAF8AcQB1AGEAcgB0AGUAcgAgAC0AIAAxACkAIAAqACAAMwAgACsAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAF8AZgBpAHMAYwBhAGwAWQBlAGEAcgBDAEUAIAArACAASQBOAFQAKABfAHMAaABpAGYAdABNAG8AbgB0AGgAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAATQBPAEQAKABfAHMAaABpAGYAdABNAG8AbgB0AGgALAAgADEAMgApACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABEAGEAeQBPAGYAUQB1AGEAcgB0AGUAcgAsACAASgBVAEwASQBBAE4AXwBEAEEAWQBfAE4AVQBNAEIARQBSACgAXwB5AGUAYQByAEMARQAsACAAXwBtAG8AbgB0AGgALAAgADEALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQARABhAHkATwBmAFEAdQBhAHIAdABlAHIAIAAtACAAMQAgACsAIABJAE4AVAAoAEQAYQB5AE8AZgBRAHUAYQByAHQAZQByACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAIAAgACAAIABcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABOAF8AVABPAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABmAGkAcwBjAGEAbAAgAHkAZQBhAHIALAAgAHEAdQBhAHIAdABlAHIALAAgAGQAYQB5ACAAbwBmACAAcQB1AGEAcgB0AGUAcgAgAGEAbgBkACAAZABhAHkAcwAgAGkAbgAgAHQAaABlACAAcQB1AGEAcgB0AGUAcgAgAGYAbwByACAAdABoAGUAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAXABuAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAAgAHwAIABGAGkAcwBjAGEAbABZAGUAYQByAEMARQBcAG4AIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAVwBoAGUAbgAgAG0AbwBuAHQAaAAgAG8AZgBmAHMAZQB0ACAAaQBzACAAbgBvAG4ALQB6AGUAcgBvACAAdABoAGUAIABmAGkAcwBjAGEAbAAgAHkAZQBhAHIAIABzAHAAYQBuAHMAIABjAGEAbABlAG4AZABhAHIAIAB5AGUAYQByAHMAIABhAG4AZABcAG4AIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBzACAAZABlAGYAaQBuAGUAZAAgAGEAcwAgAHQAaABlACAAeQBlAGEAcgAgAHcAaABlAHIAZQAgAEoAdQBuAGUAIABmAGEAbABsAHMALgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADQAXQAgACAAIAB8ACAAUQB1AGEAcgB0AGUAcgBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADkAMgBdACAAIAB8ACAARABhAHkAIABvAGYAIABxAHUAYQByAHQAZQByAFwAbgAgADQAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAOAA5AC4ALgA5ADIAXQAgAHwAIABEAGEAeQBzACAAaQBuACAAcQB1AGEAcgB0AGUAcgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABOACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAZgBvAHIAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB5AFwAbgBbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0ANgAuAC4AMwBdACAAfAAgAFEAdQBhAHIAdABlAHIAIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgB5AC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABOAF8AVABPAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABKAEQATgAsACAAWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEoARABOACAAPQAgAFwAIgBcACIALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABOACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAPAAgAC0ANgApACAAKwAgACgAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQAIAA+ACAAMwApACwAIAB7ACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEALAAgACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuACwAIABJAE4AVAAoAEoARABOACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGEAbABEAGEAdABlACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABfAGoAZABuACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABpAGYAdABNAG8AbgB0AGgALAAgAEkATgBEAEUAWAAoAF8AYwBhAGwARABhAHQAZQAsACAAMQAsACAAMgApACAALQAgADEAIAAtACAAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcwBjAGEAbABZAGUAYQByACwAIABJAE4ARABFAFgAKABfAGMAYQBsAEQAYQB0AGUALAAgADEALAAgADEAKQAgACsAIABJAE4AVAAoAF8AcwBoAGkAZgB0AE0AbwBuAHQAaAAgAC8AIAAxADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHoAZQByAG8AQgBhAHMAZQBkAEYAaQBzAGMAYQBsAE0AbwBuAHQAaAAsACAATQBPAEQAKABfAHMAaABpAGYAdABNAG8AbgB0AGgALAAgADEAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgAsACAASQBOAFQAKABfAHoAZQByAG8AQgBhAHMAZQBkAEYAaQBzAGMAYQBsAE0AbwBuAHQAaAAgAC8AIAAzACkAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEYAaQByAHMAdABEAGEAeQBRAHUAYQByAHQAZQByACwAIABRAFUAQQBSAFQARQBSAF8ARABBAFQARQBfAFQATwBfAEoARABOACgAXwBmAGkAcwBjAGEAbABZAGUAYQByACwAIABfAHEAdQBhAHIAdABlAHIALAAgADEALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AE8AZgBRAHUAYQByAHQAZQByACwAIABfAGoAZABuACAALQAgAF8AagBkAG4ARgBpAHIAcwB0AEQAYQB5AFEAdQBhAHIAdABlAHIAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AHMASQBuAFEAdQBhAHIAdABlAHIALAAgAEQAQQBZAFMAXwBJAE4AXwBRAFUAQQBSAFQARQBSACgAXwBxAHUAYQByAHQAZQByACwAIABfAGYAaQBzAGMAYQBsAFkAZQBhAHIALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHMAYwBhAGwAWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFEAdQBhAHIAdABlAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AHMASQBuAFEAdQBhAHIAdABlAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAEQAQQBUAEUAIABBAE4ARAAgAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgBfAFUAVABDAF8AVABPAF8ASgBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAZwBpAHYAZQBuACAAYQBuACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABpAG4AIABVAFQAQwAuAFwAbgBOAG8AdABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABhAHIAZQAgAGEAbAB3AGEAeQBzACAAaQBuACAAVQBUAEMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByAC4AXABuAFsAVABpAG0AZQBVAFQAQwBdACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgAHwAIABUAGkAbQBlACAAbwBmACAAZABhAHkAIABpAG4AIABVAFQAQwAgAGEAcwAgAGQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4AIABvAHIAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQByAHIAaQBlAHMAIABpAGYAIAByAGEAbgBnAGUAIABpAHMAIABlAHgAYwBlAGUAZABlAGQALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASgBEAE4AXwBVAFQAQwBfAFQATwBfAEoARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEoARABOACwAIABbAFQAaQBtAGUAVQBUAEMAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAE4AIAA9ACAAXAAiAFwAIgApACAAKgAgACgAVABpAG0AZQBVAFQAQwAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAE4AKQApACAAKwAgACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABUAGkAbQBlAFUAVABDACkAKQAgACoAIAAoAFQAaQBtAGUAVQBUAEMAIAA8AD4AIABcACIAXAAiACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABKAEQATgAsACAAMQApACAAPgAgADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABKAEQATgAgAC0AIAAwAC4ANQAgACsAIABOACgAVABpAG0AZQBVAFQAQwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAgAGcAaQB2AGUAbgAgAGEAIABsAG8AYwBhAGwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAGwAbwBjAGEAbAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAgAHcAaQB0AGgAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuAFwAbgBtAGkAbgB1AHQAZQBzAC4AIABOAG8AdABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABhAHIAZQAgAGEAbAB3AGEAeQBzACAAaQBuACAAVQBUAEMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBMAG8AYwBhAGwASgBEAE4AIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgAHwAIABMAG8AYwBhAGwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIALgBcAG4ATABvAGMAYQBsAFQAaQBtAGUAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAB8ACAATABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AcgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAcgByAGkAZQBzACAAaQBzACAAcgBhAG4AZwBlACAAaQBzACAAZQB4AGMAZQBlAGQAZQBkAC4AXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEwAbwBjAGEAbABKAEQATgAsACAATABvAGMAYQBsAFQAaQBtAGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEwAbwBjAGEAbABKAEQATgAgAD0AIABcACIAXAAiACkAIAAqACAAKABMAG8AYwBhAGwAVABpAG0AZQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATABvAGMAYQBsAEoARABOACkAKQAgACsAIAAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATABvAGMAYQBsAFQAaQBtAGUAKQApACAAKgAgACgATABvAGMAYQBsAFQAaQBtAGUAIAA8AD4AIABcACIAXAAiACkAKQAgACsAIAAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkAKQAgACoAIAAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAgADwAPgAgAFwAIgBcACIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABNAE8ARAAoAEwAbwBjAGEAbABKAEQATgAsACAAMQApACAAPgAgADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACAALwAgADEANAA0ADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADAALgA2ADIANQAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAG8AYwBhAGwASgBEAE4AIAAtACAAMAAuADUAIAArACAATgAoAEwAbwBjAGEAbABUAGkAbQBlACkAIAAtACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABBAFQARQBfAFQATwBfAEoARABOAF8AVQBUAEMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAgAGkAbgAgAFUAVABDACAAbwBmACAAYQAgAGcAaQB2AGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByAFwAbgAgADIAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4AMQApACAAfAAgAFQAaQBtAGUAIABvAGYAIABkAGEAeQAgAGkAbgAgAFUAVABDAC4AIABEAGUAYwBpAG0AYQBsACAAZgByAGEAYwB0AGkAbwBuACwAIABpAG0AcABsAGkAYwBpAHQAbAB5ACAAYwBvAG4AdgBlAHIAdABzACAAdABvACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUAIAB0AHkAcABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABBAFQARQBfAFQATwBfAEoARABOAF8AVQBUAEMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUALABcAG4AIAAgACAAIABJAEYAKABKAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABpAGYAdABVAFQAQwAsACAASgBEAGEAdABlACAAKwAgADAALgA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBKAEQATgAsACAASQBOAFQAKABfAHMAaABpAGYAdABVAFQAQwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBVAFQAQwAsACAAXwBzAGgAaQBmAHQAVQBUAEMAIAAtACAAXwBKAEQATgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBKAEQATgAsACAAXwBVAFQAQwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAG8AYwBhAGwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAfAAgAEwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AIAAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgAEQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4ALAAgAGkAbQBwAGwAaQBjAGkAdABsAHkAIABjAG8AbgB2AGUAcgB0AHMAIAB0AG8AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAXABuACAAIAAgACAASQBGACgASgBEAGEAdABlACAAPQAgAFwAIgBcACIALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQApACkAIAArACAAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACkAIAAqACAAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAIAA8AD4AIABcACIAXAAiACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkAIAAvACAAMQA0ADQAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADAALgA2ADIANQAsACAAewAjAE4AVQBNACEALAAgACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAaQBmAHQATABvAGMAYQBsACwAIABKAEQAYQB0AGUAIAArACAAMAAuADUAIAArACAAXwB0AHoAbwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAbwBjAGEAbABKAEQATgAsACAASQBOAFQAKABfAHMAaABpAGYAdABMAG8AYwBhAGwAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAbwBjAGEAbABUAGkAbQBlACwAIABfAHMAaABpAGYAdABMAG8AYwBhAGwAIAAtACAAXwBsAG8AYwBhAGwASgBEAE4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGwAbwBjAGEAbABKAEQATgAsACAAXwBsAG8AYwBhAGwAVABpAG0AZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBVAEwASQBBAE4AXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAbwBmACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgBcAG4ATgBvAHQAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAYQByAGUAIABhAGwAdwBhAHkAcwAgAGkAbgAgAFUAVABDAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAE0AbwBuAHQAaABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AVABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgAHwAIABUAGkAbQBlACAAbwBmACAAZABhAHkAIABhAHMAIABkAGUAYwBpAG0AYQBsACAAZgByAGEAYwB0AGkAbwBuACAAbwByACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUAIAB0AHkAcABlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAHIAcgBpAGUAcwAgAGkAZgAgAHIAYQBuAGcAZQAgAGkAcwAgAGUAeABjAGUAZQBkAGUAZAAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBKAFUATABJAEEATgBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAVABpAG0AZQAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABEAGEAeQAsACAAMQApACAAPgAgADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAUABhAHIAdAAsACAASQBOAFQAKABOACgAVABpAG0AZQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AG8AZAAsACAATgAoAFQAaQBtAGUAKQAgAC0AIABfAGQAYQB5AFAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgAsACAAXwBkAGEAeQBQAGEAcgB0ACAAKwAgAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQAoAF8AagBkAG4ALAAgAF8AdABvAGQALAAgAF8AdAB6AG8AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEMAQQBMAEUATgBEAEEAUgBfAEYAUgBPAE0AXwBKAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIABsAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgBDAEUAXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AIAA0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgACAAfAAgAEwAbwBjAGEAbAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAuACAARABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAsACAAaQBtAHAAbABpAGMAaQB0AGwAeQAgAGMAbwBuAHYAZQByAHQAcwAgAHQAbwAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AIABOAG8AdABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABhAHIAZQAgAGEAbAB3AGEAeQBzACAAaQBuACAAVQBUAEMALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEYAbABvAGEAdABpAG4AZwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAARABhAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANAAgAC0AIABTAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBDAEEATABFAE4ARABBAFIAXwBGAFIATwBNAF8ASgBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKABKAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABKAEQAYQB0AGUALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsACwAIAAxACwAIAAxACkAKQAsACAAewAjAE4AVQBNACEALAAgACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAATgAoAFAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAG8AYwBhAGwAVABpAG0AZQAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPAA9ACAAMAAsACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADIAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACAAMQAsACAAMgApACAAKgAgADIANAAsACAAMAApACAALwAgADIANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwAsACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADIAKQAgACoAIAAxADQANAAwACwAIAAwACkAIAAvACAAMQA0ADQAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAANAAsACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADIAKQAgACoAIAA4ADYANAAwADAALAAgADAAKQAgAC8AIAA4ADYANAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACAAMQAsACAAMgApACAAKgAgADgANgA0ADAAMAAsACAAMwApACAALwAgADgANgA0ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIATABvAGMAYQBsAFQAaQBtAGUALAAgAE0ATwBEACgAXwBsAG8AYwBhAGwAVABpAG0AZQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBKAEQATgAsACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAgADEALAAgADEAKQAgACsAIABJAE4AVAAoAF8AbABvAGMAYQBsAFQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAbwBjAGEAbABEAGEAdABlACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABfAHIASgBEAE4ALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBsAG8AYwBhAGwARABhAHQAZQAsACAAXwByAEwAbwBjAGEAbABUAGkAbQBlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAEkATQBFAF8ARABFAEMASQBNAEEATABfAFQATwBfAEgATQBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGEAdABpAG8AbgAgAG8AZgAgAGEAIABkAGUAYwBpAG0AYQBsACAAdABpAG0AZQAgAHYAYQBsAHUAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADEALAAwACwAMQBdACAAfAAgAFMAaQBnAG4AXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAfAAgAEgAbwB1AHIAcwBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADUAOQBdACAAIAB8ACAATQBpAG4AdQB0AGUAcwBcAG4AIAA0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADYAMAApACAAIAB8ACAAUwBlAGMAbwBuAGQAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAaQBtAGUAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABUAGkAbQBlACAAYQBzACAAZgByAGEAYwB0AGkAbwBuACAAbwBmACAAYQAgAGQAYQB5ACAAKAAyADQAIABoAG8AdQByAHMAKQAuACAASQBtAHAAbABpAGMAaQB0AGwAeQAgAGMAbwBuAHYAZQByAHQAcwAgAGYAcgBvAG0AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUAIABmAG8AcgBcAG4AIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAG4AbwBuAC0AbgBlAGcAYQB0AGkAdgBlACAAdgBhAGwAdQBlAHMALgAgAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBUAEkATQBFAF8ARABFAEMASQBNAEEATABfAFQATwBfAEgATQBTACAAPQAgAEwAQQBNAEIARABBACgAVABpAG0AZQAsAFwAbgAgACAAIAAgAEkARgAoAFQAaQBtAGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAVABpAG0AZQApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAcgBvAHUAbgBkACAAdABvACAAbQBpAGwAbABpAHMAZQBjAG8AbgBkAHMALAAgAHMAYwBhAGwAZQAgAHQAbwAgAHMAZQBjAG8AbgBkAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGUAYwBvAG4AZABzACwAIABSAE8AVQBOAEQAKABUAGkAbQBlACAAKgAgADgANgA0ADAAMAAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGUAYwBvAG4AZABzACAAPQAgADAALAAgAHsAMAAsACAAMAAsACAAMAAsACAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAFMASQBHAE4AKABfAHMAZQBjAG8AbgBkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAYgBzAFMAZQBjAG8AbgBkAHMALAAgAEEAQgBTACgAXwBzAGUAYwBvAG4AZABzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGUAYwBvAG4AZABQAGEAcgB0ACwAIABNAE8ARAAoAF8AYQBiAHMAUwBlAGMAbwBuAGQAcwAsACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQBzACwAIABJAE4AVAAoACgAXwBhAGIAcwBTAGUAYwBvAG4AZABzACAALQAgAF8AcwBlAGMAbwBuAGQAUABhAHIAdAApACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAUABhAHIAdAAsACAATQBPAEQAKABfAG0AaQBuAHUAdABlAHMALAAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgBQAGEAcgB0ACwAIABJAE4AVAAoACgAXwBtAGkAbgB1AHQAZQBzACAALQAgAF8AbQBpAG4AdQB0AGUAUABhAHIAdAApACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByAFAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AaQBuAHUAdABlAFAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAFAAYQByAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBIAE0AUwBfAFQATwBfAFQASQBNAEUAXwBEAEUAQwBJAE0AQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABkAGUAYwBpAG0AYQBsACAAdABpAG0AZQAgAGEAcwAgAGEAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkAIABmAHIAbwBtACAAYQAgADIANAAgAGgAbwB1AHIAIAB0AGkAbQBlAGsAZQBlAHAAaQBuAGcAIAB2AGEAbAB1AGUAIABvAGYAIAB0AGkAbQBlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAASQBtAHAAbABpAGMAaQB0AGwAeQAgAGMAbwBuAHYAZQByAHQAcwAgAHQAbwAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAgAGYAbwByACAAbgBvAG4ALQBuAGUAZwBhAHQAaQB2AGUAIAB2AGEAbAB1AGUAcwAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUwBpAGcAbgAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADEALAAwACwAMQBdACAAfABcAG4ASABvAHUAcgBzACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAfABcAG4ATQBpAG4AdQB0AGUAcwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgA1ADkAXQAgACAAfABcAG4AUwBlAGMAbwBuAGQAcwAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgA2ADAAKQAgACAAfABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASABNAFMAXwBUAE8AXwBUAEkATQBFAF8ARABFAEMASQBNAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAFMAaQBnAG4ALAAgAEgAbwB1AHIAcwAsACAATQBpAG4AdQB0AGUAcwAsACAAUwBlAGMAbwBuAGQAcwAsAFwAbgAgACAAIAAgAEkARgAoACgASABvAHUAcgBzACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AaQBuAHUAdABlAHMAIAA9ACAAXAAiAFwAIgApACAAKgAgACgAUwBlAGMAbwBuAGQAcwAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABTAGkAZwBuACkAKQAgACoAIAAoAFMAaQBnAG4AIAA8AD4AIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAgACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABIAG8AdQByAHMAKQApACAAKgAgACgASABvAHUAcgBzACAAPAA+ACAAXAAiAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsAIAAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAcwApACkAIAAqACAAKABNAGkAbgB1AHQAZQBzACAAPAA+ACAAXAAiAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsAIAAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAcwApACkAIAAqACAAKABTAGUAYwBvAG4AZABzACAAPAA+ACAAXAAiAFwAIgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByAHMALAAgAE4AKABIAG8AdQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAcwAsACAATgAoAE0AaQBuAHUAdABlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAcwAsACAATgAoAFMAZQBjAG8AbgBkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgAXwBoAG8AdQByAHMAIAA9ACAAMAApACAAKgAgACgAXwBtAGkAbgB1AHQAZQBzACAAPQAgADAAKQAgACoAIAAoAF8AcwBlAGMAbwBuAGQAcwAgAD0AIAAwACkALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGACgATgAoAFMAaQBnAG4AKQAgADwAIAAwACwAIAAtADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKAAoAF8AaABvAHUAcgBzACAALwAgADIANAApACAAKwAgACgAXwBtAGkAbgB1AHQAZQBzACAALwAgADEANAA0ADAAKQAgACsAIAAoAF8AcwBlAGMAbwBuAGQAcwAgAC8AIAA4ADYANAAwADAAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AQQBEAEQAXwBUAEkATQBFAFMAUABBAE4AXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAIABvAGYAIAB0AGgAZQAgAGEAZABkAGkAdABpAG8AbgAgAG8AZgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIABhACAAdABpAG0AZQBzAHAAYQBuACAAYwBvAG0AcABsAGkAYwBhAHQAaQBvAG4ALgBcAG4ATgBvAHQAZQAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAYQByAGUAIABhAGwAdwBhAHkAcwAgAGkAbgAgAFUAVABDAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAE0AbwBuAHQAaABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAIABEAGEAeQBcAG4AVABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkAIABhAHMAIABkAGUAYwBpAG0AYQBsACAAZgByAGEAYwB0AGkAbwBuACAAbwByACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUAIAB0AHkAcABlAC4AXABuAEEAZABkAFkAZQBhAHIAcwAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAQQBkAGQAIAB5AGUAYQByAHMAIAB0AGkAbQBlAHMAcABhAG4ALgAgAEYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAYwBhAHIAcgBpAGUAcwAgAHQAbwAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkALgBcAG4AQQBkAGQATQBvAG4AdABoAHMAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAAgACAAIAAgAHwAIABBAGQAZAAgAG0AbwBuAHQAaABzACAAdABpAG0AZQBzAHAAYQBuAC4AIABGAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGMAYQByAHIAaQBlAHMAIAB0AG8AIABkAGEAeQAuAFwAbgBBAGQAZABEAGEAeQBzACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAEEAZABkACAAZABhAHkAcwAgAHQAaQBtAGUAcwBwAGEAbgAuACAARgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIABjAGEAcgByAGkAZQBzACAAdABvACAAdABpAG0AZQAuAFwAbgBBAGQAZABUAGkAbQBlACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAEEAZABkACAAdABpAG0AZQBzAHAAYQBuAC4AXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAAgACAAIAAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEEARABEAF8AVABJAE0ARQBTAFAAQQBOACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFQAaQBtAGUALAAgAEEAZABkAFkAZQBhAHIAcwAsACAAQQBkAGQATQBvAG4AdABoAHMALAAgAEEAZABkAEQAYQB5AHMALAAgAEEAZABkAFQAaQBtAGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AbwBuAHQAaAAgAD0AIABcACIAXAAiACkAIAAqACAAKABEAGEAeQAgAD0AIABcACIAXAAiACkAIAAqACAAKABUAGkAbQBlACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABNAE8ARAAoAEQAYQB5ACwAIAAxACkAIAA+ACAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGQAWQBlAGEAcgBzACwAIABJAE4AVAAoAE4AKABBAGQAZABZAGUAYQByAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAQQBkAGQAWQBlAGEAcgBzACwAIABOACgAQQBkAGQAWQBlAGEAcgBzACkAIAAtACAAXwBhAGQAZABZAGUAYQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBNAG8AbgB0AGgAcwAsACAATgAoAEEAZABkAE0AbwBuAHQAaABzACkAIAArACAAKABfAGYAQQBkAGQAWQBlAGEAcgBzACAAKgAgADEAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAZABkAE0AbwBuAHQAaABzACwAIABJAE4AVAAoAF8AcwBNAG8AbgB0AGgAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAQQBkAGQATQBvAG4AdABoAHMALAAgAF8AcwBNAG8AbgB0AGgAcwAgAC0AIABfAGEAZABkAE0AbwBuAHQAaABzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHoATQBvAG4AdABoAHMALAAgAE0AbwBuAHQAaAAgACsAIABfAGEAZABkAE0AbwBuAHQAaABzACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBNAG8AbgB0AGgALAAgAE0ATwBEACgAXwB6AE0AbwBuAHQAaABzACwAIAAxADIAKQAgACsAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAWQBlAGEAcgAsACAAWQBlAGEAcgBDAEUAIAArACAAXwBhAGQAZABZAGUAYQByAHMAIAArACAASQBOAFQAKABfAHoATQBvAG4AdABoAHMAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQB2AGcARABhAHkAcwBNAG8AbgB0AGgALAAgAEkARgAoAE4AKABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsACAAMwAwAC4ANAAzADcANQAsACAAMwAwAC4ANAAzADYAOAA3ADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAEQAYQB5AHMALAAgAFIATwBVAE4ARAAoAF8AZgBBAGQAZABNAG8AbgB0AGgAcwAgACoAIABfAGEAdgBnAEQAYQB5AHMATQBvAG4AdABoACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAZQBKAEQAYQB0AGUALAAgAEoAVQBMAEkAQQBOAF8ARABBAFQARQAoAF8AcgBZAGUAYQByACwAIABfAHIATQBvAG4AdABoACwAIAAxACwAIAAwACwAIABfAHQAegBvACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHkAcwAsACAARABhAHkAIAArACAAXwBtAEQAYQB5AHMAIAArACAATgAoAEEAZABkAEQAYQB5AHMAKQAgACsAIABOACgAVABpAG0AZQApACAAKwAgAE4AKABBAGQAZABUAGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAZQBKAEQAYQB0AGUAIAArACAAXwBzAEQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFIARQBTAE8ATABWAEUAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAZgByAG8AbQAgAHAAcgBvAHYAaQBkAGUAZAAgAGQAZQBjAGkAbQBhAGwAIAB5AGUAYQByACwAIABtAG8AbgB0AGgAcwAsACAAZABhAHkAcwAgAGEAbgBkACAAdABpAG0AZQAuAFwAbgBOAG8AdABlACAAbQBvAG4AdABoAHMAIABhAG4AZAAgAGQAYQB5AHMAIABhAHIAZQAgAG4AbwB0ACAAYgBvAHUAbgBkAGUAZAAgAGIAeQAgAHQAaABlACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFkAZQBhAHIAQwBFAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAB8ACAARABhAHkAXABuACAANAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAXQAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgAEQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4ALAAgAGkAbQBwAGwAaQBjAGkAdABsAHkAIABjAG8AbgB2AGUAcgB0AHMAIAB0AG8AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAuACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgBNAG8AbgB0AGgAcwAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATQBvAG4AdABoAHMAXABuAEQAYQB5AHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQBzAFwAbgBUAGkAbQBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AcgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAuAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEYAbABvAGEAdABpAG4AZwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANQAgAC0AIABNAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAEUAeABhAG0AcABsAGUAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUgBFAFMATwBMAFYARQBfAEQAQQBUAEUAKAAyADAAMgAzACwAIAAyADUALAAgADMAMwAuADUALAAgAC0AMQAuADUAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMgA1ACwAIAAyACwAIAAxACwAIAAwAH0AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFIARQBTAE8ATABWAEUAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaABzACwAIABEAGEAeQBzACwAIABUAGkAbQBlACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AbwBuAHQAaABzACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEQAYQB5AHMAIAA9ACAAXAAiAFwAIgApACAAKgAgACgAVABpAG0AZQAgAD0AIABcACIAXAAiACkALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaABzACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AHMAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGQAWQBlAGEAcgBzACwAIABZAGUAYQByAEMARQAgAC0AIABfAHkAZQBhAHIAQwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGQAZABNAG8AbgB0AGgAcwAsACAATQBvAG4AdABoAHMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGQARABhAHkAcwAsACAARABhAHkAcwAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAEQAYQB0AGUALAAgAEEARABEAF8AVABJAE0ARQBTAFAAQQBOACgAXwB5AGUAYQByAEMARQAsACAAMQAsACAAMQAsACAAMAAsACAAXwBhAGQAZABZAGUAYQByAHMALAAgAF8AYQBkAGQATQBvAG4AdABoAHMALAAgAF8AYQBkAGQARABhAHkAcwAsACAAVABpAG0AZQAsACAAMAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAEEATABFAE4ARABBAFIAXwBGAFIATwBNAF8ASgBEAEEAVABFACgAXwBqAEQAYQB0AGUALAAgADAALAAgAFAAcgBlAGMAaQBzAGkAbwBuACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAARABFAEwAVABBAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAKgAvAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAEgATwBVAFIAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABoAG8AdQByAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuACAAaABvAHUAcgBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABcAG4ASgBEAGEAdABlADIAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8ASABPAFUAUgBTACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEoARABhAHQAZQAyACAALQAgAEoARABhAHQAZQAxACkAIAAqACAAMgA0AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8ATQBJAE4AVQBUAEUAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABtAGkAbgB1AHQAZQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABpAGYAZgBlAHIAZQBuAGMAZQAgAGkAbgAgAG0AaQBuAHUAdABlAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFwAbgBKAEQAYQB0AGUAMgAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEUATABUAEEAXwBNAEkATgBVAFQARQBTACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEoARABhAHQAZQAyACAALQAgAEoARABhAHQAZQAxACkAIAAqACAAMQA0ADQAMABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFMARQBDAE8ATgBEAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB0AGkAbQBlAHMAcABhAG4AIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAYgBlAHQAdwBlAGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAaQBuACAAcwBlAGMAbwBuAGQAcwAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAaQBmAGYAZQByAGUAbgBjAGUAIABpAG4AIABzAGUAYwBvAG4AZABzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABcAG4ASgBEAGEAdABlADIAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8AUwBFAEMATwBOAEQAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABKAEQAYQB0AGUAMgAgAC0AIABKAEQAYQB0AGUAMQApACAAKgAgADgANgA0ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAEgATwBVAFIAXwBNAEkATgBfAFMARQBDAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAGgAbwB1AHIAcwAsACAAbQBpAG4AdQB0AGUAcwAgAGEAbgBkACAAcwBlAGMAbwBuAGQAcwAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADEALAAwACwAMQBdACAAfAAgAFMAaQBnAG4AXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAfAAgAEQAZQBsAHQAYQAgAGgAbwB1AHIAcwBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADUAOQBdACAAIAB8ACAARABlAGwAdABhACAAbQBpAG4AdQB0AGUAcwBcAG4AIAA0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADYAMAApACAAIAB8ACAARABlAGwAdABhACAAcwBlAGMAbwBuAGQAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAXABuAEoARABhAHQAZQAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAEgATwBVAFIAXwBNAEkATgBfAFMARQBDACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAHsAXAAiAFwAIgAsAFwAIgBcACIALABcACIAXAAiACwAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABJAE0ARQBfAEQARQBDAEkATQBBAEwAXwBUAE8AXwBIAE0AUwAoAEoARABhAHQAZQAyACAALQAgAEoARABhAHQAZQAxACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAEUATABUAEEAXwBEAEEAWQBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAGQAYQB5AHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuACAAZABhAHkAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAXABuAEoARABhAHQAZQAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAEQAQQBZAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgASgBEAGEAdABlADIAIAAtACAASgBEAGEAdABlADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFcARQBFAEsAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB3AGUAZQBrAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuACAAdwBlAGUAawBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAXABuAEoARABhAHQAZQAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEUATABUAEEAXwBXAEUARQBLAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgASgBEAGEAdABlADIAIAAtACAASgBEAGEAdABlADEAKQAgAC8AIAA3AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8ATQBPAE4AVABIAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB0AGkAbQBlAHMAcABhAG4AIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAYgBlAHQAdwBlAGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAaQBuACAAbQBvAG4AdABoAHMALgBcAG4AVwBoAGUAcgBlACAAdABoAGUAIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuAGMAbAB1AGQAZQBzACAAcABhAHIAdABpAGEAbAAgAG0AbwBuAHQAaABzACwAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgAgAGkAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABvAG4AIAB0AGgAZQAgAGIAYQBzAGkAcwAgAG8AZgAgAGQAYQB5AHMAIABpAG4AIAB0AGgAZQAgAG0AbwBuAHQAaABcAG4AbwBmACAAdABoAGUAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuACAAbQBvAG4AdABoAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfABcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAE0ATwBOAFQASABTACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAE4AKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAEoARABhAHQAZQAyACAAPgA9ACAASgBEAGEAdABlADEALAAgADEALAAgAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBpAGcAbgAgAD0AIAAxACwAIABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADIALAAgAEoARABhAHQAZQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAF8ARQBuAGQALAAgAEoARABOAF8AVABPAF8AQwBBAEwARQBOAEQAQQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADEAKQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADEAKQAgAC0AIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBNAG8AbgB0AGgALAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAyACkAIAAtACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAE0AbwBuAHQAaABzACwAIAAoAF8AZABlAGwAdABhAFkAZQBhAHIAIAAqACAAMQAyACkAIAArACAAXwBkAGUAbAB0AGEATQBvAG4AdABoACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBNAG8AbgB0AGgAXwBTAHQAYQByAHQALAAgAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAKABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBNAG8AbgB0AGgAXwBFAG4AZAAsACAARABBAFkAUwBfAEkATgBfAE0ATwBOAFQASAAoAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAyACkALAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABpAGEAbABNAG8AbgB0AGgAXwBTAHQAYQByAHQALAAgACgASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAzACkAIAAtACAAMQAgACsAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACkAIAAvACAAXwBkAGEAeQBzAE0AbwBuAHQAaABfAFMAdABhAHIAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAaQBhAGwATQBvAG4AdABoAF8ARQBuAGQALAAgACgASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADMAKQAgAC0AIAAxACAAKwAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADIAKQApACAALwAgAF8AZABhAHkAcwBNAG8AbgB0AGgAXwBFAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABfAGQAaQBmAGYATQBvAG4AdABoAHMAIAAtACAAXwBwAGEAcgB0AGkAYQBsAE0AbwBuAHQAaABfAFMAdABhAHIAdAAgACsAIABfAHAAYQByAHQAaQBhAGwATQBvAG4AdABoAF8ARQBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFEAVQBBAFIAVABFAFIAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIABxAHUAYQByAHQAZQByAHMALgBcAG4AVwBoAGUAcgBlACAAdABoAGUAIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuAGMAbAB1AGQAZQBzACAAcABhAHIAdABpAGEAbAAgAHEAdQBhAHIAdABlAHIAcwAsACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AIABpAHMAIABjAGEAbABjAHUAbABhAHQAZQBkACAAbwBuACAAdABoAGUAIABiAGEAcwBpAHMAIABvAGYAIABkAGEAeQBzACAAaQBuACAAdABoAGUAXABuAHEAdQBhAHIAdABlAHIAIABvAGYAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAaQBmAGYAZQByAGUAbgBjAGUAIABpAG4AIABxAHUAYQByAHQAZQByAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFwAbgBKAEQAYQB0AGUAMgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsATQBvAG4AdABoAE8AZgBmAHMAZQB0AF0AIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsALQA2AC4ALgAzAF0AIAB8ACAAUQB1AGEAcgB0AGUAcgAgAG0AbwBuAHQAaAAgAG8AZgBmAHMAZQB0ACAAZgByAG8AbQAgAEoAYQBuAHUAYQByAHkALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAFEAVQBBAFIAVABFAFIAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKAAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACkAIAArACAAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAgADwAIAAtADYAKQAgACsAIAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAPgAgADMAKQAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBRAFUAQQBSAFQARQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAFEAVQBBAFIAVABFAFIAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACwAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMQApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAUQB1AGEAcgB0AGUAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAFEAdQBhAHIAdABlAHIAcwAsACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKgAgADQAKQAgACsAIABfAGQAZQBsAHQAYQBRAHUAYQByAHQAZQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABpAGEAbABRAHUAYQByAHQAZQByAF8AUwB0AGEAcgB0ACwAIAAoAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAzACkAIAAtACAAMQAgACsAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACkAIAAvACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAaQBhAGwAUQB1AGEAcgB0AGUAcgBfAEUAbgBkACwAIAAoAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8ARQBuAGQALAAgADEALAAgADMAKQAgAC0AIAAxACAAKwAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADIAKQApACAALwAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8ARQBuAGQALAAgADEALAAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABfAGQAaQBmAGYAUQB1AGEAcgB0AGUAcgBzACAALQAgAF8AcABhAHIAdABpAGEAbABRAHUAYQByAHQAZQByAF8AUwB0AGEAcgB0ACAAKwAgAF8AcABhAHIAdABpAGEAbABRAHUAYQByAHQAZQByAF8ARQBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFkARQBBAFIAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAcwBwAGEAbgAgAGQAaQBmAGYAZQByAGUAbgBjAGUAIABiAGUAdAB3AGUAZQBuACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABpAG4AIAB5AGUAYQByAHMALgBcAG4AVwBoAGUAcgBlACAAdABoAGUAIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAaQBuAGMAbAB1AGQAZQBzACAAcABhAHIAdABpAGEAbAAgAHkAZQBhAHIAcwAsACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AIABpAHMAIABjAGEAbABjAHUAbABhAHQAZQBkACAAbwBuACAAdABoAGUAIABiAGEAcwBpAHMAIABvAGYAIABkAGEAeQBzACAAaQBuACAAdABoAGUAXABuAHkAZQBhAHIAIABvAGYAIAB0AGgAZQAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAaQBmAGYAZQByAGUAbgBjAGUAIABpAG4AIAB5AGUAYQByAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABcAG4ASgBEAGEAdABlADIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEUATABUAEEAXwBZAEUAQQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAQQBCAFMAKABfAHQAegBvACkAIAA+ACAAOQAwADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGACgASgBEAGEAdABlADIAIAA+AD0AIABKAEQAYQB0AGUAMQAsACAAMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBpAGcAbgAgAD0AIAAxACwAIABKAEQAYQB0AGUAMgAsACAASgBEAGEAdABlADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgAEoARABOAF8AVABPAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBZAGUAYQByACwAIABJAE4ARABFAFgAKABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAxACkAIAAtACAASQBOAEQARQBYACgAXwBvAHIAZABpAG4AYQBsAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAaQBhAGwAWQBlAGEAcgBfAFMAdABhAHIAdAAsACAAKABJAE4ARABFAFgAKABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACAALQAgADEAIAArACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQApACAALwAgAEkATgBEAEUAWAAoAF8AbwByAGQAaQBuAGEAbABEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAGEAcgB0AGkAYQBsAFkAZQBhAHIAXwBFAG4AZAAsACAAKABJAE4ARABFAFgAKABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAyACkAIAAtACAAMQAgACsAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAyACkAKQAgAC8AIABJAE4ARABFAFgAKABfAG8AcgBkAGkAbgBhAGwARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAKgAgACgAXwBkAGUAbAB0AGEAWQBlAGEAcgAgAC0AIABfAHAAYQByAHQAaQBhAGwAWQBlAGEAcgBfAFMAdABhAHIAdAAgACsAIABfAHAAYQByAHQAaQBhAGwAWQBlAGEAcgBfAEUAbgBkACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8AVwBFAEUASwBfAEQAQQBZAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB0AGkAbQBlAHMAcABhAG4AIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAYgBlAHQAdwBlAGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAaQBuACAAdwBlAGUAawBzACAAYQBuAGQAIABkAGEAeQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAB8ACAAUwBpAGcAbgBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuAF0AIAAgACAAIAB8ACAARABlAGwAdABhACAAdwBlAGUAawBzACAAXABuACAANAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgA3ACkAIAAgACAAfAAgAEQAZQBsAHQAYQAgAGQAYQB5AHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFwAbgBKAEQAYQB0AGUAMgAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEUATABUAEEAXwBXAEUARQBLAF8ARABBAFkAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAEQAYQB5AHMALAAgACgASgBEAGEAdABlADIAIAAtACAASgBEAGEAdABlADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZABpAGYAZgBEAGEAeQBzACAAPQAgADAALAAgAHsAMAAsACAAMAAsACAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAF8AZABpAGYAZgBEAGEAeQBzACAAPgA9ACAAMAAsACAAMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGIAcwBEAGkAZgBmAEQAYQB5AHMALAAgAF8AcwBpAGcAbgAgACoAIABfAGQAaQBmAGYARABhAHkAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBXAGUAZQBrACwAIABJAE4AVAAoAF8AYQBiAHMARABpAGYAZgBEAGEAeQBzACAALwAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQAsACAATQBPAEQAKABfAGEAYgBzAEQAaQBmAGYARABhAHkAcwAsACAANwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAHkAZQBhAHIAcwAsACAAdwBlAGUAawBzACwAIABhAG4AZAAgAGQAYQB5AHMALgBcAG4ATgBvAHQAZQAgAHQAaABlACAAbgB1AG0AYgBlAHIAIABvAGYAIAB3AGUAZQBrAHMAIABwAGUAcgAgAHkAZQBhAHIAIABhAG4AIAB2AGEAcgB5ACAAYgBlAHQAdwBlAGUAbgAgADUAMgAgAGEAbgBkACAANQAzAC4AIABJAGYAIABhAG4AIABhAGIAcwBvAGwAdQB0AGUAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHcAZQBlAGsAcwAgAGkAcwAgAGIAZQBpAG4AZwAgAHMAbwB1AGcAaAB0AFwAbgB0AGgAZQBuACAAdQBzAGUAIABlAGkAdABoAGUAcgAgAEQARQBMAFQAQQBfAFcARQBFAEsAXwBEAEEAWQBTACAAbwByACAARABFAEwAVABBAF8AVwBFAEUASwBTACAAZgB1AG4AYwB0AGkAbwBuAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsALQAxACwAMAAsADEAXQAgAHwAIABTAGkAZwBuAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4AXQAgACAAIAAgAHwAIABEAGUAbAB0AGEAIAB5AGUAYQByAHMAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgA1ADIAXQAgACAAfAAgAEQAZQBsAHQAYQAgAHcAZQBlAGsAcwAgAFwAbgAgADQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANwApACAAIAAgAHwAIABEAGUAbAB0AGEAIABkAGEAeQBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTACAAPQAgAEwAQQBNAEIARABBACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABKAEQAYQB0AGUAMQAgAD0AIABcACIAXAAiACkAIAAqACAAKABKAEQAYQB0AGUAMgAgAD0AIABcACIAXAAiACkALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAAsACAAewAjAE4AVQBNACEALAAgACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASgBEAGEAdABlADIAIAA9ACAASgBEAGEAdABlADEALAAgAHsAMAAsACAAMAAsACAAMAAsACAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgAEoARABOAF8AVABPAF8AVwBFAEUASwBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawBEAGEAdABlAF8ARQBuAGQALAAgAEoARABOAF8AVABPAF8AVwBFAEUASwBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwB3AGUAZQBrAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMQApACAALQAgAEkATgBEAEUAWAAoAF8AdwBlAGUAawBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBXAGUAZQBrACwAIABJAE4ARABFAFgAKABfAHcAZQBlAGsARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAyACkAIAAtACAASQBOAEQARQBYACgAXwB3AGUAZQBrAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAEQAYQB5ACwAIABJAE4ARABFAFgAKABfAHcAZQBlAGsARABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAzACkAIAAtACAASQBOAEQARQBYACgAXwB3AGUAZQBrAEQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAyACkAIAAtACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQAyACwAIABNAE8ARAAoAF8AZABlAGwAdABhAEQAYQB5ACwAIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBXAGUAZQBrADIALAAgAF8AZABlAGwAdABhAFcAZQBlAGsAIAArACAASQBOAFQAKABfAGQAZQBsAHQAYQBEAGEAeQAgAC8AIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGQAZQBsAHQAYQBXAGUAZQBrADIAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBXAGUAZQBrADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEARABhAHkAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBZAGUAYQByACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAVwBlAGUAawAyACAAKwAgAEkATgBEAEUAWAAoAF8AdwBlAGUAawBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEARABhAHkAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB0AGkAbQBlAHMAcABhAG4AIABkAGkAZgBmAGUAcgBlAG4AYwBlACAAYgBlAHQAdwBlAGUAbgAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzACAAaQBuACAAbQBvAG4AdABoAHMAIABhAG4AZAAgAGQAYQB5AHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsALQAxACwAMAAsADEAXQAgAHwAIABTAGkAZwBuAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4AXQAgACAAIAAgAHwAIABEAGUAbAB0AGEAIABtAG8AbgB0AGgAcwBcAG4AIAAzACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADMAMQApACAAIAB8ACAARABlAGwAdABhACAAZABhAHkAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFwAbgBKAEQAYQB0AGUAMgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAE4AKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACwAIAB7ACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASgBEAGEAdABlADIAIAA9ACAASgBEAGEAdABlADEALAAgAHsAMAAsACAAMAAsACAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADEAKQAgAC0AIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAE0AbwBuAHQAaAAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADIAKQAgAC0AIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABpAGYAZgBNAG8AbgB0AGgAcwAsACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKgAgADEAMgApACAAKwAgAF8AZABlAGwAdABhAE0AbwBuAHQAaAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAEQAYQB5ACwAIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMwApACAALQAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAFMAdABhAHIAdAAsACAAMQAsACAAMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADIAKQAgAC0AIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZABlAGwAdABhAEQAYQB5ACAAPAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwBNAG8AbgB0AGgAXwBTAHQAYQByAHQALAAgAEQAQQBZAFMAXwBJAE4AXwBNAE8ATgBUAEgAKABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADIAKQAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAE0AbwBuAHQAaABzACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AHMATQBvAG4AdABoAF8AUwB0AGEAcgB0ACAAKwAgAF8AZABlAGwAdABhAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABpAGYAZgBNAG8AbgB0AGgAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQARQBMAFQAQQBfAFEAVQBBAFIAVABFAFIAXwBEAEEAWQBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAHEAdQBhAHIAdABlAHIAcwAgAGEAbgBkACAAZABhAHkAcwAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADEALAAwACwAMQBdACAAfAAgAFMAaQBnAG4AXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAfAAgAEQAZQBsAHQAYQAgAHEAdQBhAHIAdABlAHIAcwBcAG4AIAAzACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADkAMgApACAAIAB8ACAARABlAGwAdABhACAAZABhAHkAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAAgACAAIAAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADYALgAuADMAXQAgAHwAIABRAHUAYQByAHQAZQByACAAbQBvAG4AdABoACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAASgBhAG4AdQBhAHIAeQAuAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsATQBvAG4AdABoAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADEAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlADIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAE4AKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABSAE8AVQBOAEQAKABOACgATQBvAG4AdABoAE8AZgBmAHMAZQB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoACgAQQBCAFMAKABfAHQAegBvACkAIAA+ACAAOQAwADAAKQAgACsAIAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAPAAgAC0ANgApACAAKwAgACgAXwBtAG8AbgB0AGgATwBmAGYAcwBlAHQAIAA+ACAAMwApACwAIAB7ACMATgBVAE0AIQAsACAAIwBOAFUATQAhACwAIAAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASgBEAGEAdABlADIAIAA9ACAASgBEAGEAdABlADEALAAgAHsAIAAwACwAIAAwACAALAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAEoARABhAHQAZQAxACAAPgAgAEoARABhAHQAZQAyACwAIAAtADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBRAFUAQQBSAFQARQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8ARQBuAGQALAAgAEoARABOAF8AVABPAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAFkAZQBhAHIALAAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8ARQBuAGQALAAgADEALAAgADEAKQAgAC0AIABJAE4ARABFAFgAKABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAUQB1AGEAcgB0AGUAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAaQBmAGYAUQB1AGEAcgB0AGUAcgBzACwAIAAoAF8AZABlAGwAdABhAFkAZQBhAHIAIAAqACAANAApACAAKwAgAF8AZABlAGwAdABhAFEAdQBhAHIAdABlAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMwApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAArACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBkAGUAbAB0AGEARABhAHkAIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzAFEAdQBhAHIAdABlAHIAXwBTAHQAYQByAHQALAAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAaQBmAGYAUQB1AGEAcgB0AGUAcgBzACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AHMAUQB1AGEAcgB0AGUAcgBfAFMAdABhAHIAdAAgACsAIABfAGQAZQBsAHQAYQBEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAaQBmAGYAUQB1AGEAcgB0AGUAcgBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABFAEwAVABBAF8ASQBOAFQARQBSAFYAQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQBzAHAAYQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAcwAgAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIAB1AG4AaQB0AHMALgBcAG4AXABuAE8AdQB0AHAAdQB0ACAAdwBoAGUAcgBlACAAVQBuAGkAdABzACAAPQAgAEgALAAgAE4ALAAgAFMALAAgAEQALAAgAFcALAAgAE0ALAAgAFEALAAgAFkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAZQBsAHQAYQAgAHUAbgBpAHQAcwAgAGQAZQBjAGkAbQBhAGwAXABuAFwAbgBPAHUAdABwAHUAdAAgAHcAaABlAHIAZQAgAFUAbgBpAHQAcwAgAD0AIABIAE0AUwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAB8ACAAUwBpAGcAbgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuAF0AIAAgACAAIAB8ACAARABlAGwAdABhACAAaABvAHUAcgBzAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4ANQA5AF0AIAAgAHwAIABEAGUAbAB0AGEAIABtAGkAbgB1AHQAZQBzAFwAbgAgADQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANgAwACkAIAAgAHwAIABEAGUAbAB0AGEAIABzAGUAYwBvAG4AZABzAFwAbgBcAG4ATwB1AHQAcAB1AHQAIAB3AGgAZQByAGUAIABVAG4AaQB0AHMAIAA9ACAARABIAE0AUwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAB8ACAAUwBpAGcAbgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuAF0AIAAgACAAIAB8ACAARABlAGwAdABhACAAZABhAHkAcwBcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADIAMwBdACAAIAB8ACAARABlAGwAdABhACAAaABvAHUAcgBzAFwAbgAgADQAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4ANQA5AF0AIAAgAHwAIABEAGUAbAB0AGEAIABtAGkAbgB1AHQAZQBzAFwAbgAgADUAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANgAwACkAIAAgAHwAIABEAGUAbAB0AGEAIABzAGUAYwBvAG4AZABzAFwAbgBcAG4ATwB1AHQAcAB1AHQAIAB3AGgAZQByAGUAIABVAG4AaQB0AHMAIAA9ACAAVwBEACwAIABNAEQALAAgAFEARABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAAgACAAIAAgAHwAIABTAGkAZwBuAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4AXQAgACAAIAAgACAAIAAgACAAfAAgAEQAZQBsAHQAYQAgAHcAZQBlAGsAcwAvAG0AbwBuAHQAaABzAC8AcQB1AGEAcgB0AGUAcgBzAFwAbgAgADMAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANwAvADMAMQAvADkAMgApACAAfAAgAEQAZQBsAHQAYQAgAGQAYQB5AHMAXABuAFwAbgBPAHUAdABwAHUAdAAgAHcAaABlAHIAZQAgAFUAbgBpAHQAcwAgAD0AIABZAFcARAAsACAAWQBNAEQALAAgAFkAUQBEAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsALQAxACwAMAAsADEAXQAgACAAIAAgACAAfAAgAFMAaQBnAG4AXABuACAAMgAgAHwAIABpAG4AdABlAGcAZQByACAAWwAwAC4ALgBdACAAIAAgACAAIAAgACAAIAB8ACAARABlAGwAdABhACAAeQBlAGEAcgBzAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4ANQAyAC8AMQAyAC8ANABdACAAfAAgAEQAZQBsAHQAYQAgAHcAZQBlAGsAcwAvAG0AbwBuAHQAaABzAC8AcQB1AGEAcgB0AGUAcgBzAFwAbgAgADQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANwAvADMAMQAvADkAMgApACAAfAAgAEQAZQBsAHQAYQAgAGQAYQB5AHMAXABuAFwAbgBPAHUAdABwAHUAdAAgAHcAaABlAHIAZQAgAFUAbgBpAHQAcwAgAD0AIABZAE0ARABIAE0AUwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0AMQAsADAALAAxAF0AIAB8ACAAUwBpAGcAbgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuAF0AIAAgACAAIAB8ACAARABlAGwAdABhACAAeQBlAGEAcgBzAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4AMQAyAF0AIAAgAHwAIABEAGUAbAB0AGEAIABtAG8AbgB0AGgAcwBcAG4AIAA0ACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADMAMABdACAAIAB8ACAARABlAGwAdABhACAAZABhAHkAcwBcAG4AIAA1ACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADAALgAuADIAMwBdACAAIAB8ACAARABlAGwAdABhACAAaABvAHUAcgBzAFwAbgAgADYAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMAAuAC4ANQA5AF0AIAAgAHwAIABEAGUAbAB0AGEAIABtAGkAbgB1AHQAZQBzAFwAbgAgADcAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4ANgAwACkAIAAgAHwAIABEAGUAbAB0AGEAIABzAGUAYwBvAG4AZABzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVQBuAGkAdABzACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAB0AGUAeAB0ACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAASAAgAC0AIABoAG8AdQByAHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABOACAALQAgAG0AaQBuAHUAdABlAHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABTACAALQAgAHMAZQBjAG8AbgBkAHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABEACAALQAgAGQAYQB5AHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABXACAALQAgAHcAZQBlAGsAcwAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgAE0AIAAtACAAbQBvAG4AdABoAHMAIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIABRACAALQAgAHEAdQBhAHIAdABlAHIAcwAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgAFkAIAAtACAAeQBlAGEAcgBzACAAZABlAGMAaQBtAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIABIAE0AUwAgAC0AIABoAG8AdQByAHMALAAgAG0AaQBuAHUAdABlAHMALAAgAHMAZQBjAG8AbgBkAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgAEQASABNAFMAIAAtACAAZABhAHkAcwAsACAAaABvAHUAcgBzACwAIABtAGkAbgB1AHQAZQBzACwAIABzAGUAYwBvAG4AZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAVwBEACAALQAgAHcAZQBlAGsAcwAgAGEAbgBkACAAZABhAHkAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgAE0ARAAgAC0AIABtAG8AbgB0AGgAcwAgAGEAbgBkACAAZABhAHkAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgAFEARAAgAC0AIABxAHUAYQByAHQAZQByAHMAIABhAG4AZAAgAGQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAWQBXAEQAIAAtACAAeQBlAGEAcgBzACwAIAB3AGUAZQBrAHMALAAgAGQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAWQBNAEQAIAAtACAAeQBlAGEAcgBzACwAIABtAG8AbgB0AGgAcwAsACAAZABhAHkAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIABZAFEARAAgAC0AIAB5AGUAYQByAHMALAAgAHEAdQBhAHIAdABlAHIAcwAsACAAZABhAHkAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABZAE0ARABIAE0AUwAgAC0AIAB5AGUAYQByAHMALAAgAG0AbwBuAHQAaABzACwAIABkAGEAeQBzACwAIABoAG8AdQByAHMALAAgAG0AaQBuAHUAdABlAHMALAAgAHMAZQBjAG8AbgBkAHMAXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAAgACAAIAAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAtADYALgAuADMAXQAgAHwAIABRAHUAYQByAHQAZQByACAAbQBvAG4AdABoACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAASgBhAG4AdQBhAHIAeQAuAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABFAEwAVABBAF8ASQBOAFQARQBSAFYAQQBMACAAPQAgAEwAQQBNAEIARABBACgAVQBuAGkAdABzACwAIABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsATQBvAG4AdABoAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBcACIALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAEgAXAAiACwAIABEAEUATABUAEEAXwBIAE8AVQBSAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBOAFwAIgAsACAARABFAEwAVABBAF8ATQBJAE4AVQBUAEUAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAFMAXAAiACwAIABEAEUATABUAEEAXwBTAEUAQwBPAE4ARABTACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIASABNAFMAXAAiACwAIABEAEUATABUAEEAXwBIAE8AVQBSAF8ATQBJAE4AXwBTAEUAQwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAEQAXAAiACwAIABEAEUATABUAEEAXwBEAEEAWQBTACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAVwBcACIALAAgAEQARQBMAFQAQQBfAFcARQBFAEsAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAE0AXAAiACwAIABEAEUATABUAEEAXwBNAE8ATgBUAEgAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBRAFwAIgAsACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBTACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAIABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAE0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAWQBcACIALAAgAEQARQBMAFQAQQBfAFkARQBBAFIAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBXAEQAXAAiACwAIABEAEUATABUAEEAXwBXAEUARQBLAF8ARABBAFkAUwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAFkAVwBEAFwAIgAsACAARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTACgASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACwAIABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAE0ARABcACIALAAgAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAUQBEAFwAIgAsACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAATQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVQBuAGkAdABzACAAPQAgAFwAIgBEAEgATQBTAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbQBzACwAIABEAEUATABUAEEAXwBIAE8AVQBSAF8ATQBJAE4AXwBTAEUAQwAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzACwAIABJAE4AVAAoAEkATgBEAEUAWAAoAF8AaABtAHMALAAgADEALAAgADIAKQAgAC8AIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgBzACwAIABJAE4ARABFAFgAKABfAGgAbQBzACwAIAAxACwAIAAyACkAIAAtACAAXwBkAGEAeQBzACAAKgAgADIANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGgAbQBzACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AaABtAHMALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBoAG0AcwAsACAAMQAsACAANAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAWQBNAEQAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAcwAsACAASQBOAFQAKABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAyACkAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABzACwAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAyACkAIAAtACAAXwB5AGUAYQByAHMAIAAqACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABVAG4AaQB0AHMAIAA9ACAAXAAiAFkAUQBEAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHkAcwAsACAARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAcwAsACAASQBOAFQAKABJAE4ARABFAFgAKABfAHEAdQBhAHIAdABlAHIARABhAHkAcwAsACAAMQAsACAAMgApACAALwAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgBzACwAIABJAE4ARABFAFgAKABfAHEAdQBhAHIAdABlAHIARABhAHkAcwAsACAAMQAsACAAMgApACAALQAgAF8AeQBlAGEAcgBzACAAKgAgADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB5AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcQB1AGEAcgB0AGUAcgBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHEAdQBhAHIAdABlAHIARABhAHkAcwAsACAAMQAsACAAMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFUAbgBpAHQAcwAgAD0AIABcACIAWQBNAEQASABNAFMAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAcwAsACAASQBOAFQAKABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAyACkAIAAvACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABzACwAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAyACkAIAAtACAAXwB5AGUAYQByAHMAIAAqACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzACwAIABJAE4AVAAoAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgADEALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABEAGEAeQBzACwAIAAxACwAIAAzACkAIAAtACAAXwBkAGEAeQBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG0AcwAsACAAVABJAE0ARQBfAEQARQBDAEkATQBBAEwAXwBUAE8AXwBIAE0AUwAoAF8AdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAEQAYQB5AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARABSAE8AUAAoAF8AaABtAHMALAAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAHsAIwBWAEEATABVAEUAIQB9AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAEUAWABUAEUATgBUAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAFgAVABFAE4AVABfAE8ARgBfAEQAQQBZAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AYwBsAHUAcwBpAHYAZQAgAGUAeAB0AGUAbgB0ACAAbwBmACAAZABhAHkAcwAgAHMAcABhAG4AbgBlAGQAIABiAHkAIAB0AHcAbwAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARQB4AHQAZQBuAHQAIABvAGYAIABkAGEAeQBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAGEAdABlADEAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAXABuAEoARABhAHQAZQAyACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AXABuAEUAeABhAG0AcABsAGUAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBYAFQARQBOAFQAXwBEAEEAWQBTACgASgBVAEwASQBBAE4AXwBEAEEAVABFACgAMgAwADIAMwAsADEALAAxACwAVABJAE0ARQAoADIAMwAsADUAOQAsADUANQApACkALAAgAEoAVQBMAEkAQQBOAF8ARABBAFQARQAoADIAMAAyADMALAAxACwAMgAsAFQASQBNAEUAKAAwACwAMAAsADUAKQApACkAXABuAD0AIAAyACAAIABpAC4AZQAuACAAMgAgAGQAYQB5AHMAIABiAGUAYwBhAHUAcwBlACAAdABoAGUAIAAxADAAIABzAGUAYwBvAG4AZAAgAHQAaQBtAGUAcwBwAGEAbgAgAGMAcgBvAHMAcwBlAHMAIAB0AGgAZQAgAGQAYQB5ACAAYgBvAHUAbgBkAGEAcgB5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAFgAVABFAE4AVABfAE8ARgBfAEQAQQBZAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAQQBCAFMAKABfAHQAegBvACkAIAA+ACAAOQAwADAALAAgAHsAIwBOAFUATQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGACgASgBEAGEAdABlADIAIAA+AD0AIABKAEQAYQB0AGUAMQAsACAAMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwAMQAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABKAEQAYQB0AGUAMQAsACAAXwB0AHoAbwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsADIALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgASgBEAGEAdABlADIALAAgAF8AdAB6AG8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBsAHQAYQBEAGEAeQAsACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAMgAsACAAMQAsACAAMQApACAALQAgAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsADEALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABBAEIAUwAoAF8AZABlAGwAdABhAEQAYQB5ACkAIAArACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEUAWABUAEUATgBUAF8ATwBGAF8AVwBFAEUASwBTAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBuAGMAbAB1AHMAaQB2AGUAIABlAHgAdABlAG4AdAAgAG8AZgAgAHcAZQBlAGsAcwAgAHMAcABhAG4AbgBlAGQAIABiAHkAIAB0AHcAbwAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARQB4AHQAZQBuAHQAIABvAGYAIAB3AGUAZQBrAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAMQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABcAG4ASgBEAGEAdABlADIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAFgAVABFAE4AVABfAEQAQQBZAFMAKABKAFUATABJAEEATgBfAEQAQQBUAEUAKAAyADAAMgAzACwANgAsADQALABUAEkATQBFACgAMgAzACwANQA5ACwANQA1ACkAKQAsACAASgBVAEwASQBBAE4AXwBEAEEAVABFACgAMgAwADIAMwAsADYALAA1ACwAVABJAE0ARQAoADAALAAwACwANQApACkAKQBcAG4APQAgADIAIAAgAGkALgBlAC4AIAAyACAAdwBlAGUAawBzACAAYgBlAGMAYQB1AHMAZQAgAHQAaABlACAAMQAwACAAcwBlAGMAbwBuAGQAIAB0AGkAbQBlAHMAcABhAG4AIABjAHIAbwBzAHMAZQBzACAAdABoAGUAIAB3AGUAZQBrACAAYgBvAHUAbgBkAGEAcgB5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAFgAVABFAE4AVABfAE8ARgBfAFcARQBFAEsAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAE0AbwBuAGQAYQB5AF8AUwB0AGEAcgB0ACwAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAAMQAsACAAMQApACAAKwAgADEAIAAtACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATQBvAG4AZABhAHkAXwBFAG4AZAAsACAASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACAAKwAgADEAIAAtACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAKgAgAEkATgBUACgAKABfAGoAZABuAE0AbwBuAGQAYQB5AF8ARQBuAGQAIAAtACAAXwBqAGQAbgBNAG8AbgBkAGEAeQBfAFMAdABhAHIAdAApACAALwAgADcAIAArACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBNAE8ATgBUAEgAUwBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAbgBjAGwAdQBzAGkAdgBlACAAZQB4AHQAZQBuAHQAIABvAGYAIABtAG8AbgB0AGgAcwAgAHMAcABhAG4AbgBlAGQAIABiAHkAIAB0AHcAbwAgAEoAdQBsAGkAYQBuACAARABhAHQAZQBzAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARQB4AHQAZQBuAHQAIABvAGYAIABtAG8AbgB0AGgAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfABcAG4ASgBEAGEAdABlADIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8AFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBNAE8ATgBUAEgAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgAEoARABOAF8AVABPAF8AQwBBAEwARQBOAEQAQQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbABfAEUAbgBkACwAIAAxACwAIAAxACkALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGwAdABhAFkAZQBhAHIALAAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAEUAbgBkACwAIAAxACwAIAAxACkAIAAtACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEATQBvAG4AdABoACwAIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AZABhAHQAZQBfAFMAdABhAHIAdAAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABpAGYAZgBNAG8AbgB0AGgAcwAsACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKgAgADEAMgApACAAKwAgAF8AZABlAGwAdABhAE0AbwBuAHQAaAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABfAGQAaQBmAGYATQBvAG4AdABoAHMAIAArACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBRAFUAQQBSAFQARQBSAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AYwBsAHUAcwBpAHYAZQAgAGUAeAB0AGUAbgB0ACAAbwBmACAAcQB1AGEAcgB0AGUAcgBzACAAcwBwAGEAbgBuAGUAZAAgAGIAeQAgAHQAdwBvACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABFAHgAdABlAG4AdAAgAG8AZgAgAHEAdQBhAHIAdABlAHIAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8AFwAbgBKAEQAYQB0AGUAMgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfABcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgACAAIAAgACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBbAE0AbwBuAHQAaABPAGYAZgBzAGUAdABdACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbAC0ANgAuAC4AMwBdACAAfAAgAFEAdQBhAHIAdABlAHIAIABtAG8AbgB0AGgAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABKAGEAbgB1AGEAcgB5AC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAFgAVABFAE4AVABfAE8ARgBfAFEAVQBBAFIAVABFAFIAUwAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAxACwAIABKAEQAYQB0AGUAMgAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBNAG8AbgB0AGgATwBmAGYAcwBlAHQAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgASgBEAGEAdABlADEAIAA9ACAAXAAiAFwAIgApACAAKgAgACgASgBEAGEAdABlADIAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAxACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEoARABhAHQAZQAyACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAUgBPAFUATgBEACgATgAoAE0AbwBuAHQAaABPAGYAZgBzAGUAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKAAoAEEAQgBTACgAXwB0AHoAbwApACAAPgAgADkAMAAwACkAIAArACAAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAgADwAIAAtADYAKQAgACsAIAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACAAPgAgADMAKQAsACAAewAjAE4AVQBNACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABKAEQAYQB0AGUAMgAgAD4APQAgAEoARABhAHQAZQAxACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbABfAFMAdABhAHIAdAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADEALAAgAEoARABhAHQAZQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgADEALAAgAEoARABhAHQAZQAyACwAIABKAEQAYQB0AGUAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBRAFUAQQBSAFQARQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHEAdQBhAHIAdABlAHIARABhAHQAZQBfAEUAbgBkACwAIABKAEQATgBfAFQATwBfAFEAVQBBAFIAVABFAFIAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAAMQAsACAAMQApACwAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMQApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAUQB1AGEAcgB0AGUAcgAsACAASQBOAEQARQBYACgAXwBxAHUAYQByAHQAZQByAEQAYQB0AGUAXwBFAG4AZAAsACAAMQAsACAAMgApACAALQAgAEkATgBEAEUAWAAoAF8AcQB1AGEAcgB0AGUAcgBEAGEAdABlAF8AUwB0AGEAcgB0ACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGkAZgBmAFEAdQBhAHIAdABlAHIAcwAsACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKgAgADQAKQAgACsAIABfAGQAZQBsAHQAYQBRAHUAYQByAHQAZQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAgACoAIAAoAF8AZABpAGYAZgBRAHUAYQByAHQAZQByAHMAIAArACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBZAEUAQQBSAFMAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AYwBsAHUAcwBpAHYAZQAgAGUAeAB0AGUAbgB0ACAAbwBmACAAeQBlAGEAcgBzACAAcwBwAGEAbgBuAGUAZAAgAGIAeQAgAHQAdwBvACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABFAHgAdABlAG4AdAAgAG8AZgAgAHEAdQBhAHIAdABlAHIAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAxACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAAgACAAIAB8AFwAbgBKAEQAYQB0AGUAMgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfABcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgACAAIAAgACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARQBYAFQARQBOAFQAXwBPAEYAXwBZAEUAQQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAEoARABhAHQAZQAxACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEoARABhAHQAZQAyACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABKAEQAYQB0AGUAMgApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAATgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAKABBAEIAUwAoAF8AdAB6AG8AKQAgAD4AIAA5ADAAMAApACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAEoARABhAHQAZQAyACAAPgA9ACAASgBEAGEAdABlADEALAAgADEALAAgAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AagBkAG4ATABvAGMAYQBsAF8AUwB0AGEAcgB0ACwAIABKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBpAGcAbgAgAD0AIAAxACwAIABKAEQAYQB0AGUAMQAsACAASgBEAGEAdABlADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwAXwBFAG4AZAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAMQAsACAASgBEAGEAdABlADIALAAgAEoARABhAHQAZQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBfAFMAdABhAHIAdAAsACAASgBEAE4AXwBUAE8AXwBDAEEATABFAE4ARABBAFIAXwBEAEEAVABFACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAF8ARQBuAGQALAAgAEoARABOAF8AVABPAF8AQwBBAEwARQBOAEQAQQBSAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AagBkAG4ATABvAGMAYQBsAF8ARQBuAGQALAAgADEALAAgADEAKQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAbAB0AGEAWQBlAGEAcgAsACAASQBOAEQARQBYACgAXwBkAGEAdABlAF8ARQBuAGQALAAgADEALAAgADEAKQAgAC0AIABJAE4ARABFAFgAKABfAGQAYQB0AGUAXwBTAHQAYQByAHQALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAKABfAGQAZQBsAHQAYQBZAGUAYQByACAAKwAgADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABQAEEAUgBTAEkATgBHACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFAFwAbgBcAG4AUABhAHIAcwBlAHMAIABhAG4AIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACwAIABkAGEAeQAsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0AFwAbgBpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAIAAgACAAIAB8ACAATQBvAG4AdABoAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAAgACAAIAAgAHwAIABEAGEAeQBcAG4AIAA0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgACAAIAAgACAAIAB8ACAAVABpAG0AZQBcAG4AIAA1ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBEAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHQAZQB4AHQAIAAgACAAfAAgAEQAYQB0AGUAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0ACAAaQBlAC4AIAB5AHkAeQB5AC0ATQBNAC0AZABkAFQAaABoADoAbQBtADoAcwBzACsAaABoADoAbQBtAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAEUAeABhAG0AcABsAGUAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACgAXAAiADIAMAAyADMALQAwADUALQAyADMAXAAiACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgAHsAMgAwADIAMwAsACAANQAsACAAMgAzACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuAFwAbgBQAEEAUgBTAEUAXwBJAFMATwBfAEQAQQBUAEUAKABcACIAMgAwADIAMwAtADAANQAtADIAMwBUADAANgA6ADAAMABcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMgAzACwAIAA1ACwAIAAyADMALAAgADAALgAyADUALAAgAFwAIgBcACIAfQBcAG4AXABuAFAAQQBSAFMARQBfAEkAUwBPAF8ARABBAFQARQAoAFwAIgAyADAAMgAzAC0AMAA1AC0AMgAzAFQAMAA2ADoAMAAwACsAMAA5ADoAMwAwAFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAB7ADIAMAAyADMALAAgADUALAAgADIAMwAsACAAMAAuADIANQAsACAANQA3ADAAfQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgASQBTAE8ARABhAHQAZQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEkAUwBPAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAQQByAHIAYQB5ACwAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAG0AbwB2AGUAZAAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsACAAXAAiAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAsACAATABBAE0AQgBEAEEAKABDAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAE4ALAAgAFsAUwB0AGEAcgB0AFAAbwBzAF0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOACgAUwB0AGEAcgB0AFAAbwBzACkAIAA+ACAATABFAE4AKABUAGUAeAB0ACkALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgByAG8AbQBQAG8AcwAsACAASQBGACgATgAoAFMAdABhAHIAdABQAG8AcwApACAAPAA9ACAAMAAsACAAMAAsACAATgAoAFMAdABhAHIAdABQAG8AcwApACAALQAgADEAKQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABlAHgAdAAsACAASQBGACgAXwBmAHIAbwBtAFAAbwBzACAAPQAgADAALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAEkARwBIAFQAKABUAGUAeAB0ACwAIABMAEUATgAoAFQAZQB4AHQAKQAgAC0AIABfAGYAcgBvAG0AUABvAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAQwBvAHUAbgB0ACwAIABMAEUATgAoAEMAaABhAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgAsACAASQBOAFQAKABOACgATgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAKABfAGMAaABhAHIAQwBvAHUAbgB0ACAAPQAgADAAKQAgACsAIAAoAF8AbgAgAD0AIAAwACkALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAHMALAAgAE0ASQBEACgAQwBoAGEAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAGMAaABhAHIAQwBvAHUAbgB0ACkALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAsACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMAKABfAGMAaABhAHIAcwAsACAAXwB0AGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZgBpAG4AZABDAG8AdQBuAHQAIAA8ACAAQQBCAFMAKABfAG4AKQAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoACwAIABJAEYAKABfAG4AIAA+ACAAMAAsACAAXwBuACwAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAKwAgAF8AbgAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoAFAAbwBzACwAIABSAEUARABVAEMARQAoADAALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBhAGMAYwAgADwAIAAwACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAASQBGAEUAUgBSAE8AUgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXwBjAGgAYQByAHMALAAgAF8AdABlAHgAdAAsACAAXwBhAGMAYwAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBlAHgAdABQAG8AcwAsACAATQBJAE4AKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACAAPgAgADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AbgBlAHgAdABQAG8AcwAgAD0AIAAwACwAIAAtADEALAAgAF8AbgBlAHgAdABQAG8AcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAG4AdABoAFAAbwBzACAAPgAgADAALAAgAF8AbgB0AGgAUABvAHMAIAArACAAXwBmAHIAbwBtAFAAbwBzACAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEkAbgB2AGEAbABpAGQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAF8AdABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAUwBlAHQALAAgAFwAIgArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFcAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AdABlAHgAdAAsACAAXAAiACYAXAAiACwAIABcACIAJgBhAG0AcAA7AFwAIgApACwAIABcACIAPABcACIALAAgAFwAIgAmAGwAdAA7AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4AHAAYQB0AGgALAAgAFwAIgAvAC8AcwBbAHQAcgBhAG4AcwBsAGEAdABlACgALgAsACcAXAAiACAAJgAgAF8AYwBoAGEAcgBTAGUAdAAgACYAIABcACIAJwAsACcAJwApAD0AJwAnAF0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFAAYQByAHMAZQBEAGEAdABlACwAIABMAEEATQBCAEQAQQAoAF8AZABhAHQAZQBQAGEAcgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AEMAaABhAHIALAAgAEwARQBGAFQAKABfAGQAYQB0AGUAUABhAHIAdAAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBTAGkAZwBuAGUAZAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABcACIAKwBcACIALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABcACIALQBcACIALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGACgAXwBpAHMAUwBpAGcAbgBlAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABDAGgAYQByACAAPQAgAFwAIgAtAFwAIgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AG4AUwBpAGcAbgBlAGQALAAgAEkARgAoAF8AaQBzAFMAaQBnAG4AZQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIASQBHAEgAVAAoAF8AZABhAHQAZQBQAGEAcgB0ACwAIABMAEUATgAoAF8AZABhAHQAZQBQAGEAcgB0ACkAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAGEAcgB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAG8AcwAxACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgAtAFwAIgAsACAAXwB1AG4AUwBpAGcAbgBlAGQAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHAAbwBzADEAIAA8ACAANQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAbwBzADIALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAC0AXAAiACwAIABfAHUAbgBTAGkAZwBuAGUAZAAsACAAXwBwAG8AcwAxACAAKwAgADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBwAG8AcwAyACAALQAgAF8AcABvAHMAMQAgADwAPgAgADMALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAF8AcwBpAGcAbgAgACoAIABJAE4AVAAoAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAHUAbgBTAGkAZwBuAGUAZAAsACAAXwBwAG8AcwAxACAALQAgADEAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAEkATgBUACgAVgBBAEwAVQBFACgATQBJAEQAKABfAHUAbgBTAGkAZwBuAGUAZAAsACAAXwBwAG8AcwAxACAAKwAgADEALAAgAF8AcABvAHMAMgAtACAAXwBwAG8AcwAxACAALQAgADEAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBOAFQAKABWAEEATABVAEUAKABSAEkARwBIAFQAKABfAHUAbgBTAGkAZwBuAGUAZAAsACAATABFAE4AKABfAHUAbgBTAGkAZwBuAGUAZAApACAALQAgAF8AcABvAHMAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAXwB5AGUAYQByACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AeQBlAGEAcgAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVABpAG0AZQBEAGUAYwBpAG0AYQBsACwAIABMAEEATQBCAEQAQQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBJAG4AVgBhAGwAaQBkACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIAIAA8ACAAMAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIAIAA+ACAAMgA0ACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBoAG8AdQByACAAPQAgADIANAApACAAKgAgACgAKABfAG0AaQBuAHUAdABlACAAPgAgADAAKQAgACsAIAAoAF8AcwBlAGMAbwBuAGQAIAA+ACAAMAApACkALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAgADwAIAAwACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAIAA+AD0AIAA2ADAALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGUAYwBvAG4AZAAgADwAIAAwACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAIAA+AD0AIAA2ADAALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAARgBBAEwAUwBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AaQBzAEkAbgB2AGEAbABpAGQALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBoAG8AdQByACAALwAgADIANAApACAAKwAgACgAXwBtAGkAbgB1AHQAZQAvACAAMQA0ADQAMAApACAAKwAgACgAXwBzAGUAYwBvAG4AZAAgAC8AIAA4ADYANAAwADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFAAYQByAHMAZQBUAGkAbQBlACwAIABMAEEATQBCAEQAQQAoAF8AdABpAG0AZQBQAGEAcgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4ALAAgAEwARQBOACgAXwB0AGkAbQBlAFAAYQByAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBUAGkAbQBlAEQAZQBjAGkAbQBhAGwAKABWAEEATABVAEUAKABfAHQAaQBtAGUAUABhAHIAdAApACwAIAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAgAD0AIAA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADMALAAgADEAKQAgADwAPgAgAFwAIgA6AFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVABpAG0AZQBEAGUAYwBpAG0AYQBsACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABMAEUARgBUACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABSAEkARwBIAFQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACAAPQAgADgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBJAEQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAAMwAsACAAMQApACAAPAA+ACAAXAAiADoAXAAiACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADYALAAgADEAKQAgADwAPgAgAFwAIgA6AFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBUAGkAbQBlAEQAZQBjAGkAbQBhAGwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8AdABpAG0AZQBQAGEAcgB0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABNAEkARAAoAF8AdABpAG0AZQBQAGEAcgB0ACwAIAA0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABSAEkARwBIAFQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAAMgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGwAZQBuACAAPgA9ACAAMQAwACkAIAAqACAAKABfAGwAZQBuACAAPAA9ACAAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBJAEQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAAMwAsACAAMQApACAAPAA+ACAAXAAiADoAXAAiACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADYALAAgADEAKQAgADwAPgAgAFwAIgA6AFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADkALAAgADEAKQAgADwAPgAgAFwAIgAuAFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AFMAZQBjACwAIABJAE4AVAAoAFYAQQBMAFUARQAoAE0ASQBEACgAXwB0AGkAbQBlAFAAYQByAHQALAAgADcALAAgADIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjAFAAbABhAGMAZQBzACwAIABfAGwAZQBuACAALQAgADkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMAUwBlAGMALAAgAEkATgBUACgAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwB0AGkAbQBlAFAAYQByAHQALAAgAF8AZABlAGMAUABsAGEAYwBlAHMAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjAFMAZQBjACwAIABfAGkAbgB0AFMAZQBjACAAKwAgACgAXwBmAHIAYQBjAFMAZQBjACAALwAgACgAMQAwACAAXgAgAF8AZABlAGMAUABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFQAaQBtAGUARABlAGMAaQBtAGEAbAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8AdABpAG0AZQBQAGEAcgB0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATQBJAEQAKABfAHQAaQBtAGUAUABhAHIAdAAsACAANAAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAUwBlAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAB7ACMAVgBBAEwAVQBFACEAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVABaAG0AaQBuAHUAdABlAHMALAAgAEwAQQBNAEIARABBACgAXwBzAGkAZwBuACwAIABfAGgAbwB1AHIALAAgAF8AbQBpAG4AdQB0AGUALAAgAF8AcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGIAcwBNAGkAbgBzACwAIAAoAF8AaABvAHUAcgAgACoAIAA2ADAAKQAgACsAIABfAG0AaQBuAHUAdABlACAAKwAgACgAXwBzAGUAYwBvAG4AZAAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBhAGIAcwBNAGkAbgBzACAAPgAgADkAMAAwACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAqACAAXwBhAGIAcwBNAGkAbgBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAFQAWgAsACAATABBAE0AQgBEAEEAKABfAFQAWgBwAGEAcgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAVQBQAFAARQBSACgAXwBUAFoAcABhAHIAdAApACAAPQAgAFwAIgBaAFwAIgAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAsACAATABFAEYAVAAoAF8AVABaAHAAYQByAHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAQwBoAGEAcgAgAD0AIABcACIALQBcACIALAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AEMAaABhAHIAIAA9ACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAF8AVABaAHAAYQByAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4AIAA9ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBUAFoAbQBpAG4AdQB0AGUAcwAoAF8AcwBpAGcAbgAsACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwBUAFoAcABhAHIAdAAsACAAMgApACkALAAgADAALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4AIAA9ACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwBUAFoAcABhAHIAdAAsACAANAAsACAAMQApACAAPAA+ACAAXAAiADoAXAAiACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFQAWgBtAGkAbgB1AHQAZQBzACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABNAEkARAAoAF8AVABaAHAAYQByAHQALAAgADIALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AVABaAHAAYQByAHQALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACAAPQAgADkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABNAEkARAAoAF8AVABaAHAAYQByAHQALAAgADQALAAgADEAKQAgADwAPgAgAFwAIgA6AFwAIgAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ASQBEACgAXwBUAFoAcABhAHIAdAAsACAANwAsACAAMQApACAAPAA+ACAAXAAiADoAXAAiACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVABaAG0AaQBuAHUAdABlAHMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABNAEkARAAoAF8AVABaAHAAYQByAHQALAAgADIALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATQBJAEQAKABfAFQAWgBwAGEAcgB0ACwAIAA1ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AVABaAHAAYQByAHQALAAgADIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAewAjAFYAQQBMAFUARQAhAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGYAbgBJAG4AdgBhAGwAaQBkAEMAaABhAHIAcwAoAEkAUwBPAEQAYQB0AGUAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAHAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgBUAFwAIgAsACAASQBTAE8ARABhAHQAZQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AVABwAG8AcwAgAD0AIAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAEQAYQB0AGUAKABJAFMATwBEAGEAdABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQAsACAAZgBuAFAAYQByAHMAZQBEAGEAdABlACgATABFAEYAVAAoAEkAUwBPAEQAYQB0AGUALAAgAF8AVABwAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AVABaAHAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiAFoAKwAtAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIABJAFMATwBEAGEAdABlACwAIAAtADEALAAgAF8AVABwAG8AcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBUAFoAcABvAHMAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFAAYQByAHMAZQBEAGEAdABlACgATABFAEYAVAAoAEkAUwBPAEQAYQB0AGUALAAgAF8AVABwAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAFQAaQBtAGUAKABSAEkARwBIAFQAKABJAFMATwBEAGEAdABlACwAIABMAEUATgAoAEkAUwBPAEQAYQB0AGUAKQAgAC0AIABfAFQAcABvAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAEQAYQB0AGUAKABMAEUARgBUACgASQBTAE8ARABhAHQAZQAsACAAXwBUAHAAbwBzACAALQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBQAGEAcgBzAGUAVABpAG0AZQAoAE0ASQBEACgASQBTAE8ARABhAHQAZQAsACAAXwBUAHAAbwBzACAAKwAgADEALAAgAF8AVABaAFAAbwBzACAALQAgAF8AVABwAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAFQAWgAoAFIASQBHAEgAVAAoAEkAUwBPAEQAYQB0AGUALAAgAEwARQBOACgASQBTAE8ARABhAHQAZQApACAALQAgAF8AVABaAHAAbwBzACAAKwAgADEAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8AVwBFAEUASwBEAEEAWQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHQAZQB4AHQAIAB3AGUAZQBrAGQAYQB5ACAAbgBhAG0AZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5ACAAbwBmACAAdwBlAGUAawBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAIAAgACAAIAAgACAAfAAgAHQAZQB4AHQAIAAgACAAIAB8ACAARABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgBhAG0AZQBcAG4AWwBOAHUAbQBiAGUAcgBTAGMAaABlAG0AZQBdACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABSAGUAdAB1AHIAbgAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAHUAcwBpAG4AZwAgAG4AdQBtAGIAZQByAGkAbgBnACAAcwBjAGgAZQBtAGUAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIAAxAC4ALgA3ACAAUwB1AG4AZABhAHkALgAuAFMAYQB0AHUAcgBkAGEAeQAgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgADEALgAuADcAIABNAG8AbgBkAGEAeQAuAC4AUwB1AG4AZABhAHkAIAAgACAAKABJAFMATwAgADgANgAwADEAIABkAGUAZgBpAG4AaQB0AGkAbwBuACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAAMAAuAC4ANgAgAE0AbwBuAGQAYQB5AC4ALgBTAHUAbgBkAGEAeQBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBXAEUARQBLAEQAQQBZACgAXAAiAFMAYQB0AHUAcgBkAGEAeQBcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAANwBcAG4AXABuAFAAQQBSAFMARQBfAFcARQBFAEsARABBAFkAKABcACIATQBvAG4AXAAiACwAIAAzACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADAAXABuAFwAbgBQAEEAUgBTAEUAXwBXAEUARQBLAEQAQQBZACgAXAAiAFQAaAB1AHIAcwBcACIALAAgADEAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAIwBWAEEATABVAEUAIQBcAG4AXABuAFAAQQBSAFMARQBfAFcARQBFAEsARABBAFkAKABcACIAVgBlAG4AXAAiACwAIAAyACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADUAIAAoAGkAZgAgAGwAbwBjAGEAbAAgAGwAYQBuAGcAdQBhAGcAZQAgAGkAcwAgAHMAZQB0ACAAdABvACAASQB0AGEAbABpAGEAbgApAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBXAEUARQBLAEQAQQBZACAAPQAgAEwAQQBNAEIARABBACgARABhAHkATwBmAFcAZQBlAGsALAAgAFsATgB1AG0AYgBlAHIAUwBjAGgAZQBtAGUAXQAsAFwAbgAgACAAIAAgAEkARgAoAEQAYQB5AE8AZgBXAGUAZQBrACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBNAGEAdABjAGgASQBuAHQARQBuAGcALAAgAEwAQQBNAEIARABBACgARABvAFcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdwAsACAASQBGACgATABFAE4AKABEAGEAeQBPAGYAVwBlAGUAawApACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwB1AG4AXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBvAG4AXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVAB1AGUAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVwBlAGQAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVABoAHUAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARgByAGkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBhAHQAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAGEAeQBPAGYAVwBlAGUAawAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwB1AG4AZABhAHkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBvAG4AZABhAHkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVAB1AGUAcwBkAGEAeQBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBXAGUAZABuAGUAcwBkAGEAeQBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAdQByAHMAZABhAHkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARgByAGkAZABhAHkAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBhAHQAdQByAGQAYQB5AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAE4AQQAoAF8AZABvAHcALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBNAGEAdABjAGgATABvAGMAYQBsAEwAYQBuAGcALAAgAEwAQQBNAEIARABBACgARABvAFcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBzACwAIABTAEUAUQBVAEUATgBDAEUAKAA3ACwAIAAxACwAIAAzADYANQAyADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdwAsACAASQBGACgATABFAE4AKABEAGEAeQBPAGYAVwBlAGUAawApACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABEAGEAeQBPAGYAVwBlAGUAawAsACAAVABFAFgAVAAoAF8AZABhAHkAcwAsACAAXAAiAGQAZABkAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABEAGEAeQBPAGYAVwBlAGUAawAsACAAVABFAFgAVAAoAF8AZABhAHkAcwAsACAAXAAiAGQAZABkAGQAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBOAEEAKABfAGQAbwB3ACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAcgBhAGQARABvAFcALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAsACAAZgBuAE0AYQB0AGMAaABJAG4AdABFAG4AZwAoAEQAYQB5AE8AZgBXAGUAZQBrACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGkAZAB4ACAAPgAgADAALAAgAF8AaQBkAHgALAAgAGYAbgBNAGEAdABjAGgATABvAGMAYQBsAEwAYQBuAGcAKABEAGEAeQBPAGYAVwBlAGUAawApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGMAaABlAG0AZQAsACAASQBOAFQAKABOACgATgB1AG0AYgBlAHIAUwBjAGgAZQBtAGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHIAYQBkAEQAbwBXACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAYwBoAGUAbQBlACAAPAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHIAYQBkAEQAbwBXACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGMAaABlAG0AZQAgAD4APQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwB0AHIAYQBkAEQAbwBXACAALQAgADIALAAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwB0AHIAYQBkAEQAbwBXACAALQAgADIALAAgADcAKQAgACsAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBNAE8ATgBUAEgAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIAB0AGgAZQAgAG0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHQAZQB4AHQAIABtAG8AbgB0AGgAIABuAGEAbQBlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAE0AbwBuAHQAaABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAE0AbwBuAHQAaABOAGEAbQBlACAAfAAgAHQAZQB4AHQAIAB8ACAATQBvAG4AdABoACAAbgBhAG0AZQBcAG4AXABuAEUAeABhAG0AcABsAGUAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ATQBPAE4AVABIACgAXAAiAEYAZQBiAFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAAyAFwAbgBcAG4AUABBAFIAUwBFAF8ATQBPAE4AVABIACgAXAAiAEoAYQBuAHUAYQByAHkAXAAiACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADEAXABuAFwAbgBQAEEAUgBTAEUAXwBNAE8ATgBUAEgAKABcACIASgBcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAIwBWAEEATABVAEUAIQBcAG4AXABuAFAAQQBSAFMARQBfAE0ATwBOAFQASAAoAFwAIgBNAGEAcgB6AG8AXAAiACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADMAIAAoAGkAZgAgAGwAbwBjAGEAbAAgAGwAYQBuAGcAdQBhAGcAZQAgAGkAcwAgAHMAZQB0ACAAdABvACAASQB0AGEAbABpAGEAbgApAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBNAE8ATgBUAEgAIAA9ACAATABBAE0AQgBEAEEAKABNAG8AbgB0AGgATgBhAG0AZQAsAFwAbgAgACAAIAAgAEkARgAoAE0AbwBuAHQAaABOAGEAbQBlACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAByAHkATQBvAG4AdABoACwAIABNAG8AbgB0AGgATgBhAG0AZQAgACYAIABcACIAIAAyADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ATgBUAEgAKABEAEEAVABFAFYAQQBMAFUARQAoAF8AdAByAHkATQBvAG4AdABoACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8AWQBFAEEAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAeQBlAGEAcgAgAHIAZQBsAGEAdABpAHYAZQAgAHQAbwAgAHQAaABlACAAYwBvAG0AbQBvAG4AIABlAHIAYQAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAbABpAHQAZQByAGEAcgB5ACAAeQBlAGEAcgAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAQwBFAC4AIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBMAGkAdABlAHIAYQByAHkAWQBlAGEAcgAgAHwAIAB0AGUAeAB0ACAAfAAgAEwAaQB0AGUAcgBhAHIAeQAgAHkAZQBhAHIAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAFkARQBBAFIAIAA9ACAATABBAE0AQgBEAEEAKABMAGkAdABlAHIAYQByAHkAWQBlAGEAcgAsAFwAbgAgACAAIAAgAEkARgAoAEwAaQB0AGUAcgBhAHIAeQBZAGUAYQByACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBZAGUAYQByAFYAYQBsAHUAZQAsACAATABBAE0AQgBEAEEAKABfAHQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByADEALAAgAEwARQBGAFQAKABfAHQAZQB4AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAMQAgAD0AIABcACIAKwBcACIALAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByADEAIAA9ACAAXAAiAC0AXAAiACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEkAQwBPAEQARQAoAF8AYwBoAGEAcgAxACkAIAA9ACAAOAA3ADIAMgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaQBnAG4AIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAFYAQQBMAFUARQAoAF8AdABlAHgAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAKgAgAEkATgBUACgAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwB0AGUAeAB0ACwAIABMAEUATgAoAF8AdABlAHgAdAApACAALQAxACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAaQB0AFkAZQBhAHIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABTAFUAQgBTAFQASQBUAFUAVABFACgATABpAHQAZQByAGEAcgB5AFkAZQBhAHIALAAgAFwAIgAsAFwAIgAsACAAXAAiAFwAIgApACwAIABcACIAIABcACIALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIASQBHAEgAVAAoAF8AbABpAHQAWQBlAGEAcgAsACAAMwApACAAPQAgAFwAIgBCAEMARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAIABMAEUARgBUACgAXwBsAGkAdABZAGUAYQByACwAIABMAEUATgAoAF8AbABpAHQAWQBlAGEAcgApACAALQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACAALQAgAGYAbgBZAGUAYQByAFYAYQBsAHUAZQAoAF8AcwBZAGUAYQByACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBJAEcASABUACgAXwBsAGkAdABZAGUAYQByACwAIAAyACkAIAA9ACAAXAAiAEMARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAIABMAEUARgBUACgAXwBsAGkAdABZAGUAYQByACwAIABMAEUATgAoAF8AbABpAHQAWQBlAGEAcgApACAALQAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AWQBlAGEAcgBWAGEAbAB1AGUAKABfAHMAWQBlAGEAcgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAGYAbgBZAGUAYQByAFYAYQBsAHUAZQAoAF8AbABpAHQAWQBlAGEAcgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYARQBSAFIATwBSACgAXwB5AGUAYQByAEMARQAsACAAewAjAFYAQQBMAFUARQAhAH0AKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8ARABBAFQARQBcAG4AXABuAFAAYQByAHMAZQBzACAAYQAgAGwAaQB0AGUAcgBhAHIAeQAgAGQAYQB0AGUAIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAsACAAZABhAHkAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIABkAGEAeQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABZAGUAYQByAFwAbgAgADIAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8ACAATQBvAG4AdABoAFwAbgAgADMAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAB8ACAARABhAHkAXABuACAANAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgAHwAIABUAGkAbQBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATABpAHQAZQByAGEAcgB5AEQAYQB0AGUAIAB8ACAAdABlAHgAdAAgAHwAIABMAGkAdABlAHIAYQByAHkAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBMAEkAVABFAFIAQQBSAFkAXwBEAEEAVABFACgAXAAiAEYAZQBiACAAMgA1ACwAIAAyADAAMQA0ACwAIAA2ADoAMAAwAFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAB7ADIAMAAxADQALAAgADIALAAgADIANQAsACAAMAAuADIANQB9AFwAbgBcAG4AUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8ARABBAFQARQAoAFwAIgBEAGUAYwAgADMAMQAsACAAMgAwADIAMwAsACAAMgA0ADoAMAAwAFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAB7ADIAMAAyADMALAAgADEAMgAsACAAMwAxACwAIAAxAH0AXABuAFwAbgBQAEEAUgBTAEUAXwBMAEkAVABFAFIAQQBSAFkAXwBEAEEAVABFACgAXAAiAEYAZQBiACAAMgA1AFwAIgApAFwAbgBSAGUAdAB1AHIAbgBzADoAIAB7AFwAIgBcACIAIAAsACAAMgAsACAAMgA1ACwAIABcACIAXAAiAH0AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABMAGkAdABlAHIAYQByAHkARABhAHQAZQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAEQAYQB0AGUALAAgAEwAQQBNAEIARABBACgAXwBsAGkAdABEAGEAdABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AbABpAHQARABhAHQAZQAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAcwAsACAAVABSAEkATQAoAFQARQBYAFQAUwBQAEwASQBUACgAXwBsAGkAdABEAGEAdABlACwAIABcACIALABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAHMALAAgAEMATwBMAFUATQBOAFMAKABfAHAAYQByAHQAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAF8AYwBvAGwAcwAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAGEAcgB0ADEALAAgAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAcABhAGMAZQBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAIABcACIALAAgAF8AcABhAHIAdAAxACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBwAGEAYwBlAFAAbwBzACAAPQAgADAALAAgAHsAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACgATABFAEYAVAAoAF8AcABhAHIAdAAxACwAIABfAHMAcABhAGMAZQBQAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBtAGEAaQBuACwAIABNAEkARAAoAF8AcABhAHIAdAAxACwAIABfAHMAcABhAGMAZQBQAG8AcwAgACsAIAAxACwAIABMAEUATgAoAF8AcABhAHIAdAAxACkAIAAtACAAXwBzAHAAYQBjAGUAUABvAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBuAG8AdABlAGQAWQBlAGEAcgAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAQwBcACIALAAgAF8AcgBlAG0AYQBpAG4AKQAsACAAMAApACAAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB2AGEAbAAsACAASQBGACgAXwBkAGUAbgBvAHQAZQBkAFkAZQBhAHIALAAgAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAFkARQBBAFIAKABfAHIAZQBtAGEAaQBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAFYAQQBMAFUARQAoAF8AcgBlAG0AYQBpAG4AKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBGAFMAKABfAGQAZQBuAG8AdABlAGQAWQBlAGEAcgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdgBhAGwAIAA8AD0AIAAwACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdgBhAGwAIAA8AD0AIAAzADEALAAgAF8AdgBhAGwALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAsACAASQBGAFMAKABfAGQAZQBuAG8AdABlAGQAWQBlAGEAcgAsACAAXwB2AGEAbAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdgBhAGwAIAA8AD0AIAAzADEALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABfAHYAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAXAAiAFwAIgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGwAcwAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwADEALAAgAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAcABhAGMAZQBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAIABcACIALAAgAF8AcAAxACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBwAGEAYwBlAFAAbwBzACAAPQAgADAALAAgAHsAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACgATABFAEYAVAAoAF8AcAAxACwAIABfAHMAcABhAGMAZQBQAG8AcwAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAE4AVAAoAFYAQQBMAFUARQAoAE0ASQBEACgAXwBwADEALAAgAF8AcwBwAGEAYwBlAFAAbwBzACAAKwAgADEALAAgAEwARQBOACgAXwBwADEAKQAgAC0AIABfAHMAcABhAGMAZQBQAG8AcwApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAMgAsACAASQBOAEQARQBYACgAXwBwAGEAcgB0AHMALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAcgB5AFQAaQBtAGUALAAgAEQAQQBUAEUAVgBBAEwAVQBFACgAXwBwADIAKQAgACsAIABUAEkATQBFAFYAQQBMAFUARQAoAF8AcAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABJAEYARQBSAFIATwBSACgAXwB0AHIAeQBUAGkAbQBlACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABJAEYAKABJAFMARQBSAFIATwBSACgAXwB0AHIAeQBUAGkAbQBlACkALAAgAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAFkARQBBAFIAKABfAHAAMgApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAHkAZQBhAHIALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABfAHQAaQBtAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAHMAIAA9ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAsACAAUABBAFIAUwBFAF8ATABJAFQARQBSAEEAUgBZAF8AWQBFAEEAUgAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAGEAcgB0ACwAIABJAE4ARABFAFgAKABfAHAAYQByAHQAcwAsACAAMQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAEEAVABFAFYAQQBMAFUARQAoAF8AdABpAG0AZQBQAGEAcgB0ACkAIAArACAAVABJAE0ARQBWAEEATABVAEUAKABfAHQAaQBtAGUAUABhAHIAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAMQAsACAASQBOAEQARQBYACgAXwBwAGEAcgB0AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBwAGEAYwBlAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgAgAFwAIgAsACAAXwBwADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAHAAYQBjAGUAUABvAHMAIAA9ACAAMAAsACAAewAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABQAEEAUgBTAEUAXwBNAE8ATgBUAEgAKABMAEUARgBUACgAXwBwADEALAAgAF8AcwBwAGEAYwBlAFAAbwBzACAALQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAEkATgBUACgAVgBBAEwAVQBFACgATQBJAEQAKABfAHAAMQAsACAAXwBzAHAAYQBjAGUAUABvAHMAIAArACAAMQAsACAATABFAE4AKABfAHAAMQApACAALQAgAF8AcwBwAGEAYwBlAFAAbwBzACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAXwB0AGkAbQBlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAewAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABfAHIAZQBzAHUAbAB0ACwAIABSAEUARABVAEMARQAoAFwAIgBcACIALAAgAEwAaQB0AGUAcgBhAHIAeQBEAGEAdABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByAGUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABzACwAIABmAG4AUABhAHIAcwBlAEQAYQB0AGUAKABfAGMAdQByAHIAZQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABfAGEAYwBjACwAIABfAHAAYQByAHQAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABEAFIATwBQACgAXwByAGUAcwB1AGwAdAAsACAAMQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFAAQQBSAFMARQBfAFUAUwBfAEQAQQBUAEUAXABuAFwAbgBQAGEAcgBzAGUAcwAgAGEAIABVAFMAIABmAG8AcgBtAGEAdABlAGQAIABkAGEAdABlACAAaQBuAHQAbwAgAHIAZQBzAHAAZQBjAHQAaQB2AGUAIABwAGEAcgB0AHMAIABvAGYAIAB5AGUAYQByACwAIABtAG8AbgB0AGgALAAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAWQBlAGEAcgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfAAgAE0AbwBuAHQAaABcAG4AIAAzACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADMAMQBdACAAfAAgAEQAYQB5AFwAbgAgADQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4AMQApACAAIAB8ACAAVABpAG0AZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFUAUwBEAGEAdABlACAAfAAgAHQAZQB4AHQAIAB8ACAARABhAHQAZQAgAGkAbgAgAFUAUwAgAGYAbwByAG0AYQB0ACAAaQBlAC4AIABNAE0ALwBkAGQALwB5AHkAeQB5ACAAaABoADoAbQBtADoAcwBzAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBVAFMAXwBEAEEAVABFACgAXAAiADEALwAyADUALwAyADAAMQA0ACAANgA6ADAAMABcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMQA0ACwAIAAxACwAIAAyADUALAAgADAALgAyADUAfQBcAG4AXABuAFAAQQBSAFMARQBfAFUAUwBfAEQAQQBUAEUAKABcACIAMQAyAC8AMwAxAC8AMgAwADIAMwAgADIANAA6ADAAMABcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMgAzACwAIAAxADIALAAgADMAMQAsACAAMQB9AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBVAFMAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAVQBTAEQAYQB0AGUALABcAG4AIAAgACAAIABJAEYAKABVAFMARABhAHQAZQAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEkAbgB2AGEAbABpAGQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAF8AdABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAUwBlAHQALAAgAFwAIgAgACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEEATQBQAFQAYQBtAHAAXwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AdABlAHgAdAAsACAAXAAiACYAXAAiACwAIABcACIAJgBhAG0AcAA7AFwAIgApACwAIABcACIAPABcACIALAAgAFwAIgAmAGwAdAA7AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4AHAAYQB0AGgALAAgAFwAIgAvAC8AcwBbAHQAcgBhAG4AcwBsAGEAdABlACgALgAsACcAXAAiACAAJgAgAF8AYwBoAGEAcgBTAGUAdAAgACYAIABcACIAJwAsACcAJwApAD0AJwAnAF0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBBAHIAcgBhAHkALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAGUAbQBvAHYAZQBkACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAGgAYQByAEEAcgByAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUATgAoAFQAZQB4AHQAKQAgAC0AIABMAEUATgAoAF8AcgBlAG0AbwB2AGUAZAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAcwAsACAAVABlAHgAdAAsACAATgAsACAAWwBTAHQAYQByAHQAUABvAHMAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4AKABTAHQAYQByAHQAUABvAHMAKQAgAD4AIABMAEUATgAoAFQAZQB4AHQAKQAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAHIAbwBtAFAAbwBzACwAIABJAEYAKABOACgAUwB0AGEAcgB0AFAAbwBzACkAIAA8AD0AIAAwACwAIAAwACwAIABOACgAUwB0AGEAcgB0AFAAbwBzACkAIAAtACAAMQApACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGUAeAB0ACwAIABJAEYAKABfAGYAcgBvAG0AUABvAHMAIAA9ACAAMAAsACAAVABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIASQBHAEgAVAAoAFQAZQB4AHQALAAgAEwARQBOACgAVABlAHgAdAApACAALQAgAF8AZgByAG8AbQBQAG8AcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQALAAgAEwARQBOACgAQwBoAGEAcgBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuACwAIABJAE4AVAAoAE4AKABOACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKAAoAF8AYwBoAGEAcgBDAG8AdQBuAHQAIAA9ACAAMAApACAAKwAgACgAXwBuACAAPQAgADAAKQAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACwAIABmAG4AQwBvAHUAbgB0AEMAaABhAHIAcwAoAF8AYwBoAGEAcgBzACwAIABfAHQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBmAGkAbgBkAEMAbwB1AG4AdAAgADwAIABBAEIAUwAoAF8AbgApACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbgB0AGgAIABjAGEAbgAgAGMAbwB1AG4AdAAgAGYAcgBvAG0AIABlAG4AZAAgAGIAYQBjAGsAdwBhAHIAZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgALAAgAEkARgAoAF8AbgAgAD4AIAAwACwAIABfAG4ALAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAArACAAXwBuACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgAUABvAHMALAAgAFIARQBEAFUAQwBFACgAMAAsACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAXwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGEAYwBjACAAPAAgADAALAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBOAEQAKABfAGMAaABhAHIAcwAsACAAXwB0AGUAeAB0ACwAIABfAGEAYwBjACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzACwAIABNAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATABUAEUAUgAoAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMALAAgAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMAIAA+ACAAMAAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBuAGUAeAB0AFAAbwBzACAAPQAgADAALAAgAC0AMQAsACAAXwBuAGUAeAB0AFAAbwBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AbgB0AGgAUABvAHMAIAA+ACAAMAAsACAAXwBuAHQAaABQAG8AcwAgACsAIABfAGYAcgBvAG0AUABvAHMAIAAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AWQBlAGEAcgBWAGEAbAB1AGUALAAgAEwAQQBNAEIARABBACgAXwB0AGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgAxACwAIABMAEUARgBUACgAXwB0AGUAeAB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByADEAIAA9ACAAXAAiACsAXAAiACwAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgAxACAAPQAgAFwAIgAtAFwAIgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFUATgBJAEMATwBEAEUAKABfAGMAaABhAHIAMQApACAAPQAgADgANwAyADIALAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAGkAZwBuACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABWAEEATABVAEUAKABfAHQAZQB4AHQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAgACoAIABJAE4AVAAoAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AdABlAHgAdAAsACAATABFAE4AKABfAHQAZQB4AHQAKQAgAC0AMQApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAZgBuAEkAbgB2AGEAbABpAGQAQwBoAGEAcgBzACgAVQBTAEQAYQB0AGUAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAG8AcwAxACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiACwALgAvAC0AXwBcACIALAAgAFUAUwBEAGEAdABlACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABvAHMAMgAsACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAoAFwAIgAsAC4ALwAtAF8AXAAiACwAIABVAFMARABhAHQAZQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAbwBzADMALAAgAEkARgAoAF8AcABvAHMAMgAgAD0AIAAwACwAIAAwACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiACwALgAvAC0AXwBUACAAXAAiACwAIABVAFMARABhAHQAZQAsACAAMQAsACAAXwBwAG8AcwAyACAAKwAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAbwBzADQALAAgAEkARgAoAF8AcABvAHMAMwAgAD0AIAAwACwAIAAwACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiADAAMQAyADMANAA1ADYANwA4ADkAXAAiACwAIABVAFMARABhAHQAZQAsACAAMQAsACAATQBBAFgAKABfAHAAbwBzADIALAAgAF8AcABvAHMAMwApACAAKwAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBGACgAXwBwAG8AcwAxACAAPQAgADAALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABWAEEATABVAEUAKABMAEUARgBUACgAVQBTAEQAYQB0AGUALAAgAF8AcABvAHMAMQAgAC0AIAAxACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBGACgAXwBwAG8AcwAyACAAPQAgADAALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABWAEEATABVAEUAKABNAEkARAAoAFUAUwBEAGEAdABlACwAIABfAHAAbwBzADEAIAArACAAMQAsACAAXwBwAG8AcwAyACAALQAgAF8AcABvAHMAMQAgAC0AIAAxACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABmAG4AWQBlAGEAcgBWAGEAbAB1AGUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBwAG8AcwAzACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAEkARwBIAFQAKABVAFMARABhAHQAZQAsACAATABFAE4AKABVAFMARABhAHQAZQApACAALQAgAF8AcABvAHMAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBJAEQAKABVAFMARABhAHQAZQAsACAAXwBwAG8AcwAyACAAKwAgADEALAAgAF8AcABvAHMAMwAgAC0AIABfAHAAbwBzADIAIAAtACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABJAEYAKABfAHAAbwBzADQAIAA9ACAAMAAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAGEAcgB0ACwAIABSAEkARwBIAFQAKABVAFMARABhAHQAZQAsACAATABFAE4AKABVAFMARABhAHQAZQApACAALQAgAF8AcABvAHMANAAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAEEAVABFAFYAQQBMAFUARQAoAF8AdABpAG0AZQBQAGEAcgB0ACkAIAArACAAVABJAE0ARQBWAEEATABVAEUAKABfAHQAaQBtAGUAUABhAHIAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAHkAZQBhAHIALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABfAHQAaQBtAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHAFwAbgBcAG4AUABhAHIAcwBlAHMAIABhACAAZABhAHQAZQAtAHQAaQBtAGUAIABnAHIAbwB1AHAAIABpAG4AIAB0AGgAZQAgAGYAbwByAG0AYQB0ACAAdQBzAGUAZAAgAGIAeQAgAFUAUwAgAE0AaQBsAGkAdABhAHIAeQAgAG0AZQBzAHMAYQBnAGUAIAB0AHIAYQBmAGYAaQBjACwAIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAHkAZQBhAHIALABcAG4AbQBvAG4AdABoACwAIABkAGEAeQAsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxADkANQAxAC4ALgAyADAANQAwAF0AIAB8ACAAWQBlAGEAcgBcAG4AIAAyACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAIAAgACAAIAAgAHwAIABNAG8AbgB0AGgAXABuACAAMwAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgACAAIAAgACAAIAB8ACAARABhAHkAXABuACAANAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQBcAG4AIAA1ACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAbQBpAG4AdQB0AGUAcwBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAVABHACAAfAAgAHQAZQB4AHQAIAB8ACAARABhAHQAZQAtAHQAaQBtAGUAIABnAHIAbwB1AHAAIABpAG4AIABVAFMAIABNAGkAbABpAHQAYQByAHkAIABmAG8AcgBtAGEAdAAgAGkAZQAuACAAZABkAEgASABtAG0AcwBzAFoAbQBtAG0AWQBZAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHACgAXAAiADEAMgAgADEANQAgADMAMAAgADQANQAgAEIAIABNAEEAWQAgADIAMwBcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMgAzACwAIAA1ACwAIAAxADIALAAgADAALgA3ADcAMQAxADgAMAA1ADUALAAgADEAMgAwAH0AXABuAFwAbgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHACgAXAAiADAANQAwADYANAA1ADEANQBLAEoAVQBOADAAMABcACIAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAewAyADAAMAAwACwAIAA2ACwAIAA1ACwAIAAwAC4AMgA4ADEANAAyADMANgAxADEALAAgADYAMAAwAH0AXABuAFwAbgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHACgAXAAiADEANQAwADYAMAAwAFoAXAAiACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAMQA1ACwAIAAwAC4AMgA1ACwAIAAwAH0AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAE0ASQBMAF8ARABUAEcAIAA9ACAATABBAE0AQgBEAEEAKABEAFQARwAsAFwAbgAgACAAIAAgAEkARgAoAEQAVABHACAAPQAgAFwAIgBcACIALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ASQBuAHYAYQBsAGkAZABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAXwB0AGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBTAGUAdAAsACAAXAAiADAAMQAyADMANAA1ADYANwA4ADkAQQBCAEMARABFAEYARwBIAEkASgBLAEwATQBOAE8AUABRAFIAUwBUAFUAVgBXAFgAWQBaAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AdABlAHgAdAAsACAAXAAiACYAXAAiACwAIABcACIAJgBhAG0AcAA7AFwAIgApACwAIABcACIAPABcACIALAAgAFwAIgAmAGwAdAA7AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB4AHAAYQB0AGgALAAgAFwAIgAvAC8AcwBbAHQAcgBhAG4AcwBsAGEAdABlACgALgAsACcAXAAiACAAJgAgAF8AYwBoAGEAcgBTAGUAdAAgACYAIABcACIAJwAsACcAJwApAD0AJwAnAF0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFkAZQBhAHIALAAgAEwAQQBNAEIARABBACgAXwBzAFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AHkALAAgAFYAQQBMAFUARQAoAF8AcwBZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AeQB5ACAAPAAgADUAMQAsACAAMgAwADAAMAAgACsAIABfAHkAeQAsACAAMQA5ADAAMAAgACsAIABfAHkAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBUAGkAbQBlACwAIABMAEEATQBCAEQAQQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE4AKABfAGgAbwB1AHIAKQAgAC8AIAAyADQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsAIAAoAE4AKABfAG0AaQBuAHUAdABlACkAIAAvACAAMQA0ADQAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAgACgATgAoAF8AcwBlAGMAbwBuAGQAKQAgAC8AIAA4ADYANAAwADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAcwBlAFQAWgAsACAATABBAE0AQgBEAEEAKABfAHQAegBDAGgAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGQAZQAsACAAQwBPAEQARQAoAF8AdAB6AEMAaABhAHIAKQAgAC0AIAA2ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGQAZQAgAD0AIAAyADYALAAgADAALAAgAC8ALwAgAFoAIAA9ACAAVQBUAEMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGQAZQAgAD0AIAAxADAALAAgAFwAIgBcACIALAAgAC8ALwAgAEoAIAA9ACAATABvAGMAYQBsACAAVABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AZABlACAAPAA9ACAAMAAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AZABlACAAPAA9ACAAOQAsACAAXwBjAG8AZABlACAAKgAgADYAMAAsACAALwAvACAAQQBCAEMARABFAEYARwBIAEkAIAAtAD4AIAArADEALgAuACsAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AZABlACAAPAA9ACAAMQAzACwAIAAoAF8AYwBvAGQAZQAgAC0AIAAxACkAIAAqACAANgAwACwAIAAgAC8ALwAgAEsATABNACAALQA+ACAAKwAxADAALgAuACsAMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBkAGUAIAA8AD0AIAAyADUALAAgACgAMQAzACAALQAgAF8AYwBvAGQAZQApACAAKgAgADYAMAAsACAALwAvACAATgBPAFAAUQBSAFMAVABVAFYAVwBYAFkAIAAtAD4AIAAtADEALgAuAC0AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAB7ACMAVgBBAEwAVQBFACEAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFAAYQByAHMAZQBGAHUAbABsACwAIABMAEEATQBCAEQAQQAoAF8ARABUAEcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8ARABUAEcALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACgATQBJAEQAKABfAEQAVABHACwAIAAxADAALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAGYAbgBZAGUAYQByACgAUgBJAEcASABUACgAXwBEAFQARwAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAF8AeQBlAGEAcgAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkALAAgADAAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgAsACAAVgBBAEwAVQBFACgATQBJAEQAKABfAEQAVABHACwAIAAzACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUALAAgAFYAQQBMAFUARQAoAE0ASQBEACgAXwBEAFQARwAsACAANQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkACwAIABWAEEATABVAEUAKABNAEkARAAoAF8ARABUAEcALAAgADcALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABmAG4AVABpAG0AZQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoALAAgAGYAbgBQAGEAcgBzAGUAVABaACgATQBJAEQAKABfAEQAVABHACwAIAA5ACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBQAGEAcgBzAGUAUwBoAG8AcgB0ACwAIABMAEEATQBCAEQAQQAoAF8ARABUAEcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8ARABUAEcALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAAUABBAFIAUwBFAF8ATQBPAE4AVABIACgATQBJAEQAKABfAEQAVABHACwAIAA4ACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABmAG4AWQBlAGEAcgAoAFIASQBHAEgAVAAoAF8ARABUAEcALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABfAHkAZQBhAHIALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIAAwACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIALAAgAFYAQQBMAFUARQAoAE0ASQBEACgAXwBEAFQARwAsACAAMwAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AaQBuAHUAdABlACwAIABWAEEATABVAEUAKABNAEkARAAoAF8ARABUAEcALAAgADUALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoALAAgAGYAbgBQAGEAcgBzAGUAVABaACgATQBJAEQAKABfAEQAVABHACwAIAA3ACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAoAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXAAiAFwAIgApACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEkATQBFACgAXwBoAG8AdQByACwAIABfAG0AaQBuAHUAdABlACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBQAGEAcgBzAGUAUABsAGEAbgAsACAATABBAE0AQgBEAEEAKABfAEQAVABHACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAEQAVABHACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByACwAIABWAEEATABVAEUAKABNAEkARAAoAF8ARABUAEcALAAgADMALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AaQBuAHUAdABlACwAIABWAEEATABVAEUAKABNAEkARAAoAF8ARABUAEcALAAgADUALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegAsACAAZgBuAFAAYQByAHMAZQBUAFoAKABNAEkARAAoAF8ARABUAEcALAAgADcALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAKABfAGgAbwB1AHIALAAgAF8AbQBpAG4AdQB0AGUALAAgAFwAIgBcACIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQASQBNAEUAKABfAGgAbwB1AHIALAAgAF8AbQBpAG4AdQB0AGUALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEQAVABHACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgARABUAEcALAAgAFwAIgAgAFwAIgAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGYAbgBJAG4AdgBhAGwAaQBkAEMAaABhAHIAcwAoAF8ARABUAEcAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAsACAATABFAE4AKABfAEQAVABHACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQALAAgAEkARgBTACgAXwBsAGUAbgAgAD0AIAAxADQALAAgADEALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACAAPQAgADEAMgAsACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACAAPQAgADcALAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZgBtAHQAIAA9ACAAMAAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAbQB0ACAAPQAgADEALAAgAGYAbgBQAGEAcgBzAGUARgB1AGwAbAAoAF8ARABUAEcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQAIAA9ACAAMgAsACAAZgBuAFAAYQByAHMAZQBTAGgAbwByAHQAKABfAEQAVABHACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAbQB0ACAAPQAgADMALAAgAGYAbgBQAGEAcgBzAGUAUABsAGEAbgAoAF8ARABUAEcAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAFQARQBYAFQAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBXAEUARQBLAEQAQQBZAF8ATgBBAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABuAGEAbQBlACAAbwBmACAAYQBuACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGEAcwAgAHQAZQB4AHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABXAGUAZQBrAGQAYQB5AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAE8AVwBlAGUAawBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgA3AF0AIAB8ACAASQBTAE8AIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgBcAG4AWwBTAGgAbwByAHQAXQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAB8ACAAUgBlAHQAdQByAG4AIABzAGgAbwByAHQAIABmAG8AcgBtAGEAdAAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AWwBJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAB8ACAASQBuAHQAZQByAG4AYQB0AGkAbwBuAGEAbAAgAEUAbgBnAGwAaQBzAGgAIABpAG4AcwB0AGUAYQBkACAAbwBmACAAbABvAGMAYQBsACAAbABhAG4AZwB1AGEAZwBlACAAcwBlAHQAIABpAG4AIABFAHgAYwBlAGwAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFcARQBFAEsARABBAFkAXwBOAEEATQBFACAAPQAgAEwAQQBNAEIARABBACgASQBTAE8AVwBlAGUAawBEAGEAeQAsACAAWwBTAGgAbwByAHQAXQAsACAAWwBJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAXQAsAFwAbgAgACAAIAAgAEkARgAoAEkAUwBPAFcAZQBlAGsARABhAHkAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABJAFMATwBXAGUAZQBrAEQAYQB5ACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFMAaABvAHIAdAAsACAATgAoAFMAaABvAHIAdAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUATABvAGMAYQBsAEwAYQBuAGcALAAgAE4AKABJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBEAG8AVwAsACAATQBPAEQAKABJAE4AVAAoAEkAUwBPAFcAZQBlAGsARABhAHkAKQAgAC0AIAAxACwAIAA3ACkAIAArACAAMQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwB1AHMAZQBMAG8AYwBhAGwATABhAG4AZwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5ADIAawByAGUAZgBEAGEAeQAsACAAMwA2ADUAMgA3ACAAKwAgAF8AaQBzAG8ARABvAFcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAG0AdAAsACAASQBGACgAXwB1AHMAZQBTAGgAbwByAHQALAAgAFwAIgBkAGQAZABcACIALAAgAFwAIgBkAGQAZABkAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKABfAHkAMgBrAHIAZQBmAEQAYQB5ACwAIABfAGYAbQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBTAGgAbwByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAKABfAGkAcwBvAEQAbwBXACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AbwBuAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAHUAZQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVwBlAGQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAaAB1AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBGAHIAaQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBhAHQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFMAdQBuAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAF8AaQBzAG8ARABvAFcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBvAG4AZABhAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAdQBlAHMAZABhAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFcAZQBkAG4AZQBzAGQAYQB5AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAdQByAHMAZABhAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEYAcgBpAGQAYQB5AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAGEAdAB1AHIAZABhAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFMAdQBuAGQAYQB5AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAE0ATwBOAFQASABfAE4AQQBNAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAG0AbwBuAHQAaAAgAGEAcwAgAHQAZQB4AHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABNAG8AbgB0AGgAIABuAGEAbQBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAIABNAG8AbgB0AGgAXABuAFsAUwBoAG8AcgB0AF0AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAUgBlAHQAdQByAG4AIABzAGgAbwByAHQAIABmAG8AcgBtAGEAdAAgAEoAYQBuAC4ALgBEAGUAYwBcAG4AWwBJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsACAARQBuAGcAbABpAHMAaAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABsAG8AYwBhAGwAIABsAGEAbgBnAHUAYQBnAGUAIABzAGUAdAAgAGkAbgAgAEUAeABjAGUAbABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ATQBPAE4AVABIAF8ATgBBAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAE0AbwBuAHQAaAAsACAAWwBTAGgAbwByAHQAXQAsACAAWwBJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAXQAsAFwAbgAgACAAIAAgAEkARgAoAE0AbwBuAHQAaAAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFMAaABvAHIAdAAsACAATgAoAFMAaABvAHIAdAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUATABvAGMAYQBsAEwAYQBuAGcALAAgAE4AKABJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsAEUAbgBnAGwAaQBzAGgAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAEkATgBUACgATQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHUAcwBlAEwAbwBjAGEAbABMAGEAbgBnACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AE8AZgBNAG8AbgB0AGgALAAgAEQAQQBUAEUAKAAyADAAMAAwACwAIABfAG0AbwBuAHQAaAAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQALAAgAEkARgAoAF8AdQBzAGUAUwBoAG8AcgB0ACwAIABcACIATQBNAE0AXAAiACwAIABcACIATQBNAE0ATQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAXwBkAGEAeQBPAGYATQBvAG4AdABoACwAIABfAGYAbQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBTAGgAbwByAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAewBcACIASgBhAG4AXAAiADsAIABcACIARgBlAGIAXAAiADsAIABcACIATQBhAHIAXAAiADsAIABcACIAQQBwAHIAXAAiADsAIABcACIATQBhAHkAXAAiADsAIABcACIASgB1AG4AXAAiADsAIABcACIASgB1AGwAXAAiADsAIABcACIAQQB1AGcAXAAiADsAIABcACIAUwBlAHAAXAAiADsAIABcACIATwBjAHQAXAAiADsAIABcACIATgBvAHYAXAAiADsAIABcACIARABlAGMAXAAiAH0ALAAgAF8AbQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBKAGEAbgB1AGEAcgB5AFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEYAZQBiAHIAdQBhAHIAeQBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAGEAcgBjAGgAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQQBwAHIAaQBsAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AYQB5AFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEoAdQBuAGUAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASgB1AGwAeQBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBBAHUAZwB1AHMAdABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAGUAcAB0AGUAbQBiAGUAcgBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBPAGMAdABvAGIAZQByAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE4AbwB2AGUAbQBiAGUAcgBcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBEAGUAYwBlAG0AYgBlAHIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8ASQBTAE8AXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABkAGEAdABlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAATgBvAHQAZQAgAHQAaABhAHQAIAAxACAAQgBDACAAPQAgADAAIABDAEUALAAgADIAIABCAEMAIAA9ACAALQAxACAAQwBFAFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAXABuAFsAVABpAG0AZQBdACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4AMQApACAAIAB8ACAAVABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AZgAgAGEAIABkAGEAeQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbAAsACAAZABlAGYAYQB1AGwAdAAgAGkAcwAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAARgBsAG8AYQB0AHMAIABmAHIAbwBtACAAbQBpAG4AdQB0AGUAIAB0AG8AIABtAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAARABhAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANAAgAC0AIABTAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANQAgAC0AIABNAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuAFsATgBvAFoAdQBsAHUAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAG8AcgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBJAFMATwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAWwBUAGkAbQBlAF0ALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AWgB1AGwAdQBdACwAIABbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACwAXABuACAAIAAgACAASQBGACgAKABZAGUAYQByAEMARQAgAD0AIABcACIAXAAiACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAXAAiAFwAIgApACAAKgAgACgARABhAHkAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBvAHIAbQBhAHQAWQBlAGEAcgAsACAATABBAE0AQgBEAEEAKABfAHkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIARgBtAHQALAAgAEkARgAoACgAXwB5AGUAYQByACAAPgA9ACAAMQAwADAAMAApACAAKgAgACgAXwB5AGUAYQByACAAPAA9ACAAOQA5ADkAOQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAMAAwADAAMAA7AFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACAAJgAgAFwAIgAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsAMAAwADAAMAA7AFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACAAJgAgAFwAIgAwADAAMAAwADsAKwAwADAAMAAwAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAF8AeQBlAGEAcgAsACAAXwB5AGUAYQByAEYAbQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEYAbwByAG0AYQB0AFQAaQBtAGUALAAgAEwAQQBNAEIARABBACgAXwB0AGkAbQBlACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABvAHcAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHIAbwB1AG4AZAAgAHQAbwAgAG0AaQBsAGwAaQBzAGUAbwBuAGQAcwAsACAAcwBjAGEAbABlACAAdABvACAAcwBlAGMAbwBuAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAHMALAAgAFIATwBVAE4ARAAoAF8AdABpAG0AZQAgACoAIAA4ADYANAAwADAALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAHMAIAA9ACAAMAAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABfAHMAZQBjAG8AbgBkAHMALAAgADEAKQAgAD4AIAAwACwAIAA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AcwBlAGMAbwBuAGQAcwAgAC8AIAA2ADAALAAgADEAKQAgAD4AIAAwACwAIAA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHMAaABvAHcAUAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABvAHcAUAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsACAAXAAiAEgASABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzACwAIABcACIASABIADoAbQBtAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAbwB3AFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADQALAAgAFwAIgBIAEgAOgBtAG0AOgBzAHMAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIASABIADoAbQBtADoAcwBzAC4AMAAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVABcACIAIAAmACAAVABFAFgAVAAoAF8AdABpAG0AZQAsACAAXwBmAG0AdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBGAG8AcgBtAGEAdABUAFoALAAgAEwAQQBNAEIARABBACgAXwB0AHoAbwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAF8AdAB6AG8AKQApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAKABfAHQAegBvACAAPQAgADAAKQAgACoAIAAoAE4AKABOAG8AWgB1AGwAdQApACAAPQAgADAAKQAsACAAXAAiAFoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBGAG0AdAAsACAASQBGACgATQBPAEQAKABfAHQAegBvACwAIAAxACkAIAA9ACAAMAAsACAAXAAiAEgASAA6AG0AbQBcACIALAAgAFwAIgBIAEgAOgBtAG0AOgBzAHMAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABfAHQAegBvACAAPgA9ACAAMAAsACAAXAAiACsAXAAiACwAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAJgAgAFQARQBYAFQAKABBAEIAUwAoAF8AdAB6AG8AKQAgAC8AIAAxADQANAAwACwAIABfAHQAegBGAG0AdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVABpAG0AZQAsACAAKAAoAE0ATwBEACgARABhAHkALAAgADEAKQAgAD4AIAAwACkAIAArACAASQBTAE4AVQBNAEIARQBSACgAVABpAG0AZQApACkAIAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBQAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABfAGgAYQBzAFQAaQBtAGUAKQAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFAAcgBlAGMAaQBzAGkAbwBuACkAKQAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABJAE4AVAAoAFAAcgBlAGMAaQBzAGkAbwBuACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAEQAYQB0AGUALAAgAFIARQBTAE8ATABWAEUAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFQAaQBtAGUALAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAZgBuAEYAbwByAG0AYQB0AFkAZQBhAHIAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBNAG8AbgB0AGgALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMgApACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMwApACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAAZgBuAEYAbwByAG0AYQB0AFQAaQBtAGUAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAANAApACwAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAFoALAAgAGYAbgBGAG8AcgBtAGEAdABUAFoAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBPAE4AQwBBAFQAKABfAHMAWQBlAGEAcgAsACAAXAAiAC0AXAAiACwAIABfAHMATQBvAG4AdABoACwAIABcACIALQBcACIALAAgAF8AcwBEAGEAeQAsACAAXwBzAFQAaQBtAGUALAAgAF8AcwBUAFoAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIAB5AGUAYQByACAAZgBvAHIAbQBhAHQAdABlAGQAIABpAG4AIABsAGkAdABlAHIAYQByAHkAIABzAHQAeQBsAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABMAGkAdABlAHIAYQByAHkAIAB5AGUAYQByAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFsAQQBsAHcAYQB5AHMAUwBoAG8AdwBFAHIAYQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAQQBsAHcAYQB5AHMAIABhAHAAcABsAHkAIABCAEMARQAvAEMARQAgAHMAdQBmAGYAaQB4AC4AIABJAGYAIABuAG8AdAAgAHUAcwBlAGQALAAgAG8AbgBsAHkAIAB5AGUAYQByAHMAIABsAGUAcwBzACAAdABoAGEAbgAgADEAMAAwADAAIABzAGgAbwB3ACAAYQBuACAAZQByAGEALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFsAQQBsAHcAYQB5AHMAUwBoAG8AdwBFAHIAYQBdACwAXABuACAAIAAgACAASQBGACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAEMARQAsACAAXwB5AGUAYQByAEMARQAgAD4APQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABJAEYAKABfAGkAcwBDAEUALAAgAF8AeQBlAGEAcgBDAEUALAAgADEAIAAtACAAXwB5AGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwB1AGYAZgBpAHgALAAgAEkARgBTACgATgBPAFQAKABfAGkAcwBDAEUAKQAsACAAXAAiACAAQgBDAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgADwAIAAxADAAMAAwACwAIABcACIAIABDAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEEAbAB3AGEAeQBzAFMAaABvAHcARQByAGEAKQAgADwAPgAgADAALAAgAFwAIgAgAEMARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAgACYAIABfAHMAdQBmAGYAaQB4AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAE8AUgBNAEEAVABfAEwASQBUAEUAUgBBAFIAWQBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGQAYQB0AGUAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGkAbgAgAGwAaQB0AGUAcgBhAHIAeQAgAHMAdAB5AGwAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIAB0AGUAeAB0ACAAfAAgAEwAaQB0AGUAcgBhAHIAeQAgAGQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4ATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAxADIAXQAgAHwAXABuAEQAYQB5ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMwAxAF0AIAB8AFwAbgBbAFQAaQBtAGUAXQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgACAAfAAgAFQAaQBtAGUAIABvAGYAIABkAGEAeQAgAGEAcwAgAGQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkALgBcAG4AWwBTAGgAbwByAHQAXQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABSAGUAdAB1AHIAbgAgAHMAaABvAHIAdAAgAGYAbwByAG0AYQB0ACAASgBhAG4ALgAuAEQAZQBjAFwAbgBbAEkAbgB0AGUAcgBuAGEAdABpAG8AbgBhAGwARQBuAGcAbABpAHMAaABdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFUAcwBlACAAdABoAGUAIABJAG4AdABlAHIAbgBhAHQAaQBvAG4AYQBsACAARQBuAGcAbABpAHMAaAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABsAG8AYwBhAGwAIABsAGEAbgBnAHUAYQBnAGUAIABzAGUAdAAgAGkAbgAgAEUAeABjAGUAbABcAG4AWwBBAGwAdwBhAHkAcwBTAGgAbwB3AEUAcgBhAF0AIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABBAGwAdwBhAHkAcwAgAGEAcABwAGwAeQAgAEIAQwBFAC8AQwBFACAAcwB1AGYAZgBpAHgALgAgAEkAZgAgAG4AbwB0ACAAdQBzAGUAZAAsACAAbwBuAGwAeQAgAHkAZQBhAHIAcwAgAGwAZQBzAHMAIAB0AGgAYQBuACAAMQAwADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAGgAbwB3ACAAYQBuACAAZQByAGEALgBcAG4AWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFsAVABpAG0AZQBdACwAIABbAFMAaABvAHIAdABdACwAIABbAEkAbgB0AGUAcgBuAGEAdABpAG8AbgBhAGwARQBuAGcAbABpAHMAaABdACwAIABbAEEAbAB3AGEAeQBzAFMAaABvAHcARQByAGEAXQAsACAAWwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoACgAWQBlAGEAcgBDAEUAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATQBvAG4AdABoACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEQAYQB5ACAAPQAgAFwAIgBcACIAKQAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKwAgACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkAKQAsACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAEkARgAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIALAAgADIAMAAwADAALAAgAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAEYAKABEAGEAeQAgAD0AIABcACIAXAAiACwAIAAxACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQApACwAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIARABhAHQAZQAsACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABUAGkAbQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAEUAUwBPAEwAVgBFAF8ARABBAFQARQAoAF8AeQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAAXwBkAGEAeQAsACAAVABpAG0AZQAsACAAMwAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAE0AbwBuAHQAaAAsACAATQBPAE4AVABIAF8ATgBBAE0ARQAoAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAAxACwAIAAyACkALAAgAFMAaABvAHIAdAAsACAASQBuAHQAZQByAG4AYQB0AGkAbwBuAGEAbABFAG4AZwBsAGkAcwBoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB5ACwAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACwAIABcACIAIABcACIAIAAmACAASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADEALAAgADMAKQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACwAIABcACIALAAgAFwAIgAgACYAIABGAE8AUgBNAEEAVABfAEwASQBUAEUAUgBBAFIAWQBfAFkARQBBAFIAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACwAIABBAGwAdwBhAHkAcwBTAGgAbwB3AEUAcgBhACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAASQBGACgASQBTAE4AVQBNAEIARQBSACgAVABpAG0AZQApACwAIABcACIALAAgAFwAIgAgACYAIABUAEUAWABUACgASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADEALAAgADQAKQAsACAAXAAiAGgAOgBtAG0AIABBAE0ALwBQAE0AXAAiACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAE8ATgBDAEEAVAAoAF8AcwBNAG8AbgB0AGgALAAgAF8AcwBEAGEAeQAsACAAXwBzAFkAZQBhAHIALAAgAF8AcwBUAGkAbQBlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVQBTAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGYAbwByAG0AYQB0AHQAZQBkACAAaQBuACAAdABoAGUAIABVAFMAIABzAHQAeQBsAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABVAFMAIABzAHQAeQBsAGUAIABkAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAIABOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAFsAMQAuAC4AMQAyAF0AIAB8AFwAbgBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADMAMQBdACAAfABcAG4AWwBUAGkAbQBlAF0AIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAWwAwAC4ALgAxACkAIAAgAHwAIABUAGkAbQBlACAAbwBmACAAZABhAHkAIABhAHMAIABkAGUAYwBpAG0AYQBsACAAZgByAGEAYwB0AGkAbwBuACAAbwBmACAAYQAgAGQAYQB5AC4AXABuAFsAUwBlAHAAYQByAGEAdABvAHIAXQAgACAAIAAgACAAIAB8ACAAYwBoAGEAcgAgACAAIAAgAFsALAAuAC8ALQBfAF0AIAB8ACAAQwBoAGEAcgBhAGMAdABlAHIAIABzAGUAcABhAHIAYQB0AG8AcgAgAGYAbwByACAAZABhAHQAZQAgAGUAbABlAG0AZQBuAHQAcwAuAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwALAAgAGQAZQBmAGEAdQBsAHQAIABpAHMAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEYAbABvAGEAdABzACAAZgByAG8AbQAgAG0AaQBuAHUAdABlACAAdABvACAAbQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAATQBpAG4AdQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgBbAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAZgBvAHIAIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8AVQBTAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABbAFQAaQBtAGUAXQAsACAAWwBTAGUAcABhAHIAYQB0AG8AcgBdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAQwBFACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAE0AbwBuAHQAaAAgAD0AIABcACIAXAAiACkAIAAqACAAKABEAGEAeQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKwAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAKQAsACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBvAHIAbQBhAHQAVABpAG0AZQAsACAATABBAE0AQgBEAEEAKABfAHQAaQBtAGUALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4AIAAxACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAcgBvAHUAbgBkACAAdABvACAAbQBpAGwAbABpAHMAZQBvAG4AZABzACwAIABzAGMAYQBsAGUAIAB0AG8AIABzAGUAYwBvAG4AZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAcwAsACAAUgBPAFUATgBEACgAXwB0AGkAbQBlACAAKgAgADgANgA0ADAAMAAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAcwAgAD0AIAAwACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AcwBlAGMAbwBuAGQAcwAsACAAMQApACAAPgAgADAALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwBzAGUAYwBvAG4AZABzACAALwAgADYAMAAsACAAMQApACAAPgAgADAALAAgADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAIABcACIAaAAgAEEATQAvAFAATQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzACwAIABcACIAaAA6AG0AbQAgAEEATQAvAFAATQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAG8AdwBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAA0ACwAIABcACIAaAA6AG0AbQA6AHMAcwAgAEEATQAvAFAATQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAFwAIgBoADoAbQBtADoAcwBzAC4AMAAwADAAIABBAE0ALwBQAE0AXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAIABcACIAIAAmACAAVABFAFgAVAAoAF8AdABpAG0AZQAsACAAXwBmAG0AdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAHAAYQByAGEAdABvAHIALAAgAEkARgAoAFMAZQBwAGEAcgBhAHQAbwByACAAPQAgAFwAIgBcACIALAAgAFwAIgAvAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgAxACwAIABMAEUARgBUACgAUwBlAHAAYQByAGEAdABvAHIALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXwBjAGgAYQByADEALAAgAFwAIgAsAC4ALwAtAF8AXAAiACkALAAgADAAKQAgAD4AIAAwACwAIABfAGMAaABhAHIAMQAsACAAXAAiAC8AXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFQAaQBtAGUALAAgACgAKABNAE8ARAAoAEQAYQB5ACwAIAAxACkAIAA+ACAAMAApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAFQAaQBtAGUAKQApACAAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgAXwBoAGEAcwBUAGkAbQBlACkALAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABQAHIAZQBjAGkAcwBpAG8AbgApACkALAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAASQBOAFQAKABQAHIAZQBjAGkAcwBpAG8AbgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAEQAYQB0AGUALAAgAFIARQBTAE8ATABWAEUAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFQAaQBtAGUALAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAVABFAFgAVAAoAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAAxACwAIAAxACkALAAgAFwAIgAwADAAMAAwADsAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkAIAAmACAAXAAiADAAMAAwADAAOwAwADAAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMATQBvAG4AdABoACwAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMwApACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAAZgBuAEYAbwByAG0AYQB0AFQAaQBtAGUAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAANAApACwAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMATwBOAEMAQQBUACgAXwBzAE0AbwBuAHQAaAAsACAAXwBzAGUAcABhAHIAYQB0AG8AcgAsACAAXwBzAEQAYQB5ACwAIABfAHMAZQBwAGEAcgBhAHQAbwByACwAIABfAHMAWQBlAGEAcgAsACAAXwBzAFQAaQBtAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBNAEkATABfAEQAVABHAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABkAGEAdABlACAAZgBvAHIAbQBhAHQAdABlAGQAIABpAG4AIABVAFMAIABNAGkAbABpAHQAYQByAHkAIABtAGUAcwBzAGEAZwBlACAAdAByAGEAZgBmAGkAYwAgAHMAdAB5AGwAZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIAB0AGUAeAB0ACAAfAAgAEQAVABHACAAZgBvAHIAbQBhAHQAdABlAGQAIABkAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAAgACAAIAAgAHwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAxADkANQAxAC4ALgAyADAANQAwAF0AIAAgACAAIAB8AFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIABbADEALgAuADEAMgBdACAAfABcAG4ARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAWwAxAC4ALgAzADEAXQAgAHwAXABuAFQAaQBtAGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAFsAMAAuAC4AMQApACAAIAB8ACAAVABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AZgAgAGEAIABkAGEAeQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAIAAgACAAIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHcAaQBsAGwAIABiAGUAIABjAG8AbgB2AGUAcgB0AGUAZAAgAGkAZgAgAHQAaABlACAAbwBmAGYAcwBlAHQAIABkAG8AZQBzACAAbgBvAHQAIABhAGwAaQBnAG4AIAB3AGkAdABoACAAbQBpAGwAaQB0AGEAcgB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHQAaQBtAGUAIAB6AG8AbgBlAHMALgBcAG4AWwBTAGgAbwByAHQAXQAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABTAGgAbwByAHQAIAB0AGkAbQBlACAAZgBvAHIAbQB0ADoAIABoAGgAbQBtACwAIABvAHQAaABlAHIAdwBpAHMAZQA6ACAAaABoAG0AbQBzAHMAXABuAFwAbgBFAHgAYQBtAHAAbABlAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8ATQBJAEwAXwBEAFQARwAoADIAMAAyADMALAAgADIALAAgADEAMgAsACAAMAAuADcANQAsACAANgAwADAALAAgADEAKQBcAG4AUgBlAHQAdQByAG4AcwA6ACAAMQAyADEAOAAwADAASwBGAEUAQgAyADMAXABuAFwAbgBGAE8AUgBNAEEAVABfAE0ASQBMAF8ARABUAEcAKAAgACwAIAAsACAAMQAyACwAIAAwAC4AMgA1ACkAXABuAFIAZQB0AHUAcgBuAHMAOgAgADEAMgAwADYAMAAwAEoAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8ATQBJAEwAXwBEAFQARwAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgAFQAaQBtAGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAUwBoAG8AcgB0AF0ALABcAG4AIAAgACAAIABJAEYAKAAoAFkAZQBhAHIAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATQBvAG4AdABoACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAEQAYQB5ACAAPQAgAFwAIgBcACIAKQAgACoAIAAoAFQAaQBtAGUAIAA9ACAAXAAiAFwAIgApACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAbwBjAGEAbAAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBJAG4AdgBhAGwAaQBkAFAAYQByAGEAbQBzACwAIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBCAFMAKABfAHQAegBvACkAIAA+ACAAOQAwADAALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgApACwAIAAoACgAWQBlAGEAcgAgADwAIAAxADkANQAxACkAIAArACAAKABZAGUAYQByACAAPgAgADIAMAA1ADAAKQApACwAIABGAEEATABTAEUAKQAsACAAVABSAFUARQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKAAoAFkAZQBhAHIAIAA9ACAAXAAiAFwAIgApACAAKgAgACgATQBvAG4AdABoACAAPQAgAFwAIgBcACIAKQApACAAKwAgAE4AKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAMAApACkAKQAgAD0AIAAwACwAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBtAHQAVABpAG0AZQAsACAATABBAE0AQgBEAEEAKABfAHQAaQBtAGUALAAgAF8AcwBoAG8AcgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUARgBtAHQALAAgAEkARgAoAF8AcwBoAG8AcgB0ACwAIABcACIASABIAG0AbQBcACIALAAgAFwAIgBIAEgAbQBtAHMAcwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAXwB0AGkAbQBlACwAIABfAHQAaQBtAGUARgBtAHQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AUgBlAHMAbwBsAHYAZQBNAGkAbABpAHQAYQByAHkAVABaACwAIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAG8AYwBhAGwALAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAFQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBKAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvACAAPgAgADcAMgAwACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBoAGkAZgB0AFQAWgBPACwAIABfAHQAegBvACAALQAgADcAMgAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABOACgAVABpAG0AZQApACAALQAgACgAXwBzAGgAaQBmAHQAVABaAE8AIAAvACAAMQA0ADQAMAApACwAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8AIAA8ACAALQA3ADIAMAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaABpAGYAdABUAFoATwAsACAAXwB0AHoAbwAgACsAIAA3ADIAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATgAoAFQAaQBtAGUAKQAgAC0AIAAoAF8AcwBoAGkAZgB0AFQAWgBPACAALwAgADEANAA0ADAAKQAsACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAGwAaQB0AGEAcgB5AFQAWgBPACwAIABTAEkARwBOACgAXwB0AHoAbwApACAAKgAgAE0AUgBPAFUATgBEACgAQQBCAFMAKABfAHQAegBvACkALAAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGgAaQBmAHQAVABaAE8ALAAgAF8AdAB6AG8AIAAtACAAXwBtAGkAbABpAHQAYQByAHkAVABaAE8ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALAAgAE4AKABUAGkAbQBlACkAIAAtACAAKABfAHMAaABpAGYAdABUAFoATwAgAC8AIAAxADQANAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACwAIABJAE4AVAAoAF8AbQBpAGwAaQB0AGEAcgB5AFQAWgBPACAALwAgADYAMAApACAAKwAgADEAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAGwAaQB0AGEAcgB5AFQAWgAsACAAQwBIAE8ATwBTAEUAKABfAGkAZAB4ACwAIABcACIAWQBcACIALAAgAFwAIgBYAFwAIgAsACAAXAAiAFcAXAAiACwAIABcACIAVgBcACIALAAgAFwAIgBVAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAUwBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAFEAXAAiACwAIABcACIAUABcACIALAAgAFwAIgBPAFwAIgAsACAAXAAiAE4AXAAiACwAIABcACIAWgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQwBcACIALAAgAFwAIgBEAFwAIgAsACAAXAAiAEUAXAAiACwAIABcACIARgBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAEgAXAAiACwAIABcACIASQBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIATQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAGwAaQB0AGEAcgB5AFQAWgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGYAbgBJAG4AdgBhAGwAaQBkAFAAYQByAGEAbQBzACgAKQAsACAAewBcACIAIwBOAFUATQAhACEAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAGwAaQB0AGEAcgB5AFQAaQBtAGUALAAgAGYAbgBSAGUAcwBvAGwAdgBlAE0AaQBsAGkAdABhAHIAeQBUAFoAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBEAGEAdABlACwAIABJAEYAKABZAGUAYQByACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAEUAUwBPAEwAVgBFAF8ARABBAFQARQAoADIAMAAwADAALAAgADMALAAgAEQAYQB5ACwAIABJAE4ARABFAFgAKABfAG0AaQBsAGkAdABhAHIAeQBUAGkAbQBlACwAIAAxACwAIAAxACkALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIARQBTAE8ATABWAEUAXwBEAEEAVABFACgAWQBlAGEAcgAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAASQBOAEQARQBYACgAXwBtAGkAbABpAHQAYQByAHkAVABpAG0AZQAsACAAMQAsACAAMQApACwAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB5ACwAIABUAEUAWABUACgASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADMAKQAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABZAGUAYQByACAAPQAgAFwAIgBcACIALAAgAEMATwBOAEMAQQBUACgAXwBzAEQAYQB5ACwAIABmAG4ARgBtAHQAVABpAG0AZQAoAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAA0ACkALAAgADEAKQAsACAASQBOAEQARQBYACgAXwBtAGkAbABpAHQAYQByAHkAVABpAG0AZQAsACAAMQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFQAaQBtAGUALAAgAGYAbgBGAG0AdABUAGkAbQBlACgASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADQAKQAsACAATgAoAFMAaABvAHIAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBNAG8AbgB0AGgALAAgAFUAUABQAEUAUgAoAE0ATwBOAFQASABfAE4AQQBNAEUAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMgApACwAIAAxACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAWQAsACAAUgBJAEcASABUACgAVABFAFgAVAAoAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAAxACkALAAgAFwAIgAwADAAXAAiACkALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBPAE4AQwBBAFQAKABfAHMARABhAHkALAAgAF8AcwBUAGkAbQBlACwAIABJAE4ARABFAFgAKABfAG0AaQBsAGkAdABhAHIAeQBUAGkAbQBlACwAIAAxACwAIAAyACkALAAgAF8AcwBNAG8AbgB0AGgALAAgAF8AcwBZAFkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwBcAG4AIwAgAEMATwBOAFYARQBSAFMASQBPAE4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAE8ARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAeQAgAE4AdQBtAGIAZQByACAAYQBuAGQAIABsAG8AYwBhAGwAIAB0AGkAbQBlACAAZgBvAHIAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAHAAcgBvAHYAaQBkAGUAZAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAfAAgAEwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AIAAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgAEQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkALAAgAGkAbQBwAGwAaQBjAGkAdABsAHkAIABjAG8AbgB2AGUAcgB0AHMAIAB0AG8AIABFAHgAYwBlAGwAIAB0AGkAbQBlACAAZABhAHQAYQAgAHQAeQBwAGUALgBcAG4AIAAzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgACAAIAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwBcAG4AIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgACAAIAAgAHwAIABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBPAEQAYQB0AGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAB0AGUAeAB0ACAAIAAgAHwAIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAuAFwAbgBbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAHIAbwBtACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBPAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAEkAUwBPAEQAYQB0AGUALAAgAFsARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEkAUwBPAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8ARABhAHQAZQAsACAAUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACgASQBTAE8ARABhAHQAZQAsACAARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuACwAIABJAEYAKABJAFMARQBSAFIATwBSACgASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAxACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABKAFUATABJAEEATgBfAEQAQQBZAF8ATgBVAE0AQgBFAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGkAcwBvAEQAYQB0AGUALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlACwAIABJAEYAKABJAE4ARABFAFgAKABfAGkAcwBvAEQAYQB0AGUALAAgADEALAAgADQAKQAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAEUAUgBSAE8AUgAoAE0ATwBEACgASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAA0ACkALAAgADEAKQAsACAAewAjAFYAQQBMAFUARQAhAH0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAYQByAHIAeQBEAGEAeQAsACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABJAE4ARABFAFgAKABfAGkAcwBvAEQAYQB0AGUALAAgADEALAAgADQAKQApACkALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAANAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAEoARABOACwAIABJAEYARQBSAFIATwBSACgAXwBKAEQATgAgACsAIABfAGMAYQByAHIAeQBEAGEAeQAsACAAewAjAFYAQQBMAFUARQAhAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegAsACAASQBGAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAANQApACwAIAB7ACMAVgBBAEwAVQBFACEAfQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwByAEoARABOACwAIABfAHQAaQBtAGUALAAgAF8AdAB6ACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBEAEEAVABFAF8AVABPAF8ASgBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlACAAZgBvAHIAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAHAAcgBvAHYAaQBkAGUAZAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgBcAG4ATgBvAHQAZQAgAGEAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAIABpAHMAIABhAGwAdwBhAHkAcwAgAGkAbgAgAFUAVABDAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAE8ARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHQAZQB4AHQAIAAgACAAfAAgAEkAUwBPACAAZgBvAHIAbQBhAHQAdABlAGQAIABkAGEAdABlACwAIAB0AGkAbQBlACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0AC4AIABJAGYAIAB0AGkAbQBlACAAaQBzACAAbwBtAG0AaQB0AHQAZQBkACwAIABhAHMAcwB1AG0AZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAdABvACAAYgBlACAAYQB0ACAAMAAwADoAMAAwAC4AIABJAGYAIAB0AGkAbQBlACAAegBvAG4AZQAgAGkAcwAgAG8AbQBtAGkAdAB0AGUAZAAsACAAYQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDAC4AXABuAFsARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAgAHwAIABzAHcAaQB0AGMAaAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAcgBvAG0AIAB0AGgAZQAgAEoAdQBsAGkAYQBuACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAEQAZQBmAGEAdQBsAHQAIABpAHMAIABHAHIAZQBnAG8AcgBpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAYwBhAGwAZQBuAGQAYQByAC4AIABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAE8ARABBAFQARQBfAFQATwBfAEoARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEkAUwBPAEQAYQB0AGUALAAgAFsARgByAG8AbQBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEkARgAoAEkAUwBPAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBqAGQAbgBMAG8AYwBhAGwALAAgAEkAUwBPAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAoAEkAUwBPAEQAYQB0AGUALAAgAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBKAEQAQQBUAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBOAEQARQBYACgAXwBqAGQAbgBMAG8AYwBhAGwALAAsACAAMwApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAbgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAZgBvAHIAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAHAAcgBvAHYAaQBkAGUAZAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQALgBcAG4ATgBvAHQAZQAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdQBzAGUAcwAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAB8ACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AIAAgACAAfAAgAFsAMQAuAC4AMgA5ADUAOAA0ADYANgApACAAfAAgADEAOQAwADAALQAwADEALQAwADEALgAuADkAOQA5ADkALQAxADIALQAzADEAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBEAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAdABlAHgAdAAgACAAIAB8ACAASQBTAE8AIABmAG8AcgBtAGEAdAB0AGUAZAAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQALgAgAEkAZgAgAHQAaQBtAGUAIABpAHMAIABvAG0AbQBpAHQAdABlAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAGEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABhAHQAIAAwADAAOgAwADAALgBcAG4AWwBJAG4AYwBsAHUAZABlAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAHMAdwBpAHQAYwBoACAAfAAgAFIAZQB0AHUAcgBuACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAHAAYQByAHMAZQBkACAAZgByAG8AbQAgAHQAaABlACAASQBTAE8ARABhAHQAZQAuAFwAbgBbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAB8ACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAHIAbwBtACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMATwBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgASQBTAE8ARABhAHQAZQAsACAAWwBJAG4AYwBsAHUAZABlAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKABJAFMATwBEAGEAdABlACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAHQAdQByAG4AVABaAE8ALAAgAE4AKABJAG4AYwBsAHUAZABlAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgAsACAATgAoAEYAcgBvAG0ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8ARABhAHQAZQAsACAAUABBAFIAUwBFAF8ASQBTAE8AXwBEAEEAVABFACgASQBTAE8ARABhAHQAZQAsACAAXwBqAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMARQBSAFIATwBSACgASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAxACkAKQAsACAASQBGACgAXwByAGUAdAB1AHIAbgBUAFoATwAsACAASABTAFQAQQBDAEsAKAB7ACMAVgBBAEwAVQBFACEAfQAsACAAVABBAEsARQAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAALQAxACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGcARABhAHQAZQAsACAASQBGACgAXwBqAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBVAEwASQBBAE4AXwBUAE8AXwBHAFIARQBHAE8AUgBJAEEATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGkAcwBvAEQAYQB0AGUALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEEASwBFACgAXwBpAHMAbwBEAGEAdABlACwAIAAxACwAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUARABhAHQAZQAsACAARABBAFQARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGcARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AZwBEAGEAdABlACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBnAEQAYQB0AGUALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBEAGEAdABlAFQAaQBtAGUALAAgAF8AZQBEAGEAdABlACAAKwAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHIAZQB0AHUAcgBuAFQAWgBPACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAEQAYQB0AGUAVABpAG0AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARABhAHQAZQAsACAAMQAsACAANQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAEQAYQB0AGUAVABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABBAFQARQBfAFQATwBfAEkAUwBPAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAASQBTAE8AIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAAYQAgACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAHQAZQB4AHQAIAB8ACAASQBTAE8AIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAYQB0AGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AIABOAG8AdABlACAASgB1AGwAaQBhAG4AIABEAGEAdABlAHMAIABhAHIAZQAgAGEAbAB3AGEAeQBzACAAaQBuACAAVQBUAEMALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwALAAgAGQAZQBmAGEAdQBsAHQAIABpAHMAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAARgBsAG8AYQB0AHMAIABmAHIAbwBtACAAbQBpAG4AdQB0AGUAIAB0AG8AIABtAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAFMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgBbAE4AbwBaAHUAbAB1AF0AIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFsAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGYAbwByACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABBAFQARQBfAFQATwBfAEkAUwBPAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABKAEQAYQB0AGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AWgB1AGwAdQBdACwAIABbAFQAbwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABfAHIARABhAHQAZQAsACAAQwBBAEwARQBOAEQAQQBSAF8ARgBSAE8ATQBfAEoARABBAFQARQAoAEoARABhAHQAZQAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAEkAUwBPAF8ARABBAFQARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AcgBEAGEAdABlACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwByAEQAYQB0AGUALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABQAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAG8AWgB1AGwAdQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAG8ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBJAFMATwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAEkAUwBPACAAZgBvAHIAbQBhAHQAIABkAGEAdABlACwAIAB0AGkAbQBlACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAZgBvAHIAIAB0AGgAZQAgAHAAcgBvAHYAaQBkAGUAZAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIAB0AGUAeAB0ACAAfAAgAEkAUwBPACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATABvAGMAYQBsAEoARABOACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAfAAgAEwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAuAFwAbgBMAG8AYwBhAGwAVABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAATABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AZgAgAGEAIABkAGEAeQAgAG8AcgAgAEUAeABjAGUAbAAgAFQAaQBtAGUAIABkAGEAdABhACAAdAB5AHAAZQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAIAAgACAAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbAAsACAAZABlAGYAYQB1AGwAdAAgAGkAcwAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABGAGwAbwBhAHQAcwAgAGYAcgBvAG0AIABtAGkAbgB1AHQAZQAgAHQAbwAgAG0AaQBsAGwAaQBzAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANQAgAC0AIABNAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuAFsATgBvAFoAdQBsAHUAXQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABVAHMAZQAgACsAMAAwADoAMAAwACAAaQBuAHMAdABlAGEAZAAgAG8AZgAgAFoAIABmAG8AcgAgAFUAVABDACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4AWwBUAG8ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgACAAIAAgACAAfAAgAEMAYQBsAGMAdQBsAGEAdABlACAAaQBuACAAdABoAGUAIABKAHUAbABpAGEAbgAgAHAAcgBvAGwAZQBwAHQAaQBjACAAYwBhAGwAZQBuAGQAYQByAC4AIABEAGUAZgBhAHUAbAB0ACAAaQBzACAARwByAGUAZwBvAHIAaQBhAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABOAF8ATABPAEMAQQBMAF8AVABPAF8ASQBTAE8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEwAbwBjAGEAbABKAEQATgAsACAATABvAGMAYQBsAFQAaQBtAGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AWgB1AGwAdQBdACwAIABbAFQAbwBKAHUAbABpAGEAbgBDAGEAbABlAG4AZABhAHIAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABfAGoAZABhAHQAZQAsACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBKAEQAQQBUAEUAKABMAG8AYwBhAGwASgBEAE4ALAAgAEwAbwBjAGEAbABUAGkAbQBlACwAIABOACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASgBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAoAF8AagBkAGEAdABlACwAIABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAFAAcgBlAGMAaQBzAGkAbwBuACwAIABOAG8AWgB1AGwAdQAsACAAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBJAFMATwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAEkAUwBPACAAZgBvAHIAbQBhAHQAIABkAGEAdABlACwAIAB0AGkAbQBlACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAZgByAG8AbQAgAGEAbgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAHQAZQB4AHQAIAB8ACAASQBTAE8AIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAEQAYQB0AGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAFsALQA5ADAAMAAuAC4AOQAwADAAXQAgAHwAIABBAHMAcwB1AG0AZQBkACAAdABvACAAYgBlACAAVQBUAEMAIABpAGYAIABvAG0AbQBpAHQAdABlAGQALgBcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwALAAgAGQAZQBmAGEAdQBsAHQAIABpAHMAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAARgBsAG8AYQB0AHMAIABmAHIAbwBtACAAbQBpAG4AdQB0AGUAIAB0AG8AIABtAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAFMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgBbAE4AbwBaAHUAbAB1AF0AIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAIAAgACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFsAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAAgACAAIAAgAHwAIABDAGEAbABjAHUAbABhAHQAZQAgAGkAbgAgAHQAaABlACAASgB1AGwAaQBhAG4AIABwAHIAbwBsAGUAcAB0AGkAYwAgAGMAYQBsAGUAbgBkAGEAcgAuACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAEcAcgBlAGcAbwByAGkAYQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcAByAG8AbABlAHAAdABpAGMAIABjAGEAbABlAG4AZABhAHIALgAgAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBJAFMATwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgARQBEAGEAdABlACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsATgBvAFoAdQBsAHUAXQAsACAAWwBUAG8ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAF0ALABcAG4AIAAgACAAIABJAEYAKABFAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEUARABhAHQAZQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAAWQBFAEEAUgAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0ATwBOAFQASAAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAARABBAFkAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBEAGEAdABlACwAIABJAEYAKABOACgAVABvAEoAdQBsAGkAYQBuAEMAYQBsAGUAbgBkAGEAcgApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByAEMARQAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARwBSAEUARwBPAFIASQBBAE4AXwBUAE8AXwBKAFUATABJAEEATgAoAF8AeQBlAGEAcgBDAEUALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATQBPAEQAKABFAEQAYQB0AGUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ASQBTAE8AXwBEAEEAVABFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUAByAGUAYwBpAHMAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AbwBaAHUAbAB1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAG8ASgB1AGwAaQBhAG4AQwBhAGwAZQBuAGQAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBKAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUAIABmAG8AcgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABKAHUAbABpAGEAbgAgAEQAYQB0AGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEUARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAAgACAAIAAgAHwAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAWwAtADkAMAAwAC4ALgA5ADAAMABdACAAfAAgAEEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABVAFQAQwAgAGkAZgAgAG8AbQBtAGkAdAB0AGUAZAAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBKAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABFAEQAYQB0AGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKABFAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEUARABhAHQAZQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAAWQBFAEEAUgAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0ATwBOAFQASAAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAARABBAFkAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATQBPAEQAKABFAEQAYQB0AGUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEoAVQBMAEkAQQBOAF8ARABBAFQARQAoAF8AeQBlAGEAcgBDAEUALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABfAHQAaQBtAGUALAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARQBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIAIABhAG4AZAAgAGwAbwBjAGEAbAAgAHQAaQBtAGUAIABmAG8AcgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAaQBuAHQAZQBnAGUAcgAgACAAIAAgACAAIAAgACAAfAAgAEwAbwBjAGEAbAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgBcAG4AIAAyACAAfAAgAGQAZQBjAGkAbQBhAGwAIABbADAALgAuADEAKQAgAHwAIABMAG8AYwBhAGwAIAB0AGkAbQBlACAAbwBmACAAZABhAHkALgAgAEQAZQBjAGkAbQBhAGwAIABmAHIAYQBjAHQAaQBvAG4AIABvAGYAIABhACAAZABhAHkALAAgAGkAbQBwAGwAaQBjAGkAdABsAHkAIABjAG8AbgB2AGUAcgB0AHMAIAB0AG8AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAHQAeQBwAGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEUARABhAHQAZQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEUARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACAAPQAgAEwAQQBNAEIARABBACgARQBEAGEAdABlACwAXABuACAAIAAgACAASQBGACgARQBEAGEAdABlACAAPQAgAFwAIgBcACIALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAIABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARQBEAGEAdABlACkAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0ALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAFkARQBBAFIAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABNAE8ATgBUAEgAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAEQAQQBZACgARQBEAGEAdABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALAAgAE0ATwBEACgARQBEAGEAdABlACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuACwAIABKAFUATABJAEEATgBfAEQAQQBZAF8ATgBVAE0AQgBFAFIAKABfAHkAZQBhAHIAQwBFACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGoAZABuACwAIABfAHQAaQBtAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABOAF8ATABPAEMAQQBMAF8AVABPAF8ARQBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAbgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAZgBvAHIAIAB0AGgAZQAgAHAAcgBvAHYAaQBkAGUAZAAgAEoAdQBsAGkAYQBuACAARABhAHkAIABOAHUAbQBiAGUAcgAgAGEAbgBkACAAbABvAGMAYQBsACAAdABpAG0AZQAuAFwAbgBcAG4ATwB1AHQAcAB1AHQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAMQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBMAG8AYwBhAGwASgBEAE4AIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABMAG8AYwBhAGwAIABKAHUAbABpAGEAbgAgAEQAYQB5ACAATgB1AG0AYgBlAHIALgBcAG4ATABvAGMAYQBsAFQAaQBtAGUAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATABvAGMAYQBsACAAdABpAG0AZQAgAG8AZgAgAGQAYQB5ACAAYQBzACAAZABlAGMAaQBtAGEAbAAgAGYAcgBhAGMAdABpAG8AbgAgAG8AZgAgAGEAIABkAGEAeQAgAG8AcgAgAEUAeABjAGUAbAAgAEQAYQB0AGUALwBUAGkAbQBlACAAdAB5AHAAZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEUARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEwAbwBjAGEAbABKAEQATgAsACAATABvAGMAYQBsAFQAaQBtAGUALABcAG4AIAAgACAAIABJAEYAKAAoAEwAbwBjAGEAbABKAEQATgAgAD0AIABcACIAXAAiACkAIAAqACAAKABMAG8AYwBhAGwAVABpAG0AZQAgAD0AIABcACIAXAAiACkALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATABvAGMAYQBsAEoARABOACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEwAbwBjAGEAbABUAGkAbQBlACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABMAG8AYwBhAGwASgBEAE4ALAAgADEAKQAgAD4AIAAwACwAIAB7ACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBEAGEAdABlACwAIABKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAKABMAG8AYwBhAGwASgBEAE4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAEQAYQB0AGUALAAgAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMQApACwAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMgApACwAIABJAE4ARABFAFgAKABfAHIARABhAHQAZQAsACAAMQAsACAAMwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBEAGEAdABlACAAKwAgAEwAbwBjAGEAbABUAGkAbQBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBKAEQAQQBUAEUAXwBUAE8AXwBFAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQBuACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUAIABmAG8AcgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAASgB1AGwAaQBhAG4AIABEAGEAdABlAC4AXABuAFwAbgBPAHUAdABwAHUAdABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAxACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEoARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAIAAgACAAIAB8ACAASgB1AGwAaQBhAG4AIABEAGEAdABlAFwAbgBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABbAC0AOQAwADAALgAuADkAMAAwAF0AIAB8ACAAQQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAFUAVABDACAAaQBmACAAbwBtAG0AaQB0AHQAZQBkAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEoARABBAFQARQBfAFQATwBfAEUARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEoARABhAHQAZQAsACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAXABuACAAIAAgACAASQBGACgASgBEAGEAdABlACAAPQAgAFwAIgBcACIALAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASgBEAGEAdABlACkAKQAsACAAewAjAFYAQQBMAFUARQAhAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGoAZABuAEwAbwBjAGEAbAAsACAASgBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAKABKAEQAYQB0AGUALAAgAE4AKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBFAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACAAMQAsACAAMQApACwAIABJAE4ARABFAFgAKABfAGoAZABuAEwAbwBjAGEAbAAsACAAMQAsACAAMgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBVAFMARABBAFQARQBfAFQATwBfAEUARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhAG4AIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAgAGYAbwByACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABVAFMAIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABFAHgAYwBlAGwAIABEAGEAdABlAC8AVABpAG0AZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVQBTAEQAYQB0AGUAIAB8ACAAdABlAHgAdAAgAHwAIABEAGEAdABlACAAaQBuACAAVQBTACAAZgBvAHIAbQBhAHQAIABpAGUALgAgAE0ATQAvAGQAZAAvAHkAeQB5AHkAIABoAGgAOgBtAG0AOgBzAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFUAUwBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAVQBTAEQAYQB0AGUALABcAG4AIAAgACAAIABJAEYAKABVAFMARABhAHQAZQAgAD0AIABcACIAXAAiACwAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFUAUwBEAGEAdABlACwAIABQAEEAUgBTAEUAXwBVAFMAXwBEAEEAVABFACgAVQBTAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALAAgAEkATgBEAEUAWAAoAF8AVQBTAEQAYQB0AGUALAAgADEALAAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAEkATgBEAEUAWAAoAF8AVQBTAEQAYQB0AGUALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUARABhAHQAZQAsACAASQBGACgAXwB5AGUAYQByACAAPQAgAFwAIgBcACIALAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAEEAVABFACgAXwB5AGUAYQByACwAIABJAE4ARABFAFgAKABfAFUAUwBEAGEAdABlACwAIAAxACwAIAAyACkALAAgAEkATgBEAEUAWAAoAF8AVQBTAEQAYQB0AGUALAAgADEALAAgADMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBEAGEAdABlACAAKwAgAF8AdABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEUARABBAFQARQBfAFQATwBfAFUAUwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABVAFMAIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABmAG8AcgAgAHQAaABlACAAcAByAG8AdgBpAGQAZQBkACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AXABuAE8AdQB0AHAAdQB0AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgADEAIAB8ACAAdABlAHgAdAAgAHwAIABVAFMAIABmAG8AcgBtAGEAdAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBFAEQAYQB0AGUAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgACAAIAAgACAAIAB8ACAARQB4AGMAZQBsACAARABhAHQAZQAvAFQAaQBtAGUALgBcAG4AWwBTAGUAcABhAHIAYQB0AG8AcgBdACAAfAAgAGMAaABhAHIAIABbACwALgAvAC0AXwBdACAAfAAgAEMAaABhAHIAYQBjAHQAZQByACAAcwBlAHAAYQByAGEAdABvAHIAIABmAG8AcgAgAGQAYQB0AGUAIABlAGwAZQBtAGUAbgB0AHMALgBcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAfAAgAGkAbgB0AGUAZwBlAHIAIAAgACAAIAAgACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwALAAgAGQAZQBmAGEAdQBsAHQAIABpAHMAIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAARgBsAG8AYQB0AHMAIABmAHIAbwBtACAAbQBpAG4AdQB0AGUAIAB0AG8AIABtAGkAbABsAGkAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAFMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAGwAbABpAHMAZQBjAG8AbgBkAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBFAEQAQQBUAEUAXwBUAE8AXwBVAFMARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAEUARABhAHQAZQAsACAAWwBTAGUAcABhAHIAYQB0AG8AcgBdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABJAEYAKABFAEQAYQB0AGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEUARABhAHQAZQApACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAAWQBFAEEAUgAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAE0ATwBOAFQASAAoAEUARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAARABBAFkAKABFAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAATQBPAEQAKABFAEQAYQB0AGUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVQBTAF8ARABBAFQARQAoAF8AeQBlAGEAcgBDAEUALAAgAF8AbQBvAG4AdABoACwAIABfAGQAYQB5ACwAIABfAHQAaQBtAGUALAAgAFMAZQBwAGEAcgBhAHQAbwByACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABFAE4ARAAgAEMAQQBMAEUATgBEAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEMAQQBMAEUATgBEAEEAUgAuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBZAEUAQQBSAF8AQwBPAE0ATQBPAE4AXwBFAFIAQQAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEEAWQBTAF8ASQBOAF8AWQBFAEEAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEEAWQBTAF8ASQBOAF8ATQBPAE4AVABIACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEoAVQBMAEkAQQBOAF8ARABBAFkAXwBOAFUATQBCAEUAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQATgBfAFQATwBfAEMAQQBMAEUATgBEAEEAUgBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAE4AXwBUAE8AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBPAFIARABJAE4AQQBMAF8ARABBAFQARQBfAFQATwBfAEoARABOACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEcAUgBFAEcATwBSAEkAQQBOAF8AVABPAF8ASgBVAEwASQBBAE4AIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBVAEwASQBBAE4AXwBUAE8AXwBHAFIARQBHAE8AUgBJAEEATgAiACwAIgBDAEEATABFAE4ARABBAFIALgBTAEUAQwBVAEwAQQBSAF8ARABJAEYARgBFAFIARQBOAEMARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEEAWQBfAE8ARgBfAFcARQBFAEsAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4AQwBPAE4AVgBFAFIAVABfAFcARQBFAEsARABBAFkAXwBOAFUATQBCAEUAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBXAEUARQBLAEQAQQBZAF8ATwBGAF8ATQBPAE4AVABIACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFcARQBFAEsAUwBfAEkATgBfAFkARQBBAFIAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4AVwBFAEUASwBfAEQAQQBUAEUAXwBUAE8AXwBKAEQATgAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQATgBfAFQATwBfAFcARQBFAEsAXwBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFcARQBFAEsAXwBOAFUATQBCAEUAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEEAWQBTAF8ASQBOAF8AUQBVAEEAUgBUAEUAUgAiACwAIgBDAEEATABFAE4ARABBAFIALgBRAFUAQQBSAFQARQBSAF8ARABBAFQARQBfAFQATwBfAEoARABOACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEoARABOAF8AVABPAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAE4AXwBVAFQAQwBfAFQATwBfAEoARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEoARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAFUAVABDACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEoARABBAFQARQBfAFQATwBfAEoARABOAF8ATABPAEMAQQBMACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEoAVQBMAEkAQQBOAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBDAEEATABFAE4ARABBAFIAXwBGAFIATwBNAF8ASgBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFQASQBNAEUAXwBEAEUAQwBJAE0AQQBMAF8AVABPAF8ASABNAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASABNAFMAXwBUAE8AXwBUAEkATQBFAF8ARABFAEMASQBNAEEATAAiACwAIgBDAEEATABFAE4ARABBAFIALgBBAEQARABfAFQASQBNAEUAUwBQAEEATgAiACwAIgBDAEEATABFAE4ARABBAFIALgBSAEUAUwBPAEwAVgBFAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEUATABUAEEAXwBIAE8AVQBSAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8ATQBJAE4AVQBUAEUAUwAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEUATABUAEEAXwBTAEUAQwBPAE4ARABTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAEgATwBVAFIAXwBNAEkATgBfAFMARQBDACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAEQAQQBZAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8AVwBFAEUASwBTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAE0ATwBOAFQASABTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAFEAVQBBAFIAVABFAFIAUwAiACwAIgBDAEEATABFAE4ARABBAFIALgBEAEUATABUAEEAXwBZAEUAQQBSAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8AVwBFAEUASwBfAEQAQQBZAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8AWQBFAEEAUgBfAFcARQBFAEsAXwBEAEEAWQBTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEQARQBMAFQAQQBfAE0ATwBOAFQASABfAEQAQQBZAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8AUQBVAEEAUgBUAEUAUgBfAEQAQQBZAFMAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARABFAEwAVABBAF8ASQBOAFQARQBSAFYAQQBMACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEUAWABUAEUATgBUAF8ATwBGAF8ARABBAFkAUwAiACwAIgBDAEEATABFAE4ARABBAFIALgBFAFgAVABFAE4AVABfAE8ARgBfAFcARQBFAEsAUwAiACwAIgBDAEEATABFAE4ARABBAFIALgBFAFgAVABFAE4AVABfAE8ARgBfAE0ATwBOAFQASABTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEUAWABUAEUATgBUAF8ATwBGAF8AUQBVAEEAUgBUAEUAUgBTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEUAWABUAEUATgBUAF8ATwBGAF8AWQBFAEEAUgBTACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFAAQQBSAFMARQBfAEkAUwBPAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBQAEEAUgBTAEUAXwBXAEUARQBLAEQAQQBZACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFAAQQBSAFMARQBfAE0ATwBOAFQASAAiACwAIgBDAEEATABFAE4ARABBAFIALgBQAEEAUgBTAEUAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFAAQQBSAFMARQBfAEwASQBUAEUAUgBBAFIAWQBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4AUABBAFIAUwBFAF8AVQBTAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBQAEEAUgBTAEUAXwBNAEkATABfAEQAVABHACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFcARQBFAEsARABBAFkAXwBOAEEATQBFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAE0ATwBOAFQASABfAE4AQQBNAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARgBPAFIATQBBAFQAXwBJAFMATwBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARgBPAFIATQBBAFQAXwBMAEkAVABFAFIAQQBSAFkAXwBZAEUAQQBSACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEYATwBSAE0AQQBUAF8ATABJAFQARQBSAEEAUgBZAF8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBGAE8AUgBNAEEAVABfAFUAUwBfAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARgBPAFIATQBBAFQAXwBNAEkATABfAEQAVABHACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEkAUwBPAEQAQQBUAEUAXwBUAE8AXwBKAEQATgBfAEwATwBDAEEATAAiACwAIgBDAEEATABFAE4ARABBAFIALgBJAFMATwBEAEEAVABFAF8AVABPAF8ASgBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEkAUwBPAEQAQQBUAEUAXwBUAE8AXwBFAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBKAEQATgBfAEwATwBDAEEATABfAFQATwBfAEkAUwBPAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARQBEAEEAVABFAF8AVABPAF8ASQBTAE8ARABBAFQARQAiACwAIgBDAEEATABFAE4ARABBAFIALgBFAEQAQQBUAEUAXwBUAE8AXwBKAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ARQBEAEEAVABFAF8AVABPAF8ASgBEAE4AXwBMAE8AQwBBAEwAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAE4AXwBMAE8AQwBBAEwAXwBUAE8AXwBFAEQAQQBUAEUAIgAsACIAQwBBAEwARQBOAEQAQQBSAC4ASgBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAFUAUwBEAEEAVABFAF8AVABPAF8ARQBEAEEAVABFACIALAAiAEMAQQBMAEUATgBEAEEAUgAuAEUARABBAFQARQBfAFQATwBfAFUAUwBEAEEAVABFACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIARABNAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
